--- a/UR_CoverSheets.xlsx
+++ b/UR_CoverSheets.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UR Cover Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5222" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9441" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -2768,7 +2769,7 @@
       </c>
       <c r="F1" s="73" t="inlineStr">
         <is>
-          <t>01-02-2020</t>
+          <t>01-05-2020</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3224,11 @@
       <c r="A23" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="B23" s="127" t="n"/>
+      <c r="B23" s="127" t="inlineStr">
+        <is>
+          <t>test testtt</t>
+        </is>
+      </c>
       <c r="C23" s="128" t="n"/>
       <c r="D23" s="129" t="n"/>
       <c r="E23" s="121" t="n"/>
@@ -3238,6 +3243,1712 @@
     <row r="24" ht="19.5" customHeight="1" s="68">
       <c r="A24" s="130" t="n"/>
       <c r="B24" s="131" t="n"/>
+      <c r="D24" s="132" t="n"/>
+      <c r="E24" s="133" t="n"/>
+      <c r="G24" s="132" t="n"/>
+      <c r="H24" s="130" t="n"/>
+    </row>
+    <row r="25" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A25" s="134" t="n"/>
+      <c r="B25" s="135" t="n"/>
+      <c r="C25" s="118" t="n"/>
+      <c r="D25" s="119" t="n"/>
+      <c r="E25" s="135" t="n"/>
+      <c r="F25" s="118" t="n"/>
+      <c r="G25" s="119" t="n"/>
+      <c r="H25" s="134" t="n"/>
+    </row>
+    <row r="26" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A26" s="136" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="127" t="n"/>
+      <c r="C26" s="128" t="n"/>
+      <c r="D26" s="129" t="n"/>
+      <c r="E26" s="137" t="n"/>
+      <c r="F26" s="128" t="n"/>
+      <c r="G26" s="129" t="n"/>
+      <c r="H26" s="137" t="n"/>
+    </row>
+    <row r="27" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A27" s="133" t="n"/>
+      <c r="B27" s="131" t="n"/>
+      <c r="D27" s="132" t="n"/>
+      <c r="E27" s="133" t="n"/>
+      <c r="G27" s="132" t="n"/>
+      <c r="H27" s="130" t="n"/>
+    </row>
+    <row r="28" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A28" s="135" t="n"/>
+      <c r="B28" s="135" t="n"/>
+      <c r="C28" s="118" t="n"/>
+      <c r="D28" s="119" t="n"/>
+      <c r="E28" s="135" t="n"/>
+      <c r="F28" s="118" t="n"/>
+      <c r="G28" s="119" t="n"/>
+      <c r="H28" s="134" t="n"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1" s="68">
+      <c r="A29" s="136" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="127" t="n"/>
+      <c r="C29" s="128" t="n"/>
+      <c r="D29" s="129" t="n"/>
+      <c r="E29" s="121" t="n"/>
+      <c r="F29" s="128" t="n"/>
+      <c r="G29" s="129" t="n"/>
+      <c r="H29" s="121" t="n"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1" s="68">
+      <c r="A30" s="133" t="n"/>
+      <c r="B30" s="131" t="n"/>
+      <c r="D30" s="132" t="n"/>
+      <c r="E30" s="133" t="n"/>
+      <c r="G30" s="132" t="n"/>
+      <c r="H30" s="130" t="n"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" s="68">
+      <c r="A31" s="135" t="n"/>
+      <c r="B31" s="135" t="n"/>
+      <c r="C31" s="118" t="n"/>
+      <c r="D31" s="119" t="n"/>
+      <c r="E31" s="135" t="n"/>
+      <c r="F31" s="118" t="n"/>
+      <c r="G31" s="119" t="n"/>
+      <c r="H31" s="134" t="n"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1" s="68">
+      <c r="A32" s="136" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="127" t="n"/>
+      <c r="C32" s="128" t="n"/>
+      <c r="D32" s="129" t="n"/>
+      <c r="E32" s="121" t="n"/>
+      <c r="F32" s="128" t="n"/>
+      <c r="G32" s="129" t="n"/>
+      <c r="H32" s="121" t="n"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1" s="68">
+      <c r="A33" s="133" t="n"/>
+      <c r="B33" s="131" t="n"/>
+      <c r="D33" s="132" t="n"/>
+      <c r="E33" s="133" t="n"/>
+      <c r="G33" s="132" t="n"/>
+      <c r="H33" s="130" t="n"/>
+    </row>
+    <row r="34" ht="18.75" customHeight="1" s="68">
+      <c r="A34" s="135" t="n"/>
+      <c r="B34" s="135" t="n"/>
+      <c r="C34" s="118" t="n"/>
+      <c r="D34" s="119" t="n"/>
+      <c r="E34" s="135" t="n"/>
+      <c r="F34" s="118" t="n"/>
+      <c r="G34" s="119" t="n"/>
+      <c r="H34" s="134" t="n"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1" s="68">
+      <c r="A35" s="138" t="n"/>
+      <c r="B35" s="139" t="n"/>
+      <c r="C35" s="139" t="n"/>
+      <c r="D35" s="139" t="n"/>
+      <c r="E35" s="140" t="n"/>
+      <c r="F35" s="140" t="n"/>
+      <c r="G35" s="140" t="n"/>
+      <c r="H35" s="140" t="n"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1" s="68">
+      <c r="A36" s="138" t="n"/>
+      <c r="B36" s="141" t="n"/>
+      <c r="C36" s="141" t="n"/>
+      <c r="D36" s="141" t="n"/>
+      <c r="E36" s="140" t="n"/>
+      <c r="F36" s="140" t="n"/>
+      <c r="G36" s="140" t="n"/>
+      <c r="H36" s="140" t="n"/>
+    </row>
+    <row r="37" ht="18.75" customHeight="1" s="68">
+      <c r="B37" s="142" t="inlineStr">
+        <is>
+          <t>WORK ORDERS / DEFECTS</t>
+        </is>
+      </c>
+      <c r="E37" s="76" t="inlineStr">
+        <is>
+          <t>REPAIRS / MATERIAL</t>
+        </is>
+      </c>
+      <c r="G37" s="67" t="n"/>
+      <c r="H37" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I37" s="67" t="n"/>
+      <c r="J37" s="125" t="n"/>
+      <c r="L37" s="67" t="n"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1" s="68">
+      <c r="A38" s="143" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="127" t="n"/>
+      <c r="C38" s="128" t="n"/>
+      <c r="D38" s="129" t="n"/>
+      <c r="E38" s="121" t="n"/>
+      <c r="F38" s="128" t="n"/>
+      <c r="G38" s="129" t="n"/>
+      <c r="H38" s="121" t="n"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1" s="68">
+      <c r="A39" s="130" t="n"/>
+      <c r="B39" s="131" t="n"/>
+      <c r="D39" s="132" t="n"/>
+      <c r="E39" s="133" t="n"/>
+      <c r="G39" s="132" t="n"/>
+      <c r="H39" s="130" t="n"/>
+    </row>
+    <row r="40" ht="18.75" customHeight="1" s="68">
+      <c r="A40" s="134" t="n"/>
+      <c r="B40" s="135" t="n"/>
+      <c r="C40" s="118" t="n"/>
+      <c r="D40" s="119" t="n"/>
+      <c r="E40" s="135" t="n"/>
+      <c r="F40" s="118" t="n"/>
+      <c r="G40" s="119" t="n"/>
+      <c r="H40" s="134" t="n"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1" s="68">
+      <c r="A41" s="143" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" s="127" t="n"/>
+      <c r="C41" s="128" t="n"/>
+      <c r="D41" s="129" t="n"/>
+      <c r="E41" s="121" t="n"/>
+      <c r="F41" s="128" t="n"/>
+      <c r="G41" s="129" t="n"/>
+      <c r="H41" s="121" t="n"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1" s="68">
+      <c r="A42" s="130" t="n"/>
+      <c r="B42" s="131" t="n"/>
+      <c r="D42" s="132" t="n"/>
+      <c r="E42" s="133" t="n"/>
+      <c r="G42" s="132" t="n"/>
+      <c r="H42" s="130" t="n"/>
+    </row>
+    <row r="43" ht="18.75" customHeight="1" s="68">
+      <c r="A43" s="134" t="n"/>
+      <c r="B43" s="135" t="n"/>
+      <c r="C43" s="118" t="n"/>
+      <c r="D43" s="119" t="n"/>
+      <c r="E43" s="135" t="n"/>
+      <c r="F43" s="118" t="n"/>
+      <c r="G43" s="119" t="n"/>
+      <c r="H43" s="134" t="n"/>
+    </row>
+    <row r="44" ht="18.75" customHeight="1" s="68">
+      <c r="A44" s="136" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" s="127" t="n"/>
+      <c r="C44" s="128" t="n"/>
+      <c r="D44" s="129" t="n"/>
+      <c r="E44" s="121" t="n"/>
+      <c r="F44" s="128" t="n"/>
+      <c r="G44" s="129" t="n"/>
+      <c r="H44" s="121" t="n"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1" s="68">
+      <c r="A45" s="133" t="n"/>
+      <c r="B45" s="131" t="n"/>
+      <c r="D45" s="132" t="n"/>
+      <c r="E45" s="133" t="n"/>
+      <c r="G45" s="132" t="n"/>
+      <c r="H45" s="130" t="n"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1" s="68">
+      <c r="A46" s="135" t="n"/>
+      <c r="B46" s="135" t="n"/>
+      <c r="C46" s="118" t="n"/>
+      <c r="D46" s="119" t="n"/>
+      <c r="E46" s="135" t="n"/>
+      <c r="F46" s="118" t="n"/>
+      <c r="G46" s="119" t="n"/>
+      <c r="H46" s="134" t="n"/>
+    </row>
+    <row r="47" ht="18.75" customHeight="1" s="68">
+      <c r="A47" s="136" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" s="127" t="n"/>
+      <c r="C47" s="128" t="n"/>
+      <c r="D47" s="129" t="n"/>
+      <c r="E47" s="121" t="n"/>
+      <c r="F47" s="128" t="n"/>
+      <c r="G47" s="129" t="n"/>
+      <c r="H47" s="121" t="n"/>
+    </row>
+    <row r="48" ht="18.75" customHeight="1" s="68">
+      <c r="A48" s="133" t="n"/>
+      <c r="B48" s="131" t="n"/>
+      <c r="D48" s="132" t="n"/>
+      <c r="E48" s="133" t="n"/>
+      <c r="G48" s="132" t="n"/>
+      <c r="H48" s="130" t="n"/>
+    </row>
+    <row r="49" ht="18.75" customHeight="1" s="68">
+      <c r="A49" s="135" t="n"/>
+      <c r="B49" s="135" t="n"/>
+      <c r="C49" s="118" t="n"/>
+      <c r="D49" s="119" t="n"/>
+      <c r="E49" s="135" t="n"/>
+      <c r="F49" s="118" t="n"/>
+      <c r="G49" s="119" t="n"/>
+      <c r="H49" s="134" t="n"/>
+    </row>
+    <row r="50" ht="18.75" customHeight="1" s="68">
+      <c r="A50" s="144" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" s="127" t="n"/>
+      <c r="C50" s="128" t="n"/>
+      <c r="D50" s="129" t="n"/>
+      <c r="E50" s="121" t="n"/>
+      <c r="F50" s="128" t="n"/>
+      <c r="G50" s="129" t="n"/>
+      <c r="H50" s="121" t="n"/>
+    </row>
+    <row r="51" ht="18.75" customHeight="1" s="68">
+      <c r="A51" s="133" t="n"/>
+      <c r="B51" s="131" t="n"/>
+      <c r="D51" s="132" t="n"/>
+      <c r="E51" s="133" t="n"/>
+      <c r="G51" s="132" t="n"/>
+      <c r="H51" s="130" t="n"/>
+    </row>
+    <row r="52" ht="18.75" customHeight="1" s="68">
+      <c r="A52" s="133" t="n"/>
+      <c r="B52" s="135" t="n"/>
+      <c r="C52" s="118" t="n"/>
+      <c r="D52" s="119" t="n"/>
+      <c r="E52" s="135" t="n"/>
+      <c r="F52" s="118" t="n"/>
+      <c r="G52" s="119" t="n"/>
+      <c r="H52" s="134" t="n"/>
+    </row>
+    <row r="53" ht="18.75" customHeight="1" s="68">
+      <c r="A53" s="143" t="n">
+        <v>10</v>
+      </c>
+      <c r="B53" s="127" t="n"/>
+      <c r="C53" s="128" t="n"/>
+      <c r="D53" s="129" t="n"/>
+      <c r="E53" s="121" t="n"/>
+      <c r="F53" s="128" t="n"/>
+      <c r="G53" s="129" t="n"/>
+      <c r="H53" s="121" t="n"/>
+    </row>
+    <row r="54" ht="18.75" customHeight="1" s="68">
+      <c r="A54" s="130" t="n"/>
+      <c r="B54" s="131" t="n"/>
+      <c r="D54" s="132" t="n"/>
+      <c r="E54" s="133" t="n"/>
+      <c r="G54" s="132" t="n"/>
+      <c r="H54" s="130" t="n"/>
+    </row>
+    <row r="55" ht="18.75" customHeight="1" s="68">
+      <c r="A55" s="134" t="n"/>
+      <c r="B55" s="135" t="n"/>
+      <c r="C55" s="118" t="n"/>
+      <c r="D55" s="119" t="n"/>
+      <c r="E55" s="135" t="n"/>
+      <c r="F55" s="118" t="n"/>
+      <c r="G55" s="119" t="n"/>
+      <c r="H55" s="134" t="n"/>
+    </row>
+    <row r="56" ht="18.75" customHeight="1" s="68">
+      <c r="A56" s="143" t="n">
+        <v>11</v>
+      </c>
+      <c r="B56" s="127" t="n"/>
+      <c r="C56" s="128" t="n"/>
+      <c r="D56" s="129" t="n"/>
+      <c r="E56" s="121" t="n"/>
+      <c r="F56" s="128" t="n"/>
+      <c r="G56" s="129" t="n"/>
+      <c r="H56" s="121" t="n"/>
+    </row>
+    <row r="57" ht="18.75" customHeight="1" s="68">
+      <c r="A57" s="130" t="n"/>
+      <c r="B57" s="131" t="n"/>
+      <c r="D57" s="132" t="n"/>
+      <c r="E57" s="133" t="n"/>
+      <c r="G57" s="132" t="n"/>
+      <c r="H57" s="130" t="n"/>
+    </row>
+    <row r="58" ht="18.75" customHeight="1" s="68">
+      <c r="A58" s="134" t="n"/>
+      <c r="B58" s="135" t="n"/>
+      <c r="C58" s="118" t="n"/>
+      <c r="D58" s="119" t="n"/>
+      <c r="E58" s="135" t="n"/>
+      <c r="F58" s="118" t="n"/>
+      <c r="G58" s="119" t="n"/>
+      <c r="H58" s="134" t="n"/>
+    </row>
+    <row r="59" ht="18.75" customHeight="1" s="68">
+      <c r="A59" s="143" t="n">
+        <v>12</v>
+      </c>
+      <c r="B59" s="127" t="n"/>
+      <c r="C59" s="128" t="n"/>
+      <c r="D59" s="129" t="n"/>
+      <c r="E59" s="121" t="n"/>
+      <c r="F59" s="128" t="n"/>
+      <c r="G59" s="129" t="n"/>
+      <c r="H59" s="121" t="n"/>
+    </row>
+    <row r="60" ht="18.75" customHeight="1" s="68">
+      <c r="A60" s="130" t="n"/>
+      <c r="B60" s="131" t="n"/>
+      <c r="D60" s="132" t="n"/>
+      <c r="E60" s="133" t="n"/>
+      <c r="G60" s="132" t="n"/>
+      <c r="H60" s="130" t="n"/>
+    </row>
+    <row r="61" ht="18.75" customHeight="1" s="68">
+      <c r="A61" s="134" t="n"/>
+      <c r="B61" s="135" t="n"/>
+      <c r="C61" s="118" t="n"/>
+      <c r="D61" s="119" t="n"/>
+      <c r="E61" s="135" t="n"/>
+      <c r="F61" s="118" t="n"/>
+      <c r="G61" s="119" t="n"/>
+      <c r="H61" s="134" t="n"/>
+    </row>
+    <row r="62" ht="18.75" customHeight="1" s="68">
+      <c r="A62" s="143" t="n">
+        <v>13</v>
+      </c>
+      <c r="B62" s="127" t="n"/>
+      <c r="C62" s="128" t="n"/>
+      <c r="D62" s="129" t="n"/>
+      <c r="E62" s="121" t="n"/>
+      <c r="F62" s="128" t="n"/>
+      <c r="G62" s="129" t="n"/>
+      <c r="H62" s="121" t="n"/>
+    </row>
+    <row r="63" ht="18.75" customHeight="1" s="68">
+      <c r="A63" s="130" t="n"/>
+      <c r="B63" s="131" t="n"/>
+      <c r="D63" s="132" t="n"/>
+      <c r="E63" s="133" t="n"/>
+      <c r="G63" s="132" t="n"/>
+      <c r="H63" s="130" t="n"/>
+    </row>
+    <row r="64" ht="18.75" customHeight="1" s="68">
+      <c r="A64" s="134" t="n"/>
+      <c r="B64" s="135" t="n"/>
+      <c r="C64" s="118" t="n"/>
+      <c r="D64" s="119" t="n"/>
+      <c r="E64" s="135" t="n"/>
+      <c r="F64" s="118" t="n"/>
+      <c r="G64" s="119" t="n"/>
+      <c r="H64" s="134" t="n"/>
+    </row>
+    <row r="65" ht="18.75" customHeight="1" s="68">
+      <c r="A65" s="143" t="n">
+        <v>14</v>
+      </c>
+      <c r="B65" s="127" t="n"/>
+      <c r="C65" s="128" t="n"/>
+      <c r="D65" s="129" t="n"/>
+      <c r="E65" s="121" t="n"/>
+      <c r="F65" s="128" t="n"/>
+      <c r="G65" s="129" t="n"/>
+      <c r="H65" s="121" t="n"/>
+    </row>
+    <row r="66" ht="18.75" customHeight="1" s="68">
+      <c r="A66" s="130" t="n"/>
+      <c r="B66" s="131" t="n"/>
+      <c r="D66" s="132" t="n"/>
+      <c r="E66" s="133" t="n"/>
+      <c r="G66" s="132" t="n"/>
+      <c r="H66" s="130" t="n"/>
+    </row>
+    <row r="67" ht="18.75" customHeight="1" s="68">
+      <c r="A67" s="134" t="n"/>
+      <c r="B67" s="135" t="n"/>
+      <c r="C67" s="118" t="n"/>
+      <c r="D67" s="119" t="n"/>
+      <c r="E67" s="135" t="n"/>
+      <c r="F67" s="118" t="n"/>
+      <c r="G67" s="119" t="n"/>
+      <c r="H67" s="134" t="n"/>
+    </row>
+    <row r="68" ht="18.75" customHeight="1" s="68">
+      <c r="A68" s="143" t="n">
+        <v>15</v>
+      </c>
+      <c r="B68" s="127" t="n"/>
+      <c r="C68" s="128" t="n"/>
+      <c r="D68" s="129" t="n"/>
+      <c r="E68" s="121" t="n"/>
+      <c r="F68" s="128" t="n"/>
+      <c r="G68" s="129" t="n"/>
+      <c r="H68" s="121" t="n"/>
+    </row>
+    <row r="69" ht="18.75" customHeight="1" s="68">
+      <c r="A69" s="130" t="n"/>
+      <c r="B69" s="131" t="n"/>
+      <c r="D69" s="132" t="n"/>
+      <c r="E69" s="133" t="n"/>
+      <c r="G69" s="132" t="n"/>
+      <c r="H69" s="130" t="n"/>
+    </row>
+    <row r="70" ht="18.75" customHeight="1" s="68">
+      <c r="A70" s="134" t="n"/>
+      <c r="B70" s="135" t="n"/>
+      <c r="C70" s="118" t="n"/>
+      <c r="D70" s="119" t="n"/>
+      <c r="E70" s="135" t="n"/>
+      <c r="F70" s="118" t="n"/>
+      <c r="G70" s="119" t="n"/>
+      <c r="H70" s="134" t="n"/>
+    </row>
+    <row r="71" ht="18.75" customHeight="1" s="68">
+      <c r="A71" s="143" t="n">
+        <v>16</v>
+      </c>
+      <c r="B71" s="127" t="n"/>
+      <c r="C71" s="128" t="n"/>
+      <c r="D71" s="129" t="n"/>
+      <c r="E71" s="121" t="n"/>
+      <c r="F71" s="128" t="n"/>
+      <c r="G71" s="129" t="n"/>
+      <c r="H71" s="121" t="n"/>
+    </row>
+    <row r="72" ht="18.75" customHeight="1" s="68">
+      <c r="A72" s="130" t="n"/>
+      <c r="B72" s="131" t="n"/>
+      <c r="D72" s="132" t="n"/>
+      <c r="E72" s="133" t="n"/>
+      <c r="G72" s="132" t="n"/>
+      <c r="H72" s="130" t="n"/>
+    </row>
+    <row r="73" ht="18.75" customHeight="1" s="68">
+      <c r="A73" s="134" t="n"/>
+      <c r="B73" s="135" t="n"/>
+      <c r="C73" s="118" t="n"/>
+      <c r="D73" s="119" t="n"/>
+      <c r="E73" s="135" t="n"/>
+      <c r="F73" s="118" t="n"/>
+      <c r="G73" s="119" t="n"/>
+      <c r="H73" s="134" t="n"/>
+    </row>
+    <row r="74" ht="18.75" customHeight="1" s="68">
+      <c r="A74" s="145" t="n"/>
+      <c r="B74" s="146" t="n"/>
+      <c r="C74" s="146" t="n"/>
+      <c r="D74" s="146" t="n"/>
+      <c r="E74" s="67" t="n"/>
+      <c r="F74" s="67" t="n"/>
+      <c r="G74" s="67" t="n"/>
+      <c r="H74" s="67" t="n"/>
+    </row>
+    <row r="75" ht="18.75" customHeight="1" s="68">
+      <c r="A75" s="145" t="n"/>
+      <c r="B75" s="147" t="n"/>
+      <c r="C75" s="147" t="n"/>
+      <c r="D75" s="147" t="n"/>
+      <c r="E75" s="67" t="n"/>
+      <c r="F75" s="67" t="n"/>
+      <c r="G75" s="67" t="n"/>
+      <c r="H75" s="67" t="n"/>
+    </row>
+    <row r="76" ht="18.75" customHeight="1" s="68">
+      <c r="A76" s="145" t="n"/>
+      <c r="B76" s="147" t="n"/>
+      <c r="C76" s="147" t="n"/>
+      <c r="D76" s="147" t="n"/>
+      <c r="E76" s="67" t="n"/>
+      <c r="F76" s="67" t="n"/>
+      <c r="G76" s="67" t="n"/>
+      <c r="H76" s="67" t="n"/>
+    </row>
+    <row r="77" ht="19.35" customHeight="1" s="68">
+      <c r="A77" s="145" t="n"/>
+      <c r="B77" s="138" t="n"/>
+      <c r="C77" s="140" t="n"/>
+      <c r="D77" s="67" t="n"/>
+      <c r="E77" s="67" t="n"/>
+      <c r="F77" s="140" t="n"/>
+      <c r="G77" s="67" t="n"/>
+    </row>
+    <row r="78" ht="19.35" customHeight="1" s="68">
+      <c r="A78" s="145" t="n"/>
+      <c r="B78" s="138" t="n"/>
+      <c r="C78" s="140" t="n"/>
+      <c r="D78" s="67" t="n"/>
+      <c r="E78" s="67" t="n"/>
+      <c r="F78" s="140" t="n"/>
+      <c r="G78" s="67" t="n"/>
+    </row>
+    <row r="79" ht="19.35" customHeight="1" s="68">
+      <c r="A79" s="145" t="n"/>
+      <c r="B79" s="138" t="n"/>
+      <c r="C79" s="140" t="n"/>
+      <c r="D79" s="67" t="n"/>
+      <c r="E79" s="67" t="n"/>
+      <c r="F79" s="140" t="n"/>
+      <c r="G79" s="67" t="n"/>
+    </row>
+    <row r="80" ht="19.35" customHeight="1" s="68">
+      <c r="A80" s="145" t="n"/>
+      <c r="B80" s="138" t="n"/>
+      <c r="C80" s="140" t="n"/>
+      <c r="D80" s="67" t="n"/>
+      <c r="E80" s="67" t="n"/>
+      <c r="F80" s="140" t="n"/>
+      <c r="G80" s="67" t="n"/>
+    </row>
+    <row r="81" ht="19.35" customHeight="1" s="68">
+      <c r="A81" s="145" t="n"/>
+      <c r="B81" s="138" t="n"/>
+      <c r="C81" s="140" t="n"/>
+      <c r="D81" s="67" t="n"/>
+      <c r="E81" s="67" t="n"/>
+      <c r="F81" s="140" t="n"/>
+      <c r="G81" s="67" t="n"/>
+    </row>
+    <row r="82" ht="19.35" customHeight="1" s="68">
+      <c r="A82" s="145" t="n"/>
+      <c r="B82" s="138" t="n"/>
+      <c r="C82" s="140" t="n"/>
+      <c r="D82" s="67" t="n"/>
+      <c r="E82" s="67" t="n"/>
+      <c r="F82" s="140" t="n"/>
+      <c r="G82" s="67" t="n"/>
+    </row>
+    <row r="83" ht="19.35" customHeight="1" s="68">
+      <c r="A83" s="145" t="n"/>
+      <c r="B83" s="138" t="n"/>
+      <c r="C83" s="140" t="n"/>
+      <c r="D83" s="67" t="n"/>
+      <c r="E83" s="67" t="n"/>
+      <c r="F83" s="140" t="n"/>
+      <c r="G83" s="67" t="n"/>
+    </row>
+    <row r="84" ht="18.75" customHeight="1" s="68">
+      <c r="A84" s="145" t="n"/>
+      <c r="B84" s="138" t="n"/>
+      <c r="C84" s="140" t="n"/>
+      <c r="D84" s="67" t="n"/>
+      <c r="E84" s="67" t="n"/>
+      <c r="F84" s="140" t="n"/>
+      <c r="G84" s="67" t="n"/>
+    </row>
+    <row r="85" ht="19.35" customHeight="1" s="68">
+      <c r="A85" s="145" t="n"/>
+      <c r="B85" s="138" t="n"/>
+      <c r="C85" s="140" t="n"/>
+      <c r="D85" s="67" t="n"/>
+      <c r="E85" s="67" t="n"/>
+      <c r="F85" s="140" t="n"/>
+      <c r="G85" s="67" t="n"/>
+    </row>
+    <row r="86" ht="19.35" customHeight="1" s="68">
+      <c r="A86" s="145" t="n"/>
+      <c r="B86" s="138" t="n"/>
+      <c r="C86" s="140" t="n"/>
+      <c r="D86" s="67" t="n"/>
+      <c r="E86" s="67" t="n"/>
+      <c r="F86" s="140" t="n"/>
+      <c r="G86" s="67" t="n"/>
+    </row>
+    <row r="87" ht="18.75" customHeight="1" s="68">
+      <c r="A87" s="145" t="n"/>
+      <c r="B87" s="138" t="n"/>
+      <c r="C87" s="140" t="n"/>
+      <c r="D87" s="67" t="n"/>
+      <c r="E87" s="67" t="n"/>
+      <c r="F87" s="140" t="n"/>
+      <c r="G87" s="67" t="n"/>
+    </row>
+    <row r="88" ht="18.75" customHeight="1" s="68">
+      <c r="A88" s="145" t="n"/>
+      <c r="B88" s="138" t="n"/>
+      <c r="C88" s="140" t="n"/>
+      <c r="D88" s="67" t="n"/>
+      <c r="E88" s="67" t="n"/>
+      <c r="F88" s="140" t="n"/>
+      <c r="G88" s="67" t="n"/>
+    </row>
+    <row r="89" ht="18.75" customHeight="1" s="68">
+      <c r="A89" s="145" t="n"/>
+      <c r="B89" s="138" t="n"/>
+      <c r="C89" s="140" t="n"/>
+      <c r="D89" s="67" t="n"/>
+      <c r="E89" s="67" t="n"/>
+      <c r="F89" s="140" t="n"/>
+      <c r="G89" s="67" t="n"/>
+    </row>
+    <row r="90" ht="15" customHeight="1" s="68">
+      <c r="A90" s="67" t="n"/>
+      <c r="B90" s="67" t="n"/>
+      <c r="C90" s="67" t="n"/>
+      <c r="D90" s="67" t="n"/>
+      <c r="E90" s="67" t="n"/>
+      <c r="F90" s="67" t="n"/>
+      <c r="G90" s="67" t="n"/>
+    </row>
+    <row r="91" ht="15" customHeight="1" s="68">
+      <c r="A91" s="67" t="n"/>
+      <c r="B91" s="67" t="n"/>
+      <c r="C91" s="67" t="n"/>
+      <c r="D91" s="67" t="n"/>
+      <c r="E91" s="67" t="n"/>
+      <c r="F91" s="67" t="n"/>
+      <c r="G91" s="67" t="n"/>
+    </row>
+    <row r="92" ht="15" customHeight="1" s="68">
+      <c r="A92" s="67" t="n"/>
+      <c r="B92" s="67" t="n"/>
+      <c r="C92" s="67" t="n"/>
+      <c r="D92" s="67" t="n"/>
+      <c r="E92" s="67" t="n"/>
+      <c r="F92" s="67" t="n"/>
+      <c r="G92" s="67" t="n"/>
+    </row>
+    <row r="93" ht="15" customHeight="1" s="68">
+      <c r="A93" s="67" t="n"/>
+      <c r="B93" s="67" t="n"/>
+      <c r="C93" s="67" t="n"/>
+      <c r="D93" s="67" t="n"/>
+      <c r="E93" s="67" t="n"/>
+      <c r="F93" s="67" t="n"/>
+      <c r="G93" s="67" t="n"/>
+    </row>
+    <row r="94" ht="15" customHeight="1" s="68">
+      <c r="A94" s="67" t="n"/>
+      <c r="B94" s="67" t="n"/>
+      <c r="C94" s="67" t="n"/>
+      <c r="D94" s="67" t="n"/>
+      <c r="E94" s="67" t="n"/>
+      <c r="F94" s="67" t="n"/>
+      <c r="G94" s="67" t="n"/>
+    </row>
+    <row r="95" ht="15" customHeight="1" s="68">
+      <c r="A95" s="67" t="n"/>
+      <c r="B95" s="67" t="n"/>
+      <c r="C95" s="67" t="n"/>
+      <c r="D95" s="67" t="n"/>
+      <c r="E95" s="67" t="n"/>
+      <c r="F95" s="67" t="n"/>
+      <c r="G95" s="67" t="n"/>
+    </row>
+    <row r="96" ht="15" customHeight="1" s="68">
+      <c r="A96" s="67" t="n"/>
+      <c r="B96" s="67" t="n"/>
+      <c r="C96" s="67" t="n"/>
+      <c r="D96" s="67" t="n"/>
+      <c r="E96" s="67" t="n"/>
+      <c r="F96" s="67" t="n"/>
+      <c r="G96" s="67" t="n"/>
+    </row>
+    <row r="97" ht="15" customHeight="1" s="68">
+      <c r="A97" s="67" t="n"/>
+      <c r="B97" s="67" t="n"/>
+      <c r="C97" s="67" t="n"/>
+      <c r="D97" s="67" t="n"/>
+      <c r="E97" s="67" t="n"/>
+      <c r="F97" s="67" t="n"/>
+      <c r="G97" s="67" t="n"/>
+    </row>
+    <row r="98" ht="15" customHeight="1" s="68">
+      <c r="A98" s="67" t="n"/>
+      <c r="B98" s="67" t="n"/>
+      <c r="C98" s="67" t="n"/>
+      <c r="D98" s="67" t="n"/>
+      <c r="E98" s="67" t="n"/>
+      <c r="F98" s="67" t="n"/>
+      <c r="G98" s="67" t="n"/>
+    </row>
+    <row r="99" ht="15" customHeight="1" s="68">
+      <c r="A99" s="67" t="n"/>
+      <c r="B99" s="67" t="n"/>
+      <c r="C99" s="67" t="n"/>
+      <c r="D99" s="67" t="n"/>
+      <c r="E99" s="67" t="n"/>
+      <c r="F99" s="67" t="n"/>
+      <c r="G99" s="67" t="n"/>
+    </row>
+    <row r="100" ht="15" customHeight="1" s="68">
+      <c r="A100" s="67" t="n"/>
+      <c r="B100" s="67" t="n"/>
+      <c r="C100" s="67" t="n"/>
+      <c r="D100" s="67" t="n"/>
+      <c r="E100" s="67" t="n"/>
+      <c r="F100" s="67" t="n"/>
+      <c r="G100" s="67" t="n"/>
+    </row>
+    <row r="101" ht="15" customHeight="1" s="68">
+      <c r="A101" s="67" t="n"/>
+      <c r="B101" s="67" t="n"/>
+      <c r="C101" s="67" t="n"/>
+      <c r="D101" s="67" t="n"/>
+      <c r="E101" s="67" t="n"/>
+      <c r="F101" s="67" t="n"/>
+      <c r="G101" s="67" t="n"/>
+    </row>
+    <row r="102" ht="15" customHeight="1" s="68">
+      <c r="A102" s="67" t="n"/>
+      <c r="B102" s="67" t="n"/>
+      <c r="C102" s="67" t="n"/>
+      <c r="D102" s="67" t="n"/>
+      <c r="E102" s="67" t="n"/>
+      <c r="F102" s="67" t="n"/>
+      <c r="G102" s="67" t="n"/>
+    </row>
+    <row r="103" ht="15" customHeight="1" s="68">
+      <c r="A103" s="67" t="n"/>
+      <c r="B103" s="67" t="n"/>
+      <c r="C103" s="67" t="n"/>
+      <c r="D103" s="67" t="n"/>
+      <c r="E103" s="67" t="n"/>
+      <c r="F103" s="67" t="n"/>
+      <c r="G103" s="67" t="n"/>
+    </row>
+    <row r="104" ht="15" customHeight="1" s="68">
+      <c r="A104" s="67" t="n"/>
+      <c r="B104" s="67" t="n"/>
+      <c r="C104" s="67" t="n"/>
+      <c r="D104" s="67" t="n"/>
+      <c r="E104" s="67" t="n"/>
+      <c r="F104" s="67" t="n"/>
+      <c r="G104" s="67" t="n"/>
+    </row>
+    <row r="105" ht="15" customHeight="1" s="68">
+      <c r="A105" s="67" t="n"/>
+      <c r="B105" s="67" t="n"/>
+      <c r="C105" s="67" t="n"/>
+      <c r="D105" s="67" t="n"/>
+      <c r="E105" s="67" t="n"/>
+      <c r="F105" s="67" t="n"/>
+      <c r="G105" s="67" t="n"/>
+    </row>
+    <row r="106" ht="15" customHeight="1" s="68">
+      <c r="A106" s="67" t="n"/>
+      <c r="B106" s="67" t="n"/>
+      <c r="C106" s="67" t="n"/>
+      <c r="D106" s="67" t="n"/>
+      <c r="E106" s="67" t="n"/>
+      <c r="F106" s="67" t="n"/>
+      <c r="G106" s="67" t="n"/>
+    </row>
+    <row r="107" ht="15" customHeight="1" s="68">
+      <c r="A107" s="67" t="n"/>
+      <c r="B107" s="67" t="n"/>
+      <c r="C107" s="67" t="n"/>
+      <c r="D107" s="67" t="n"/>
+      <c r="E107" s="67" t="n"/>
+      <c r="F107" s="67" t="n"/>
+      <c r="G107" s="67" t="n"/>
+    </row>
+    <row r="108" ht="15" customHeight="1" s="68">
+      <c r="A108" s="67" t="n"/>
+      <c r="B108" s="67" t="n"/>
+      <c r="C108" s="67" t="n"/>
+      <c r="D108" s="67" t="n"/>
+      <c r="E108" s="67" t="n"/>
+      <c r="F108" s="67" t="n"/>
+      <c r="G108" s="67" t="n"/>
+    </row>
+    <row r="109" ht="15" customHeight="1" s="68">
+      <c r="A109" s="67" t="n"/>
+      <c r="B109" s="67" t="n"/>
+      <c r="C109" s="67" t="n"/>
+      <c r="D109" s="67" t="n"/>
+      <c r="E109" s="67" t="n"/>
+      <c r="F109" s="67" t="n"/>
+      <c r="G109" s="67" t="n"/>
+    </row>
+    <row r="110" ht="15" customHeight="1" s="68">
+      <c r="A110" s="67" t="n"/>
+      <c r="B110" s="67" t="n"/>
+      <c r="C110" s="67" t="n"/>
+      <c r="D110" s="67" t="n"/>
+      <c r="E110" s="67" t="n"/>
+      <c r="F110" s="67" t="n"/>
+      <c r="G110" s="67" t="n"/>
+    </row>
+    <row r="111" ht="15" customHeight="1" s="68">
+      <c r="A111" s="67" t="n"/>
+      <c r="B111" s="67" t="n"/>
+      <c r="C111" s="67" t="n"/>
+      <c r="D111" s="67" t="n"/>
+      <c r="E111" s="67" t="n"/>
+      <c r="F111" s="67" t="n"/>
+      <c r="G111" s="67" t="n"/>
+    </row>
+    <row r="112" ht="15" customHeight="1" s="68">
+      <c r="A112" s="67" t="n"/>
+      <c r="B112" s="67" t="n"/>
+      <c r="C112" s="67" t="n"/>
+      <c r="D112" s="67" t="n"/>
+      <c r="E112" s="67" t="n"/>
+      <c r="F112" s="67" t="n"/>
+      <c r="G112" s="67" t="n"/>
+    </row>
+    <row r="113" ht="15" customHeight="1" s="68">
+      <c r="A113" s="67" t="n"/>
+      <c r="B113" s="67" t="n"/>
+      <c r="C113" s="67" t="n"/>
+      <c r="D113" s="67" t="n"/>
+      <c r="E113" s="67" t="n"/>
+      <c r="F113" s="67" t="n"/>
+      <c r="G113" s="67" t="n"/>
+    </row>
+    <row r="114" ht="15" customHeight="1" s="68">
+      <c r="A114" s="67" t="n"/>
+      <c r="B114" s="67" t="n"/>
+      <c r="C114" s="67" t="n"/>
+      <c r="D114" s="67" t="n"/>
+      <c r="E114" s="67" t="n"/>
+      <c r="F114" s="67" t="n"/>
+      <c r="G114" s="67" t="n"/>
+    </row>
+    <row r="115" ht="15" customHeight="1" s="68">
+      <c r="A115" s="67" t="n"/>
+      <c r="B115" s="67" t="n"/>
+      <c r="C115" s="67" t="n"/>
+      <c r="D115" s="67" t="n"/>
+      <c r="E115" s="67" t="n"/>
+      <c r="F115" s="67" t="n"/>
+      <c r="G115" s="67" t="n"/>
+    </row>
+    <row r="116" ht="15" customHeight="1" s="68">
+      <c r="A116" s="67" t="n"/>
+      <c r="B116" s="67" t="n"/>
+      <c r="C116" s="67" t="n"/>
+      <c r="D116" s="67" t="n"/>
+      <c r="E116" s="67" t="n"/>
+      <c r="F116" s="67" t="n"/>
+      <c r="G116" s="67" t="n"/>
+    </row>
+    <row r="117" ht="15" customHeight="1" s="68">
+      <c r="A117" s="67" t="n"/>
+      <c r="B117" s="67" t="n"/>
+      <c r="C117" s="67" t="n"/>
+      <c r="D117" s="67" t="n"/>
+      <c r="E117" s="67" t="n"/>
+      <c r="F117" s="67" t="n"/>
+      <c r="G117" s="67" t="n"/>
+    </row>
+    <row r="118" ht="15" customHeight="1" s="68">
+      <c r="A118" s="67" t="n"/>
+      <c r="B118" s="67" t="n"/>
+      <c r="C118" s="67" t="n"/>
+      <c r="D118" s="67" t="n"/>
+      <c r="E118" s="67" t="n"/>
+      <c r="F118" s="67" t="n"/>
+      <c r="G118" s="67" t="n"/>
+    </row>
+    <row r="119" ht="15" customHeight="1" s="68">
+      <c r="A119" s="67" t="n"/>
+      <c r="B119" s="67" t="n"/>
+      <c r="C119" s="67" t="n"/>
+      <c r="D119" s="67" t="n"/>
+      <c r="E119" s="67" t="n"/>
+      <c r="F119" s="67" t="n"/>
+      <c r="G119" s="67" t="n"/>
+    </row>
+    <row r="120" ht="15" customHeight="1" s="68">
+      <c r="A120" s="67" t="n"/>
+      <c r="B120" s="67" t="n"/>
+      <c r="C120" s="67" t="n"/>
+      <c r="D120" s="67" t="n"/>
+      <c r="E120" s="67" t="n"/>
+      <c r="F120" s="67" t="n"/>
+      <c r="G120" s="67" t="n"/>
+    </row>
+    <row r="121" ht="15" customHeight="1" s="68">
+      <c r="A121" s="67" t="n"/>
+      <c r="B121" s="67" t="n"/>
+      <c r="C121" s="67" t="n"/>
+      <c r="D121" s="67" t="n"/>
+      <c r="E121" s="67" t="n"/>
+      <c r="F121" s="67" t="n"/>
+      <c r="G121" s="67" t="n"/>
+    </row>
+    <row r="122" ht="15" customHeight="1" s="68">
+      <c r="A122" s="67" t="n"/>
+      <c r="B122" s="67" t="n"/>
+      <c r="C122" s="67" t="n"/>
+      <c r="D122" s="67" t="n"/>
+      <c r="E122" s="67" t="n"/>
+      <c r="F122" s="67" t="n"/>
+      <c r="G122" s="67" t="n"/>
+    </row>
+    <row r="123" ht="15" customHeight="1" s="68">
+      <c r="A123" s="67" t="n"/>
+      <c r="B123" s="67" t="n"/>
+      <c r="C123" s="67" t="n"/>
+      <c r="D123" s="67" t="n"/>
+      <c r="E123" s="67" t="n"/>
+      <c r="F123" s="67" t="n"/>
+      <c r="G123" s="67" t="n"/>
+    </row>
+    <row r="124" ht="15" customHeight="1" s="68">
+      <c r="A124" s="67" t="n"/>
+      <c r="B124" s="67" t="n"/>
+      <c r="C124" s="67" t="n"/>
+      <c r="D124" s="67" t="n"/>
+      <c r="E124" s="67" t="n"/>
+      <c r="F124" s="67" t="n"/>
+      <c r="G124" s="67" t="n"/>
+    </row>
+    <row r="125" ht="15" customHeight="1" s="68">
+      <c r="A125" s="67" t="n"/>
+      <c r="B125" s="67" t="n"/>
+      <c r="C125" s="67" t="n"/>
+      <c r="D125" s="67" t="n"/>
+      <c r="E125" s="67" t="n"/>
+      <c r="F125" s="67" t="n"/>
+      <c r="G125" s="67" t="n"/>
+    </row>
+    <row r="126" ht="15" customHeight="1" s="68">
+      <c r="A126" s="67" t="n"/>
+      <c r="B126" s="67" t="n"/>
+      <c r="C126" s="67" t="n"/>
+      <c r="D126" s="67" t="n"/>
+      <c r="E126" s="67" t="n"/>
+      <c r="F126" s="67" t="n"/>
+      <c r="G126" s="67" t="n"/>
+    </row>
+    <row r="127" ht="15" customHeight="1" s="68">
+      <c r="A127" s="67" t="n"/>
+      <c r="B127" s="67" t="n"/>
+      <c r="C127" s="67" t="n"/>
+      <c r="D127" s="67" t="n"/>
+      <c r="E127" s="67" t="n"/>
+      <c r="F127" s="67" t="n"/>
+      <c r="G127" s="67" t="n"/>
+    </row>
+    <row r="128" ht="15" customHeight="1" s="68">
+      <c r="A128" s="67" t="n"/>
+      <c r="B128" s="67" t="n"/>
+      <c r="C128" s="67" t="n"/>
+      <c r="D128" s="67" t="n"/>
+      <c r="E128" s="67" t="n"/>
+      <c r="F128" s="67" t="n"/>
+      <c r="G128" s="67" t="n"/>
+    </row>
+    <row r="129" ht="15" customHeight="1" s="68">
+      <c r="A129" s="67" t="n"/>
+      <c r="B129" s="67" t="n"/>
+      <c r="C129" s="67" t="n"/>
+      <c r="D129" s="67" t="n"/>
+      <c r="E129" s="67" t="n"/>
+      <c r="F129" s="67" t="n"/>
+      <c r="G129" s="67" t="n"/>
+    </row>
+    <row r="130" ht="15" customHeight="1" s="68">
+      <c r="A130" s="67" t="n"/>
+      <c r="B130" s="67" t="n"/>
+      <c r="C130" s="67" t="n"/>
+      <c r="D130" s="67" t="n"/>
+      <c r="E130" s="67" t="n"/>
+      <c r="F130" s="67" t="n"/>
+      <c r="G130" s="67" t="n"/>
+    </row>
+    <row r="131" ht="15" customHeight="1" s="68">
+      <c r="A131" s="67" t="n"/>
+      <c r="B131" s="67" t="n"/>
+      <c r="C131" s="67" t="n"/>
+      <c r="D131" s="67" t="n"/>
+      <c r="E131" s="67" t="n"/>
+      <c r="F131" s="67" t="n"/>
+      <c r="G131" s="67" t="n"/>
+    </row>
+    <row r="132" ht="15" customHeight="1" s="68">
+      <c r="A132" s="67" t="n"/>
+      <c r="B132" s="67" t="n"/>
+      <c r="C132" s="67" t="n"/>
+      <c r="D132" s="67" t="n"/>
+      <c r="E132" s="67" t="n"/>
+      <c r="F132" s="67" t="n"/>
+      <c r="G132" s="67" t="n"/>
+    </row>
+    <row r="133" ht="15" customHeight="1" s="68">
+      <c r="A133" s="67" t="n"/>
+      <c r="B133" s="67" t="n"/>
+      <c r="C133" s="67" t="n"/>
+      <c r="D133" s="67" t="n"/>
+      <c r="E133" s="67" t="n"/>
+      <c r="F133" s="67" t="n"/>
+      <c r="G133" s="67" t="n"/>
+    </row>
+    <row r="134" ht="15" customHeight="1" s="68">
+      <c r="A134" s="67" t="n"/>
+      <c r="B134" s="67" t="n"/>
+      <c r="C134" s="67" t="n"/>
+      <c r="D134" s="67" t="n"/>
+      <c r="E134" s="67" t="n"/>
+      <c r="F134" s="67" t="n"/>
+      <c r="G134" s="67" t="n"/>
+    </row>
+    <row r="135" ht="15" customHeight="1" s="68">
+      <c r="A135" s="67" t="n"/>
+      <c r="B135" s="67" t="n"/>
+      <c r="C135" s="67" t="n"/>
+      <c r="D135" s="67" t="n"/>
+      <c r="E135" s="67" t="n"/>
+      <c r="F135" s="67" t="n"/>
+      <c r="G135" s="67" t="n"/>
+    </row>
+    <row r="136" ht="15" customHeight="1" s="68">
+      <c r="A136" s="67" t="n"/>
+      <c r="B136" s="67" t="n"/>
+      <c r="C136" s="67" t="n"/>
+      <c r="D136" s="67" t="n"/>
+      <c r="E136" s="67" t="n"/>
+      <c r="F136" s="67" t="n"/>
+      <c r="G136" s="67" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="107">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="B54:D55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="B60:D61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="B66:D67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:G70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="B72:D73"/>
+  </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:R136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="2.85" customWidth="1" style="67" min="1" max="1"/>
+    <col width="13.14" customWidth="1" style="67" min="2" max="2"/>
+    <col width="7.71" customWidth="1" style="67" min="3" max="3"/>
+    <col width="8.289999999999999" customWidth="1" style="67" min="4" max="4"/>
+    <col width="19.71" customWidth="1" style="67" min="5" max="5"/>
+    <col width="13.57" customWidth="1" style="67" min="6" max="6"/>
+    <col width="1" customWidth="1" style="67" min="7" max="7"/>
+    <col width="28.42" customWidth="1" style="67" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" s="68">
+      <c r="A1" s="69" t="inlineStr">
+        <is>
+          <t>UNIT  NUMBER</t>
+        </is>
+      </c>
+      <c r="B1" s="70" t="n"/>
+      <c r="C1" s="70" t="n"/>
+      <c r="D1" s="71" t="n"/>
+      <c r="E1" s="72" t="inlineStr">
+        <is>
+          <t>DATE INSHOPPED:</t>
+        </is>
+      </c>
+      <c r="F1" s="73" t="inlineStr">
+        <is>
+          <t>01-05-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" s="68">
+      <c r="A2" s="74" t="inlineStr">
+        <is>
+          <t>9441</t>
+        </is>
+      </c>
+      <c r="D2" s="75" t="n"/>
+      <c r="H2" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I2" s="67" t="n"/>
+      <c r="K2" s="77" t="n"/>
+      <c r="M2" s="78" t="n"/>
+      <c r="N2" s="67" t="n"/>
+      <c r="O2" s="67" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="68">
+      <c r="A3" s="79" t="n"/>
+      <c r="D3" s="75" t="n"/>
+      <c r="E3" s="80" t="inlineStr">
+        <is>
+          <t>SAMPLES DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F3" s="81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G3" s="67" t="n"/>
+      <c r="H3" s="82" t="n"/>
+      <c r="I3" s="83" t="n"/>
+      <c r="J3" s="83" t="n"/>
+      <c r="K3" s="83" t="n"/>
+      <c r="L3" s="84" t="n"/>
+      <c r="M3" s="83" t="n"/>
+      <c r="N3" s="83" t="n"/>
+      <c r="O3" s="67" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" s="68">
+      <c r="A4" s="85" t="n"/>
+      <c r="B4" s="86" t="n"/>
+      <c r="C4" s="86" t="n"/>
+      <c r="D4" s="87" t="n"/>
+      <c r="E4" s="80" t="inlineStr">
+        <is>
+          <t>TOILET DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F4" s="88" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G4" s="67" t="n"/>
+      <c r="H4" s="89" t="n"/>
+      <c r="O4" s="67" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" s="68">
+      <c r="A5" s="90" t="inlineStr">
+        <is>
+          <t>FRA DEAD DATE:</t>
+        </is>
+      </c>
+      <c r="B5" s="91" t="n"/>
+      <c r="C5" s="92" t="inlineStr">
+        <is>
+          <t>02-26-2020</t>
+        </is>
+      </c>
+      <c r="D5" s="70" t="n"/>
+      <c r="E5" s="80" t="inlineStr">
+        <is>
+          <t>LUBE DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F5" s="88" t="n"/>
+      <c r="G5" s="67" t="n"/>
+      <c r="H5" s="89" t="n"/>
+      <c r="O5" s="67" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" s="68">
+      <c r="A6" s="80" t="inlineStr">
+        <is>
+          <t>MI DUE (month):</t>
+        </is>
+      </c>
+      <c r="C6" s="93" t="n"/>
+      <c r="D6" s="94" t="n"/>
+      <c r="E6" s="80" t="inlineStr">
+        <is>
+          <t>C/S DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F6" s="88" t="n"/>
+      <c r="H6" s="95" t="n"/>
+      <c r="K6" s="83" t="n"/>
+      <c r="L6" s="83" t="n"/>
+      <c r="M6" s="96" t="n"/>
+      <c r="N6" s="96" t="n"/>
+      <c r="O6" s="67" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" s="68">
+      <c r="A7" s="80" t="inlineStr">
+        <is>
+          <t>EPA DUE (year, M):</t>
+        </is>
+      </c>
+      <c r="C7" s="93" t="n"/>
+      <c r="D7" s="94" t="n"/>
+      <c r="E7" s="80" t="inlineStr">
+        <is>
+          <t>AF DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F7" s="88" t="n"/>
+      <c r="H7" s="95" t="n"/>
+      <c r="I7" s="84" t="n"/>
+      <c r="K7" s="83" t="n"/>
+      <c r="L7" s="83" t="n"/>
+      <c r="M7" s="96" t="n"/>
+      <c r="N7" s="96" t="n"/>
+      <c r="O7" s="67" t="n"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" s="68">
+      <c r="A8" s="83" t="n"/>
+      <c r="B8" s="97" t="inlineStr">
+        <is>
+          <t>INBOUND TASKS (ADD WORKSHEET TASKS AS NEEDED)</t>
+        </is>
+      </c>
+      <c r="C8" s="98" t="n"/>
+      <c r="D8" s="98" t="n"/>
+      <c r="E8" s="67" t="n"/>
+      <c r="F8" s="67" t="n"/>
+      <c r="G8" s="67" t="n"/>
+      <c r="H8" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="J8" s="99" t="n"/>
+      <c r="K8" s="67" t="n"/>
+      <c r="L8" s="67" t="n"/>
+      <c r="M8" s="67" t="n"/>
+      <c r="N8" s="67" t="n"/>
+      <c r="O8" s="67" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" s="68">
+      <c r="A9" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="101" t="inlineStr">
+        <is>
+          <t>Check for and remove all non-compliance tags.  Note defects on ELF 023.</t>
+        </is>
+      </c>
+      <c r="C9" s="94" t="n"/>
+      <c r="D9" s="94" t="n"/>
+      <c r="E9" s="94" t="n"/>
+      <c r="F9" s="94" t="n"/>
+      <c r="G9" s="102" t="n"/>
+      <c r="H9" s="103" t="n"/>
+      <c r="J9" s="99" t="n"/>
+      <c r="K9" s="67" t="n"/>
+      <c r="L9" s="67" t="n"/>
+      <c r="M9" s="67" t="n"/>
+      <c r="N9" s="67" t="n"/>
+      <c r="O9" s="67" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" s="68">
+      <c r="A10" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="101" t="inlineStr">
+        <is>
+          <t>Download/Review Locomotive Fault log.  Add worksheet tasks as needed.</t>
+        </is>
+      </c>
+      <c r="C10" s="94" t="n"/>
+      <c r="D10" s="94" t="n"/>
+      <c r="E10" s="94" t="n"/>
+      <c r="F10" s="94" t="n"/>
+      <c r="G10" s="102" t="n"/>
+      <c r="H10" s="103" t="n"/>
+    </row>
+    <row r="11" ht="26.25" customHeight="1" s="68">
+      <c r="A11" s="100" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="104" t="inlineStr">
+        <is>
+          <t>Wait 15 minutes after download/sync for current info to display, then print chronology and SFA.  Attach printout to work packet.</t>
+        </is>
+      </c>
+      <c r="C11" s="94" t="n"/>
+      <c r="D11" s="94" t="n"/>
+      <c r="E11" s="94" t="n"/>
+      <c r="F11" s="94" t="n"/>
+      <c r="G11" s="102" t="n"/>
+      <c r="H11" s="105" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="68">
+      <c r="A12" s="100" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="101" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Electrical Inspections.</t>
+        </is>
+      </c>
+      <c r="C12" s="94" t="n"/>
+      <c r="D12" s="94" t="n"/>
+      <c r="E12" s="94" t="n"/>
+      <c r="F12" s="94" t="n"/>
+      <c r="G12" s="102" t="n"/>
+      <c r="H12" s="105" t="n"/>
+      <c r="K12" s="67" t="n"/>
+      <c r="L12" s="67" t="n"/>
+      <c r="M12" s="67" t="n"/>
+      <c r="N12" s="67" t="n"/>
+      <c r="O12" s="67" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" s="68">
+      <c r="A13" s="106" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="107" t="inlineStr">
+        <is>
+          <t>Perform PTC Departure test.</t>
+        </is>
+      </c>
+      <c r="C13" s="94" t="n"/>
+      <c r="D13" s="94" t="n"/>
+      <c r="E13" s="94" t="n"/>
+      <c r="F13" s="108" t="inlineStr">
+        <is>
+          <t>Pass / Fail</t>
+        </is>
+      </c>
+      <c r="G13" s="102" t="n"/>
+      <c r="H13" s="109" t="n"/>
+      <c r="Q13" s="67" t="n"/>
+      <c r="R13" s="67" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" s="68">
+      <c r="A14" s="110" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="111" t="inlineStr">
+        <is>
+          <t>Check PTCMon for PTC/EM Health.</t>
+        </is>
+      </c>
+      <c r="C14" s="112" t="n"/>
+      <c r="D14" s="112" t="n"/>
+      <c r="E14" s="113" t="inlineStr">
+        <is>
+          <t>PTC_____________   EM_______________</t>
+        </is>
+      </c>
+      <c r="F14" s="112" t="n"/>
+      <c r="G14" s="114" t="n"/>
+      <c r="H14" s="115" t="n"/>
+      <c r="K14" s="84" t="n"/>
+      <c r="Q14" s="67" t="n"/>
+      <c r="R14" s="67" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" s="68">
+      <c r="A15" s="116" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="117" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Mechanical Inspections.</t>
+        </is>
+      </c>
+      <c r="C15" s="118" t="n"/>
+      <c r="D15" s="118" t="n"/>
+      <c r="E15" s="118" t="n"/>
+      <c r="F15" s="118" t="n"/>
+      <c r="G15" s="119" t="n"/>
+      <c r="H15" s="120" t="n"/>
+      <c r="K15" s="84" t="n"/>
+      <c r="Q15" s="67" t="n"/>
+      <c r="R15" s="67" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" s="68">
+      <c r="A16" s="100" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="101" t="inlineStr">
+        <is>
+          <t>Add fluids as needed.</t>
+        </is>
+      </c>
+      <c r="C16" s="94" t="n"/>
+      <c r="D16" s="94" t="n"/>
+      <c r="E16" s="94" t="n"/>
+      <c r="F16" s="94" t="n"/>
+      <c r="G16" s="102" t="n"/>
+      <c r="H16" s="121" t="n"/>
+      <c r="Q16" s="67" t="n"/>
+      <c r="R16" s="67" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" s="68">
+      <c r="A17" s="110" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="122" t="inlineStr">
+        <is>
+          <t>Renew defective brake shoes and adjust piston travel as needed.</t>
+        </is>
+      </c>
+      <c r="C17" s="112" t="n"/>
+      <c r="D17" s="112" t="n"/>
+      <c r="E17" s="112" t="n"/>
+      <c r="F17" s="112" t="n"/>
+      <c r="G17" s="114" t="n"/>
+      <c r="H17" s="115" t="n"/>
+      <c r="I17" s="67" t="n"/>
+      <c r="K17" s="67" t="n"/>
+      <c r="L17" s="67" t="n"/>
+      <c r="M17" s="67" t="n"/>
+      <c r="N17" s="67" t="n"/>
+      <c r="O17" s="67" t="n"/>
+      <c r="Q17" s="67" t="n"/>
+      <c r="R17" s="67" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" s="68">
+      <c r="A18" s="116" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="117" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Fireman &amp; Oiler Inspections.</t>
+        </is>
+      </c>
+      <c r="C18" s="118" t="n"/>
+      <c r="D18" s="118" t="n"/>
+      <c r="E18" s="118" t="n"/>
+      <c r="F18" s="118" t="n"/>
+      <c r="G18" s="119" t="n"/>
+      <c r="H18" s="120" t="n"/>
+      <c r="I18" s="67" t="n"/>
+      <c r="K18" s="67" t="n"/>
+      <c r="L18" s="67" t="n"/>
+      <c r="M18" s="67" t="n"/>
+      <c r="N18" s="67" t="n"/>
+      <c r="O18" s="67" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" s="68">
+      <c r="A19" s="100" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" s="117" t="inlineStr">
+        <is>
+          <t>Fuel Locomotive as needed.                         Gallons added _________________</t>
+        </is>
+      </c>
+      <c r="C19" s="118" t="n"/>
+      <c r="D19" s="118" t="n"/>
+      <c r="E19" s="118" t="n"/>
+      <c r="F19" s="118" t="n"/>
+      <c r="G19" s="119" t="n"/>
+      <c r="H19" s="121" t="n"/>
+      <c r="I19" s="67" t="n"/>
+      <c r="K19" s="67" t="n"/>
+      <c r="L19" s="67" t="n"/>
+      <c r="M19" s="67" t="n"/>
+      <c r="N19" s="67" t="n"/>
+      <c r="O19" s="67" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" s="68">
+      <c r="A20" s="100" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" s="104" t="inlineStr">
+        <is>
+          <t>Add Sand to locomotive sandboxes as needed.</t>
+        </is>
+      </c>
+      <c r="C20" s="94" t="n"/>
+      <c r="D20" s="94" t="n"/>
+      <c r="E20" s="94" t="n"/>
+      <c r="F20" s="94" t="n"/>
+      <c r="G20" s="102" t="n"/>
+      <c r="H20" s="121" t="n"/>
+      <c r="I20" s="67" t="n"/>
+      <c r="K20" s="67" t="n"/>
+      <c r="L20" s="67" t="n"/>
+      <c r="M20" s="67" t="n"/>
+      <c r="N20" s="67" t="n"/>
+      <c r="O20" s="67" t="n"/>
+    </row>
+    <row r="21" ht="26.25" customHeight="1" s="68">
+      <c r="A21" s="100" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" s="104" t="inlineStr">
+        <is>
+          <t>Remove trash and hazardous debris from running boards, cab &amp; toilet room.</t>
+        </is>
+      </c>
+      <c r="C21" s="94" t="n"/>
+      <c r="D21" s="94" t="n"/>
+      <c r="E21" s="94" t="n"/>
+      <c r="F21" s="94" t="n"/>
+      <c r="G21" s="102" t="n"/>
+      <c r="H21" s="121" t="n"/>
+      <c r="I21" s="67" t="n"/>
+      <c r="K21" s="67" t="n"/>
+      <c r="L21" s="67" t="n"/>
+      <c r="M21" s="67" t="n"/>
+      <c r="N21" s="67" t="n"/>
+      <c r="O21" s="67" t="n"/>
+    </row>
+    <row r="22" ht="19.5" customHeight="1" s="68">
+      <c r="B22" s="123" t="inlineStr">
+        <is>
+          <t>WORK ORDERS / DEFECTS</t>
+        </is>
+      </c>
+      <c r="C22" s="94" t="n"/>
+      <c r="D22" s="94" t="n"/>
+      <c r="E22" s="124" t="inlineStr">
+        <is>
+          <t>REPAIRS / MATERIAL</t>
+        </is>
+      </c>
+      <c r="F22" s="94" t="n"/>
+      <c r="G22" s="94" t="n"/>
+      <c r="H22" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I22" s="67" t="n"/>
+      <c r="J22" s="125" t="n"/>
+      <c r="L22" s="67" t="n"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1" s="68">
+      <c r="A23" s="126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="127" t="inlineStr">
+        <is>
+          <t>testtttt</t>
+        </is>
+      </c>
+      <c r="C23" s="128" t="n"/>
+      <c r="D23" s="129" t="n"/>
+      <c r="E23" s="121" t="n"/>
+      <c r="F23" s="128" t="n"/>
+      <c r="G23" s="129" t="n"/>
+      <c r="H23" s="121" t="n"/>
+      <c r="I23" s="67" t="n"/>
+      <c r="J23" s="67" t="n"/>
+      <c r="K23" s="67" t="n"/>
+      <c r="L23" s="67" t="n"/>
+    </row>
+    <row r="24" ht="19.5" customHeight="1" s="68">
+      <c r="A24" s="130" t="n"/>
+      <c r="B24" s="131" t="inlineStr">
+        <is>
+          <t>yesss</t>
+        </is>
+      </c>
       <c r="D24" s="132" t="n"/>
       <c r="E24" s="133" t="n"/>
       <c r="G24" s="132" t="n"/>

--- a/UR_CoverSheets.xlsx
+++ b/UR_CoverSheets.xlsx
@@ -8,8 +8,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UR Cover Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5222" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9441" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1050" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3651" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3657" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5178" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7534" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -2769,14 +2772,14 @@
       </c>
       <c r="F1" s="73" t="inlineStr">
         <is>
-          <t>01-05-2020</t>
+          <t>01-09-2020</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" s="68">
       <c r="A2" s="74" t="inlineStr">
         <is>
-          <t>5222</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="D2" s="75" t="n"/>
@@ -2842,7 +2845,7 @@
       <c r="B5" s="91" t="n"/>
       <c r="C5" s="92" t="inlineStr">
         <is>
-          <t>02-19-2020</t>
+          <t>02-13-2020</t>
         </is>
       </c>
       <c r="D5" s="70" t="n"/>
@@ -2851,11 +2854,7 @@
           <t>LUBE DUE (Y/N):</t>
         </is>
       </c>
-      <c r="F5" s="88" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="F5" s="88" t="n"/>
       <c r="G5" s="67" t="n"/>
       <c r="H5" s="89" t="n"/>
       <c r="O5" s="67" t="n"/>
@@ -3226,7 +3225,7 @@
       </c>
       <c r="B23" s="127" t="inlineStr">
         <is>
-          <t>test testtt</t>
+          <t>AIR BRAKE</t>
         </is>
       </c>
       <c r="C23" s="128" t="n"/>
@@ -3242,7 +3241,11 @@
     </row>
     <row r="24" ht="19.5" customHeight="1" s="68">
       <c r="A24" s="130" t="n"/>
-      <c r="B24" s="131" t="n"/>
+      <c r="B24" s="131" t="inlineStr">
+        <is>
+          <t>Automatic Brake Handle readout does not display</t>
+        </is>
+      </c>
       <c r="D24" s="132" t="n"/>
       <c r="E24" s="133" t="n"/>
       <c r="G24" s="132" t="n"/>
@@ -4475,14 +4478,14 @@
       </c>
       <c r="F1" s="73" t="inlineStr">
         <is>
-          <t>01-05-2020</t>
+          <t>01-09-2020</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" s="68">
       <c r="A2" s="74" t="inlineStr">
         <is>
-          <t>9441</t>
+          <t>3651</t>
         </is>
       </c>
       <c r="D2" s="75" t="n"/>
@@ -4505,11 +4508,7 @@
           <t>SAMPLES DUE (Y/N):</t>
         </is>
       </c>
-      <c r="F3" s="81" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="F3" s="81" t="n"/>
       <c r="G3" s="67" t="n"/>
       <c r="H3" s="82" t="n"/>
       <c r="I3" s="83" t="n"/>
@@ -4548,7 +4547,7 @@
       <c r="B5" s="91" t="n"/>
       <c r="C5" s="92" t="inlineStr">
         <is>
-          <t>02-26-2020</t>
+          <t>05-01-2020</t>
         </is>
       </c>
       <c r="D5" s="70" t="n"/>
@@ -4928,7 +4927,7 @@
       </c>
       <c r="B23" s="127" t="inlineStr">
         <is>
-          <t>testtttt</t>
+          <t>FUEL INJECTOR</t>
         </is>
       </c>
       <c r="C23" s="128" t="n"/>
@@ -4946,7 +4945,5125 @@
       <c r="A24" s="130" t="n"/>
       <c r="B24" s="131" t="inlineStr">
         <is>
-          <t>yesss</t>
+          <t>SFA - Potential high pressure fuel leaks</t>
+        </is>
+      </c>
+      <c r="D24" s="132" t="n"/>
+      <c r="E24" s="133" t="n"/>
+      <c r="G24" s="132" t="n"/>
+      <c r="H24" s="130" t="n"/>
+    </row>
+    <row r="25" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A25" s="134" t="n"/>
+      <c r="B25" s="135" t="n"/>
+      <c r="C25" s="118" t="n"/>
+      <c r="D25" s="119" t="n"/>
+      <c r="E25" s="135" t="n"/>
+      <c r="F25" s="118" t="n"/>
+      <c r="G25" s="119" t="n"/>
+      <c r="H25" s="134" t="n"/>
+    </row>
+    <row r="26" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A26" s="136" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="127" t="inlineStr">
+        <is>
+          <t>EPA EMISSION</t>
+        </is>
+      </c>
+      <c r="C26" s="128" t="n"/>
+      <c r="D26" s="129" t="n"/>
+      <c r="E26" s="137" t="n"/>
+      <c r="F26" s="128" t="n"/>
+      <c r="G26" s="129" t="n"/>
+      <c r="H26" s="137" t="n"/>
+    </row>
+    <row r="27" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A27" s="133" t="n"/>
+      <c r="B27" s="131" t="inlineStr">
+        <is>
+          <t>Cooler Out Temp Sensor out of range low</t>
+        </is>
+      </c>
+      <c r="D27" s="132" t="n"/>
+      <c r="E27" s="133" t="n"/>
+      <c r="G27" s="132" t="n"/>
+      <c r="H27" s="130" t="n"/>
+    </row>
+    <row r="28" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A28" s="135" t="n"/>
+      <c r="B28" s="135" t="n"/>
+      <c r="C28" s="118" t="n"/>
+      <c r="D28" s="119" t="n"/>
+      <c r="E28" s="135" t="n"/>
+      <c r="F28" s="118" t="n"/>
+      <c r="G28" s="119" t="n"/>
+      <c r="H28" s="134" t="n"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1" s="68">
+      <c r="A29" s="136" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="127" t="n"/>
+      <c r="C29" s="128" t="n"/>
+      <c r="D29" s="129" t="n"/>
+      <c r="E29" s="121" t="n"/>
+      <c r="F29" s="128" t="n"/>
+      <c r="G29" s="129" t="n"/>
+      <c r="H29" s="121" t="n"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1" s="68">
+      <c r="A30" s="133" t="n"/>
+      <c r="B30" s="131" t="n"/>
+      <c r="D30" s="132" t="n"/>
+      <c r="E30" s="133" t="n"/>
+      <c r="G30" s="132" t="n"/>
+      <c r="H30" s="130" t="n"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" s="68">
+      <c r="A31" s="135" t="n"/>
+      <c r="B31" s="135" t="n"/>
+      <c r="C31" s="118" t="n"/>
+      <c r="D31" s="119" t="n"/>
+      <c r="E31" s="135" t="n"/>
+      <c r="F31" s="118" t="n"/>
+      <c r="G31" s="119" t="n"/>
+      <c r="H31" s="134" t="n"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1" s="68">
+      <c r="A32" s="136" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="127" t="n"/>
+      <c r="C32" s="128" t="n"/>
+      <c r="D32" s="129" t="n"/>
+      <c r="E32" s="121" t="n"/>
+      <c r="F32" s="128" t="n"/>
+      <c r="G32" s="129" t="n"/>
+      <c r="H32" s="121" t="n"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1" s="68">
+      <c r="A33" s="133" t="n"/>
+      <c r="B33" s="131" t="n"/>
+      <c r="D33" s="132" t="n"/>
+      <c r="E33" s="133" t="n"/>
+      <c r="G33" s="132" t="n"/>
+      <c r="H33" s="130" t="n"/>
+    </row>
+    <row r="34" ht="18.75" customHeight="1" s="68">
+      <c r="A34" s="135" t="n"/>
+      <c r="B34" s="135" t="n"/>
+      <c r="C34" s="118" t="n"/>
+      <c r="D34" s="119" t="n"/>
+      <c r="E34" s="135" t="n"/>
+      <c r="F34" s="118" t="n"/>
+      <c r="G34" s="119" t="n"/>
+      <c r="H34" s="134" t="n"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1" s="68">
+      <c r="A35" s="138" t="n"/>
+      <c r="B35" s="139" t="n"/>
+      <c r="C35" s="139" t="n"/>
+      <c r="D35" s="139" t="n"/>
+      <c r="E35" s="140" t="n"/>
+      <c r="F35" s="140" t="n"/>
+      <c r="G35" s="140" t="n"/>
+      <c r="H35" s="140" t="n"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1" s="68">
+      <c r="A36" s="138" t="n"/>
+      <c r="B36" s="141" t="n"/>
+      <c r="C36" s="141" t="n"/>
+      <c r="D36" s="141" t="n"/>
+      <c r="E36" s="140" t="n"/>
+      <c r="F36" s="140" t="n"/>
+      <c r="G36" s="140" t="n"/>
+      <c r="H36" s="140" t="n"/>
+    </row>
+    <row r="37" ht="18.75" customHeight="1" s="68">
+      <c r="B37" s="142" t="inlineStr">
+        <is>
+          <t>WORK ORDERS / DEFECTS</t>
+        </is>
+      </c>
+      <c r="E37" s="76" t="inlineStr">
+        <is>
+          <t>REPAIRS / MATERIAL</t>
+        </is>
+      </c>
+      <c r="G37" s="67" t="n"/>
+      <c r="H37" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I37" s="67" t="n"/>
+      <c r="J37" s="125" t="n"/>
+      <c r="L37" s="67" t="n"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1" s="68">
+      <c r="A38" s="143" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="127" t="n"/>
+      <c r="C38" s="128" t="n"/>
+      <c r="D38" s="129" t="n"/>
+      <c r="E38" s="121" t="n"/>
+      <c r="F38" s="128" t="n"/>
+      <c r="G38" s="129" t="n"/>
+      <c r="H38" s="121" t="n"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1" s="68">
+      <c r="A39" s="130" t="n"/>
+      <c r="B39" s="131" t="n"/>
+      <c r="D39" s="132" t="n"/>
+      <c r="E39" s="133" t="n"/>
+      <c r="G39" s="132" t="n"/>
+      <c r="H39" s="130" t="n"/>
+    </row>
+    <row r="40" ht="18.75" customHeight="1" s="68">
+      <c r="A40" s="134" t="n"/>
+      <c r="B40" s="135" t="n"/>
+      <c r="C40" s="118" t="n"/>
+      <c r="D40" s="119" t="n"/>
+      <c r="E40" s="135" t="n"/>
+      <c r="F40" s="118" t="n"/>
+      <c r="G40" s="119" t="n"/>
+      <c r="H40" s="134" t="n"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1" s="68">
+      <c r="A41" s="143" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" s="127" t="n"/>
+      <c r="C41" s="128" t="n"/>
+      <c r="D41" s="129" t="n"/>
+      <c r="E41" s="121" t="n"/>
+      <c r="F41" s="128" t="n"/>
+      <c r="G41" s="129" t="n"/>
+      <c r="H41" s="121" t="n"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1" s="68">
+      <c r="A42" s="130" t="n"/>
+      <c r="B42" s="131" t="n"/>
+      <c r="D42" s="132" t="n"/>
+      <c r="E42" s="133" t="n"/>
+      <c r="G42" s="132" t="n"/>
+      <c r="H42" s="130" t="n"/>
+    </row>
+    <row r="43" ht="18.75" customHeight="1" s="68">
+      <c r="A43" s="134" t="n"/>
+      <c r="B43" s="135" t="n"/>
+      <c r="C43" s="118" t="n"/>
+      <c r="D43" s="119" t="n"/>
+      <c r="E43" s="135" t="n"/>
+      <c r="F43" s="118" t="n"/>
+      <c r="G43" s="119" t="n"/>
+      <c r="H43" s="134" t="n"/>
+    </row>
+    <row r="44" ht="18.75" customHeight="1" s="68">
+      <c r="A44" s="136" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" s="127" t="n"/>
+      <c r="C44" s="128" t="n"/>
+      <c r="D44" s="129" t="n"/>
+      <c r="E44" s="121" t="n"/>
+      <c r="F44" s="128" t="n"/>
+      <c r="G44" s="129" t="n"/>
+      <c r="H44" s="121" t="n"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1" s="68">
+      <c r="A45" s="133" t="n"/>
+      <c r="B45" s="131" t="n"/>
+      <c r="D45" s="132" t="n"/>
+      <c r="E45" s="133" t="n"/>
+      <c r="G45" s="132" t="n"/>
+      <c r="H45" s="130" t="n"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1" s="68">
+      <c r="A46" s="135" t="n"/>
+      <c r="B46" s="135" t="n"/>
+      <c r="C46" s="118" t="n"/>
+      <c r="D46" s="119" t="n"/>
+      <c r="E46" s="135" t="n"/>
+      <c r="F46" s="118" t="n"/>
+      <c r="G46" s="119" t="n"/>
+      <c r="H46" s="134" t="n"/>
+    </row>
+    <row r="47" ht="18.75" customHeight="1" s="68">
+      <c r="A47" s="136" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" s="127" t="n"/>
+      <c r="C47" s="128" t="n"/>
+      <c r="D47" s="129" t="n"/>
+      <c r="E47" s="121" t="n"/>
+      <c r="F47" s="128" t="n"/>
+      <c r="G47" s="129" t="n"/>
+      <c r="H47" s="121" t="n"/>
+    </row>
+    <row r="48" ht="18.75" customHeight="1" s="68">
+      <c r="A48" s="133" t="n"/>
+      <c r="B48" s="131" t="n"/>
+      <c r="D48" s="132" t="n"/>
+      <c r="E48" s="133" t="n"/>
+      <c r="G48" s="132" t="n"/>
+      <c r="H48" s="130" t="n"/>
+    </row>
+    <row r="49" ht="18.75" customHeight="1" s="68">
+      <c r="A49" s="135" t="n"/>
+      <c r="B49" s="135" t="n"/>
+      <c r="C49" s="118" t="n"/>
+      <c r="D49" s="119" t="n"/>
+      <c r="E49" s="135" t="n"/>
+      <c r="F49" s="118" t="n"/>
+      <c r="G49" s="119" t="n"/>
+      <c r="H49" s="134" t="n"/>
+    </row>
+    <row r="50" ht="18.75" customHeight="1" s="68">
+      <c r="A50" s="144" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" s="127" t="n"/>
+      <c r="C50" s="128" t="n"/>
+      <c r="D50" s="129" t="n"/>
+      <c r="E50" s="121" t="n"/>
+      <c r="F50" s="128" t="n"/>
+      <c r="G50" s="129" t="n"/>
+      <c r="H50" s="121" t="n"/>
+    </row>
+    <row r="51" ht="18.75" customHeight="1" s="68">
+      <c r="A51" s="133" t="n"/>
+      <c r="B51" s="131" t="n"/>
+      <c r="D51" s="132" t="n"/>
+      <c r="E51" s="133" t="n"/>
+      <c r="G51" s="132" t="n"/>
+      <c r="H51" s="130" t="n"/>
+    </row>
+    <row r="52" ht="18.75" customHeight="1" s="68">
+      <c r="A52" s="133" t="n"/>
+      <c r="B52" s="135" t="n"/>
+      <c r="C52" s="118" t="n"/>
+      <c r="D52" s="119" t="n"/>
+      <c r="E52" s="135" t="n"/>
+      <c r="F52" s="118" t="n"/>
+      <c r="G52" s="119" t="n"/>
+      <c r="H52" s="134" t="n"/>
+    </row>
+    <row r="53" ht="18.75" customHeight="1" s="68">
+      <c r="A53" s="143" t="n">
+        <v>10</v>
+      </c>
+      <c r="B53" s="127" t="n"/>
+      <c r="C53" s="128" t="n"/>
+      <c r="D53" s="129" t="n"/>
+      <c r="E53" s="121" t="n"/>
+      <c r="F53" s="128" t="n"/>
+      <c r="G53" s="129" t="n"/>
+      <c r="H53" s="121" t="n"/>
+    </row>
+    <row r="54" ht="18.75" customHeight="1" s="68">
+      <c r="A54" s="130" t="n"/>
+      <c r="B54" s="131" t="n"/>
+      <c r="D54" s="132" t="n"/>
+      <c r="E54" s="133" t="n"/>
+      <c r="G54" s="132" t="n"/>
+      <c r="H54" s="130" t="n"/>
+    </row>
+    <row r="55" ht="18.75" customHeight="1" s="68">
+      <c r="A55" s="134" t="n"/>
+      <c r="B55" s="135" t="n"/>
+      <c r="C55" s="118" t="n"/>
+      <c r="D55" s="119" t="n"/>
+      <c r="E55" s="135" t="n"/>
+      <c r="F55" s="118" t="n"/>
+      <c r="G55" s="119" t="n"/>
+      <c r="H55" s="134" t="n"/>
+    </row>
+    <row r="56" ht="18.75" customHeight="1" s="68">
+      <c r="A56" s="143" t="n">
+        <v>11</v>
+      </c>
+      <c r="B56" s="127" t="n"/>
+      <c r="C56" s="128" t="n"/>
+      <c r="D56" s="129" t="n"/>
+      <c r="E56" s="121" t="n"/>
+      <c r="F56" s="128" t="n"/>
+      <c r="G56" s="129" t="n"/>
+      <c r="H56" s="121" t="n"/>
+    </row>
+    <row r="57" ht="18.75" customHeight="1" s="68">
+      <c r="A57" s="130" t="n"/>
+      <c r="B57" s="131" t="n"/>
+      <c r="D57" s="132" t="n"/>
+      <c r="E57" s="133" t="n"/>
+      <c r="G57" s="132" t="n"/>
+      <c r="H57" s="130" t="n"/>
+    </row>
+    <row r="58" ht="18.75" customHeight="1" s="68">
+      <c r="A58" s="134" t="n"/>
+      <c r="B58" s="135" t="n"/>
+      <c r="C58" s="118" t="n"/>
+      <c r="D58" s="119" t="n"/>
+      <c r="E58" s="135" t="n"/>
+      <c r="F58" s="118" t="n"/>
+      <c r="G58" s="119" t="n"/>
+      <c r="H58" s="134" t="n"/>
+    </row>
+    <row r="59" ht="18.75" customHeight="1" s="68">
+      <c r="A59" s="143" t="n">
+        <v>12</v>
+      </c>
+      <c r="B59" s="127" t="n"/>
+      <c r="C59" s="128" t="n"/>
+      <c r="D59" s="129" t="n"/>
+      <c r="E59" s="121" t="n"/>
+      <c r="F59" s="128" t="n"/>
+      <c r="G59" s="129" t="n"/>
+      <c r="H59" s="121" t="n"/>
+    </row>
+    <row r="60" ht="18.75" customHeight="1" s="68">
+      <c r="A60" s="130" t="n"/>
+      <c r="B60" s="131" t="n"/>
+      <c r="D60" s="132" t="n"/>
+      <c r="E60" s="133" t="n"/>
+      <c r="G60" s="132" t="n"/>
+      <c r="H60" s="130" t="n"/>
+    </row>
+    <row r="61" ht="18.75" customHeight="1" s="68">
+      <c r="A61" s="134" t="n"/>
+      <c r="B61" s="135" t="n"/>
+      <c r="C61" s="118" t="n"/>
+      <c r="D61" s="119" t="n"/>
+      <c r="E61" s="135" t="n"/>
+      <c r="F61" s="118" t="n"/>
+      <c r="G61" s="119" t="n"/>
+      <c r="H61" s="134" t="n"/>
+    </row>
+    <row r="62" ht="18.75" customHeight="1" s="68">
+      <c r="A62" s="143" t="n">
+        <v>13</v>
+      </c>
+      <c r="B62" s="127" t="n"/>
+      <c r="C62" s="128" t="n"/>
+      <c r="D62" s="129" t="n"/>
+      <c r="E62" s="121" t="n"/>
+      <c r="F62" s="128" t="n"/>
+      <c r="G62" s="129" t="n"/>
+      <c r="H62" s="121" t="n"/>
+    </row>
+    <row r="63" ht="18.75" customHeight="1" s="68">
+      <c r="A63" s="130" t="n"/>
+      <c r="B63" s="131" t="n"/>
+      <c r="D63" s="132" t="n"/>
+      <c r="E63" s="133" t="n"/>
+      <c r="G63" s="132" t="n"/>
+      <c r="H63" s="130" t="n"/>
+    </row>
+    <row r="64" ht="18.75" customHeight="1" s="68">
+      <c r="A64" s="134" t="n"/>
+      <c r="B64" s="135" t="n"/>
+      <c r="C64" s="118" t="n"/>
+      <c r="D64" s="119" t="n"/>
+      <c r="E64" s="135" t="n"/>
+      <c r="F64" s="118" t="n"/>
+      <c r="G64" s="119" t="n"/>
+      <c r="H64" s="134" t="n"/>
+    </row>
+    <row r="65" ht="18.75" customHeight="1" s="68">
+      <c r="A65" s="143" t="n">
+        <v>14</v>
+      </c>
+      <c r="B65" s="127" t="n"/>
+      <c r="C65" s="128" t="n"/>
+      <c r="D65" s="129" t="n"/>
+      <c r="E65" s="121" t="n"/>
+      <c r="F65" s="128" t="n"/>
+      <c r="G65" s="129" t="n"/>
+      <c r="H65" s="121" t="n"/>
+    </row>
+    <row r="66" ht="18.75" customHeight="1" s="68">
+      <c r="A66" s="130" t="n"/>
+      <c r="B66" s="131" t="n"/>
+      <c r="D66" s="132" t="n"/>
+      <c r="E66" s="133" t="n"/>
+      <c r="G66" s="132" t="n"/>
+      <c r="H66" s="130" t="n"/>
+    </row>
+    <row r="67" ht="18.75" customHeight="1" s="68">
+      <c r="A67" s="134" t="n"/>
+      <c r="B67" s="135" t="n"/>
+      <c r="C67" s="118" t="n"/>
+      <c r="D67" s="119" t="n"/>
+      <c r="E67" s="135" t="n"/>
+      <c r="F67" s="118" t="n"/>
+      <c r="G67" s="119" t="n"/>
+      <c r="H67" s="134" t="n"/>
+    </row>
+    <row r="68" ht="18.75" customHeight="1" s="68">
+      <c r="A68" s="143" t="n">
+        <v>15</v>
+      </c>
+      <c r="B68" s="127" t="n"/>
+      <c r="C68" s="128" t="n"/>
+      <c r="D68" s="129" t="n"/>
+      <c r="E68" s="121" t="n"/>
+      <c r="F68" s="128" t="n"/>
+      <c r="G68" s="129" t="n"/>
+      <c r="H68" s="121" t="n"/>
+    </row>
+    <row r="69" ht="18.75" customHeight="1" s="68">
+      <c r="A69" s="130" t="n"/>
+      <c r="B69" s="131" t="n"/>
+      <c r="D69" s="132" t="n"/>
+      <c r="E69" s="133" t="n"/>
+      <c r="G69" s="132" t="n"/>
+      <c r="H69" s="130" t="n"/>
+    </row>
+    <row r="70" ht="18.75" customHeight="1" s="68">
+      <c r="A70" s="134" t="n"/>
+      <c r="B70" s="135" t="n"/>
+      <c r="C70" s="118" t="n"/>
+      <c r="D70" s="119" t="n"/>
+      <c r="E70" s="135" t="n"/>
+      <c r="F70" s="118" t="n"/>
+      <c r="G70" s="119" t="n"/>
+      <c r="H70" s="134" t="n"/>
+    </row>
+    <row r="71" ht="18.75" customHeight="1" s="68">
+      <c r="A71" s="143" t="n">
+        <v>16</v>
+      </c>
+      <c r="B71" s="127" t="n"/>
+      <c r="C71" s="128" t="n"/>
+      <c r="D71" s="129" t="n"/>
+      <c r="E71" s="121" t="n"/>
+      <c r="F71" s="128" t="n"/>
+      <c r="G71" s="129" t="n"/>
+      <c r="H71" s="121" t="n"/>
+    </row>
+    <row r="72" ht="18.75" customHeight="1" s="68">
+      <c r="A72" s="130" t="n"/>
+      <c r="B72" s="131" t="n"/>
+      <c r="D72" s="132" t="n"/>
+      <c r="E72" s="133" t="n"/>
+      <c r="G72" s="132" t="n"/>
+      <c r="H72" s="130" t="n"/>
+    </row>
+    <row r="73" ht="18.75" customHeight="1" s="68">
+      <c r="A73" s="134" t="n"/>
+      <c r="B73" s="135" t="n"/>
+      <c r="C73" s="118" t="n"/>
+      <c r="D73" s="119" t="n"/>
+      <c r="E73" s="135" t="n"/>
+      <c r="F73" s="118" t="n"/>
+      <c r="G73" s="119" t="n"/>
+      <c r="H73" s="134" t="n"/>
+    </row>
+    <row r="74" ht="18.75" customHeight="1" s="68">
+      <c r="A74" s="145" t="n"/>
+      <c r="B74" s="146" t="n"/>
+      <c r="C74" s="146" t="n"/>
+      <c r="D74" s="146" t="n"/>
+      <c r="E74" s="67" t="n"/>
+      <c r="F74" s="67" t="n"/>
+      <c r="G74" s="67" t="n"/>
+      <c r="H74" s="67" t="n"/>
+    </row>
+    <row r="75" ht="18.75" customHeight="1" s="68">
+      <c r="A75" s="145" t="n"/>
+      <c r="B75" s="147" t="n"/>
+      <c r="C75" s="147" t="n"/>
+      <c r="D75" s="147" t="n"/>
+      <c r="E75" s="67" t="n"/>
+      <c r="F75" s="67" t="n"/>
+      <c r="G75" s="67" t="n"/>
+      <c r="H75" s="67" t="n"/>
+    </row>
+    <row r="76" ht="18.75" customHeight="1" s="68">
+      <c r="A76" s="145" t="n"/>
+      <c r="B76" s="147" t="n"/>
+      <c r="C76" s="147" t="n"/>
+      <c r="D76" s="147" t="n"/>
+      <c r="E76" s="67" t="n"/>
+      <c r="F76" s="67" t="n"/>
+      <c r="G76" s="67" t="n"/>
+      <c r="H76" s="67" t="n"/>
+    </row>
+    <row r="77" ht="19.35" customHeight="1" s="68">
+      <c r="A77" s="145" t="n"/>
+      <c r="B77" s="138" t="n"/>
+      <c r="C77" s="140" t="n"/>
+      <c r="D77" s="67" t="n"/>
+      <c r="E77" s="67" t="n"/>
+      <c r="F77" s="140" t="n"/>
+      <c r="G77" s="67" t="n"/>
+    </row>
+    <row r="78" ht="19.35" customHeight="1" s="68">
+      <c r="A78" s="145" t="n"/>
+      <c r="B78" s="138" t="n"/>
+      <c r="C78" s="140" t="n"/>
+      <c r="D78" s="67" t="n"/>
+      <c r="E78" s="67" t="n"/>
+      <c r="F78" s="140" t="n"/>
+      <c r="G78" s="67" t="n"/>
+    </row>
+    <row r="79" ht="19.35" customHeight="1" s="68">
+      <c r="A79" s="145" t="n"/>
+      <c r="B79" s="138" t="n"/>
+      <c r="C79" s="140" t="n"/>
+      <c r="D79" s="67" t="n"/>
+      <c r="E79" s="67" t="n"/>
+      <c r="F79" s="140" t="n"/>
+      <c r="G79" s="67" t="n"/>
+    </row>
+    <row r="80" ht="19.35" customHeight="1" s="68">
+      <c r="A80" s="145" t="n"/>
+      <c r="B80" s="138" t="n"/>
+      <c r="C80" s="140" t="n"/>
+      <c r="D80" s="67" t="n"/>
+      <c r="E80" s="67" t="n"/>
+      <c r="F80" s="140" t="n"/>
+      <c r="G80" s="67" t="n"/>
+    </row>
+    <row r="81" ht="19.35" customHeight="1" s="68">
+      <c r="A81" s="145" t="n"/>
+      <c r="B81" s="138" t="n"/>
+      <c r="C81" s="140" t="n"/>
+      <c r="D81" s="67" t="n"/>
+      <c r="E81" s="67" t="n"/>
+      <c r="F81" s="140" t="n"/>
+      <c r="G81" s="67" t="n"/>
+    </row>
+    <row r="82" ht="19.35" customHeight="1" s="68">
+      <c r="A82" s="145" t="n"/>
+      <c r="B82" s="138" t="n"/>
+      <c r="C82" s="140" t="n"/>
+      <c r="D82" s="67" t="n"/>
+      <c r="E82" s="67" t="n"/>
+      <c r="F82" s="140" t="n"/>
+      <c r="G82" s="67" t="n"/>
+    </row>
+    <row r="83" ht="19.35" customHeight="1" s="68">
+      <c r="A83" s="145" t="n"/>
+      <c r="B83" s="138" t="n"/>
+      <c r="C83" s="140" t="n"/>
+      <c r="D83" s="67" t="n"/>
+      <c r="E83" s="67" t="n"/>
+      <c r="F83" s="140" t="n"/>
+      <c r="G83" s="67" t="n"/>
+    </row>
+    <row r="84" ht="18.75" customHeight="1" s="68">
+      <c r="A84" s="145" t="n"/>
+      <c r="B84" s="138" t="n"/>
+      <c r="C84" s="140" t="n"/>
+      <c r="D84" s="67" t="n"/>
+      <c r="E84" s="67" t="n"/>
+      <c r="F84" s="140" t="n"/>
+      <c r="G84" s="67" t="n"/>
+    </row>
+    <row r="85" ht="19.35" customHeight="1" s="68">
+      <c r="A85" s="145" t="n"/>
+      <c r="B85" s="138" t="n"/>
+      <c r="C85" s="140" t="n"/>
+      <c r="D85" s="67" t="n"/>
+      <c r="E85" s="67" t="n"/>
+      <c r="F85" s="140" t="n"/>
+      <c r="G85" s="67" t="n"/>
+    </row>
+    <row r="86" ht="19.35" customHeight="1" s="68">
+      <c r="A86" s="145" t="n"/>
+      <c r="B86" s="138" t="n"/>
+      <c r="C86" s="140" t="n"/>
+      <c r="D86" s="67" t="n"/>
+      <c r="E86" s="67" t="n"/>
+      <c r="F86" s="140" t="n"/>
+      <c r="G86" s="67" t="n"/>
+    </row>
+    <row r="87" ht="18.75" customHeight="1" s="68">
+      <c r="A87" s="145" t="n"/>
+      <c r="B87" s="138" t="n"/>
+      <c r="C87" s="140" t="n"/>
+      <c r="D87" s="67" t="n"/>
+      <c r="E87" s="67" t="n"/>
+      <c r="F87" s="140" t="n"/>
+      <c r="G87" s="67" t="n"/>
+    </row>
+    <row r="88" ht="18.75" customHeight="1" s="68">
+      <c r="A88" s="145" t="n"/>
+      <c r="B88" s="138" t="n"/>
+      <c r="C88" s="140" t="n"/>
+      <c r="D88" s="67" t="n"/>
+      <c r="E88" s="67" t="n"/>
+      <c r="F88" s="140" t="n"/>
+      <c r="G88" s="67" t="n"/>
+    </row>
+    <row r="89" ht="18.75" customHeight="1" s="68">
+      <c r="A89" s="145" t="n"/>
+      <c r="B89" s="138" t="n"/>
+      <c r="C89" s="140" t="n"/>
+      <c r="D89" s="67" t="n"/>
+      <c r="E89" s="67" t="n"/>
+      <c r="F89" s="140" t="n"/>
+      <c r="G89" s="67" t="n"/>
+    </row>
+    <row r="90" ht="15" customHeight="1" s="68">
+      <c r="A90" s="67" t="n"/>
+      <c r="B90" s="67" t="n"/>
+      <c r="C90" s="67" t="n"/>
+      <c r="D90" s="67" t="n"/>
+      <c r="E90" s="67" t="n"/>
+      <c r="F90" s="67" t="n"/>
+      <c r="G90" s="67" t="n"/>
+    </row>
+    <row r="91" ht="15" customHeight="1" s="68">
+      <c r="A91" s="67" t="n"/>
+      <c r="B91" s="67" t="n"/>
+      <c r="C91" s="67" t="n"/>
+      <c r="D91" s="67" t="n"/>
+      <c r="E91" s="67" t="n"/>
+      <c r="F91" s="67" t="n"/>
+      <c r="G91" s="67" t="n"/>
+    </row>
+    <row r="92" ht="15" customHeight="1" s="68">
+      <c r="A92" s="67" t="n"/>
+      <c r="B92" s="67" t="n"/>
+      <c r="C92" s="67" t="n"/>
+      <c r="D92" s="67" t="n"/>
+      <c r="E92" s="67" t="n"/>
+      <c r="F92" s="67" t="n"/>
+      <c r="G92" s="67" t="n"/>
+    </row>
+    <row r="93" ht="15" customHeight="1" s="68">
+      <c r="A93" s="67" t="n"/>
+      <c r="B93" s="67" t="n"/>
+      <c r="C93" s="67" t="n"/>
+      <c r="D93" s="67" t="n"/>
+      <c r="E93" s="67" t="n"/>
+      <c r="F93" s="67" t="n"/>
+      <c r="G93" s="67" t="n"/>
+    </row>
+    <row r="94" ht="15" customHeight="1" s="68">
+      <c r="A94" s="67" t="n"/>
+      <c r="B94" s="67" t="n"/>
+      <c r="C94" s="67" t="n"/>
+      <c r="D94" s="67" t="n"/>
+      <c r="E94" s="67" t="n"/>
+      <c r="F94" s="67" t="n"/>
+      <c r="G94" s="67" t="n"/>
+    </row>
+    <row r="95" ht="15" customHeight="1" s="68">
+      <c r="A95" s="67" t="n"/>
+      <c r="B95" s="67" t="n"/>
+      <c r="C95" s="67" t="n"/>
+      <c r="D95" s="67" t="n"/>
+      <c r="E95" s="67" t="n"/>
+      <c r="F95" s="67" t="n"/>
+      <c r="G95" s="67" t="n"/>
+    </row>
+    <row r="96" ht="15" customHeight="1" s="68">
+      <c r="A96" s="67" t="n"/>
+      <c r="B96" s="67" t="n"/>
+      <c r="C96" s="67" t="n"/>
+      <c r="D96" s="67" t="n"/>
+      <c r="E96" s="67" t="n"/>
+      <c r="F96" s="67" t="n"/>
+      <c r="G96" s="67" t="n"/>
+    </row>
+    <row r="97" ht="15" customHeight="1" s="68">
+      <c r="A97" s="67" t="n"/>
+      <c r="B97" s="67" t="n"/>
+      <c r="C97" s="67" t="n"/>
+      <c r="D97" s="67" t="n"/>
+      <c r="E97" s="67" t="n"/>
+      <c r="F97" s="67" t="n"/>
+      <c r="G97" s="67" t="n"/>
+    </row>
+    <row r="98" ht="15" customHeight="1" s="68">
+      <c r="A98" s="67" t="n"/>
+      <c r="B98" s="67" t="n"/>
+      <c r="C98" s="67" t="n"/>
+      <c r="D98" s="67" t="n"/>
+      <c r="E98" s="67" t="n"/>
+      <c r="F98" s="67" t="n"/>
+      <c r="G98" s="67" t="n"/>
+    </row>
+    <row r="99" ht="15" customHeight="1" s="68">
+      <c r="A99" s="67" t="n"/>
+      <c r="B99" s="67" t="n"/>
+      <c r="C99" s="67" t="n"/>
+      <c r="D99" s="67" t="n"/>
+      <c r="E99" s="67" t="n"/>
+      <c r="F99" s="67" t="n"/>
+      <c r="G99" s="67" t="n"/>
+    </row>
+    <row r="100" ht="15" customHeight="1" s="68">
+      <c r="A100" s="67" t="n"/>
+      <c r="B100" s="67" t="n"/>
+      <c r="C100" s="67" t="n"/>
+      <c r="D100" s="67" t="n"/>
+      <c r="E100" s="67" t="n"/>
+      <c r="F100" s="67" t="n"/>
+      <c r="G100" s="67" t="n"/>
+    </row>
+    <row r="101" ht="15" customHeight="1" s="68">
+      <c r="A101" s="67" t="n"/>
+      <c r="B101" s="67" t="n"/>
+      <c r="C101" s="67" t="n"/>
+      <c r="D101" s="67" t="n"/>
+      <c r="E101" s="67" t="n"/>
+      <c r="F101" s="67" t="n"/>
+      <c r="G101" s="67" t="n"/>
+    </row>
+    <row r="102" ht="15" customHeight="1" s="68">
+      <c r="A102" s="67" t="n"/>
+      <c r="B102" s="67" t="n"/>
+      <c r="C102" s="67" t="n"/>
+      <c r="D102" s="67" t="n"/>
+      <c r="E102" s="67" t="n"/>
+      <c r="F102" s="67" t="n"/>
+      <c r="G102" s="67" t="n"/>
+    </row>
+    <row r="103" ht="15" customHeight="1" s="68">
+      <c r="A103" s="67" t="n"/>
+      <c r="B103" s="67" t="n"/>
+      <c r="C103" s="67" t="n"/>
+      <c r="D103" s="67" t="n"/>
+      <c r="E103" s="67" t="n"/>
+      <c r="F103" s="67" t="n"/>
+      <c r="G103" s="67" t="n"/>
+    </row>
+    <row r="104" ht="15" customHeight="1" s="68">
+      <c r="A104" s="67" t="n"/>
+      <c r="B104" s="67" t="n"/>
+      <c r="C104" s="67" t="n"/>
+      <c r="D104" s="67" t="n"/>
+      <c r="E104" s="67" t="n"/>
+      <c r="F104" s="67" t="n"/>
+      <c r="G104" s="67" t="n"/>
+    </row>
+    <row r="105" ht="15" customHeight="1" s="68">
+      <c r="A105" s="67" t="n"/>
+      <c r="B105" s="67" t="n"/>
+      <c r="C105" s="67" t="n"/>
+      <c r="D105" s="67" t="n"/>
+      <c r="E105" s="67" t="n"/>
+      <c r="F105" s="67" t="n"/>
+      <c r="G105" s="67" t="n"/>
+    </row>
+    <row r="106" ht="15" customHeight="1" s="68">
+      <c r="A106" s="67" t="n"/>
+      <c r="B106" s="67" t="n"/>
+      <c r="C106" s="67" t="n"/>
+      <c r="D106" s="67" t="n"/>
+      <c r="E106" s="67" t="n"/>
+      <c r="F106" s="67" t="n"/>
+      <c r="G106" s="67" t="n"/>
+    </row>
+    <row r="107" ht="15" customHeight="1" s="68">
+      <c r="A107" s="67" t="n"/>
+      <c r="B107" s="67" t="n"/>
+      <c r="C107" s="67" t="n"/>
+      <c r="D107" s="67" t="n"/>
+      <c r="E107" s="67" t="n"/>
+      <c r="F107" s="67" t="n"/>
+      <c r="G107" s="67" t="n"/>
+    </row>
+    <row r="108" ht="15" customHeight="1" s="68">
+      <c r="A108" s="67" t="n"/>
+      <c r="B108" s="67" t="n"/>
+      <c r="C108" s="67" t="n"/>
+      <c r="D108" s="67" t="n"/>
+      <c r="E108" s="67" t="n"/>
+      <c r="F108" s="67" t="n"/>
+      <c r="G108" s="67" t="n"/>
+    </row>
+    <row r="109" ht="15" customHeight="1" s="68">
+      <c r="A109" s="67" t="n"/>
+      <c r="B109" s="67" t="n"/>
+      <c r="C109" s="67" t="n"/>
+      <c r="D109" s="67" t="n"/>
+      <c r="E109" s="67" t="n"/>
+      <c r="F109" s="67" t="n"/>
+      <c r="G109" s="67" t="n"/>
+    </row>
+    <row r="110" ht="15" customHeight="1" s="68">
+      <c r="A110" s="67" t="n"/>
+      <c r="B110" s="67" t="n"/>
+      <c r="C110" s="67" t="n"/>
+      <c r="D110" s="67" t="n"/>
+      <c r="E110" s="67" t="n"/>
+      <c r="F110" s="67" t="n"/>
+      <c r="G110" s="67" t="n"/>
+    </row>
+    <row r="111" ht="15" customHeight="1" s="68">
+      <c r="A111" s="67" t="n"/>
+      <c r="B111" s="67" t="n"/>
+      <c r="C111" s="67" t="n"/>
+      <c r="D111" s="67" t="n"/>
+      <c r="E111" s="67" t="n"/>
+      <c r="F111" s="67" t="n"/>
+      <c r="G111" s="67" t="n"/>
+    </row>
+    <row r="112" ht="15" customHeight="1" s="68">
+      <c r="A112" s="67" t="n"/>
+      <c r="B112" s="67" t="n"/>
+      <c r="C112" s="67" t="n"/>
+      <c r="D112" s="67" t="n"/>
+      <c r="E112" s="67" t="n"/>
+      <c r="F112" s="67" t="n"/>
+      <c r="G112" s="67" t="n"/>
+    </row>
+    <row r="113" ht="15" customHeight="1" s="68">
+      <c r="A113" s="67" t="n"/>
+      <c r="B113" s="67" t="n"/>
+      <c r="C113" s="67" t="n"/>
+      <c r="D113" s="67" t="n"/>
+      <c r="E113" s="67" t="n"/>
+      <c r="F113" s="67" t="n"/>
+      <c r="G113" s="67" t="n"/>
+    </row>
+    <row r="114" ht="15" customHeight="1" s="68">
+      <c r="A114" s="67" t="n"/>
+      <c r="B114" s="67" t="n"/>
+      <c r="C114" s="67" t="n"/>
+      <c r="D114" s="67" t="n"/>
+      <c r="E114" s="67" t="n"/>
+      <c r="F114" s="67" t="n"/>
+      <c r="G114" s="67" t="n"/>
+    </row>
+    <row r="115" ht="15" customHeight="1" s="68">
+      <c r="A115" s="67" t="n"/>
+      <c r="B115" s="67" t="n"/>
+      <c r="C115" s="67" t="n"/>
+      <c r="D115" s="67" t="n"/>
+      <c r="E115" s="67" t="n"/>
+      <c r="F115" s="67" t="n"/>
+      <c r="G115" s="67" t="n"/>
+    </row>
+    <row r="116" ht="15" customHeight="1" s="68">
+      <c r="A116" s="67" t="n"/>
+      <c r="B116" s="67" t="n"/>
+      <c r="C116" s="67" t="n"/>
+      <c r="D116" s="67" t="n"/>
+      <c r="E116" s="67" t="n"/>
+      <c r="F116" s="67" t="n"/>
+      <c r="G116" s="67" t="n"/>
+    </row>
+    <row r="117" ht="15" customHeight="1" s="68">
+      <c r="A117" s="67" t="n"/>
+      <c r="B117" s="67" t="n"/>
+      <c r="C117" s="67" t="n"/>
+      <c r="D117" s="67" t="n"/>
+      <c r="E117" s="67" t="n"/>
+      <c r="F117" s="67" t="n"/>
+      <c r="G117" s="67" t="n"/>
+    </row>
+    <row r="118" ht="15" customHeight="1" s="68">
+      <c r="A118" s="67" t="n"/>
+      <c r="B118" s="67" t="n"/>
+      <c r="C118" s="67" t="n"/>
+      <c r="D118" s="67" t="n"/>
+      <c r="E118" s="67" t="n"/>
+      <c r="F118" s="67" t="n"/>
+      <c r="G118" s="67" t="n"/>
+    </row>
+    <row r="119" ht="15" customHeight="1" s="68">
+      <c r="A119" s="67" t="n"/>
+      <c r="B119" s="67" t="n"/>
+      <c r="C119" s="67" t="n"/>
+      <c r="D119" s="67" t="n"/>
+      <c r="E119" s="67" t="n"/>
+      <c r="F119" s="67" t="n"/>
+      <c r="G119" s="67" t="n"/>
+    </row>
+    <row r="120" ht="15" customHeight="1" s="68">
+      <c r="A120" s="67" t="n"/>
+      <c r="B120" s="67" t="n"/>
+      <c r="C120" s="67" t="n"/>
+      <c r="D120" s="67" t="n"/>
+      <c r="E120" s="67" t="n"/>
+      <c r="F120" s="67" t="n"/>
+      <c r="G120" s="67" t="n"/>
+    </row>
+    <row r="121" ht="15" customHeight="1" s="68">
+      <c r="A121" s="67" t="n"/>
+      <c r="B121" s="67" t="n"/>
+      <c r="C121" s="67" t="n"/>
+      <c r="D121" s="67" t="n"/>
+      <c r="E121" s="67" t="n"/>
+      <c r="F121" s="67" t="n"/>
+      <c r="G121" s="67" t="n"/>
+    </row>
+    <row r="122" ht="15" customHeight="1" s="68">
+      <c r="A122" s="67" t="n"/>
+      <c r="B122" s="67" t="n"/>
+      <c r="C122" s="67" t="n"/>
+      <c r="D122" s="67" t="n"/>
+      <c r="E122" s="67" t="n"/>
+      <c r="F122" s="67" t="n"/>
+      <c r="G122" s="67" t="n"/>
+    </row>
+    <row r="123" ht="15" customHeight="1" s="68">
+      <c r="A123" s="67" t="n"/>
+      <c r="B123" s="67" t="n"/>
+      <c r="C123" s="67" t="n"/>
+      <c r="D123" s="67" t="n"/>
+      <c r="E123" s="67" t="n"/>
+      <c r="F123" s="67" t="n"/>
+      <c r="G123" s="67" t="n"/>
+    </row>
+    <row r="124" ht="15" customHeight="1" s="68">
+      <c r="A124" s="67" t="n"/>
+      <c r="B124" s="67" t="n"/>
+      <c r="C124" s="67" t="n"/>
+      <c r="D124" s="67" t="n"/>
+      <c r="E124" s="67" t="n"/>
+      <c r="F124" s="67" t="n"/>
+      <c r="G124" s="67" t="n"/>
+    </row>
+    <row r="125" ht="15" customHeight="1" s="68">
+      <c r="A125" s="67" t="n"/>
+      <c r="B125" s="67" t="n"/>
+      <c r="C125" s="67" t="n"/>
+      <c r="D125" s="67" t="n"/>
+      <c r="E125" s="67" t="n"/>
+      <c r="F125" s="67" t="n"/>
+      <c r="G125" s="67" t="n"/>
+    </row>
+    <row r="126" ht="15" customHeight="1" s="68">
+      <c r="A126" s="67" t="n"/>
+      <c r="B126" s="67" t="n"/>
+      <c r="C126" s="67" t="n"/>
+      <c r="D126" s="67" t="n"/>
+      <c r="E126" s="67" t="n"/>
+      <c r="F126" s="67" t="n"/>
+      <c r="G126" s="67" t="n"/>
+    </row>
+    <row r="127" ht="15" customHeight="1" s="68">
+      <c r="A127" s="67" t="n"/>
+      <c r="B127" s="67" t="n"/>
+      <c r="C127" s="67" t="n"/>
+      <c r="D127" s="67" t="n"/>
+      <c r="E127" s="67" t="n"/>
+      <c r="F127" s="67" t="n"/>
+      <c r="G127" s="67" t="n"/>
+    </row>
+    <row r="128" ht="15" customHeight="1" s="68">
+      <c r="A128" s="67" t="n"/>
+      <c r="B128" s="67" t="n"/>
+      <c r="C128" s="67" t="n"/>
+      <c r="D128" s="67" t="n"/>
+      <c r="E128" s="67" t="n"/>
+      <c r="F128" s="67" t="n"/>
+      <c r="G128" s="67" t="n"/>
+    </row>
+    <row r="129" ht="15" customHeight="1" s="68">
+      <c r="A129" s="67" t="n"/>
+      <c r="B129" s="67" t="n"/>
+      <c r="C129" s="67" t="n"/>
+      <c r="D129" s="67" t="n"/>
+      <c r="E129" s="67" t="n"/>
+      <c r="F129" s="67" t="n"/>
+      <c r="G129" s="67" t="n"/>
+    </row>
+    <row r="130" ht="15" customHeight="1" s="68">
+      <c r="A130" s="67" t="n"/>
+      <c r="B130" s="67" t="n"/>
+      <c r="C130" s="67" t="n"/>
+      <c r="D130" s="67" t="n"/>
+      <c r="E130" s="67" t="n"/>
+      <c r="F130" s="67" t="n"/>
+      <c r="G130" s="67" t="n"/>
+    </row>
+    <row r="131" ht="15" customHeight="1" s="68">
+      <c r="A131" s="67" t="n"/>
+      <c r="B131" s="67" t="n"/>
+      <c r="C131" s="67" t="n"/>
+      <c r="D131" s="67" t="n"/>
+      <c r="E131" s="67" t="n"/>
+      <c r="F131" s="67" t="n"/>
+      <c r="G131" s="67" t="n"/>
+    </row>
+    <row r="132" ht="15" customHeight="1" s="68">
+      <c r="A132" s="67" t="n"/>
+      <c r="B132" s="67" t="n"/>
+      <c r="C132" s="67" t="n"/>
+      <c r="D132" s="67" t="n"/>
+      <c r="E132" s="67" t="n"/>
+      <c r="F132" s="67" t="n"/>
+      <c r="G132" s="67" t="n"/>
+    </row>
+    <row r="133" ht="15" customHeight="1" s="68">
+      <c r="A133" s="67" t="n"/>
+      <c r="B133" s="67" t="n"/>
+      <c r="C133" s="67" t="n"/>
+      <c r="D133" s="67" t="n"/>
+      <c r="E133" s="67" t="n"/>
+      <c r="F133" s="67" t="n"/>
+      <c r="G133" s="67" t="n"/>
+    </row>
+    <row r="134" ht="15" customHeight="1" s="68">
+      <c r="A134" s="67" t="n"/>
+      <c r="B134" s="67" t="n"/>
+      <c r="C134" s="67" t="n"/>
+      <c r="D134" s="67" t="n"/>
+      <c r="E134" s="67" t="n"/>
+      <c r="F134" s="67" t="n"/>
+      <c r="G134" s="67" t="n"/>
+    </row>
+    <row r="135" ht="15" customHeight="1" s="68">
+      <c r="A135" s="67" t="n"/>
+      <c r="B135" s="67" t="n"/>
+      <c r="C135" s="67" t="n"/>
+      <c r="D135" s="67" t="n"/>
+      <c r="E135" s="67" t="n"/>
+      <c r="F135" s="67" t="n"/>
+      <c r="G135" s="67" t="n"/>
+    </row>
+    <row r="136" ht="15" customHeight="1" s="68">
+      <c r="A136" s="67" t="n"/>
+      <c r="B136" s="67" t="n"/>
+      <c r="C136" s="67" t="n"/>
+      <c r="D136" s="67" t="n"/>
+      <c r="E136" s="67" t="n"/>
+      <c r="F136" s="67" t="n"/>
+      <c r="G136" s="67" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="107">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="B54:D55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="B60:D61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="B66:D67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:G70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="B72:D73"/>
+  </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:R136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="2.85" customWidth="1" style="67" min="1" max="1"/>
+    <col width="13.14" customWidth="1" style="67" min="2" max="2"/>
+    <col width="7.71" customWidth="1" style="67" min="3" max="3"/>
+    <col width="8.289999999999999" customWidth="1" style="67" min="4" max="4"/>
+    <col width="19.71" customWidth="1" style="67" min="5" max="5"/>
+    <col width="13.57" customWidth="1" style="67" min="6" max="6"/>
+    <col width="1" customWidth="1" style="67" min="7" max="7"/>
+    <col width="28.42" customWidth="1" style="67" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" s="68">
+      <c r="A1" s="69" t="inlineStr">
+        <is>
+          <t>UNIT  NUMBER</t>
+        </is>
+      </c>
+      <c r="B1" s="70" t="n"/>
+      <c r="C1" s="70" t="n"/>
+      <c r="D1" s="71" t="n"/>
+      <c r="E1" s="72" t="inlineStr">
+        <is>
+          <t>DATE INSHOPPED:</t>
+        </is>
+      </c>
+      <c r="F1" s="73" t="inlineStr">
+        <is>
+          <t>01-09-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" s="68">
+      <c r="A2" s="74" t="inlineStr">
+        <is>
+          <t>3657</t>
+        </is>
+      </c>
+      <c r="D2" s="75" t="n"/>
+      <c r="H2" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I2" s="67" t="n"/>
+      <c r="K2" s="77" t="n"/>
+      <c r="M2" s="78" t="n"/>
+      <c r="N2" s="67" t="n"/>
+      <c r="O2" s="67" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="68">
+      <c r="A3" s="79" t="n"/>
+      <c r="D3" s="75" t="n"/>
+      <c r="E3" s="80" t="inlineStr">
+        <is>
+          <t>SAMPLES DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F3" s="81" t="n"/>
+      <c r="G3" s="67" t="n"/>
+      <c r="H3" s="82" t="n"/>
+      <c r="I3" s="83" t="n"/>
+      <c r="J3" s="83" t="n"/>
+      <c r="K3" s="83" t="n"/>
+      <c r="L3" s="84" t="n"/>
+      <c r="M3" s="83" t="n"/>
+      <c r="N3" s="83" t="n"/>
+      <c r="O3" s="67" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" s="68">
+      <c r="A4" s="85" t="n"/>
+      <c r="B4" s="86" t="n"/>
+      <c r="C4" s="86" t="n"/>
+      <c r="D4" s="87" t="n"/>
+      <c r="E4" s="80" t="inlineStr">
+        <is>
+          <t>TOILET DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F4" s="88" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G4" s="67" t="n"/>
+      <c r="H4" s="89" t="n"/>
+      <c r="O4" s="67" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" s="68">
+      <c r="A5" s="90" t="inlineStr">
+        <is>
+          <t>FRA DEAD DATE:</t>
+        </is>
+      </c>
+      <c r="B5" s="91" t="n"/>
+      <c r="C5" s="92" t="inlineStr">
+        <is>
+          <t>03-15-2020</t>
+        </is>
+      </c>
+      <c r="D5" s="70" t="n"/>
+      <c r="E5" s="80" t="inlineStr">
+        <is>
+          <t>LUBE DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F5" s="88" t="n"/>
+      <c r="G5" s="67" t="n"/>
+      <c r="H5" s="89" t="n"/>
+      <c r="O5" s="67" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" s="68">
+      <c r="A6" s="80" t="inlineStr">
+        <is>
+          <t>MI DUE (month):</t>
+        </is>
+      </c>
+      <c r="C6" s="93" t="n"/>
+      <c r="D6" s="94" t="n"/>
+      <c r="E6" s="80" t="inlineStr">
+        <is>
+          <t>C/S DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F6" s="88" t="n"/>
+      <c r="H6" s="95" t="n"/>
+      <c r="K6" s="83" t="n"/>
+      <c r="L6" s="83" t="n"/>
+      <c r="M6" s="96" t="n"/>
+      <c r="N6" s="96" t="n"/>
+      <c r="O6" s="67" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" s="68">
+      <c r="A7" s="80" t="inlineStr">
+        <is>
+          <t>EPA DUE (year, M):</t>
+        </is>
+      </c>
+      <c r="C7" s="93" t="n"/>
+      <c r="D7" s="94" t="n"/>
+      <c r="E7" s="80" t="inlineStr">
+        <is>
+          <t>AF DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F7" s="88" t="n"/>
+      <c r="H7" s="95" t="n"/>
+      <c r="I7" s="84" t="n"/>
+      <c r="K7" s="83" t="n"/>
+      <c r="L7" s="83" t="n"/>
+      <c r="M7" s="96" t="n"/>
+      <c r="N7" s="96" t="n"/>
+      <c r="O7" s="67" t="n"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" s="68">
+      <c r="A8" s="83" t="n"/>
+      <c r="B8" s="97" t="inlineStr">
+        <is>
+          <t>INBOUND TASKS (ADD WORKSHEET TASKS AS NEEDED)</t>
+        </is>
+      </c>
+      <c r="C8" s="98" t="n"/>
+      <c r="D8" s="98" t="n"/>
+      <c r="E8" s="67" t="n"/>
+      <c r="F8" s="67" t="n"/>
+      <c r="G8" s="67" t="n"/>
+      <c r="H8" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="J8" s="99" t="n"/>
+      <c r="K8" s="67" t="n"/>
+      <c r="L8" s="67" t="n"/>
+      <c r="M8" s="67" t="n"/>
+      <c r="N8" s="67" t="n"/>
+      <c r="O8" s="67" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" s="68">
+      <c r="A9" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="101" t="inlineStr">
+        <is>
+          <t>Check for and remove all non-compliance tags.  Note defects on ELF 023.</t>
+        </is>
+      </c>
+      <c r="C9" s="94" t="n"/>
+      <c r="D9" s="94" t="n"/>
+      <c r="E9" s="94" t="n"/>
+      <c r="F9" s="94" t="n"/>
+      <c r="G9" s="102" t="n"/>
+      <c r="H9" s="103" t="n"/>
+      <c r="J9" s="99" t="n"/>
+      <c r="K9" s="67" t="n"/>
+      <c r="L9" s="67" t="n"/>
+      <c r="M9" s="67" t="n"/>
+      <c r="N9" s="67" t="n"/>
+      <c r="O9" s="67" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" s="68">
+      <c r="A10" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="101" t="inlineStr">
+        <is>
+          <t>Download/Review Locomotive Fault log.  Add worksheet tasks as needed.</t>
+        </is>
+      </c>
+      <c r="C10" s="94" t="n"/>
+      <c r="D10" s="94" t="n"/>
+      <c r="E10" s="94" t="n"/>
+      <c r="F10" s="94" t="n"/>
+      <c r="G10" s="102" t="n"/>
+      <c r="H10" s="103" t="n"/>
+    </row>
+    <row r="11" ht="26.25" customHeight="1" s="68">
+      <c r="A11" s="100" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="104" t="inlineStr">
+        <is>
+          <t>Wait 15 minutes after download/sync for current info to display, then print chronology and SFA.  Attach printout to work packet.</t>
+        </is>
+      </c>
+      <c r="C11" s="94" t="n"/>
+      <c r="D11" s="94" t="n"/>
+      <c r="E11" s="94" t="n"/>
+      <c r="F11" s="94" t="n"/>
+      <c r="G11" s="102" t="n"/>
+      <c r="H11" s="105" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="68">
+      <c r="A12" s="100" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="101" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Electrical Inspections.</t>
+        </is>
+      </c>
+      <c r="C12" s="94" t="n"/>
+      <c r="D12" s="94" t="n"/>
+      <c r="E12" s="94" t="n"/>
+      <c r="F12" s="94" t="n"/>
+      <c r="G12" s="102" t="n"/>
+      <c r="H12" s="105" t="n"/>
+      <c r="K12" s="67" t="n"/>
+      <c r="L12" s="67" t="n"/>
+      <c r="M12" s="67" t="n"/>
+      <c r="N12" s="67" t="n"/>
+      <c r="O12" s="67" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" s="68">
+      <c r="A13" s="106" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="107" t="inlineStr">
+        <is>
+          <t>Perform PTC Departure test.</t>
+        </is>
+      </c>
+      <c r="C13" s="94" t="n"/>
+      <c r="D13" s="94" t="n"/>
+      <c r="E13" s="94" t="n"/>
+      <c r="F13" s="108" t="inlineStr">
+        <is>
+          <t>Pass / Fail</t>
+        </is>
+      </c>
+      <c r="G13" s="102" t="n"/>
+      <c r="H13" s="109" t="n"/>
+      <c r="Q13" s="67" t="n"/>
+      <c r="R13" s="67" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" s="68">
+      <c r="A14" s="110" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="111" t="inlineStr">
+        <is>
+          <t>Check PTCMon for PTC/EM Health.</t>
+        </is>
+      </c>
+      <c r="C14" s="112" t="n"/>
+      <c r="D14" s="112" t="n"/>
+      <c r="E14" s="113" t="inlineStr">
+        <is>
+          <t>PTC_____________   EM_______________</t>
+        </is>
+      </c>
+      <c r="F14" s="112" t="n"/>
+      <c r="G14" s="114" t="n"/>
+      <c r="H14" s="115" t="n"/>
+      <c r="K14" s="84" t="n"/>
+      <c r="Q14" s="67" t="n"/>
+      <c r="R14" s="67" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" s="68">
+      <c r="A15" s="116" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="117" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Mechanical Inspections.</t>
+        </is>
+      </c>
+      <c r="C15" s="118" t="n"/>
+      <c r="D15" s="118" t="n"/>
+      <c r="E15" s="118" t="n"/>
+      <c r="F15" s="118" t="n"/>
+      <c r="G15" s="119" t="n"/>
+      <c r="H15" s="120" t="n"/>
+      <c r="K15" s="84" t="n"/>
+      <c r="Q15" s="67" t="n"/>
+      <c r="R15" s="67" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" s="68">
+      <c r="A16" s="100" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="101" t="inlineStr">
+        <is>
+          <t>Add fluids as needed.</t>
+        </is>
+      </c>
+      <c r="C16" s="94" t="n"/>
+      <c r="D16" s="94" t="n"/>
+      <c r="E16" s="94" t="n"/>
+      <c r="F16" s="94" t="n"/>
+      <c r="G16" s="102" t="n"/>
+      <c r="H16" s="121" t="n"/>
+      <c r="Q16" s="67" t="n"/>
+      <c r="R16" s="67" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" s="68">
+      <c r="A17" s="110" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="122" t="inlineStr">
+        <is>
+          <t>Renew defective brake shoes and adjust piston travel as needed.</t>
+        </is>
+      </c>
+      <c r="C17" s="112" t="n"/>
+      <c r="D17" s="112" t="n"/>
+      <c r="E17" s="112" t="n"/>
+      <c r="F17" s="112" t="n"/>
+      <c r="G17" s="114" t="n"/>
+      <c r="H17" s="115" t="n"/>
+      <c r="I17" s="67" t="n"/>
+      <c r="K17" s="67" t="n"/>
+      <c r="L17" s="67" t="n"/>
+      <c r="M17" s="67" t="n"/>
+      <c r="N17" s="67" t="n"/>
+      <c r="O17" s="67" t="n"/>
+      <c r="Q17" s="67" t="n"/>
+      <c r="R17" s="67" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" s="68">
+      <c r="A18" s="116" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="117" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Fireman &amp; Oiler Inspections.</t>
+        </is>
+      </c>
+      <c r="C18" s="118" t="n"/>
+      <c r="D18" s="118" t="n"/>
+      <c r="E18" s="118" t="n"/>
+      <c r="F18" s="118" t="n"/>
+      <c r="G18" s="119" t="n"/>
+      <c r="H18" s="120" t="n"/>
+      <c r="I18" s="67" t="n"/>
+      <c r="K18" s="67" t="n"/>
+      <c r="L18" s="67" t="n"/>
+      <c r="M18" s="67" t="n"/>
+      <c r="N18" s="67" t="n"/>
+      <c r="O18" s="67" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" s="68">
+      <c r="A19" s="100" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" s="117" t="inlineStr">
+        <is>
+          <t>Fuel Locomotive as needed.                         Gallons added _________________</t>
+        </is>
+      </c>
+      <c r="C19" s="118" t="n"/>
+      <c r="D19" s="118" t="n"/>
+      <c r="E19" s="118" t="n"/>
+      <c r="F19" s="118" t="n"/>
+      <c r="G19" s="119" t="n"/>
+      <c r="H19" s="121" t="n"/>
+      <c r="I19" s="67" t="n"/>
+      <c r="K19" s="67" t="n"/>
+      <c r="L19" s="67" t="n"/>
+      <c r="M19" s="67" t="n"/>
+      <c r="N19" s="67" t="n"/>
+      <c r="O19" s="67" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" s="68">
+      <c r="A20" s="100" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" s="104" t="inlineStr">
+        <is>
+          <t>Add Sand to locomotive sandboxes as needed.</t>
+        </is>
+      </c>
+      <c r="C20" s="94" t="n"/>
+      <c r="D20" s="94" t="n"/>
+      <c r="E20" s="94" t="n"/>
+      <c r="F20" s="94" t="n"/>
+      <c r="G20" s="102" t="n"/>
+      <c r="H20" s="121" t="n"/>
+      <c r="I20" s="67" t="n"/>
+      <c r="K20" s="67" t="n"/>
+      <c r="L20" s="67" t="n"/>
+      <c r="M20" s="67" t="n"/>
+      <c r="N20" s="67" t="n"/>
+      <c r="O20" s="67" t="n"/>
+    </row>
+    <row r="21" ht="26.25" customHeight="1" s="68">
+      <c r="A21" s="100" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" s="104" t="inlineStr">
+        <is>
+          <t>Remove trash and hazardous debris from running boards, cab &amp; toilet room.</t>
+        </is>
+      </c>
+      <c r="C21" s="94" t="n"/>
+      <c r="D21" s="94" t="n"/>
+      <c r="E21" s="94" t="n"/>
+      <c r="F21" s="94" t="n"/>
+      <c r="G21" s="102" t="n"/>
+      <c r="H21" s="121" t="n"/>
+      <c r="I21" s="67" t="n"/>
+      <c r="K21" s="67" t="n"/>
+      <c r="L21" s="67" t="n"/>
+      <c r="M21" s="67" t="n"/>
+      <c r="N21" s="67" t="n"/>
+      <c r="O21" s="67" t="n"/>
+    </row>
+    <row r="22" ht="19.5" customHeight="1" s="68">
+      <c r="B22" s="123" t="inlineStr">
+        <is>
+          <t>WORK ORDERS / DEFECTS</t>
+        </is>
+      </c>
+      <c r="C22" s="94" t="n"/>
+      <c r="D22" s="94" t="n"/>
+      <c r="E22" s="124" t="inlineStr">
+        <is>
+          <t>REPAIRS / MATERIAL</t>
+        </is>
+      </c>
+      <c r="F22" s="94" t="n"/>
+      <c r="G22" s="94" t="n"/>
+      <c r="H22" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I22" s="67" t="n"/>
+      <c r="J22" s="125" t="n"/>
+      <c r="L22" s="67" t="n"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1" s="68">
+      <c r="A23" s="126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="127" t="inlineStr">
+        <is>
+          <t>FUEL/INJECTOR</t>
+        </is>
+      </c>
+      <c r="C23" s="128" t="n"/>
+      <c r="D23" s="129" t="n"/>
+      <c r="E23" s="121" t="n"/>
+      <c r="F23" s="128" t="n"/>
+      <c r="G23" s="129" t="n"/>
+      <c r="H23" s="121" t="n"/>
+      <c r="I23" s="67" t="n"/>
+      <c r="J23" s="67" t="n"/>
+      <c r="K23" s="67" t="n"/>
+      <c r="L23" s="67" t="n"/>
+    </row>
+    <row r="24" ht="19.5" customHeight="1" s="68">
+      <c r="A24" s="130" t="n"/>
+      <c r="B24" s="131" t="inlineStr">
+        <is>
+          <t>SFA - Shutdown due to potential high pressure fuel leaks *RT HOLD*</t>
+        </is>
+      </c>
+      <c r="D24" s="132" t="n"/>
+      <c r="E24" s="133" t="n"/>
+      <c r="G24" s="132" t="n"/>
+      <c r="H24" s="130" t="n"/>
+    </row>
+    <row r="25" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A25" s="134" t="n"/>
+      <c r="B25" s="135" t="n"/>
+      <c r="C25" s="118" t="n"/>
+      <c r="D25" s="119" t="n"/>
+      <c r="E25" s="135" t="n"/>
+      <c r="F25" s="118" t="n"/>
+      <c r="G25" s="119" t="n"/>
+      <c r="H25" s="134" t="n"/>
+    </row>
+    <row r="26" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A26" s="136" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="127" t="n"/>
+      <c r="C26" s="128" t="n"/>
+      <c r="D26" s="129" t="n"/>
+      <c r="E26" s="137" t="n"/>
+      <c r="F26" s="128" t="n"/>
+      <c r="G26" s="129" t="n"/>
+      <c r="H26" s="137" t="n"/>
+    </row>
+    <row r="27" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A27" s="133" t="n"/>
+      <c r="B27" s="131" t="n"/>
+      <c r="D27" s="132" t="n"/>
+      <c r="E27" s="133" t="n"/>
+      <c r="G27" s="132" t="n"/>
+      <c r="H27" s="130" t="n"/>
+    </row>
+    <row r="28" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A28" s="135" t="n"/>
+      <c r="B28" s="135" t="n"/>
+      <c r="C28" s="118" t="n"/>
+      <c r="D28" s="119" t="n"/>
+      <c r="E28" s="135" t="n"/>
+      <c r="F28" s="118" t="n"/>
+      <c r="G28" s="119" t="n"/>
+      <c r="H28" s="134" t="n"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1" s="68">
+      <c r="A29" s="136" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="127" t="n"/>
+      <c r="C29" s="128" t="n"/>
+      <c r="D29" s="129" t="n"/>
+      <c r="E29" s="121" t="n"/>
+      <c r="F29" s="128" t="n"/>
+      <c r="G29" s="129" t="n"/>
+      <c r="H29" s="121" t="n"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1" s="68">
+      <c r="A30" s="133" t="n"/>
+      <c r="B30" s="131" t="n"/>
+      <c r="D30" s="132" t="n"/>
+      <c r="E30" s="133" t="n"/>
+      <c r="G30" s="132" t="n"/>
+      <c r="H30" s="130" t="n"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" s="68">
+      <c r="A31" s="135" t="n"/>
+      <c r="B31" s="135" t="n"/>
+      <c r="C31" s="118" t="n"/>
+      <c r="D31" s="119" t="n"/>
+      <c r="E31" s="135" t="n"/>
+      <c r="F31" s="118" t="n"/>
+      <c r="G31" s="119" t="n"/>
+      <c r="H31" s="134" t="n"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1" s="68">
+      <c r="A32" s="136" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="127" t="n"/>
+      <c r="C32" s="128" t="n"/>
+      <c r="D32" s="129" t="n"/>
+      <c r="E32" s="121" t="n"/>
+      <c r="F32" s="128" t="n"/>
+      <c r="G32" s="129" t="n"/>
+      <c r="H32" s="121" t="n"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1" s="68">
+      <c r="A33" s="133" t="n"/>
+      <c r="B33" s="131" t="n"/>
+      <c r="D33" s="132" t="n"/>
+      <c r="E33" s="133" t="n"/>
+      <c r="G33" s="132" t="n"/>
+      <c r="H33" s="130" t="n"/>
+    </row>
+    <row r="34" ht="18.75" customHeight="1" s="68">
+      <c r="A34" s="135" t="n"/>
+      <c r="B34" s="135" t="n"/>
+      <c r="C34" s="118" t="n"/>
+      <c r="D34" s="119" t="n"/>
+      <c r="E34" s="135" t="n"/>
+      <c r="F34" s="118" t="n"/>
+      <c r="G34" s="119" t="n"/>
+      <c r="H34" s="134" t="n"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1" s="68">
+      <c r="A35" s="138" t="n"/>
+      <c r="B35" s="139" t="n"/>
+      <c r="C35" s="139" t="n"/>
+      <c r="D35" s="139" t="n"/>
+      <c r="E35" s="140" t="n"/>
+      <c r="F35" s="140" t="n"/>
+      <c r="G35" s="140" t="n"/>
+      <c r="H35" s="140" t="n"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1" s="68">
+      <c r="A36" s="138" t="n"/>
+      <c r="B36" s="141" t="n"/>
+      <c r="C36" s="141" t="n"/>
+      <c r="D36" s="141" t="n"/>
+      <c r="E36" s="140" t="n"/>
+      <c r="F36" s="140" t="n"/>
+      <c r="G36" s="140" t="n"/>
+      <c r="H36" s="140" t="n"/>
+    </row>
+    <row r="37" ht="18.75" customHeight="1" s="68">
+      <c r="B37" s="142" t="inlineStr">
+        <is>
+          <t>WORK ORDERS / DEFECTS</t>
+        </is>
+      </c>
+      <c r="E37" s="76" t="inlineStr">
+        <is>
+          <t>REPAIRS / MATERIAL</t>
+        </is>
+      </c>
+      <c r="G37" s="67" t="n"/>
+      <c r="H37" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I37" s="67" t="n"/>
+      <c r="J37" s="125" t="n"/>
+      <c r="L37" s="67" t="n"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1" s="68">
+      <c r="A38" s="143" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="127" t="n"/>
+      <c r="C38" s="128" t="n"/>
+      <c r="D38" s="129" t="n"/>
+      <c r="E38" s="121" t="n"/>
+      <c r="F38" s="128" t="n"/>
+      <c r="G38" s="129" t="n"/>
+      <c r="H38" s="121" t="n"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1" s="68">
+      <c r="A39" s="130" t="n"/>
+      <c r="B39" s="131" t="n"/>
+      <c r="D39" s="132" t="n"/>
+      <c r="E39" s="133" t="n"/>
+      <c r="G39" s="132" t="n"/>
+      <c r="H39" s="130" t="n"/>
+    </row>
+    <row r="40" ht="18.75" customHeight="1" s="68">
+      <c r="A40" s="134" t="n"/>
+      <c r="B40" s="135" t="n"/>
+      <c r="C40" s="118" t="n"/>
+      <c r="D40" s="119" t="n"/>
+      <c r="E40" s="135" t="n"/>
+      <c r="F40" s="118" t="n"/>
+      <c r="G40" s="119" t="n"/>
+      <c r="H40" s="134" t="n"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1" s="68">
+      <c r="A41" s="143" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" s="127" t="n"/>
+      <c r="C41" s="128" t="n"/>
+      <c r="D41" s="129" t="n"/>
+      <c r="E41" s="121" t="n"/>
+      <c r="F41" s="128" t="n"/>
+      <c r="G41" s="129" t="n"/>
+      <c r="H41" s="121" t="n"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1" s="68">
+      <c r="A42" s="130" t="n"/>
+      <c r="B42" s="131" t="n"/>
+      <c r="D42" s="132" t="n"/>
+      <c r="E42" s="133" t="n"/>
+      <c r="G42" s="132" t="n"/>
+      <c r="H42" s="130" t="n"/>
+    </row>
+    <row r="43" ht="18.75" customHeight="1" s="68">
+      <c r="A43" s="134" t="n"/>
+      <c r="B43" s="135" t="n"/>
+      <c r="C43" s="118" t="n"/>
+      <c r="D43" s="119" t="n"/>
+      <c r="E43" s="135" t="n"/>
+      <c r="F43" s="118" t="n"/>
+      <c r="G43" s="119" t="n"/>
+      <c r="H43" s="134" t="n"/>
+    </row>
+    <row r="44" ht="18.75" customHeight="1" s="68">
+      <c r="A44" s="136" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" s="127" t="n"/>
+      <c r="C44" s="128" t="n"/>
+      <c r="D44" s="129" t="n"/>
+      <c r="E44" s="121" t="n"/>
+      <c r="F44" s="128" t="n"/>
+      <c r="G44" s="129" t="n"/>
+      <c r="H44" s="121" t="n"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1" s="68">
+      <c r="A45" s="133" t="n"/>
+      <c r="B45" s="131" t="n"/>
+      <c r="D45" s="132" t="n"/>
+      <c r="E45" s="133" t="n"/>
+      <c r="G45" s="132" t="n"/>
+      <c r="H45" s="130" t="n"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1" s="68">
+      <c r="A46" s="135" t="n"/>
+      <c r="B46" s="135" t="n"/>
+      <c r="C46" s="118" t="n"/>
+      <c r="D46" s="119" t="n"/>
+      <c r="E46" s="135" t="n"/>
+      <c r="F46" s="118" t="n"/>
+      <c r="G46" s="119" t="n"/>
+      <c r="H46" s="134" t="n"/>
+    </row>
+    <row r="47" ht="18.75" customHeight="1" s="68">
+      <c r="A47" s="136" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" s="127" t="n"/>
+      <c r="C47" s="128" t="n"/>
+      <c r="D47" s="129" t="n"/>
+      <c r="E47" s="121" t="n"/>
+      <c r="F47" s="128" t="n"/>
+      <c r="G47" s="129" t="n"/>
+      <c r="H47" s="121" t="n"/>
+    </row>
+    <row r="48" ht="18.75" customHeight="1" s="68">
+      <c r="A48" s="133" t="n"/>
+      <c r="B48" s="131" t="n"/>
+      <c r="D48" s="132" t="n"/>
+      <c r="E48" s="133" t="n"/>
+      <c r="G48" s="132" t="n"/>
+      <c r="H48" s="130" t="n"/>
+    </row>
+    <row r="49" ht="18.75" customHeight="1" s="68">
+      <c r="A49" s="135" t="n"/>
+      <c r="B49" s="135" t="n"/>
+      <c r="C49" s="118" t="n"/>
+      <c r="D49" s="119" t="n"/>
+      <c r="E49" s="135" t="n"/>
+      <c r="F49" s="118" t="n"/>
+      <c r="G49" s="119" t="n"/>
+      <c r="H49" s="134" t="n"/>
+    </row>
+    <row r="50" ht="18.75" customHeight="1" s="68">
+      <c r="A50" s="144" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" s="127" t="n"/>
+      <c r="C50" s="128" t="n"/>
+      <c r="D50" s="129" t="n"/>
+      <c r="E50" s="121" t="n"/>
+      <c r="F50" s="128" t="n"/>
+      <c r="G50" s="129" t="n"/>
+      <c r="H50" s="121" t="n"/>
+    </row>
+    <row r="51" ht="18.75" customHeight="1" s="68">
+      <c r="A51" s="133" t="n"/>
+      <c r="B51" s="131" t="n"/>
+      <c r="D51" s="132" t="n"/>
+      <c r="E51" s="133" t="n"/>
+      <c r="G51" s="132" t="n"/>
+      <c r="H51" s="130" t="n"/>
+    </row>
+    <row r="52" ht="18.75" customHeight="1" s="68">
+      <c r="A52" s="133" t="n"/>
+      <c r="B52" s="135" t="n"/>
+      <c r="C52" s="118" t="n"/>
+      <c r="D52" s="119" t="n"/>
+      <c r="E52" s="135" t="n"/>
+      <c r="F52" s="118" t="n"/>
+      <c r="G52" s="119" t="n"/>
+      <c r="H52" s="134" t="n"/>
+    </row>
+    <row r="53" ht="18.75" customHeight="1" s="68">
+      <c r="A53" s="143" t="n">
+        <v>10</v>
+      </c>
+      <c r="B53" s="127" t="n"/>
+      <c r="C53" s="128" t="n"/>
+      <c r="D53" s="129" t="n"/>
+      <c r="E53" s="121" t="n"/>
+      <c r="F53" s="128" t="n"/>
+      <c r="G53" s="129" t="n"/>
+      <c r="H53" s="121" t="n"/>
+    </row>
+    <row r="54" ht="18.75" customHeight="1" s="68">
+      <c r="A54" s="130" t="n"/>
+      <c r="B54" s="131" t="n"/>
+      <c r="D54" s="132" t="n"/>
+      <c r="E54" s="133" t="n"/>
+      <c r="G54" s="132" t="n"/>
+      <c r="H54" s="130" t="n"/>
+    </row>
+    <row r="55" ht="18.75" customHeight="1" s="68">
+      <c r="A55" s="134" t="n"/>
+      <c r="B55" s="135" t="n"/>
+      <c r="C55" s="118" t="n"/>
+      <c r="D55" s="119" t="n"/>
+      <c r="E55" s="135" t="n"/>
+      <c r="F55" s="118" t="n"/>
+      <c r="G55" s="119" t="n"/>
+      <c r="H55" s="134" t="n"/>
+    </row>
+    <row r="56" ht="18.75" customHeight="1" s="68">
+      <c r="A56" s="143" t="n">
+        <v>11</v>
+      </c>
+      <c r="B56" s="127" t="n"/>
+      <c r="C56" s="128" t="n"/>
+      <c r="D56" s="129" t="n"/>
+      <c r="E56" s="121" t="n"/>
+      <c r="F56" s="128" t="n"/>
+      <c r="G56" s="129" t="n"/>
+      <c r="H56" s="121" t="n"/>
+    </row>
+    <row r="57" ht="18.75" customHeight="1" s="68">
+      <c r="A57" s="130" t="n"/>
+      <c r="B57" s="131" t="n"/>
+      <c r="D57" s="132" t="n"/>
+      <c r="E57" s="133" t="n"/>
+      <c r="G57" s="132" t="n"/>
+      <c r="H57" s="130" t="n"/>
+    </row>
+    <row r="58" ht="18.75" customHeight="1" s="68">
+      <c r="A58" s="134" t="n"/>
+      <c r="B58" s="135" t="n"/>
+      <c r="C58" s="118" t="n"/>
+      <c r="D58" s="119" t="n"/>
+      <c r="E58" s="135" t="n"/>
+      <c r="F58" s="118" t="n"/>
+      <c r="G58" s="119" t="n"/>
+      <c r="H58" s="134" t="n"/>
+    </row>
+    <row r="59" ht="18.75" customHeight="1" s="68">
+      <c r="A59" s="143" t="n">
+        <v>12</v>
+      </c>
+      <c r="B59" s="127" t="n"/>
+      <c r="C59" s="128" t="n"/>
+      <c r="D59" s="129" t="n"/>
+      <c r="E59" s="121" t="n"/>
+      <c r="F59" s="128" t="n"/>
+      <c r="G59" s="129" t="n"/>
+      <c r="H59" s="121" t="n"/>
+    </row>
+    <row r="60" ht="18.75" customHeight="1" s="68">
+      <c r="A60" s="130" t="n"/>
+      <c r="B60" s="131" t="n"/>
+      <c r="D60" s="132" t="n"/>
+      <c r="E60" s="133" t="n"/>
+      <c r="G60" s="132" t="n"/>
+      <c r="H60" s="130" t="n"/>
+    </row>
+    <row r="61" ht="18.75" customHeight="1" s="68">
+      <c r="A61" s="134" t="n"/>
+      <c r="B61" s="135" t="n"/>
+      <c r="C61" s="118" t="n"/>
+      <c r="D61" s="119" t="n"/>
+      <c r="E61" s="135" t="n"/>
+      <c r="F61" s="118" t="n"/>
+      <c r="G61" s="119" t="n"/>
+      <c r="H61" s="134" t="n"/>
+    </row>
+    <row r="62" ht="18.75" customHeight="1" s="68">
+      <c r="A62" s="143" t="n">
+        <v>13</v>
+      </c>
+      <c r="B62" s="127" t="n"/>
+      <c r="C62" s="128" t="n"/>
+      <c r="D62" s="129" t="n"/>
+      <c r="E62" s="121" t="n"/>
+      <c r="F62" s="128" t="n"/>
+      <c r="G62" s="129" t="n"/>
+      <c r="H62" s="121" t="n"/>
+    </row>
+    <row r="63" ht="18.75" customHeight="1" s="68">
+      <c r="A63" s="130" t="n"/>
+      <c r="B63" s="131" t="n"/>
+      <c r="D63" s="132" t="n"/>
+      <c r="E63" s="133" t="n"/>
+      <c r="G63" s="132" t="n"/>
+      <c r="H63" s="130" t="n"/>
+    </row>
+    <row r="64" ht="18.75" customHeight="1" s="68">
+      <c r="A64" s="134" t="n"/>
+      <c r="B64" s="135" t="n"/>
+      <c r="C64" s="118" t="n"/>
+      <c r="D64" s="119" t="n"/>
+      <c r="E64" s="135" t="n"/>
+      <c r="F64" s="118" t="n"/>
+      <c r="G64" s="119" t="n"/>
+      <c r="H64" s="134" t="n"/>
+    </row>
+    <row r="65" ht="18.75" customHeight="1" s="68">
+      <c r="A65" s="143" t="n">
+        <v>14</v>
+      </c>
+      <c r="B65" s="127" t="n"/>
+      <c r="C65" s="128" t="n"/>
+      <c r="D65" s="129" t="n"/>
+      <c r="E65" s="121" t="n"/>
+      <c r="F65" s="128" t="n"/>
+      <c r="G65" s="129" t="n"/>
+      <c r="H65" s="121" t="n"/>
+    </row>
+    <row r="66" ht="18.75" customHeight="1" s="68">
+      <c r="A66" s="130" t="n"/>
+      <c r="B66" s="131" t="n"/>
+      <c r="D66" s="132" t="n"/>
+      <c r="E66" s="133" t="n"/>
+      <c r="G66" s="132" t="n"/>
+      <c r="H66" s="130" t="n"/>
+    </row>
+    <row r="67" ht="18.75" customHeight="1" s="68">
+      <c r="A67" s="134" t="n"/>
+      <c r="B67" s="135" t="n"/>
+      <c r="C67" s="118" t="n"/>
+      <c r="D67" s="119" t="n"/>
+      <c r="E67" s="135" t="n"/>
+      <c r="F67" s="118" t="n"/>
+      <c r="G67" s="119" t="n"/>
+      <c r="H67" s="134" t="n"/>
+    </row>
+    <row r="68" ht="18.75" customHeight="1" s="68">
+      <c r="A68" s="143" t="n">
+        <v>15</v>
+      </c>
+      <c r="B68" s="127" t="n"/>
+      <c r="C68" s="128" t="n"/>
+      <c r="D68" s="129" t="n"/>
+      <c r="E68" s="121" t="n"/>
+      <c r="F68" s="128" t="n"/>
+      <c r="G68" s="129" t="n"/>
+      <c r="H68" s="121" t="n"/>
+    </row>
+    <row r="69" ht="18.75" customHeight="1" s="68">
+      <c r="A69" s="130" t="n"/>
+      <c r="B69" s="131" t="n"/>
+      <c r="D69" s="132" t="n"/>
+      <c r="E69" s="133" t="n"/>
+      <c r="G69" s="132" t="n"/>
+      <c r="H69" s="130" t="n"/>
+    </row>
+    <row r="70" ht="18.75" customHeight="1" s="68">
+      <c r="A70" s="134" t="n"/>
+      <c r="B70" s="135" t="n"/>
+      <c r="C70" s="118" t="n"/>
+      <c r="D70" s="119" t="n"/>
+      <c r="E70" s="135" t="n"/>
+      <c r="F70" s="118" t="n"/>
+      <c r="G70" s="119" t="n"/>
+      <c r="H70" s="134" t="n"/>
+    </row>
+    <row r="71" ht="18.75" customHeight="1" s="68">
+      <c r="A71" s="143" t="n">
+        <v>16</v>
+      </c>
+      <c r="B71" s="127" t="n"/>
+      <c r="C71" s="128" t="n"/>
+      <c r="D71" s="129" t="n"/>
+      <c r="E71" s="121" t="n"/>
+      <c r="F71" s="128" t="n"/>
+      <c r="G71" s="129" t="n"/>
+      <c r="H71" s="121" t="n"/>
+    </row>
+    <row r="72" ht="18.75" customHeight="1" s="68">
+      <c r="A72" s="130" t="n"/>
+      <c r="B72" s="131" t="n"/>
+      <c r="D72" s="132" t="n"/>
+      <c r="E72" s="133" t="n"/>
+      <c r="G72" s="132" t="n"/>
+      <c r="H72" s="130" t="n"/>
+    </row>
+    <row r="73" ht="18.75" customHeight="1" s="68">
+      <c r="A73" s="134" t="n"/>
+      <c r="B73" s="135" t="n"/>
+      <c r="C73" s="118" t="n"/>
+      <c r="D73" s="119" t="n"/>
+      <c r="E73" s="135" t="n"/>
+      <c r="F73" s="118" t="n"/>
+      <c r="G73" s="119" t="n"/>
+      <c r="H73" s="134" t="n"/>
+    </row>
+    <row r="74" ht="18.75" customHeight="1" s="68">
+      <c r="A74" s="145" t="n"/>
+      <c r="B74" s="146" t="n"/>
+      <c r="C74" s="146" t="n"/>
+      <c r="D74" s="146" t="n"/>
+      <c r="E74" s="67" t="n"/>
+      <c r="F74" s="67" t="n"/>
+      <c r="G74" s="67" t="n"/>
+      <c r="H74" s="67" t="n"/>
+    </row>
+    <row r="75" ht="18.75" customHeight="1" s="68">
+      <c r="A75" s="145" t="n"/>
+      <c r="B75" s="147" t="n"/>
+      <c r="C75" s="147" t="n"/>
+      <c r="D75" s="147" t="n"/>
+      <c r="E75" s="67" t="n"/>
+      <c r="F75" s="67" t="n"/>
+      <c r="G75" s="67" t="n"/>
+      <c r="H75" s="67" t="n"/>
+    </row>
+    <row r="76" ht="18.75" customHeight="1" s="68">
+      <c r="A76" s="145" t="n"/>
+      <c r="B76" s="147" t="n"/>
+      <c r="C76" s="147" t="n"/>
+      <c r="D76" s="147" t="n"/>
+      <c r="E76" s="67" t="n"/>
+      <c r="F76" s="67" t="n"/>
+      <c r="G76" s="67" t="n"/>
+      <c r="H76" s="67" t="n"/>
+    </row>
+    <row r="77" ht="19.35" customHeight="1" s="68">
+      <c r="A77" s="145" t="n"/>
+      <c r="B77" s="138" t="n"/>
+      <c r="C77" s="140" t="n"/>
+      <c r="D77" s="67" t="n"/>
+      <c r="E77" s="67" t="n"/>
+      <c r="F77" s="140" t="n"/>
+      <c r="G77" s="67" t="n"/>
+    </row>
+    <row r="78" ht="19.35" customHeight="1" s="68">
+      <c r="A78" s="145" t="n"/>
+      <c r="B78" s="138" t="n"/>
+      <c r="C78" s="140" t="n"/>
+      <c r="D78" s="67" t="n"/>
+      <c r="E78" s="67" t="n"/>
+      <c r="F78" s="140" t="n"/>
+      <c r="G78" s="67" t="n"/>
+    </row>
+    <row r="79" ht="19.35" customHeight="1" s="68">
+      <c r="A79" s="145" t="n"/>
+      <c r="B79" s="138" t="n"/>
+      <c r="C79" s="140" t="n"/>
+      <c r="D79" s="67" t="n"/>
+      <c r="E79" s="67" t="n"/>
+      <c r="F79" s="140" t="n"/>
+      <c r="G79" s="67" t="n"/>
+    </row>
+    <row r="80" ht="19.35" customHeight="1" s="68">
+      <c r="A80" s="145" t="n"/>
+      <c r="B80" s="138" t="n"/>
+      <c r="C80" s="140" t="n"/>
+      <c r="D80" s="67" t="n"/>
+      <c r="E80" s="67" t="n"/>
+      <c r="F80" s="140" t="n"/>
+      <c r="G80" s="67" t="n"/>
+    </row>
+    <row r="81" ht="19.35" customHeight="1" s="68">
+      <c r="A81" s="145" t="n"/>
+      <c r="B81" s="138" t="n"/>
+      <c r="C81" s="140" t="n"/>
+      <c r="D81" s="67" t="n"/>
+      <c r="E81" s="67" t="n"/>
+      <c r="F81" s="140" t="n"/>
+      <c r="G81" s="67" t="n"/>
+    </row>
+    <row r="82" ht="19.35" customHeight="1" s="68">
+      <c r="A82" s="145" t="n"/>
+      <c r="B82" s="138" t="n"/>
+      <c r="C82" s="140" t="n"/>
+      <c r="D82" s="67" t="n"/>
+      <c r="E82" s="67" t="n"/>
+      <c r="F82" s="140" t="n"/>
+      <c r="G82" s="67" t="n"/>
+    </row>
+    <row r="83" ht="19.35" customHeight="1" s="68">
+      <c r="A83" s="145" t="n"/>
+      <c r="B83" s="138" t="n"/>
+      <c r="C83" s="140" t="n"/>
+      <c r="D83" s="67" t="n"/>
+      <c r="E83" s="67" t="n"/>
+      <c r="F83" s="140" t="n"/>
+      <c r="G83" s="67" t="n"/>
+    </row>
+    <row r="84" ht="18.75" customHeight="1" s="68">
+      <c r="A84" s="145" t="n"/>
+      <c r="B84" s="138" t="n"/>
+      <c r="C84" s="140" t="n"/>
+      <c r="D84" s="67" t="n"/>
+      <c r="E84" s="67" t="n"/>
+      <c r="F84" s="140" t="n"/>
+      <c r="G84" s="67" t="n"/>
+    </row>
+    <row r="85" ht="19.35" customHeight="1" s="68">
+      <c r="A85" s="145" t="n"/>
+      <c r="B85" s="138" t="n"/>
+      <c r="C85" s="140" t="n"/>
+      <c r="D85" s="67" t="n"/>
+      <c r="E85" s="67" t="n"/>
+      <c r="F85" s="140" t="n"/>
+      <c r="G85" s="67" t="n"/>
+    </row>
+    <row r="86" ht="19.35" customHeight="1" s="68">
+      <c r="A86" s="145" t="n"/>
+      <c r="B86" s="138" t="n"/>
+      <c r="C86" s="140" t="n"/>
+      <c r="D86" s="67" t="n"/>
+      <c r="E86" s="67" t="n"/>
+      <c r="F86" s="140" t="n"/>
+      <c r="G86" s="67" t="n"/>
+    </row>
+    <row r="87" ht="18.75" customHeight="1" s="68">
+      <c r="A87" s="145" t="n"/>
+      <c r="B87" s="138" t="n"/>
+      <c r="C87" s="140" t="n"/>
+      <c r="D87" s="67" t="n"/>
+      <c r="E87" s="67" t="n"/>
+      <c r="F87" s="140" t="n"/>
+      <c r="G87" s="67" t="n"/>
+    </row>
+    <row r="88" ht="18.75" customHeight="1" s="68">
+      <c r="A88" s="145" t="n"/>
+      <c r="B88" s="138" t="n"/>
+      <c r="C88" s="140" t="n"/>
+      <c r="D88" s="67" t="n"/>
+      <c r="E88" s="67" t="n"/>
+      <c r="F88" s="140" t="n"/>
+      <c r="G88" s="67" t="n"/>
+    </row>
+    <row r="89" ht="18.75" customHeight="1" s="68">
+      <c r="A89" s="145" t="n"/>
+      <c r="B89" s="138" t="n"/>
+      <c r="C89" s="140" t="n"/>
+      <c r="D89" s="67" t="n"/>
+      <c r="E89" s="67" t="n"/>
+      <c r="F89" s="140" t="n"/>
+      <c r="G89" s="67" t="n"/>
+    </row>
+    <row r="90" ht="15" customHeight="1" s="68">
+      <c r="A90" s="67" t="n"/>
+      <c r="B90" s="67" t="n"/>
+      <c r="C90" s="67" t="n"/>
+      <c r="D90" s="67" t="n"/>
+      <c r="E90" s="67" t="n"/>
+      <c r="F90" s="67" t="n"/>
+      <c r="G90" s="67" t="n"/>
+    </row>
+    <row r="91" ht="15" customHeight="1" s="68">
+      <c r="A91" s="67" t="n"/>
+      <c r="B91" s="67" t="n"/>
+      <c r="C91" s="67" t="n"/>
+      <c r="D91" s="67" t="n"/>
+      <c r="E91" s="67" t="n"/>
+      <c r="F91" s="67" t="n"/>
+      <c r="G91" s="67" t="n"/>
+    </row>
+    <row r="92" ht="15" customHeight="1" s="68">
+      <c r="A92" s="67" t="n"/>
+      <c r="B92" s="67" t="n"/>
+      <c r="C92" s="67" t="n"/>
+      <c r="D92" s="67" t="n"/>
+      <c r="E92" s="67" t="n"/>
+      <c r="F92" s="67" t="n"/>
+      <c r="G92" s="67" t="n"/>
+    </row>
+    <row r="93" ht="15" customHeight="1" s="68">
+      <c r="A93" s="67" t="n"/>
+      <c r="B93" s="67" t="n"/>
+      <c r="C93" s="67" t="n"/>
+      <c r="D93" s="67" t="n"/>
+      <c r="E93" s="67" t="n"/>
+      <c r="F93" s="67" t="n"/>
+      <c r="G93" s="67" t="n"/>
+    </row>
+    <row r="94" ht="15" customHeight="1" s="68">
+      <c r="A94" s="67" t="n"/>
+      <c r="B94" s="67" t="n"/>
+      <c r="C94" s="67" t="n"/>
+      <c r="D94" s="67" t="n"/>
+      <c r="E94" s="67" t="n"/>
+      <c r="F94" s="67" t="n"/>
+      <c r="G94" s="67" t="n"/>
+    </row>
+    <row r="95" ht="15" customHeight="1" s="68">
+      <c r="A95" s="67" t="n"/>
+      <c r="B95" s="67" t="n"/>
+      <c r="C95" s="67" t="n"/>
+      <c r="D95" s="67" t="n"/>
+      <c r="E95" s="67" t="n"/>
+      <c r="F95" s="67" t="n"/>
+      <c r="G95" s="67" t="n"/>
+    </row>
+    <row r="96" ht="15" customHeight="1" s="68">
+      <c r="A96" s="67" t="n"/>
+      <c r="B96" s="67" t="n"/>
+      <c r="C96" s="67" t="n"/>
+      <c r="D96" s="67" t="n"/>
+      <c r="E96" s="67" t="n"/>
+      <c r="F96" s="67" t="n"/>
+      <c r="G96" s="67" t="n"/>
+    </row>
+    <row r="97" ht="15" customHeight="1" s="68">
+      <c r="A97" s="67" t="n"/>
+      <c r="B97" s="67" t="n"/>
+      <c r="C97" s="67" t="n"/>
+      <c r="D97" s="67" t="n"/>
+      <c r="E97" s="67" t="n"/>
+      <c r="F97" s="67" t="n"/>
+      <c r="G97" s="67" t="n"/>
+    </row>
+    <row r="98" ht="15" customHeight="1" s="68">
+      <c r="A98" s="67" t="n"/>
+      <c r="B98" s="67" t="n"/>
+      <c r="C98" s="67" t="n"/>
+      <c r="D98" s="67" t="n"/>
+      <c r="E98" s="67" t="n"/>
+      <c r="F98" s="67" t="n"/>
+      <c r="G98" s="67" t="n"/>
+    </row>
+    <row r="99" ht="15" customHeight="1" s="68">
+      <c r="A99" s="67" t="n"/>
+      <c r="B99" s="67" t="n"/>
+      <c r="C99" s="67" t="n"/>
+      <c r="D99" s="67" t="n"/>
+      <c r="E99" s="67" t="n"/>
+      <c r="F99" s="67" t="n"/>
+      <c r="G99" s="67" t="n"/>
+    </row>
+    <row r="100" ht="15" customHeight="1" s="68">
+      <c r="A100" s="67" t="n"/>
+      <c r="B100" s="67" t="n"/>
+      <c r="C100" s="67" t="n"/>
+      <c r="D100" s="67" t="n"/>
+      <c r="E100" s="67" t="n"/>
+      <c r="F100" s="67" t="n"/>
+      <c r="G100" s="67" t="n"/>
+    </row>
+    <row r="101" ht="15" customHeight="1" s="68">
+      <c r="A101" s="67" t="n"/>
+      <c r="B101" s="67" t="n"/>
+      <c r="C101" s="67" t="n"/>
+      <c r="D101" s="67" t="n"/>
+      <c r="E101" s="67" t="n"/>
+      <c r="F101" s="67" t="n"/>
+      <c r="G101" s="67" t="n"/>
+    </row>
+    <row r="102" ht="15" customHeight="1" s="68">
+      <c r="A102" s="67" t="n"/>
+      <c r="B102" s="67" t="n"/>
+      <c r="C102" s="67" t="n"/>
+      <c r="D102" s="67" t="n"/>
+      <c r="E102" s="67" t="n"/>
+      <c r="F102" s="67" t="n"/>
+      <c r="G102" s="67" t="n"/>
+    </row>
+    <row r="103" ht="15" customHeight="1" s="68">
+      <c r="A103" s="67" t="n"/>
+      <c r="B103" s="67" t="n"/>
+      <c r="C103" s="67" t="n"/>
+      <c r="D103" s="67" t="n"/>
+      <c r="E103" s="67" t="n"/>
+      <c r="F103" s="67" t="n"/>
+      <c r="G103" s="67" t="n"/>
+    </row>
+    <row r="104" ht="15" customHeight="1" s="68">
+      <c r="A104" s="67" t="n"/>
+      <c r="B104" s="67" t="n"/>
+      <c r="C104" s="67" t="n"/>
+      <c r="D104" s="67" t="n"/>
+      <c r="E104" s="67" t="n"/>
+      <c r="F104" s="67" t="n"/>
+      <c r="G104" s="67" t="n"/>
+    </row>
+    <row r="105" ht="15" customHeight="1" s="68">
+      <c r="A105" s="67" t="n"/>
+      <c r="B105" s="67" t="n"/>
+      <c r="C105" s="67" t="n"/>
+      <c r="D105" s="67" t="n"/>
+      <c r="E105" s="67" t="n"/>
+      <c r="F105" s="67" t="n"/>
+      <c r="G105" s="67" t="n"/>
+    </row>
+    <row r="106" ht="15" customHeight="1" s="68">
+      <c r="A106" s="67" t="n"/>
+      <c r="B106" s="67" t="n"/>
+      <c r="C106" s="67" t="n"/>
+      <c r="D106" s="67" t="n"/>
+      <c r="E106" s="67" t="n"/>
+      <c r="F106" s="67" t="n"/>
+      <c r="G106" s="67" t="n"/>
+    </row>
+    <row r="107" ht="15" customHeight="1" s="68">
+      <c r="A107" s="67" t="n"/>
+      <c r="B107" s="67" t="n"/>
+      <c r="C107" s="67" t="n"/>
+      <c r="D107" s="67" t="n"/>
+      <c r="E107" s="67" t="n"/>
+      <c r="F107" s="67" t="n"/>
+      <c r="G107" s="67" t="n"/>
+    </row>
+    <row r="108" ht="15" customHeight="1" s="68">
+      <c r="A108" s="67" t="n"/>
+      <c r="B108" s="67" t="n"/>
+      <c r="C108" s="67" t="n"/>
+      <c r="D108" s="67" t="n"/>
+      <c r="E108" s="67" t="n"/>
+      <c r="F108" s="67" t="n"/>
+      <c r="G108" s="67" t="n"/>
+    </row>
+    <row r="109" ht="15" customHeight="1" s="68">
+      <c r="A109" s="67" t="n"/>
+      <c r="B109" s="67" t="n"/>
+      <c r="C109" s="67" t="n"/>
+      <c r="D109" s="67" t="n"/>
+      <c r="E109" s="67" t="n"/>
+      <c r="F109" s="67" t="n"/>
+      <c r="G109" s="67" t="n"/>
+    </row>
+    <row r="110" ht="15" customHeight="1" s="68">
+      <c r="A110" s="67" t="n"/>
+      <c r="B110" s="67" t="n"/>
+      <c r="C110" s="67" t="n"/>
+      <c r="D110" s="67" t="n"/>
+      <c r="E110" s="67" t="n"/>
+      <c r="F110" s="67" t="n"/>
+      <c r="G110" s="67" t="n"/>
+    </row>
+    <row r="111" ht="15" customHeight="1" s="68">
+      <c r="A111" s="67" t="n"/>
+      <c r="B111" s="67" t="n"/>
+      <c r="C111" s="67" t="n"/>
+      <c r="D111" s="67" t="n"/>
+      <c r="E111" s="67" t="n"/>
+      <c r="F111" s="67" t="n"/>
+      <c r="G111" s="67" t="n"/>
+    </row>
+    <row r="112" ht="15" customHeight="1" s="68">
+      <c r="A112" s="67" t="n"/>
+      <c r="B112" s="67" t="n"/>
+      <c r="C112" s="67" t="n"/>
+      <c r="D112" s="67" t="n"/>
+      <c r="E112" s="67" t="n"/>
+      <c r="F112" s="67" t="n"/>
+      <c r="G112" s="67" t="n"/>
+    </row>
+    <row r="113" ht="15" customHeight="1" s="68">
+      <c r="A113" s="67" t="n"/>
+      <c r="B113" s="67" t="n"/>
+      <c r="C113" s="67" t="n"/>
+      <c r="D113" s="67" t="n"/>
+      <c r="E113" s="67" t="n"/>
+      <c r="F113" s="67" t="n"/>
+      <c r="G113" s="67" t="n"/>
+    </row>
+    <row r="114" ht="15" customHeight="1" s="68">
+      <c r="A114" s="67" t="n"/>
+      <c r="B114" s="67" t="n"/>
+      <c r="C114" s="67" t="n"/>
+      <c r="D114" s="67" t="n"/>
+      <c r="E114" s="67" t="n"/>
+      <c r="F114" s="67" t="n"/>
+      <c r="G114" s="67" t="n"/>
+    </row>
+    <row r="115" ht="15" customHeight="1" s="68">
+      <c r="A115" s="67" t="n"/>
+      <c r="B115" s="67" t="n"/>
+      <c r="C115" s="67" t="n"/>
+      <c r="D115" s="67" t="n"/>
+      <c r="E115" s="67" t="n"/>
+      <c r="F115" s="67" t="n"/>
+      <c r="G115" s="67" t="n"/>
+    </row>
+    <row r="116" ht="15" customHeight="1" s="68">
+      <c r="A116" s="67" t="n"/>
+      <c r="B116" s="67" t="n"/>
+      <c r="C116" s="67" t="n"/>
+      <c r="D116" s="67" t="n"/>
+      <c r="E116" s="67" t="n"/>
+      <c r="F116" s="67" t="n"/>
+      <c r="G116" s="67" t="n"/>
+    </row>
+    <row r="117" ht="15" customHeight="1" s="68">
+      <c r="A117" s="67" t="n"/>
+      <c r="B117" s="67" t="n"/>
+      <c r="C117" s="67" t="n"/>
+      <c r="D117" s="67" t="n"/>
+      <c r="E117" s="67" t="n"/>
+      <c r="F117" s="67" t="n"/>
+      <c r="G117" s="67" t="n"/>
+    </row>
+    <row r="118" ht="15" customHeight="1" s="68">
+      <c r="A118" s="67" t="n"/>
+      <c r="B118" s="67" t="n"/>
+      <c r="C118" s="67" t="n"/>
+      <c r="D118" s="67" t="n"/>
+      <c r="E118" s="67" t="n"/>
+      <c r="F118" s="67" t="n"/>
+      <c r="G118" s="67" t="n"/>
+    </row>
+    <row r="119" ht="15" customHeight="1" s="68">
+      <c r="A119" s="67" t="n"/>
+      <c r="B119" s="67" t="n"/>
+      <c r="C119" s="67" t="n"/>
+      <c r="D119" s="67" t="n"/>
+      <c r="E119" s="67" t="n"/>
+      <c r="F119" s="67" t="n"/>
+      <c r="G119" s="67" t="n"/>
+    </row>
+    <row r="120" ht="15" customHeight="1" s="68">
+      <c r="A120" s="67" t="n"/>
+      <c r="B120" s="67" t="n"/>
+      <c r="C120" s="67" t="n"/>
+      <c r="D120" s="67" t="n"/>
+      <c r="E120" s="67" t="n"/>
+      <c r="F120" s="67" t="n"/>
+      <c r="G120" s="67" t="n"/>
+    </row>
+    <row r="121" ht="15" customHeight="1" s="68">
+      <c r="A121" s="67" t="n"/>
+      <c r="B121" s="67" t="n"/>
+      <c r="C121" s="67" t="n"/>
+      <c r="D121" s="67" t="n"/>
+      <c r="E121" s="67" t="n"/>
+      <c r="F121" s="67" t="n"/>
+      <c r="G121" s="67" t="n"/>
+    </row>
+    <row r="122" ht="15" customHeight="1" s="68">
+      <c r="A122" s="67" t="n"/>
+      <c r="B122" s="67" t="n"/>
+      <c r="C122" s="67" t="n"/>
+      <c r="D122" s="67" t="n"/>
+      <c r="E122" s="67" t="n"/>
+      <c r="F122" s="67" t="n"/>
+      <c r="G122" s="67" t="n"/>
+    </row>
+    <row r="123" ht="15" customHeight="1" s="68">
+      <c r="A123" s="67" t="n"/>
+      <c r="B123" s="67" t="n"/>
+      <c r="C123" s="67" t="n"/>
+      <c r="D123" s="67" t="n"/>
+      <c r="E123" s="67" t="n"/>
+      <c r="F123" s="67" t="n"/>
+      <c r="G123" s="67" t="n"/>
+    </row>
+    <row r="124" ht="15" customHeight="1" s="68">
+      <c r="A124" s="67" t="n"/>
+      <c r="B124" s="67" t="n"/>
+      <c r="C124" s="67" t="n"/>
+      <c r="D124" s="67" t="n"/>
+      <c r="E124" s="67" t="n"/>
+      <c r="F124" s="67" t="n"/>
+      <c r="G124" s="67" t="n"/>
+    </row>
+    <row r="125" ht="15" customHeight="1" s="68">
+      <c r="A125" s="67" t="n"/>
+      <c r="B125" s="67" t="n"/>
+      <c r="C125" s="67" t="n"/>
+      <c r="D125" s="67" t="n"/>
+      <c r="E125" s="67" t="n"/>
+      <c r="F125" s="67" t="n"/>
+      <c r="G125" s="67" t="n"/>
+    </row>
+    <row r="126" ht="15" customHeight="1" s="68">
+      <c r="A126" s="67" t="n"/>
+      <c r="B126" s="67" t="n"/>
+      <c r="C126" s="67" t="n"/>
+      <c r="D126" s="67" t="n"/>
+      <c r="E126" s="67" t="n"/>
+      <c r="F126" s="67" t="n"/>
+      <c r="G126" s="67" t="n"/>
+    </row>
+    <row r="127" ht="15" customHeight="1" s="68">
+      <c r="A127" s="67" t="n"/>
+      <c r="B127" s="67" t="n"/>
+      <c r="C127" s="67" t="n"/>
+      <c r="D127" s="67" t="n"/>
+      <c r="E127" s="67" t="n"/>
+      <c r="F127" s="67" t="n"/>
+      <c r="G127" s="67" t="n"/>
+    </row>
+    <row r="128" ht="15" customHeight="1" s="68">
+      <c r="A128" s="67" t="n"/>
+      <c r="B128" s="67" t="n"/>
+      <c r="C128" s="67" t="n"/>
+      <c r="D128" s="67" t="n"/>
+      <c r="E128" s="67" t="n"/>
+      <c r="F128" s="67" t="n"/>
+      <c r="G128" s="67" t="n"/>
+    </row>
+    <row r="129" ht="15" customHeight="1" s="68">
+      <c r="A129" s="67" t="n"/>
+      <c r="B129" s="67" t="n"/>
+      <c r="C129" s="67" t="n"/>
+      <c r="D129" s="67" t="n"/>
+      <c r="E129" s="67" t="n"/>
+      <c r="F129" s="67" t="n"/>
+      <c r="G129" s="67" t="n"/>
+    </row>
+    <row r="130" ht="15" customHeight="1" s="68">
+      <c r="A130" s="67" t="n"/>
+      <c r="B130" s="67" t="n"/>
+      <c r="C130" s="67" t="n"/>
+      <c r="D130" s="67" t="n"/>
+      <c r="E130" s="67" t="n"/>
+      <c r="F130" s="67" t="n"/>
+      <c r="G130" s="67" t="n"/>
+    </row>
+    <row r="131" ht="15" customHeight="1" s="68">
+      <c r="A131" s="67" t="n"/>
+      <c r="B131" s="67" t="n"/>
+      <c r="C131" s="67" t="n"/>
+      <c r="D131" s="67" t="n"/>
+      <c r="E131" s="67" t="n"/>
+      <c r="F131" s="67" t="n"/>
+      <c r="G131" s="67" t="n"/>
+    </row>
+    <row r="132" ht="15" customHeight="1" s="68">
+      <c r="A132" s="67" t="n"/>
+      <c r="B132" s="67" t="n"/>
+      <c r="C132" s="67" t="n"/>
+      <c r="D132" s="67" t="n"/>
+      <c r="E132" s="67" t="n"/>
+      <c r="F132" s="67" t="n"/>
+      <c r="G132" s="67" t="n"/>
+    </row>
+    <row r="133" ht="15" customHeight="1" s="68">
+      <c r="A133" s="67" t="n"/>
+      <c r="B133" s="67" t="n"/>
+      <c r="C133" s="67" t="n"/>
+      <c r="D133" s="67" t="n"/>
+      <c r="E133" s="67" t="n"/>
+      <c r="F133" s="67" t="n"/>
+      <c r="G133" s="67" t="n"/>
+    </row>
+    <row r="134" ht="15" customHeight="1" s="68">
+      <c r="A134" s="67" t="n"/>
+      <c r="B134" s="67" t="n"/>
+      <c r="C134" s="67" t="n"/>
+      <c r="D134" s="67" t="n"/>
+      <c r="E134" s="67" t="n"/>
+      <c r="F134" s="67" t="n"/>
+      <c r="G134" s="67" t="n"/>
+    </row>
+    <row r="135" ht="15" customHeight="1" s="68">
+      <c r="A135" s="67" t="n"/>
+      <c r="B135" s="67" t="n"/>
+      <c r="C135" s="67" t="n"/>
+      <c r="D135" s="67" t="n"/>
+      <c r="E135" s="67" t="n"/>
+      <c r="F135" s="67" t="n"/>
+      <c r="G135" s="67" t="n"/>
+    </row>
+    <row r="136" ht="15" customHeight="1" s="68">
+      <c r="A136" s="67" t="n"/>
+      <c r="B136" s="67" t="n"/>
+      <c r="C136" s="67" t="n"/>
+      <c r="D136" s="67" t="n"/>
+      <c r="E136" s="67" t="n"/>
+      <c r="F136" s="67" t="n"/>
+      <c r="G136" s="67" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="107">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="B54:D55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="B60:D61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="B66:D67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:G70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="B72:D73"/>
+  </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:R136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="2.85" customWidth="1" style="67" min="1" max="1"/>
+    <col width="13.14" customWidth="1" style="67" min="2" max="2"/>
+    <col width="7.71" customWidth="1" style="67" min="3" max="3"/>
+    <col width="8.289999999999999" customWidth="1" style="67" min="4" max="4"/>
+    <col width="19.71" customWidth="1" style="67" min="5" max="5"/>
+    <col width="13.57" customWidth="1" style="67" min="6" max="6"/>
+    <col width="1" customWidth="1" style="67" min="7" max="7"/>
+    <col width="28.42" customWidth="1" style="67" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" s="68">
+      <c r="A1" s="69" t="inlineStr">
+        <is>
+          <t>UNIT  NUMBER</t>
+        </is>
+      </c>
+      <c r="B1" s="70" t="n"/>
+      <c r="C1" s="70" t="n"/>
+      <c r="D1" s="71" t="n"/>
+      <c r="E1" s="72" t="inlineStr">
+        <is>
+          <t>DATE INSHOPPED:</t>
+        </is>
+      </c>
+      <c r="F1" s="73" t="inlineStr">
+        <is>
+          <t>01-09-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" s="68">
+      <c r="A2" s="74" t="inlineStr">
+        <is>
+          <t>5178</t>
+        </is>
+      </c>
+      <c r="D2" s="75" t="n"/>
+      <c r="H2" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I2" s="67" t="n"/>
+      <c r="K2" s="77" t="n"/>
+      <c r="M2" s="78" t="n"/>
+      <c r="N2" s="67" t="n"/>
+      <c r="O2" s="67" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="68">
+      <c r="A3" s="79" t="n"/>
+      <c r="D3" s="75" t="n"/>
+      <c r="E3" s="80" t="inlineStr">
+        <is>
+          <t>SAMPLES DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F3" s="81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G3" s="67" t="n"/>
+      <c r="H3" s="82" t="n"/>
+      <c r="I3" s="83" t="n"/>
+      <c r="J3" s="83" t="n"/>
+      <c r="K3" s="83" t="n"/>
+      <c r="L3" s="84" t="n"/>
+      <c r="M3" s="83" t="n"/>
+      <c r="N3" s="83" t="n"/>
+      <c r="O3" s="67" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" s="68">
+      <c r="A4" s="85" t="n"/>
+      <c r="B4" s="86" t="n"/>
+      <c r="C4" s="86" t="n"/>
+      <c r="D4" s="87" t="n"/>
+      <c r="E4" s="80" t="inlineStr">
+        <is>
+          <t>TOILET DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F4" s="88" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G4" s="67" t="n"/>
+      <c r="H4" s="89" t="n"/>
+      <c r="O4" s="67" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" s="68">
+      <c r="A5" s="90" t="inlineStr">
+        <is>
+          <t>FRA DEAD DATE:</t>
+        </is>
+      </c>
+      <c r="B5" s="91" t="n"/>
+      <c r="C5" s="92" t="inlineStr">
+        <is>
+          <t>02-20-2020</t>
+        </is>
+      </c>
+      <c r="D5" s="70" t="n"/>
+      <c r="E5" s="80" t="inlineStr">
+        <is>
+          <t>LUBE DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F5" s="88" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G5" s="67" t="n"/>
+      <c r="H5" s="89" t="n"/>
+      <c r="O5" s="67" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" s="68">
+      <c r="A6" s="80" t="inlineStr">
+        <is>
+          <t>MI DUE (month):</t>
+        </is>
+      </c>
+      <c r="C6" s="93" t="n"/>
+      <c r="D6" s="94" t="n"/>
+      <c r="E6" s="80" t="inlineStr">
+        <is>
+          <t>C/S DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F6" s="88" t="n"/>
+      <c r="H6" s="95" t="n"/>
+      <c r="K6" s="83" t="n"/>
+      <c r="L6" s="83" t="n"/>
+      <c r="M6" s="96" t="n"/>
+      <c r="N6" s="96" t="n"/>
+      <c r="O6" s="67" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" s="68">
+      <c r="A7" s="80" t="inlineStr">
+        <is>
+          <t>EPA DUE (year, M):</t>
+        </is>
+      </c>
+      <c r="C7" s="93" t="n"/>
+      <c r="D7" s="94" t="n"/>
+      <c r="E7" s="80" t="inlineStr">
+        <is>
+          <t>AF DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F7" s="88" t="n"/>
+      <c r="H7" s="95" t="n"/>
+      <c r="I7" s="84" t="n"/>
+      <c r="K7" s="83" t="n"/>
+      <c r="L7" s="83" t="n"/>
+      <c r="M7" s="96" t="n"/>
+      <c r="N7" s="96" t="n"/>
+      <c r="O7" s="67" t="n"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" s="68">
+      <c r="A8" s="83" t="n"/>
+      <c r="B8" s="97" t="inlineStr">
+        <is>
+          <t>INBOUND TASKS (ADD WORKSHEET TASKS AS NEEDED)</t>
+        </is>
+      </c>
+      <c r="C8" s="98" t="n"/>
+      <c r="D8" s="98" t="n"/>
+      <c r="E8" s="67" t="n"/>
+      <c r="F8" s="67" t="n"/>
+      <c r="G8" s="67" t="n"/>
+      <c r="H8" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="J8" s="99" t="n"/>
+      <c r="K8" s="67" t="n"/>
+      <c r="L8" s="67" t="n"/>
+      <c r="M8" s="67" t="n"/>
+      <c r="N8" s="67" t="n"/>
+      <c r="O8" s="67" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" s="68">
+      <c r="A9" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="101" t="inlineStr">
+        <is>
+          <t>Check for and remove all non-compliance tags.  Note defects on ELF 023.</t>
+        </is>
+      </c>
+      <c r="C9" s="94" t="n"/>
+      <c r="D9" s="94" t="n"/>
+      <c r="E9" s="94" t="n"/>
+      <c r="F9" s="94" t="n"/>
+      <c r="G9" s="102" t="n"/>
+      <c r="H9" s="103" t="n"/>
+      <c r="J9" s="99" t="n"/>
+      <c r="K9" s="67" t="n"/>
+      <c r="L9" s="67" t="n"/>
+      <c r="M9" s="67" t="n"/>
+      <c r="N9" s="67" t="n"/>
+      <c r="O9" s="67" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" s="68">
+      <c r="A10" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="101" t="inlineStr">
+        <is>
+          <t>Download/Review Locomotive Fault log.  Add worksheet tasks as needed.</t>
+        </is>
+      </c>
+      <c r="C10" s="94" t="n"/>
+      <c r="D10" s="94" t="n"/>
+      <c r="E10" s="94" t="n"/>
+      <c r="F10" s="94" t="n"/>
+      <c r="G10" s="102" t="n"/>
+      <c r="H10" s="103" t="n"/>
+    </row>
+    <row r="11" ht="26.25" customHeight="1" s="68">
+      <c r="A11" s="100" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="104" t="inlineStr">
+        <is>
+          <t>Wait 15 minutes after download/sync for current info to display, then print chronology and SFA.  Attach printout to work packet.</t>
+        </is>
+      </c>
+      <c r="C11" s="94" t="n"/>
+      <c r="D11" s="94" t="n"/>
+      <c r="E11" s="94" t="n"/>
+      <c r="F11" s="94" t="n"/>
+      <c r="G11" s="102" t="n"/>
+      <c r="H11" s="105" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="68">
+      <c r="A12" s="100" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="101" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Electrical Inspections.</t>
+        </is>
+      </c>
+      <c r="C12" s="94" t="n"/>
+      <c r="D12" s="94" t="n"/>
+      <c r="E12" s="94" t="n"/>
+      <c r="F12" s="94" t="n"/>
+      <c r="G12" s="102" t="n"/>
+      <c r="H12" s="105" t="n"/>
+      <c r="K12" s="67" t="n"/>
+      <c r="L12" s="67" t="n"/>
+      <c r="M12" s="67" t="n"/>
+      <c r="N12" s="67" t="n"/>
+      <c r="O12" s="67" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" s="68">
+      <c r="A13" s="106" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="107" t="inlineStr">
+        <is>
+          <t>Perform PTC Departure test.</t>
+        </is>
+      </c>
+      <c r="C13" s="94" t="n"/>
+      <c r="D13" s="94" t="n"/>
+      <c r="E13" s="94" t="n"/>
+      <c r="F13" s="108" t="inlineStr">
+        <is>
+          <t>Pass / Fail</t>
+        </is>
+      </c>
+      <c r="G13" s="102" t="n"/>
+      <c r="H13" s="109" t="n"/>
+      <c r="Q13" s="67" t="n"/>
+      <c r="R13" s="67" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" s="68">
+      <c r="A14" s="110" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="111" t="inlineStr">
+        <is>
+          <t>Check PTCMon for PTC/EM Health.</t>
+        </is>
+      </c>
+      <c r="C14" s="112" t="n"/>
+      <c r="D14" s="112" t="n"/>
+      <c r="E14" s="113" t="inlineStr">
+        <is>
+          <t>PTC_____________   EM_______________</t>
+        </is>
+      </c>
+      <c r="F14" s="112" t="n"/>
+      <c r="G14" s="114" t="n"/>
+      <c r="H14" s="115" t="n"/>
+      <c r="K14" s="84" t="n"/>
+      <c r="Q14" s="67" t="n"/>
+      <c r="R14" s="67" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" s="68">
+      <c r="A15" s="116" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="117" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Mechanical Inspections.</t>
+        </is>
+      </c>
+      <c r="C15" s="118" t="n"/>
+      <c r="D15" s="118" t="n"/>
+      <c r="E15" s="118" t="n"/>
+      <c r="F15" s="118" t="n"/>
+      <c r="G15" s="119" t="n"/>
+      <c r="H15" s="120" t="n"/>
+      <c r="K15" s="84" t="n"/>
+      <c r="Q15" s="67" t="n"/>
+      <c r="R15" s="67" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" s="68">
+      <c r="A16" s="100" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="101" t="inlineStr">
+        <is>
+          <t>Add fluids as needed.</t>
+        </is>
+      </c>
+      <c r="C16" s="94" t="n"/>
+      <c r="D16" s="94" t="n"/>
+      <c r="E16" s="94" t="n"/>
+      <c r="F16" s="94" t="n"/>
+      <c r="G16" s="102" t="n"/>
+      <c r="H16" s="121" t="n"/>
+      <c r="Q16" s="67" t="n"/>
+      <c r="R16" s="67" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" s="68">
+      <c r="A17" s="110" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="122" t="inlineStr">
+        <is>
+          <t>Renew defective brake shoes and adjust piston travel as needed.</t>
+        </is>
+      </c>
+      <c r="C17" s="112" t="n"/>
+      <c r="D17" s="112" t="n"/>
+      <c r="E17" s="112" t="n"/>
+      <c r="F17" s="112" t="n"/>
+      <c r="G17" s="114" t="n"/>
+      <c r="H17" s="115" t="n"/>
+      <c r="I17" s="67" t="n"/>
+      <c r="K17" s="67" t="n"/>
+      <c r="L17" s="67" t="n"/>
+      <c r="M17" s="67" t="n"/>
+      <c r="N17" s="67" t="n"/>
+      <c r="O17" s="67" t="n"/>
+      <c r="Q17" s="67" t="n"/>
+      <c r="R17" s="67" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" s="68">
+      <c r="A18" s="116" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="117" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Fireman &amp; Oiler Inspections.</t>
+        </is>
+      </c>
+      <c r="C18" s="118" t="n"/>
+      <c r="D18" s="118" t="n"/>
+      <c r="E18" s="118" t="n"/>
+      <c r="F18" s="118" t="n"/>
+      <c r="G18" s="119" t="n"/>
+      <c r="H18" s="120" t="n"/>
+      <c r="I18" s="67" t="n"/>
+      <c r="K18" s="67" t="n"/>
+      <c r="L18" s="67" t="n"/>
+      <c r="M18" s="67" t="n"/>
+      <c r="N18" s="67" t="n"/>
+      <c r="O18" s="67" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" s="68">
+      <c r="A19" s="100" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" s="117" t="inlineStr">
+        <is>
+          <t>Fuel Locomotive as needed.                         Gallons added _________________</t>
+        </is>
+      </c>
+      <c r="C19" s="118" t="n"/>
+      <c r="D19" s="118" t="n"/>
+      <c r="E19" s="118" t="n"/>
+      <c r="F19" s="118" t="n"/>
+      <c r="G19" s="119" t="n"/>
+      <c r="H19" s="121" t="n"/>
+      <c r="I19" s="67" t="n"/>
+      <c r="K19" s="67" t="n"/>
+      <c r="L19" s="67" t="n"/>
+      <c r="M19" s="67" t="n"/>
+      <c r="N19" s="67" t="n"/>
+      <c r="O19" s="67" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" s="68">
+      <c r="A20" s="100" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" s="104" t="inlineStr">
+        <is>
+          <t>Add Sand to locomotive sandboxes as needed.</t>
+        </is>
+      </c>
+      <c r="C20" s="94" t="n"/>
+      <c r="D20" s="94" t="n"/>
+      <c r="E20" s="94" t="n"/>
+      <c r="F20" s="94" t="n"/>
+      <c r="G20" s="102" t="n"/>
+      <c r="H20" s="121" t="n"/>
+      <c r="I20" s="67" t="n"/>
+      <c r="K20" s="67" t="n"/>
+      <c r="L20" s="67" t="n"/>
+      <c r="M20" s="67" t="n"/>
+      <c r="N20" s="67" t="n"/>
+      <c r="O20" s="67" t="n"/>
+    </row>
+    <row r="21" ht="26.25" customHeight="1" s="68">
+      <c r="A21" s="100" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" s="104" t="inlineStr">
+        <is>
+          <t>Remove trash and hazardous debris from running boards, cab &amp; toilet room.</t>
+        </is>
+      </c>
+      <c r="C21" s="94" t="n"/>
+      <c r="D21" s="94" t="n"/>
+      <c r="E21" s="94" t="n"/>
+      <c r="F21" s="94" t="n"/>
+      <c r="G21" s="102" t="n"/>
+      <c r="H21" s="121" t="n"/>
+      <c r="I21" s="67" t="n"/>
+      <c r="K21" s="67" t="n"/>
+      <c r="L21" s="67" t="n"/>
+      <c r="M21" s="67" t="n"/>
+      <c r="N21" s="67" t="n"/>
+      <c r="O21" s="67" t="n"/>
+    </row>
+    <row r="22" ht="19.5" customHeight="1" s="68">
+      <c r="B22" s="123" t="inlineStr">
+        <is>
+          <t>WORK ORDERS / DEFECTS</t>
+        </is>
+      </c>
+      <c r="C22" s="94" t="n"/>
+      <c r="D22" s="94" t="n"/>
+      <c r="E22" s="124" t="inlineStr">
+        <is>
+          <t>REPAIRS / MATERIAL</t>
+        </is>
+      </c>
+      <c r="F22" s="94" t="n"/>
+      <c r="G22" s="94" t="n"/>
+      <c r="H22" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I22" s="67" t="n"/>
+      <c r="J22" s="125" t="n"/>
+      <c r="L22" s="67" t="n"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1" s="68">
+      <c r="A23" s="126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="127" t="n"/>
+      <c r="C23" s="128" t="n"/>
+      <c r="D23" s="129" t="n"/>
+      <c r="E23" s="121" t="n"/>
+      <c r="F23" s="128" t="n"/>
+      <c r="G23" s="129" t="n"/>
+      <c r="H23" s="121" t="n"/>
+      <c r="I23" s="67" t="n"/>
+      <c r="J23" s="67" t="n"/>
+      <c r="K23" s="67" t="n"/>
+      <c r="L23" s="67" t="n"/>
+    </row>
+    <row r="24" ht="19.5" customHeight="1" s="68">
+      <c r="A24" s="130" t="n"/>
+      <c r="B24" s="131" t="n"/>
+      <c r="D24" s="132" t="n"/>
+      <c r="E24" s="133" t="n"/>
+      <c r="G24" s="132" t="n"/>
+      <c r="H24" s="130" t="n"/>
+    </row>
+    <row r="25" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A25" s="134" t="n"/>
+      <c r="B25" s="135" t="n"/>
+      <c r="C25" s="118" t="n"/>
+      <c r="D25" s="119" t="n"/>
+      <c r="E25" s="135" t="n"/>
+      <c r="F25" s="118" t="n"/>
+      <c r="G25" s="119" t="n"/>
+      <c r="H25" s="134" t="n"/>
+    </row>
+    <row r="26" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A26" s="136" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="127" t="n"/>
+      <c r="C26" s="128" t="n"/>
+      <c r="D26" s="129" t="n"/>
+      <c r="E26" s="137" t="n"/>
+      <c r="F26" s="128" t="n"/>
+      <c r="G26" s="129" t="n"/>
+      <c r="H26" s="137" t="n"/>
+    </row>
+    <row r="27" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A27" s="133" t="n"/>
+      <c r="B27" s="131" t="n"/>
+      <c r="D27" s="132" t="n"/>
+      <c r="E27" s="133" t="n"/>
+      <c r="G27" s="132" t="n"/>
+      <c r="H27" s="130" t="n"/>
+    </row>
+    <row r="28" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A28" s="135" t="n"/>
+      <c r="B28" s="135" t="n"/>
+      <c r="C28" s="118" t="n"/>
+      <c r="D28" s="119" t="n"/>
+      <c r="E28" s="135" t="n"/>
+      <c r="F28" s="118" t="n"/>
+      <c r="G28" s="119" t="n"/>
+      <c r="H28" s="134" t="n"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1" s="68">
+      <c r="A29" s="136" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="127" t="n"/>
+      <c r="C29" s="128" t="n"/>
+      <c r="D29" s="129" t="n"/>
+      <c r="E29" s="121" t="n"/>
+      <c r="F29" s="128" t="n"/>
+      <c r="G29" s="129" t="n"/>
+      <c r="H29" s="121" t="n"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1" s="68">
+      <c r="A30" s="133" t="n"/>
+      <c r="B30" s="131" t="n"/>
+      <c r="D30" s="132" t="n"/>
+      <c r="E30" s="133" t="n"/>
+      <c r="G30" s="132" t="n"/>
+      <c r="H30" s="130" t="n"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" s="68">
+      <c r="A31" s="135" t="n"/>
+      <c r="B31" s="135" t="n"/>
+      <c r="C31" s="118" t="n"/>
+      <c r="D31" s="119" t="n"/>
+      <c r="E31" s="135" t="n"/>
+      <c r="F31" s="118" t="n"/>
+      <c r="G31" s="119" t="n"/>
+      <c r="H31" s="134" t="n"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1" s="68">
+      <c r="A32" s="136" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="127" t="n"/>
+      <c r="C32" s="128" t="n"/>
+      <c r="D32" s="129" t="n"/>
+      <c r="E32" s="121" t="n"/>
+      <c r="F32" s="128" t="n"/>
+      <c r="G32" s="129" t="n"/>
+      <c r="H32" s="121" t="n"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1" s="68">
+      <c r="A33" s="133" t="n"/>
+      <c r="B33" s="131" t="n"/>
+      <c r="D33" s="132" t="n"/>
+      <c r="E33" s="133" t="n"/>
+      <c r="G33" s="132" t="n"/>
+      <c r="H33" s="130" t="n"/>
+    </row>
+    <row r="34" ht="18.75" customHeight="1" s="68">
+      <c r="A34" s="135" t="n"/>
+      <c r="B34" s="135" t="n"/>
+      <c r="C34" s="118" t="n"/>
+      <c r="D34" s="119" t="n"/>
+      <c r="E34" s="135" t="n"/>
+      <c r="F34" s="118" t="n"/>
+      <c r="G34" s="119" t="n"/>
+      <c r="H34" s="134" t="n"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1" s="68">
+      <c r="A35" s="138" t="n"/>
+      <c r="B35" s="139" t="n"/>
+      <c r="C35" s="139" t="n"/>
+      <c r="D35" s="139" t="n"/>
+      <c r="E35" s="140" t="n"/>
+      <c r="F35" s="140" t="n"/>
+      <c r="G35" s="140" t="n"/>
+      <c r="H35" s="140" t="n"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1" s="68">
+      <c r="A36" s="138" t="n"/>
+      <c r="B36" s="141" t="n"/>
+      <c r="C36" s="141" t="n"/>
+      <c r="D36" s="141" t="n"/>
+      <c r="E36" s="140" t="n"/>
+      <c r="F36" s="140" t="n"/>
+      <c r="G36" s="140" t="n"/>
+      <c r="H36" s="140" t="n"/>
+    </row>
+    <row r="37" ht="18.75" customHeight="1" s="68">
+      <c r="B37" s="142" t="inlineStr">
+        <is>
+          <t>WORK ORDERS / DEFECTS</t>
+        </is>
+      </c>
+      <c r="E37" s="76" t="inlineStr">
+        <is>
+          <t>REPAIRS / MATERIAL</t>
+        </is>
+      </c>
+      <c r="G37" s="67" t="n"/>
+      <c r="H37" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I37" s="67" t="n"/>
+      <c r="J37" s="125" t="n"/>
+      <c r="L37" s="67" t="n"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1" s="68">
+      <c r="A38" s="143" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="127" t="n"/>
+      <c r="C38" s="128" t="n"/>
+      <c r="D38" s="129" t="n"/>
+      <c r="E38" s="121" t="n"/>
+      <c r="F38" s="128" t="n"/>
+      <c r="G38" s="129" t="n"/>
+      <c r="H38" s="121" t="n"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1" s="68">
+      <c r="A39" s="130" t="n"/>
+      <c r="B39" s="131" t="n"/>
+      <c r="D39" s="132" t="n"/>
+      <c r="E39" s="133" t="n"/>
+      <c r="G39" s="132" t="n"/>
+      <c r="H39" s="130" t="n"/>
+    </row>
+    <row r="40" ht="18.75" customHeight="1" s="68">
+      <c r="A40" s="134" t="n"/>
+      <c r="B40" s="135" t="n"/>
+      <c r="C40" s="118" t="n"/>
+      <c r="D40" s="119" t="n"/>
+      <c r="E40" s="135" t="n"/>
+      <c r="F40" s="118" t="n"/>
+      <c r="G40" s="119" t="n"/>
+      <c r="H40" s="134" t="n"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1" s="68">
+      <c r="A41" s="143" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" s="127" t="n"/>
+      <c r="C41" s="128" t="n"/>
+      <c r="D41" s="129" t="n"/>
+      <c r="E41" s="121" t="n"/>
+      <c r="F41" s="128" t="n"/>
+      <c r="G41" s="129" t="n"/>
+      <c r="H41" s="121" t="n"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1" s="68">
+      <c r="A42" s="130" t="n"/>
+      <c r="B42" s="131" t="n"/>
+      <c r="D42" s="132" t="n"/>
+      <c r="E42" s="133" t="n"/>
+      <c r="G42" s="132" t="n"/>
+      <c r="H42" s="130" t="n"/>
+    </row>
+    <row r="43" ht="18.75" customHeight="1" s="68">
+      <c r="A43" s="134" t="n"/>
+      <c r="B43" s="135" t="n"/>
+      <c r="C43" s="118" t="n"/>
+      <c r="D43" s="119" t="n"/>
+      <c r="E43" s="135" t="n"/>
+      <c r="F43" s="118" t="n"/>
+      <c r="G43" s="119" t="n"/>
+      <c r="H43" s="134" t="n"/>
+    </row>
+    <row r="44" ht="18.75" customHeight="1" s="68">
+      <c r="A44" s="136" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" s="127" t="n"/>
+      <c r="C44" s="128" t="n"/>
+      <c r="D44" s="129" t="n"/>
+      <c r="E44" s="121" t="n"/>
+      <c r="F44" s="128" t="n"/>
+      <c r="G44" s="129" t="n"/>
+      <c r="H44" s="121" t="n"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1" s="68">
+      <c r="A45" s="133" t="n"/>
+      <c r="B45" s="131" t="n"/>
+      <c r="D45" s="132" t="n"/>
+      <c r="E45" s="133" t="n"/>
+      <c r="G45" s="132" t="n"/>
+      <c r="H45" s="130" t="n"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1" s="68">
+      <c r="A46" s="135" t="n"/>
+      <c r="B46" s="135" t="n"/>
+      <c r="C46" s="118" t="n"/>
+      <c r="D46" s="119" t="n"/>
+      <c r="E46" s="135" t="n"/>
+      <c r="F46" s="118" t="n"/>
+      <c r="G46" s="119" t="n"/>
+      <c r="H46" s="134" t="n"/>
+    </row>
+    <row r="47" ht="18.75" customHeight="1" s="68">
+      <c r="A47" s="136" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" s="127" t="n"/>
+      <c r="C47" s="128" t="n"/>
+      <c r="D47" s="129" t="n"/>
+      <c r="E47" s="121" t="n"/>
+      <c r="F47" s="128" t="n"/>
+      <c r="G47" s="129" t="n"/>
+      <c r="H47" s="121" t="n"/>
+    </row>
+    <row r="48" ht="18.75" customHeight="1" s="68">
+      <c r="A48" s="133" t="n"/>
+      <c r="B48" s="131" t="n"/>
+      <c r="D48" s="132" t="n"/>
+      <c r="E48" s="133" t="n"/>
+      <c r="G48" s="132" t="n"/>
+      <c r="H48" s="130" t="n"/>
+    </row>
+    <row r="49" ht="18.75" customHeight="1" s="68">
+      <c r="A49" s="135" t="n"/>
+      <c r="B49" s="135" t="n"/>
+      <c r="C49" s="118" t="n"/>
+      <c r="D49" s="119" t="n"/>
+      <c r="E49" s="135" t="n"/>
+      <c r="F49" s="118" t="n"/>
+      <c r="G49" s="119" t="n"/>
+      <c r="H49" s="134" t="n"/>
+    </row>
+    <row r="50" ht="18.75" customHeight="1" s="68">
+      <c r="A50" s="144" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" s="127" t="n"/>
+      <c r="C50" s="128" t="n"/>
+      <c r="D50" s="129" t="n"/>
+      <c r="E50" s="121" t="n"/>
+      <c r="F50" s="128" t="n"/>
+      <c r="G50" s="129" t="n"/>
+      <c r="H50" s="121" t="n"/>
+    </row>
+    <row r="51" ht="18.75" customHeight="1" s="68">
+      <c r="A51" s="133" t="n"/>
+      <c r="B51" s="131" t="n"/>
+      <c r="D51" s="132" t="n"/>
+      <c r="E51" s="133" t="n"/>
+      <c r="G51" s="132" t="n"/>
+      <c r="H51" s="130" t="n"/>
+    </row>
+    <row r="52" ht="18.75" customHeight="1" s="68">
+      <c r="A52" s="133" t="n"/>
+      <c r="B52" s="135" t="n"/>
+      <c r="C52" s="118" t="n"/>
+      <c r="D52" s="119" t="n"/>
+      <c r="E52" s="135" t="n"/>
+      <c r="F52" s="118" t="n"/>
+      <c r="G52" s="119" t="n"/>
+      <c r="H52" s="134" t="n"/>
+    </row>
+    <row r="53" ht="18.75" customHeight="1" s="68">
+      <c r="A53" s="143" t="n">
+        <v>10</v>
+      </c>
+      <c r="B53" s="127" t="n"/>
+      <c r="C53" s="128" t="n"/>
+      <c r="D53" s="129" t="n"/>
+      <c r="E53" s="121" t="n"/>
+      <c r="F53" s="128" t="n"/>
+      <c r="G53" s="129" t="n"/>
+      <c r="H53" s="121" t="n"/>
+    </row>
+    <row r="54" ht="18.75" customHeight="1" s="68">
+      <c r="A54" s="130" t="n"/>
+      <c r="B54" s="131" t="n"/>
+      <c r="D54" s="132" t="n"/>
+      <c r="E54" s="133" t="n"/>
+      <c r="G54" s="132" t="n"/>
+      <c r="H54" s="130" t="n"/>
+    </row>
+    <row r="55" ht="18.75" customHeight="1" s="68">
+      <c r="A55" s="134" t="n"/>
+      <c r="B55" s="135" t="n"/>
+      <c r="C55" s="118" t="n"/>
+      <c r="D55" s="119" t="n"/>
+      <c r="E55" s="135" t="n"/>
+      <c r="F55" s="118" t="n"/>
+      <c r="G55" s="119" t="n"/>
+      <c r="H55" s="134" t="n"/>
+    </row>
+    <row r="56" ht="18.75" customHeight="1" s="68">
+      <c r="A56" s="143" t="n">
+        <v>11</v>
+      </c>
+      <c r="B56" s="127" t="n"/>
+      <c r="C56" s="128" t="n"/>
+      <c r="D56" s="129" t="n"/>
+      <c r="E56" s="121" t="n"/>
+      <c r="F56" s="128" t="n"/>
+      <c r="G56" s="129" t="n"/>
+      <c r="H56" s="121" t="n"/>
+    </row>
+    <row r="57" ht="18.75" customHeight="1" s="68">
+      <c r="A57" s="130" t="n"/>
+      <c r="B57" s="131" t="n"/>
+      <c r="D57" s="132" t="n"/>
+      <c r="E57" s="133" t="n"/>
+      <c r="G57" s="132" t="n"/>
+      <c r="H57" s="130" t="n"/>
+    </row>
+    <row r="58" ht="18.75" customHeight="1" s="68">
+      <c r="A58" s="134" t="n"/>
+      <c r="B58" s="135" t="n"/>
+      <c r="C58" s="118" t="n"/>
+      <c r="D58" s="119" t="n"/>
+      <c r="E58" s="135" t="n"/>
+      <c r="F58" s="118" t="n"/>
+      <c r="G58" s="119" t="n"/>
+      <c r="H58" s="134" t="n"/>
+    </row>
+    <row r="59" ht="18.75" customHeight="1" s="68">
+      <c r="A59" s="143" t="n">
+        <v>12</v>
+      </c>
+      <c r="B59" s="127" t="n"/>
+      <c r="C59" s="128" t="n"/>
+      <c r="D59" s="129" t="n"/>
+      <c r="E59" s="121" t="n"/>
+      <c r="F59" s="128" t="n"/>
+      <c r="G59" s="129" t="n"/>
+      <c r="H59" s="121" t="n"/>
+    </row>
+    <row r="60" ht="18.75" customHeight="1" s="68">
+      <c r="A60" s="130" t="n"/>
+      <c r="B60" s="131" t="n"/>
+      <c r="D60" s="132" t="n"/>
+      <c r="E60" s="133" t="n"/>
+      <c r="G60" s="132" t="n"/>
+      <c r="H60" s="130" t="n"/>
+    </row>
+    <row r="61" ht="18.75" customHeight="1" s="68">
+      <c r="A61" s="134" t="n"/>
+      <c r="B61" s="135" t="n"/>
+      <c r="C61" s="118" t="n"/>
+      <c r="D61" s="119" t="n"/>
+      <c r="E61" s="135" t="n"/>
+      <c r="F61" s="118" t="n"/>
+      <c r="G61" s="119" t="n"/>
+      <c r="H61" s="134" t="n"/>
+    </row>
+    <row r="62" ht="18.75" customHeight="1" s="68">
+      <c r="A62" s="143" t="n">
+        <v>13</v>
+      </c>
+      <c r="B62" s="127" t="n"/>
+      <c r="C62" s="128" t="n"/>
+      <c r="D62" s="129" t="n"/>
+      <c r="E62" s="121" t="n"/>
+      <c r="F62" s="128" t="n"/>
+      <c r="G62" s="129" t="n"/>
+      <c r="H62" s="121" t="n"/>
+    </row>
+    <row r="63" ht="18.75" customHeight="1" s="68">
+      <c r="A63" s="130" t="n"/>
+      <c r="B63" s="131" t="n"/>
+      <c r="D63" s="132" t="n"/>
+      <c r="E63" s="133" t="n"/>
+      <c r="G63" s="132" t="n"/>
+      <c r="H63" s="130" t="n"/>
+    </row>
+    <row r="64" ht="18.75" customHeight="1" s="68">
+      <c r="A64" s="134" t="n"/>
+      <c r="B64" s="135" t="n"/>
+      <c r="C64" s="118" t="n"/>
+      <c r="D64" s="119" t="n"/>
+      <c r="E64" s="135" t="n"/>
+      <c r="F64" s="118" t="n"/>
+      <c r="G64" s="119" t="n"/>
+      <c r="H64" s="134" t="n"/>
+    </row>
+    <row r="65" ht="18.75" customHeight="1" s="68">
+      <c r="A65" s="143" t="n">
+        <v>14</v>
+      </c>
+      <c r="B65" s="127" t="n"/>
+      <c r="C65" s="128" t="n"/>
+      <c r="D65" s="129" t="n"/>
+      <c r="E65" s="121" t="n"/>
+      <c r="F65" s="128" t="n"/>
+      <c r="G65" s="129" t="n"/>
+      <c r="H65" s="121" t="n"/>
+    </row>
+    <row r="66" ht="18.75" customHeight="1" s="68">
+      <c r="A66" s="130" t="n"/>
+      <c r="B66" s="131" t="n"/>
+      <c r="D66" s="132" t="n"/>
+      <c r="E66" s="133" t="n"/>
+      <c r="G66" s="132" t="n"/>
+      <c r="H66" s="130" t="n"/>
+    </row>
+    <row r="67" ht="18.75" customHeight="1" s="68">
+      <c r="A67" s="134" t="n"/>
+      <c r="B67" s="135" t="n"/>
+      <c r="C67" s="118" t="n"/>
+      <c r="D67" s="119" t="n"/>
+      <c r="E67" s="135" t="n"/>
+      <c r="F67" s="118" t="n"/>
+      <c r="G67" s="119" t="n"/>
+      <c r="H67" s="134" t="n"/>
+    </row>
+    <row r="68" ht="18.75" customHeight="1" s="68">
+      <c r="A68" s="143" t="n">
+        <v>15</v>
+      </c>
+      <c r="B68" s="127" t="n"/>
+      <c r="C68" s="128" t="n"/>
+      <c r="D68" s="129" t="n"/>
+      <c r="E68" s="121" t="n"/>
+      <c r="F68" s="128" t="n"/>
+      <c r="G68" s="129" t="n"/>
+      <c r="H68" s="121" t="n"/>
+    </row>
+    <row r="69" ht="18.75" customHeight="1" s="68">
+      <c r="A69" s="130" t="n"/>
+      <c r="B69" s="131" t="n"/>
+      <c r="D69" s="132" t="n"/>
+      <c r="E69" s="133" t="n"/>
+      <c r="G69" s="132" t="n"/>
+      <c r="H69" s="130" t="n"/>
+    </row>
+    <row r="70" ht="18.75" customHeight="1" s="68">
+      <c r="A70" s="134" t="n"/>
+      <c r="B70" s="135" t="n"/>
+      <c r="C70" s="118" t="n"/>
+      <c r="D70" s="119" t="n"/>
+      <c r="E70" s="135" t="n"/>
+      <c r="F70" s="118" t="n"/>
+      <c r="G70" s="119" t="n"/>
+      <c r="H70" s="134" t="n"/>
+    </row>
+    <row r="71" ht="18.75" customHeight="1" s="68">
+      <c r="A71" s="143" t="n">
+        <v>16</v>
+      </c>
+      <c r="B71" s="127" t="n"/>
+      <c r="C71" s="128" t="n"/>
+      <c r="D71" s="129" t="n"/>
+      <c r="E71" s="121" t="n"/>
+      <c r="F71" s="128" t="n"/>
+      <c r="G71" s="129" t="n"/>
+      <c r="H71" s="121" t="n"/>
+    </row>
+    <row r="72" ht="18.75" customHeight="1" s="68">
+      <c r="A72" s="130" t="n"/>
+      <c r="B72" s="131" t="n"/>
+      <c r="D72" s="132" t="n"/>
+      <c r="E72" s="133" t="n"/>
+      <c r="G72" s="132" t="n"/>
+      <c r="H72" s="130" t="n"/>
+    </row>
+    <row r="73" ht="18.75" customHeight="1" s="68">
+      <c r="A73" s="134" t="n"/>
+      <c r="B73" s="135" t="n"/>
+      <c r="C73" s="118" t="n"/>
+      <c r="D73" s="119" t="n"/>
+      <c r="E73" s="135" t="n"/>
+      <c r="F73" s="118" t="n"/>
+      <c r="G73" s="119" t="n"/>
+      <c r="H73" s="134" t="n"/>
+    </row>
+    <row r="74" ht="18.75" customHeight="1" s="68">
+      <c r="A74" s="145" t="n"/>
+      <c r="B74" s="146" t="n"/>
+      <c r="C74" s="146" t="n"/>
+      <c r="D74" s="146" t="n"/>
+      <c r="E74" s="67" t="n"/>
+      <c r="F74" s="67" t="n"/>
+      <c r="G74" s="67" t="n"/>
+      <c r="H74" s="67" t="n"/>
+    </row>
+    <row r="75" ht="18.75" customHeight="1" s="68">
+      <c r="A75" s="145" t="n"/>
+      <c r="B75" s="147" t="n"/>
+      <c r="C75" s="147" t="n"/>
+      <c r="D75" s="147" t="n"/>
+      <c r="E75" s="67" t="n"/>
+      <c r="F75" s="67" t="n"/>
+      <c r="G75" s="67" t="n"/>
+      <c r="H75" s="67" t="n"/>
+    </row>
+    <row r="76" ht="18.75" customHeight="1" s="68">
+      <c r="A76" s="145" t="n"/>
+      <c r="B76" s="147" t="n"/>
+      <c r="C76" s="147" t="n"/>
+      <c r="D76" s="147" t="n"/>
+      <c r="E76" s="67" t="n"/>
+      <c r="F76" s="67" t="n"/>
+      <c r="G76" s="67" t="n"/>
+      <c r="H76" s="67" t="n"/>
+    </row>
+    <row r="77" ht="19.35" customHeight="1" s="68">
+      <c r="A77" s="145" t="n"/>
+      <c r="B77" s="138" t="n"/>
+      <c r="C77" s="140" t="n"/>
+      <c r="D77" s="67" t="n"/>
+      <c r="E77" s="67" t="n"/>
+      <c r="F77" s="140" t="n"/>
+      <c r="G77" s="67" t="n"/>
+    </row>
+    <row r="78" ht="19.35" customHeight="1" s="68">
+      <c r="A78" s="145" t="n"/>
+      <c r="B78" s="138" t="n"/>
+      <c r="C78" s="140" t="n"/>
+      <c r="D78" s="67" t="n"/>
+      <c r="E78" s="67" t="n"/>
+      <c r="F78" s="140" t="n"/>
+      <c r="G78" s="67" t="n"/>
+    </row>
+    <row r="79" ht="19.35" customHeight="1" s="68">
+      <c r="A79" s="145" t="n"/>
+      <c r="B79" s="138" t="n"/>
+      <c r="C79" s="140" t="n"/>
+      <c r="D79" s="67" t="n"/>
+      <c r="E79" s="67" t="n"/>
+      <c r="F79" s="140" t="n"/>
+      <c r="G79" s="67" t="n"/>
+    </row>
+    <row r="80" ht="19.35" customHeight="1" s="68">
+      <c r="A80" s="145" t="n"/>
+      <c r="B80" s="138" t="n"/>
+      <c r="C80" s="140" t="n"/>
+      <c r="D80" s="67" t="n"/>
+      <c r="E80" s="67" t="n"/>
+      <c r="F80" s="140" t="n"/>
+      <c r="G80" s="67" t="n"/>
+    </row>
+    <row r="81" ht="19.35" customHeight="1" s="68">
+      <c r="A81" s="145" t="n"/>
+      <c r="B81" s="138" t="n"/>
+      <c r="C81" s="140" t="n"/>
+      <c r="D81" s="67" t="n"/>
+      <c r="E81" s="67" t="n"/>
+      <c r="F81" s="140" t="n"/>
+      <c r="G81" s="67" t="n"/>
+    </row>
+    <row r="82" ht="19.35" customHeight="1" s="68">
+      <c r="A82" s="145" t="n"/>
+      <c r="B82" s="138" t="n"/>
+      <c r="C82" s="140" t="n"/>
+      <c r="D82" s="67" t="n"/>
+      <c r="E82" s="67" t="n"/>
+      <c r="F82" s="140" t="n"/>
+      <c r="G82" s="67" t="n"/>
+    </row>
+    <row r="83" ht="19.35" customHeight="1" s="68">
+      <c r="A83" s="145" t="n"/>
+      <c r="B83" s="138" t="n"/>
+      <c r="C83" s="140" t="n"/>
+      <c r="D83" s="67" t="n"/>
+      <c r="E83" s="67" t="n"/>
+      <c r="F83" s="140" t="n"/>
+      <c r="G83" s="67" t="n"/>
+    </row>
+    <row r="84" ht="18.75" customHeight="1" s="68">
+      <c r="A84" s="145" t="n"/>
+      <c r="B84" s="138" t="n"/>
+      <c r="C84" s="140" t="n"/>
+      <c r="D84" s="67" t="n"/>
+      <c r="E84" s="67" t="n"/>
+      <c r="F84" s="140" t="n"/>
+      <c r="G84" s="67" t="n"/>
+    </row>
+    <row r="85" ht="19.35" customHeight="1" s="68">
+      <c r="A85" s="145" t="n"/>
+      <c r="B85" s="138" t="n"/>
+      <c r="C85" s="140" t="n"/>
+      <c r="D85" s="67" t="n"/>
+      <c r="E85" s="67" t="n"/>
+      <c r="F85" s="140" t="n"/>
+      <c r="G85" s="67" t="n"/>
+    </row>
+    <row r="86" ht="19.35" customHeight="1" s="68">
+      <c r="A86" s="145" t="n"/>
+      <c r="B86" s="138" t="n"/>
+      <c r="C86" s="140" t="n"/>
+      <c r="D86" s="67" t="n"/>
+      <c r="E86" s="67" t="n"/>
+      <c r="F86" s="140" t="n"/>
+      <c r="G86" s="67" t="n"/>
+    </row>
+    <row r="87" ht="18.75" customHeight="1" s="68">
+      <c r="A87" s="145" t="n"/>
+      <c r="B87" s="138" t="n"/>
+      <c r="C87" s="140" t="n"/>
+      <c r="D87" s="67" t="n"/>
+      <c r="E87" s="67" t="n"/>
+      <c r="F87" s="140" t="n"/>
+      <c r="G87" s="67" t="n"/>
+    </row>
+    <row r="88" ht="18.75" customHeight="1" s="68">
+      <c r="A88" s="145" t="n"/>
+      <c r="B88" s="138" t="n"/>
+      <c r="C88" s="140" t="n"/>
+      <c r="D88" s="67" t="n"/>
+      <c r="E88" s="67" t="n"/>
+      <c r="F88" s="140" t="n"/>
+      <c r="G88" s="67" t="n"/>
+    </row>
+    <row r="89" ht="18.75" customHeight="1" s="68">
+      <c r="A89" s="145" t="n"/>
+      <c r="B89" s="138" t="n"/>
+      <c r="C89" s="140" t="n"/>
+      <c r="D89" s="67" t="n"/>
+      <c r="E89" s="67" t="n"/>
+      <c r="F89" s="140" t="n"/>
+      <c r="G89" s="67" t="n"/>
+    </row>
+    <row r="90" ht="15" customHeight="1" s="68">
+      <c r="A90" s="67" t="n"/>
+      <c r="B90" s="67" t="n"/>
+      <c r="C90" s="67" t="n"/>
+      <c r="D90" s="67" t="n"/>
+      <c r="E90" s="67" t="n"/>
+      <c r="F90" s="67" t="n"/>
+      <c r="G90" s="67" t="n"/>
+    </row>
+    <row r="91" ht="15" customHeight="1" s="68">
+      <c r="A91" s="67" t="n"/>
+      <c r="B91" s="67" t="n"/>
+      <c r="C91" s="67" t="n"/>
+      <c r="D91" s="67" t="n"/>
+      <c r="E91" s="67" t="n"/>
+      <c r="F91" s="67" t="n"/>
+      <c r="G91" s="67" t="n"/>
+    </row>
+    <row r="92" ht="15" customHeight="1" s="68">
+      <c r="A92" s="67" t="n"/>
+      <c r="B92" s="67" t="n"/>
+      <c r="C92" s="67" t="n"/>
+      <c r="D92" s="67" t="n"/>
+      <c r="E92" s="67" t="n"/>
+      <c r="F92" s="67" t="n"/>
+      <c r="G92" s="67" t="n"/>
+    </row>
+    <row r="93" ht="15" customHeight="1" s="68">
+      <c r="A93" s="67" t="n"/>
+      <c r="B93" s="67" t="n"/>
+      <c r="C93" s="67" t="n"/>
+      <c r="D93" s="67" t="n"/>
+      <c r="E93" s="67" t="n"/>
+      <c r="F93" s="67" t="n"/>
+      <c r="G93" s="67" t="n"/>
+    </row>
+    <row r="94" ht="15" customHeight="1" s="68">
+      <c r="A94" s="67" t="n"/>
+      <c r="B94" s="67" t="n"/>
+      <c r="C94" s="67" t="n"/>
+      <c r="D94" s="67" t="n"/>
+      <c r="E94" s="67" t="n"/>
+      <c r="F94" s="67" t="n"/>
+      <c r="G94" s="67" t="n"/>
+    </row>
+    <row r="95" ht="15" customHeight="1" s="68">
+      <c r="A95" s="67" t="n"/>
+      <c r="B95" s="67" t="n"/>
+      <c r="C95" s="67" t="n"/>
+      <c r="D95" s="67" t="n"/>
+      <c r="E95" s="67" t="n"/>
+      <c r="F95" s="67" t="n"/>
+      <c r="G95" s="67" t="n"/>
+    </row>
+    <row r="96" ht="15" customHeight="1" s="68">
+      <c r="A96" s="67" t="n"/>
+      <c r="B96" s="67" t="n"/>
+      <c r="C96" s="67" t="n"/>
+      <c r="D96" s="67" t="n"/>
+      <c r="E96" s="67" t="n"/>
+      <c r="F96" s="67" t="n"/>
+      <c r="G96" s="67" t="n"/>
+    </row>
+    <row r="97" ht="15" customHeight="1" s="68">
+      <c r="A97" s="67" t="n"/>
+      <c r="B97" s="67" t="n"/>
+      <c r="C97" s="67" t="n"/>
+      <c r="D97" s="67" t="n"/>
+      <c r="E97" s="67" t="n"/>
+      <c r="F97" s="67" t="n"/>
+      <c r="G97" s="67" t="n"/>
+    </row>
+    <row r="98" ht="15" customHeight="1" s="68">
+      <c r="A98" s="67" t="n"/>
+      <c r="B98" s="67" t="n"/>
+      <c r="C98" s="67" t="n"/>
+      <c r="D98" s="67" t="n"/>
+      <c r="E98" s="67" t="n"/>
+      <c r="F98" s="67" t="n"/>
+      <c r="G98" s="67" t="n"/>
+    </row>
+    <row r="99" ht="15" customHeight="1" s="68">
+      <c r="A99" s="67" t="n"/>
+      <c r="B99" s="67" t="n"/>
+      <c r="C99" s="67" t="n"/>
+      <c r="D99" s="67" t="n"/>
+      <c r="E99" s="67" t="n"/>
+      <c r="F99" s="67" t="n"/>
+      <c r="G99" s="67" t="n"/>
+    </row>
+    <row r="100" ht="15" customHeight="1" s="68">
+      <c r="A100" s="67" t="n"/>
+      <c r="B100" s="67" t="n"/>
+      <c r="C100" s="67" t="n"/>
+      <c r="D100" s="67" t="n"/>
+      <c r="E100" s="67" t="n"/>
+      <c r="F100" s="67" t="n"/>
+      <c r="G100" s="67" t="n"/>
+    </row>
+    <row r="101" ht="15" customHeight="1" s="68">
+      <c r="A101" s="67" t="n"/>
+      <c r="B101" s="67" t="n"/>
+      <c r="C101" s="67" t="n"/>
+      <c r="D101" s="67" t="n"/>
+      <c r="E101" s="67" t="n"/>
+      <c r="F101" s="67" t="n"/>
+      <c r="G101" s="67" t="n"/>
+    </row>
+    <row r="102" ht="15" customHeight="1" s="68">
+      <c r="A102" s="67" t="n"/>
+      <c r="B102" s="67" t="n"/>
+      <c r="C102" s="67" t="n"/>
+      <c r="D102" s="67" t="n"/>
+      <c r="E102" s="67" t="n"/>
+      <c r="F102" s="67" t="n"/>
+      <c r="G102" s="67" t="n"/>
+    </row>
+    <row r="103" ht="15" customHeight="1" s="68">
+      <c r="A103" s="67" t="n"/>
+      <c r="B103" s="67" t="n"/>
+      <c r="C103" s="67" t="n"/>
+      <c r="D103" s="67" t="n"/>
+      <c r="E103" s="67" t="n"/>
+      <c r="F103" s="67" t="n"/>
+      <c r="G103" s="67" t="n"/>
+    </row>
+    <row r="104" ht="15" customHeight="1" s="68">
+      <c r="A104" s="67" t="n"/>
+      <c r="B104" s="67" t="n"/>
+      <c r="C104" s="67" t="n"/>
+      <c r="D104" s="67" t="n"/>
+      <c r="E104" s="67" t="n"/>
+      <c r="F104" s="67" t="n"/>
+      <c r="G104" s="67" t="n"/>
+    </row>
+    <row r="105" ht="15" customHeight="1" s="68">
+      <c r="A105" s="67" t="n"/>
+      <c r="B105" s="67" t="n"/>
+      <c r="C105" s="67" t="n"/>
+      <c r="D105" s="67" t="n"/>
+      <c r="E105" s="67" t="n"/>
+      <c r="F105" s="67" t="n"/>
+      <c r="G105" s="67" t="n"/>
+    </row>
+    <row r="106" ht="15" customHeight="1" s="68">
+      <c r="A106" s="67" t="n"/>
+      <c r="B106" s="67" t="n"/>
+      <c r="C106" s="67" t="n"/>
+      <c r="D106" s="67" t="n"/>
+      <c r="E106" s="67" t="n"/>
+      <c r="F106" s="67" t="n"/>
+      <c r="G106" s="67" t="n"/>
+    </row>
+    <row r="107" ht="15" customHeight="1" s="68">
+      <c r="A107" s="67" t="n"/>
+      <c r="B107" s="67" t="n"/>
+      <c r="C107" s="67" t="n"/>
+      <c r="D107" s="67" t="n"/>
+      <c r="E107" s="67" t="n"/>
+      <c r="F107" s="67" t="n"/>
+      <c r="G107" s="67" t="n"/>
+    </row>
+    <row r="108" ht="15" customHeight="1" s="68">
+      <c r="A108" s="67" t="n"/>
+      <c r="B108" s="67" t="n"/>
+      <c r="C108" s="67" t="n"/>
+      <c r="D108" s="67" t="n"/>
+      <c r="E108" s="67" t="n"/>
+      <c r="F108" s="67" t="n"/>
+      <c r="G108" s="67" t="n"/>
+    </row>
+    <row r="109" ht="15" customHeight="1" s="68">
+      <c r="A109" s="67" t="n"/>
+      <c r="B109" s="67" t="n"/>
+      <c r="C109" s="67" t="n"/>
+      <c r="D109" s="67" t="n"/>
+      <c r="E109" s="67" t="n"/>
+      <c r="F109" s="67" t="n"/>
+      <c r="G109" s="67" t="n"/>
+    </row>
+    <row r="110" ht="15" customHeight="1" s="68">
+      <c r="A110" s="67" t="n"/>
+      <c r="B110" s="67" t="n"/>
+      <c r="C110" s="67" t="n"/>
+      <c r="D110" s="67" t="n"/>
+      <c r="E110" s="67" t="n"/>
+      <c r="F110" s="67" t="n"/>
+      <c r="G110" s="67" t="n"/>
+    </row>
+    <row r="111" ht="15" customHeight="1" s="68">
+      <c r="A111" s="67" t="n"/>
+      <c r="B111" s="67" t="n"/>
+      <c r="C111" s="67" t="n"/>
+      <c r="D111" s="67" t="n"/>
+      <c r="E111" s="67" t="n"/>
+      <c r="F111" s="67" t="n"/>
+      <c r="G111" s="67" t="n"/>
+    </row>
+    <row r="112" ht="15" customHeight="1" s="68">
+      <c r="A112" s="67" t="n"/>
+      <c r="B112" s="67" t="n"/>
+      <c r="C112" s="67" t="n"/>
+      <c r="D112" s="67" t="n"/>
+      <c r="E112" s="67" t="n"/>
+      <c r="F112" s="67" t="n"/>
+      <c r="G112" s="67" t="n"/>
+    </row>
+    <row r="113" ht="15" customHeight="1" s="68">
+      <c r="A113" s="67" t="n"/>
+      <c r="B113" s="67" t="n"/>
+      <c r="C113" s="67" t="n"/>
+      <c r="D113" s="67" t="n"/>
+      <c r="E113" s="67" t="n"/>
+      <c r="F113" s="67" t="n"/>
+      <c r="G113" s="67" t="n"/>
+    </row>
+    <row r="114" ht="15" customHeight="1" s="68">
+      <c r="A114" s="67" t="n"/>
+      <c r="B114" s="67" t="n"/>
+      <c r="C114" s="67" t="n"/>
+      <c r="D114" s="67" t="n"/>
+      <c r="E114" s="67" t="n"/>
+      <c r="F114" s="67" t="n"/>
+      <c r="G114" s="67" t="n"/>
+    </row>
+    <row r="115" ht="15" customHeight="1" s="68">
+      <c r="A115" s="67" t="n"/>
+      <c r="B115" s="67" t="n"/>
+      <c r="C115" s="67" t="n"/>
+      <c r="D115" s="67" t="n"/>
+      <c r="E115" s="67" t="n"/>
+      <c r="F115" s="67" t="n"/>
+      <c r="G115" s="67" t="n"/>
+    </row>
+    <row r="116" ht="15" customHeight="1" s="68">
+      <c r="A116" s="67" t="n"/>
+      <c r="B116" s="67" t="n"/>
+      <c r="C116" s="67" t="n"/>
+      <c r="D116" s="67" t="n"/>
+      <c r="E116" s="67" t="n"/>
+      <c r="F116" s="67" t="n"/>
+      <c r="G116" s="67" t="n"/>
+    </row>
+    <row r="117" ht="15" customHeight="1" s="68">
+      <c r="A117" s="67" t="n"/>
+      <c r="B117" s="67" t="n"/>
+      <c r="C117" s="67" t="n"/>
+      <c r="D117" s="67" t="n"/>
+      <c r="E117" s="67" t="n"/>
+      <c r="F117" s="67" t="n"/>
+      <c r="G117" s="67" t="n"/>
+    </row>
+    <row r="118" ht="15" customHeight="1" s="68">
+      <c r="A118" s="67" t="n"/>
+      <c r="B118" s="67" t="n"/>
+      <c r="C118" s="67" t="n"/>
+      <c r="D118" s="67" t="n"/>
+      <c r="E118" s="67" t="n"/>
+      <c r="F118" s="67" t="n"/>
+      <c r="G118" s="67" t="n"/>
+    </row>
+    <row r="119" ht="15" customHeight="1" s="68">
+      <c r="A119" s="67" t="n"/>
+      <c r="B119" s="67" t="n"/>
+      <c r="C119" s="67" t="n"/>
+      <c r="D119" s="67" t="n"/>
+      <c r="E119" s="67" t="n"/>
+      <c r="F119" s="67" t="n"/>
+      <c r="G119" s="67" t="n"/>
+    </row>
+    <row r="120" ht="15" customHeight="1" s="68">
+      <c r="A120" s="67" t="n"/>
+      <c r="B120" s="67" t="n"/>
+      <c r="C120" s="67" t="n"/>
+      <c r="D120" s="67" t="n"/>
+      <c r="E120" s="67" t="n"/>
+      <c r="F120" s="67" t="n"/>
+      <c r="G120" s="67" t="n"/>
+    </row>
+    <row r="121" ht="15" customHeight="1" s="68">
+      <c r="A121" s="67" t="n"/>
+      <c r="B121" s="67" t="n"/>
+      <c r="C121" s="67" t="n"/>
+      <c r="D121" s="67" t="n"/>
+      <c r="E121" s="67" t="n"/>
+      <c r="F121" s="67" t="n"/>
+      <c r="G121" s="67" t="n"/>
+    </row>
+    <row r="122" ht="15" customHeight="1" s="68">
+      <c r="A122" s="67" t="n"/>
+      <c r="B122" s="67" t="n"/>
+      <c r="C122" s="67" t="n"/>
+      <c r="D122" s="67" t="n"/>
+      <c r="E122" s="67" t="n"/>
+      <c r="F122" s="67" t="n"/>
+      <c r="G122" s="67" t="n"/>
+    </row>
+    <row r="123" ht="15" customHeight="1" s="68">
+      <c r="A123" s="67" t="n"/>
+      <c r="B123" s="67" t="n"/>
+      <c r="C123" s="67" t="n"/>
+      <c r="D123" s="67" t="n"/>
+      <c r="E123" s="67" t="n"/>
+      <c r="F123" s="67" t="n"/>
+      <c r="G123" s="67" t="n"/>
+    </row>
+    <row r="124" ht="15" customHeight="1" s="68">
+      <c r="A124" s="67" t="n"/>
+      <c r="B124" s="67" t="n"/>
+      <c r="C124" s="67" t="n"/>
+      <c r="D124" s="67" t="n"/>
+      <c r="E124" s="67" t="n"/>
+      <c r="F124" s="67" t="n"/>
+      <c r="G124" s="67" t="n"/>
+    </row>
+    <row r="125" ht="15" customHeight="1" s="68">
+      <c r="A125" s="67" t="n"/>
+      <c r="B125" s="67" t="n"/>
+      <c r="C125" s="67" t="n"/>
+      <c r="D125" s="67" t="n"/>
+      <c r="E125" s="67" t="n"/>
+      <c r="F125" s="67" t="n"/>
+      <c r="G125" s="67" t="n"/>
+    </row>
+    <row r="126" ht="15" customHeight="1" s="68">
+      <c r="A126" s="67" t="n"/>
+      <c r="B126" s="67" t="n"/>
+      <c r="C126" s="67" t="n"/>
+      <c r="D126" s="67" t="n"/>
+      <c r="E126" s="67" t="n"/>
+      <c r="F126" s="67" t="n"/>
+      <c r="G126" s="67" t="n"/>
+    </row>
+    <row r="127" ht="15" customHeight="1" s="68">
+      <c r="A127" s="67" t="n"/>
+      <c r="B127" s="67" t="n"/>
+      <c r="C127" s="67" t="n"/>
+      <c r="D127" s="67" t="n"/>
+      <c r="E127" s="67" t="n"/>
+      <c r="F127" s="67" t="n"/>
+      <c r="G127" s="67" t="n"/>
+    </row>
+    <row r="128" ht="15" customHeight="1" s="68">
+      <c r="A128" s="67" t="n"/>
+      <c r="B128" s="67" t="n"/>
+      <c r="C128" s="67" t="n"/>
+      <c r="D128" s="67" t="n"/>
+      <c r="E128" s="67" t="n"/>
+      <c r="F128" s="67" t="n"/>
+      <c r="G128" s="67" t="n"/>
+    </row>
+    <row r="129" ht="15" customHeight="1" s="68">
+      <c r="A129" s="67" t="n"/>
+      <c r="B129" s="67" t="n"/>
+      <c r="C129" s="67" t="n"/>
+      <c r="D129" s="67" t="n"/>
+      <c r="E129" s="67" t="n"/>
+      <c r="F129" s="67" t="n"/>
+      <c r="G129" s="67" t="n"/>
+    </row>
+    <row r="130" ht="15" customHeight="1" s="68">
+      <c r="A130" s="67" t="n"/>
+      <c r="B130" s="67" t="n"/>
+      <c r="C130" s="67" t="n"/>
+      <c r="D130" s="67" t="n"/>
+      <c r="E130" s="67" t="n"/>
+      <c r="F130" s="67" t="n"/>
+      <c r="G130" s="67" t="n"/>
+    </row>
+    <row r="131" ht="15" customHeight="1" s="68">
+      <c r="A131" s="67" t="n"/>
+      <c r="B131" s="67" t="n"/>
+      <c r="C131" s="67" t="n"/>
+      <c r="D131" s="67" t="n"/>
+      <c r="E131" s="67" t="n"/>
+      <c r="F131" s="67" t="n"/>
+      <c r="G131" s="67" t="n"/>
+    </row>
+    <row r="132" ht="15" customHeight="1" s="68">
+      <c r="A132" s="67" t="n"/>
+      <c r="B132" s="67" t="n"/>
+      <c r="C132" s="67" t="n"/>
+      <c r="D132" s="67" t="n"/>
+      <c r="E132" s="67" t="n"/>
+      <c r="F132" s="67" t="n"/>
+      <c r="G132" s="67" t="n"/>
+    </row>
+    <row r="133" ht="15" customHeight="1" s="68">
+      <c r="A133" s="67" t="n"/>
+      <c r="B133" s="67" t="n"/>
+      <c r="C133" s="67" t="n"/>
+      <c r="D133" s="67" t="n"/>
+      <c r="E133" s="67" t="n"/>
+      <c r="F133" s="67" t="n"/>
+      <c r="G133" s="67" t="n"/>
+    </row>
+    <row r="134" ht="15" customHeight="1" s="68">
+      <c r="A134" s="67" t="n"/>
+      <c r="B134" s="67" t="n"/>
+      <c r="C134" s="67" t="n"/>
+      <c r="D134" s="67" t="n"/>
+      <c r="E134" s="67" t="n"/>
+      <c r="F134" s="67" t="n"/>
+      <c r="G134" s="67" t="n"/>
+    </row>
+    <row r="135" ht="15" customHeight="1" s="68">
+      <c r="A135" s="67" t="n"/>
+      <c r="B135" s="67" t="n"/>
+      <c r="C135" s="67" t="n"/>
+      <c r="D135" s="67" t="n"/>
+      <c r="E135" s="67" t="n"/>
+      <c r="F135" s="67" t="n"/>
+      <c r="G135" s="67" t="n"/>
+    </row>
+    <row r="136" ht="15" customHeight="1" s="68">
+      <c r="A136" s="67" t="n"/>
+      <c r="B136" s="67" t="n"/>
+      <c r="C136" s="67" t="n"/>
+      <c r="D136" s="67" t="n"/>
+      <c r="E136" s="67" t="n"/>
+      <c r="F136" s="67" t="n"/>
+      <c r="G136" s="67" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="107">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="B54:D55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="B60:D61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="B66:D67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:G70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="B72:D73"/>
+  </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:R136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="2.85" customWidth="1" style="67" min="1" max="1"/>
+    <col width="13.14" customWidth="1" style="67" min="2" max="2"/>
+    <col width="7.71" customWidth="1" style="67" min="3" max="3"/>
+    <col width="8.289999999999999" customWidth="1" style="67" min="4" max="4"/>
+    <col width="19.71" customWidth="1" style="67" min="5" max="5"/>
+    <col width="13.57" customWidth="1" style="67" min="6" max="6"/>
+    <col width="1" customWidth="1" style="67" min="7" max="7"/>
+    <col width="28.42" customWidth="1" style="67" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" s="68">
+      <c r="A1" s="69" t="inlineStr">
+        <is>
+          <t>UNIT  NUMBER</t>
+        </is>
+      </c>
+      <c r="B1" s="70" t="n"/>
+      <c r="C1" s="70" t="n"/>
+      <c r="D1" s="71" t="n"/>
+      <c r="E1" s="72" t="inlineStr">
+        <is>
+          <t>DATE INSHOPPED:</t>
+        </is>
+      </c>
+      <c r="F1" s="73" t="inlineStr">
+        <is>
+          <t>01-09-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" s="68">
+      <c r="A2" s="74" t="inlineStr">
+        <is>
+          <t>7534</t>
+        </is>
+      </c>
+      <c r="D2" s="75" t="n"/>
+      <c r="H2" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I2" s="67" t="n"/>
+      <c r="K2" s="77" t="n"/>
+      <c r="M2" s="78" t="n"/>
+      <c r="N2" s="67" t="n"/>
+      <c r="O2" s="67" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="68">
+      <c r="A3" s="79" t="n"/>
+      <c r="D3" s="75" t="n"/>
+      <c r="E3" s="80" t="inlineStr">
+        <is>
+          <t>SAMPLES DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F3" s="81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G3" s="67" t="n"/>
+      <c r="H3" s="82" t="n"/>
+      <c r="I3" s="83" t="n"/>
+      <c r="J3" s="83" t="n"/>
+      <c r="K3" s="83" t="n"/>
+      <c r="L3" s="84" t="n"/>
+      <c r="M3" s="83" t="n"/>
+      <c r="N3" s="83" t="n"/>
+      <c r="O3" s="67" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" s="68">
+      <c r="A4" s="85" t="n"/>
+      <c r="B4" s="86" t="n"/>
+      <c r="C4" s="86" t="n"/>
+      <c r="D4" s="87" t="n"/>
+      <c r="E4" s="80" t="inlineStr">
+        <is>
+          <t>TOILET DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F4" s="88" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G4" s="67" t="n"/>
+      <c r="H4" s="89" t="n"/>
+      <c r="O4" s="67" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" s="68">
+      <c r="A5" s="90" t="inlineStr">
+        <is>
+          <t>FRA DEAD DATE:</t>
+        </is>
+      </c>
+      <c r="B5" s="91" t="n"/>
+      <c r="C5" s="92" t="inlineStr">
+        <is>
+          <t>04-21-2020</t>
+        </is>
+      </c>
+      <c r="D5" s="70" t="n"/>
+      <c r="E5" s="80" t="inlineStr">
+        <is>
+          <t>LUBE DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F5" s="88" t="n"/>
+      <c r="G5" s="67" t="n"/>
+      <c r="H5" s="89" t="n"/>
+      <c r="O5" s="67" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" s="68">
+      <c r="A6" s="80" t="inlineStr">
+        <is>
+          <t>MI DUE (month):</t>
+        </is>
+      </c>
+      <c r="C6" s="93" t="n"/>
+      <c r="D6" s="94" t="n"/>
+      <c r="E6" s="80" t="inlineStr">
+        <is>
+          <t>C/S DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F6" s="88" t="n"/>
+      <c r="H6" s="95" t="n"/>
+      <c r="K6" s="83" t="n"/>
+      <c r="L6" s="83" t="n"/>
+      <c r="M6" s="96" t="n"/>
+      <c r="N6" s="96" t="n"/>
+      <c r="O6" s="67" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" s="68">
+      <c r="A7" s="80" t="inlineStr">
+        <is>
+          <t>EPA DUE (year, M):</t>
+        </is>
+      </c>
+      <c r="C7" s="93" t="n"/>
+      <c r="D7" s="94" t="n"/>
+      <c r="E7" s="80" t="inlineStr">
+        <is>
+          <t>AF DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F7" s="88" t="n"/>
+      <c r="H7" s="95" t="n"/>
+      <c r="I7" s="84" t="n"/>
+      <c r="K7" s="83" t="n"/>
+      <c r="L7" s="83" t="n"/>
+      <c r="M7" s="96" t="n"/>
+      <c r="N7" s="96" t="n"/>
+      <c r="O7" s="67" t="n"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" s="68">
+      <c r="A8" s="83" t="n"/>
+      <c r="B8" s="97" t="inlineStr">
+        <is>
+          <t>INBOUND TASKS (ADD WORKSHEET TASKS AS NEEDED)</t>
+        </is>
+      </c>
+      <c r="C8" s="98" t="n"/>
+      <c r="D8" s="98" t="n"/>
+      <c r="E8" s="67" t="n"/>
+      <c r="F8" s="67" t="n"/>
+      <c r="G8" s="67" t="n"/>
+      <c r="H8" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="J8" s="99" t="n"/>
+      <c r="K8" s="67" t="n"/>
+      <c r="L8" s="67" t="n"/>
+      <c r="M8" s="67" t="n"/>
+      <c r="N8" s="67" t="n"/>
+      <c r="O8" s="67" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" s="68">
+      <c r="A9" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="101" t="inlineStr">
+        <is>
+          <t>Check for and remove all non-compliance tags.  Note defects on ELF 023.</t>
+        </is>
+      </c>
+      <c r="C9" s="94" t="n"/>
+      <c r="D9" s="94" t="n"/>
+      <c r="E9" s="94" t="n"/>
+      <c r="F9" s="94" t="n"/>
+      <c r="G9" s="102" t="n"/>
+      <c r="H9" s="103" t="n"/>
+      <c r="J9" s="99" t="n"/>
+      <c r="K9" s="67" t="n"/>
+      <c r="L9" s="67" t="n"/>
+      <c r="M9" s="67" t="n"/>
+      <c r="N9" s="67" t="n"/>
+      <c r="O9" s="67" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" s="68">
+      <c r="A10" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="101" t="inlineStr">
+        <is>
+          <t>Download/Review Locomotive Fault log.  Add worksheet tasks as needed.</t>
+        </is>
+      </c>
+      <c r="C10" s="94" t="n"/>
+      <c r="D10" s="94" t="n"/>
+      <c r="E10" s="94" t="n"/>
+      <c r="F10" s="94" t="n"/>
+      <c r="G10" s="102" t="n"/>
+      <c r="H10" s="103" t="n"/>
+    </row>
+    <row r="11" ht="26.25" customHeight="1" s="68">
+      <c r="A11" s="100" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="104" t="inlineStr">
+        <is>
+          <t>Wait 15 minutes after download/sync for current info to display, then print chronology and SFA.  Attach printout to work packet.</t>
+        </is>
+      </c>
+      <c r="C11" s="94" t="n"/>
+      <c r="D11" s="94" t="n"/>
+      <c r="E11" s="94" t="n"/>
+      <c r="F11" s="94" t="n"/>
+      <c r="G11" s="102" t="n"/>
+      <c r="H11" s="105" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="68">
+      <c r="A12" s="100" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="101" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Electrical Inspections.</t>
+        </is>
+      </c>
+      <c r="C12" s="94" t="n"/>
+      <c r="D12" s="94" t="n"/>
+      <c r="E12" s="94" t="n"/>
+      <c r="F12" s="94" t="n"/>
+      <c r="G12" s="102" t="n"/>
+      <c r="H12" s="105" t="n"/>
+      <c r="K12" s="67" t="n"/>
+      <c r="L12" s="67" t="n"/>
+      <c r="M12" s="67" t="n"/>
+      <c r="N12" s="67" t="n"/>
+      <c r="O12" s="67" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" s="68">
+      <c r="A13" s="106" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="107" t="inlineStr">
+        <is>
+          <t>Perform PTC Departure test.</t>
+        </is>
+      </c>
+      <c r="C13" s="94" t="n"/>
+      <c r="D13" s="94" t="n"/>
+      <c r="E13" s="94" t="n"/>
+      <c r="F13" s="108" t="inlineStr">
+        <is>
+          <t>Pass / Fail</t>
+        </is>
+      </c>
+      <c r="G13" s="102" t="n"/>
+      <c r="H13" s="109" t="n"/>
+      <c r="Q13" s="67" t="n"/>
+      <c r="R13" s="67" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" s="68">
+      <c r="A14" s="110" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="111" t="inlineStr">
+        <is>
+          <t>Check PTCMon for PTC/EM Health.</t>
+        </is>
+      </c>
+      <c r="C14" s="112" t="n"/>
+      <c r="D14" s="112" t="n"/>
+      <c r="E14" s="113" t="inlineStr">
+        <is>
+          <t>PTC_____________   EM_______________</t>
+        </is>
+      </c>
+      <c r="F14" s="112" t="n"/>
+      <c r="G14" s="114" t="n"/>
+      <c r="H14" s="115" t="n"/>
+      <c r="K14" s="84" t="n"/>
+      <c r="Q14" s="67" t="n"/>
+      <c r="R14" s="67" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" s="68">
+      <c r="A15" s="116" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="117" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Mechanical Inspections.</t>
+        </is>
+      </c>
+      <c r="C15" s="118" t="n"/>
+      <c r="D15" s="118" t="n"/>
+      <c r="E15" s="118" t="n"/>
+      <c r="F15" s="118" t="n"/>
+      <c r="G15" s="119" t="n"/>
+      <c r="H15" s="120" t="n"/>
+      <c r="K15" s="84" t="n"/>
+      <c r="Q15" s="67" t="n"/>
+      <c r="R15" s="67" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" s="68">
+      <c r="A16" s="100" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="101" t="inlineStr">
+        <is>
+          <t>Add fluids as needed.</t>
+        </is>
+      </c>
+      <c r="C16" s="94" t="n"/>
+      <c r="D16" s="94" t="n"/>
+      <c r="E16" s="94" t="n"/>
+      <c r="F16" s="94" t="n"/>
+      <c r="G16" s="102" t="n"/>
+      <c r="H16" s="121" t="n"/>
+      <c r="Q16" s="67" t="n"/>
+      <c r="R16" s="67" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" s="68">
+      <c r="A17" s="110" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="122" t="inlineStr">
+        <is>
+          <t>Renew defective brake shoes and adjust piston travel as needed.</t>
+        </is>
+      </c>
+      <c r="C17" s="112" t="n"/>
+      <c r="D17" s="112" t="n"/>
+      <c r="E17" s="112" t="n"/>
+      <c r="F17" s="112" t="n"/>
+      <c r="G17" s="114" t="n"/>
+      <c r="H17" s="115" t="n"/>
+      <c r="I17" s="67" t="n"/>
+      <c r="K17" s="67" t="n"/>
+      <c r="L17" s="67" t="n"/>
+      <c r="M17" s="67" t="n"/>
+      <c r="N17" s="67" t="n"/>
+      <c r="O17" s="67" t="n"/>
+      <c r="Q17" s="67" t="n"/>
+      <c r="R17" s="67" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" s="68">
+      <c r="A18" s="116" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="117" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Fireman &amp; Oiler Inspections.</t>
+        </is>
+      </c>
+      <c r="C18" s="118" t="n"/>
+      <c r="D18" s="118" t="n"/>
+      <c r="E18" s="118" t="n"/>
+      <c r="F18" s="118" t="n"/>
+      <c r="G18" s="119" t="n"/>
+      <c r="H18" s="120" t="n"/>
+      <c r="I18" s="67" t="n"/>
+      <c r="K18" s="67" t="n"/>
+      <c r="L18" s="67" t="n"/>
+      <c r="M18" s="67" t="n"/>
+      <c r="N18" s="67" t="n"/>
+      <c r="O18" s="67" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" s="68">
+      <c r="A19" s="100" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" s="117" t="inlineStr">
+        <is>
+          <t>Fuel Locomotive as needed.                         Gallons added _________________</t>
+        </is>
+      </c>
+      <c r="C19" s="118" t="n"/>
+      <c r="D19" s="118" t="n"/>
+      <c r="E19" s="118" t="n"/>
+      <c r="F19" s="118" t="n"/>
+      <c r="G19" s="119" t="n"/>
+      <c r="H19" s="121" t="n"/>
+      <c r="I19" s="67" t="n"/>
+      <c r="K19" s="67" t="n"/>
+      <c r="L19" s="67" t="n"/>
+      <c r="M19" s="67" t="n"/>
+      <c r="N19" s="67" t="n"/>
+      <c r="O19" s="67" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" s="68">
+      <c r="A20" s="100" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" s="104" t="inlineStr">
+        <is>
+          <t>Add Sand to locomotive sandboxes as needed.</t>
+        </is>
+      </c>
+      <c r="C20" s="94" t="n"/>
+      <c r="D20" s="94" t="n"/>
+      <c r="E20" s="94" t="n"/>
+      <c r="F20" s="94" t="n"/>
+      <c r="G20" s="102" t="n"/>
+      <c r="H20" s="121" t="n"/>
+      <c r="I20" s="67" t="n"/>
+      <c r="K20" s="67" t="n"/>
+      <c r="L20" s="67" t="n"/>
+      <c r="M20" s="67" t="n"/>
+      <c r="N20" s="67" t="n"/>
+      <c r="O20" s="67" t="n"/>
+    </row>
+    <row r="21" ht="26.25" customHeight="1" s="68">
+      <c r="A21" s="100" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" s="104" t="inlineStr">
+        <is>
+          <t>Remove trash and hazardous debris from running boards, cab &amp; toilet room.</t>
+        </is>
+      </c>
+      <c r="C21" s="94" t="n"/>
+      <c r="D21" s="94" t="n"/>
+      <c r="E21" s="94" t="n"/>
+      <c r="F21" s="94" t="n"/>
+      <c r="G21" s="102" t="n"/>
+      <c r="H21" s="121" t="n"/>
+      <c r="I21" s="67" t="n"/>
+      <c r="K21" s="67" t="n"/>
+      <c r="L21" s="67" t="n"/>
+      <c r="M21" s="67" t="n"/>
+      <c r="N21" s="67" t="n"/>
+      <c r="O21" s="67" t="n"/>
+    </row>
+    <row r="22" ht="19.5" customHeight="1" s="68">
+      <c r="B22" s="123" t="inlineStr">
+        <is>
+          <t>WORK ORDERS / DEFECTS</t>
+        </is>
+      </c>
+      <c r="C22" s="94" t="n"/>
+      <c r="D22" s="94" t="n"/>
+      <c r="E22" s="124" t="inlineStr">
+        <is>
+          <t>REPAIRS / MATERIAL</t>
+        </is>
+      </c>
+      <c r="F22" s="94" t="n"/>
+      <c r="G22" s="94" t="n"/>
+      <c r="H22" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I22" s="67" t="n"/>
+      <c r="J22" s="125" t="n"/>
+      <c r="L22" s="67" t="n"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1" s="68">
+      <c r="A23" s="126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="127" t="inlineStr">
+        <is>
+          <t>WNSOR</t>
+        </is>
+      </c>
+      <c r="C23" s="128" t="n"/>
+      <c r="D23" s="129" t="n"/>
+      <c r="E23" s="121" t="n"/>
+      <c r="F23" s="128" t="n"/>
+      <c r="G23" s="129" t="n"/>
+      <c r="H23" s="121" t="n"/>
+      <c r="I23" s="67" t="n"/>
+      <c r="J23" s="67" t="n"/>
+      <c r="K23" s="67" t="n"/>
+      <c r="L23" s="67" t="n"/>
+    </row>
+    <row r="24" ht="19.5" customHeight="1" s="68">
+      <c r="A24" s="130" t="n"/>
+      <c r="B24" s="131" t="inlineStr">
+        <is>
+          <t>Will not start, will not crank, can not clear fault</t>
         </is>
       </c>
       <c r="D24" s="132" t="n"/>

--- a/UR_CoverSheets.xlsx
+++ b/UR_CoverSheets.xlsx
@@ -8,11 +8,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UR Cover Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1050" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3651" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3657" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5178" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7534" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9905" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5673" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7030" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3337" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4023" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -2772,14 +2772,14 @@
       </c>
       <c r="F1" s="73" t="inlineStr">
         <is>
-          <t>01-09-2020</t>
+          <t>01-16-2020</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" s="68">
       <c r="A2" s="74" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>9905</t>
         </is>
       </c>
       <c r="D2" s="75" t="n"/>
@@ -2845,7 +2845,7 @@
       <c r="B5" s="91" t="n"/>
       <c r="C5" s="92" t="inlineStr">
         <is>
-          <t>02-13-2020</t>
+          <t>06-05-2020</t>
         </is>
       </c>
       <c r="D5" s="70" t="n"/>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B23" s="127" t="inlineStr">
         <is>
-          <t>AIR BRAKE</t>
+          <t>FUEL LEAK</t>
         </is>
       </c>
       <c r="C23" s="128" t="n"/>
@@ -3243,7 +3243,7 @@
       <c r="A24" s="130" t="n"/>
       <c r="B24" s="131" t="inlineStr">
         <is>
-          <t>Automatic Brake Handle readout does not display</t>
+          <t>Fuel leaking right side</t>
         </is>
       </c>
       <c r="D24" s="132" t="n"/>
@@ -4478,14 +4478,14 @@
       </c>
       <c r="F1" s="73" t="inlineStr">
         <is>
-          <t>01-09-2020</t>
+          <t>01-16-2020</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" s="68">
       <c r="A2" s="74" t="inlineStr">
         <is>
-          <t>3651</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="D2" s="75" t="n"/>
@@ -4508,7 +4508,11 @@
           <t>SAMPLES DUE (Y/N):</t>
         </is>
       </c>
-      <c r="F3" s="81" t="n"/>
+      <c r="F3" s="81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="G3" s="67" t="n"/>
       <c r="H3" s="82" t="n"/>
       <c r="I3" s="83" t="n"/>
@@ -4547,7 +4551,7 @@
       <c r="B5" s="91" t="n"/>
       <c r="C5" s="92" t="inlineStr">
         <is>
-          <t>05-01-2020</t>
+          <t>03-19-2020</t>
         </is>
       </c>
       <c r="D5" s="70" t="n"/>
@@ -4927,7 +4931,7 @@
       </c>
       <c r="B23" s="127" t="inlineStr">
         <is>
-          <t>FUEL INJECTOR</t>
+          <t>AIR BRAKE</t>
         </is>
       </c>
       <c r="C23" s="128" t="n"/>
@@ -4945,7 +4949,7 @@
       <c r="A24" s="130" t="n"/>
       <c r="B24" s="131" t="inlineStr">
         <is>
-          <t>SFA - Potential high pressure fuel leaks</t>
+          <t>Automatic leaks</t>
         </is>
       </c>
       <c r="D24" s="132" t="n"/>
@@ -4967,11 +4971,7 @@
       <c r="A26" s="136" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="127" t="inlineStr">
-        <is>
-          <t>EPA EMISSION</t>
-        </is>
-      </c>
+      <c r="B26" s="127" t="n"/>
       <c r="C26" s="128" t="n"/>
       <c r="D26" s="129" t="n"/>
       <c r="E26" s="137" t="n"/>
@@ -4981,11 +4981,7 @@
     </row>
     <row r="27" ht="19.5" customFormat="1" customHeight="1" s="84">
       <c r="A27" s="133" t="n"/>
-      <c r="B27" s="131" t="inlineStr">
-        <is>
-          <t>Cooler Out Temp Sensor out of range low</t>
-        </is>
-      </c>
+      <c r="B27" s="131" t="n"/>
       <c r="D27" s="132" t="n"/>
       <c r="E27" s="133" t="n"/>
       <c r="G27" s="132" t="n"/>
@@ -6188,14 +6184,14 @@
       </c>
       <c r="F1" s="73" t="inlineStr">
         <is>
-          <t>01-09-2020</t>
+          <t>01-16-2020</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" s="68">
       <c r="A2" s="74" t="inlineStr">
         <is>
-          <t>3657</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="D2" s="75" t="n"/>
@@ -6218,7 +6214,11 @@
           <t>SAMPLES DUE (Y/N):</t>
         </is>
       </c>
-      <c r="F3" s="81" t="n"/>
+      <c r="F3" s="81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="G3" s="67" t="n"/>
       <c r="H3" s="82" t="n"/>
       <c r="I3" s="83" t="n"/>
@@ -6257,7 +6257,7 @@
       <c r="B5" s="91" t="n"/>
       <c r="C5" s="92" t="inlineStr">
         <is>
-          <t>03-15-2020</t>
+          <t>05-18-2020</t>
         </is>
       </c>
       <c r="D5" s="70" t="n"/>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="B23" s="127" t="inlineStr">
         <is>
-          <t>FUEL/INJECTOR</t>
+          <t>Check for tags</t>
         </is>
       </c>
       <c r="C23" s="128" t="n"/>
@@ -6653,11 +6653,7 @@
     </row>
     <row r="24" ht="19.5" customHeight="1" s="68">
       <c r="A24" s="130" t="n"/>
-      <c r="B24" s="131" t="inlineStr">
-        <is>
-          <t>SFA - Shutdown due to potential high pressure fuel leaks *RT HOLD*</t>
-        </is>
-      </c>
+      <c r="B24" s="131" t="n"/>
       <c r="D24" s="132" t="n"/>
       <c r="E24" s="133" t="n"/>
       <c r="G24" s="132" t="n"/>
@@ -7890,14 +7886,14 @@
       </c>
       <c r="F1" s="73" t="inlineStr">
         <is>
-          <t>01-09-2020</t>
+          <t>01-16-2020</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" s="68">
       <c r="A2" s="74" t="inlineStr">
         <is>
-          <t>5178</t>
+          <t>3337</t>
         </is>
       </c>
       <c r="D2" s="75" t="n"/>
@@ -7963,7 +7959,7 @@
       <c r="B5" s="91" t="n"/>
       <c r="C5" s="92" t="inlineStr">
         <is>
-          <t>02-20-2020</t>
+          <t>02-16-2020</t>
         </is>
       </c>
       <c r="D5" s="70" t="n"/>
@@ -7994,7 +7990,11 @@
           <t>C/S DUE (Y/N):</t>
         </is>
       </c>
-      <c r="F6" s="88" t="n"/>
+      <c r="F6" s="88" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="H6" s="95" t="n"/>
       <c r="K6" s="83" t="n"/>
       <c r="L6" s="83" t="n"/>
@@ -8345,7 +8345,11 @@
       <c r="A23" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="B23" s="127" t="n"/>
+      <c r="B23" s="127" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
       <c r="C23" s="128" t="n"/>
       <c r="D23" s="129" t="n"/>
       <c r="E23" s="121" t="n"/>
@@ -8359,7 +8363,11 @@
     </row>
     <row r="24" ht="19.5" customHeight="1" s="68">
       <c r="A24" s="130" t="n"/>
-      <c r="B24" s="131" t="n"/>
+      <c r="B24" s="131" t="inlineStr">
+        <is>
+          <t>Grinding when turbo breaker is closed</t>
+        </is>
+      </c>
       <c r="D24" s="132" t="n"/>
       <c r="E24" s="133" t="n"/>
       <c r="G24" s="132" t="n"/>
@@ -8379,7 +8387,11 @@
       <c r="A26" s="136" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="127" t="n"/>
+      <c r="B26" s="127" t="inlineStr">
+        <is>
+          <t>Carbody</t>
+        </is>
+      </c>
       <c r="C26" s="128" t="n"/>
       <c r="D26" s="129" t="n"/>
       <c r="E26" s="137" t="n"/>
@@ -8389,7 +8401,11 @@
     </row>
     <row r="27" ht="19.5" customFormat="1" customHeight="1" s="84">
       <c r="A27" s="133" t="n"/>
-      <c r="B27" s="131" t="n"/>
+      <c r="B27" s="131" t="inlineStr">
+        <is>
+          <t>Rear truck dynamic cover open</t>
+        </is>
+      </c>
       <c r="D27" s="132" t="n"/>
       <c r="E27" s="133" t="n"/>
       <c r="G27" s="132" t="n"/>
@@ -9592,14 +9608,14 @@
       </c>
       <c r="F1" s="73" t="inlineStr">
         <is>
-          <t>01-09-2020</t>
+          <t>01-16-2020</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" s="68">
       <c r="A2" s="74" t="inlineStr">
         <is>
-          <t>7534</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="D2" s="75" t="n"/>
@@ -9665,7 +9681,7 @@
       <c r="B5" s="91" t="n"/>
       <c r="C5" s="92" t="inlineStr">
         <is>
-          <t>04-21-2020</t>
+          <t>06-02-2020</t>
         </is>
       </c>
       <c r="D5" s="70" t="n"/>
@@ -10045,7 +10061,7 @@
       </c>
       <c r="B23" s="127" t="inlineStr">
         <is>
-          <t>WNSOR</t>
+          <t>STRUCK TREE</t>
         </is>
       </c>
       <c r="C23" s="128" t="n"/>
@@ -10061,11 +10077,7 @@
     </row>
     <row r="24" ht="19.5" customHeight="1" s="68">
       <c r="A24" s="130" t="n"/>
-      <c r="B24" s="131" t="inlineStr">
-        <is>
-          <t>Will not start, will not crank, can not clear fault</t>
-        </is>
-      </c>
+      <c r="B24" s="131" t="n"/>
       <c r="D24" s="132" t="n"/>
       <c r="E24" s="133" t="n"/>
       <c r="G24" s="132" t="n"/>

--- a/UR_CoverSheets.xlsx
+++ b/UR_CoverSheets.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UR Cover Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5222" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -2726,1706 +2725,4 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:R136"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <cols>
-    <col width="2.85" customWidth="1" style="67" min="1" max="1"/>
-    <col width="13.14" customWidth="1" style="67" min="2" max="2"/>
-    <col width="7.71" customWidth="1" style="67" min="3" max="3"/>
-    <col width="8.289999999999999" customWidth="1" style="67" min="4" max="4"/>
-    <col width="19.71" customWidth="1" style="67" min="5" max="5"/>
-    <col width="13.57" customWidth="1" style="67" min="6" max="6"/>
-    <col width="1" customWidth="1" style="67" min="7" max="7"/>
-    <col width="28.42" customWidth="1" style="67" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.5" customHeight="1" s="68">
-      <c r="A1" s="69" t="inlineStr">
-        <is>
-          <t>UNIT  NUMBER</t>
-        </is>
-      </c>
-      <c r="B1" s="70" t="n"/>
-      <c r="C1" s="70" t="n"/>
-      <c r="D1" s="71" t="n"/>
-      <c r="E1" s="72" t="inlineStr">
-        <is>
-          <t>DATE INSHOPPED:</t>
-        </is>
-      </c>
-      <c r="F1" s="73" t="inlineStr">
-        <is>
-          <t>01-16-2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1" s="68">
-      <c r="A2" s="74" t="inlineStr">
-        <is>
-          <t>5222</t>
-        </is>
-      </c>
-      <c r="D2" s="75" t="n"/>
-      <c r="H2" s="76" t="inlineStr">
-        <is>
-          <t>COMPLETED BY</t>
-        </is>
-      </c>
-      <c r="I2" s="67" t="n"/>
-      <c r="K2" s="77" t="n"/>
-      <c r="M2" s="78" t="n"/>
-      <c r="N2" s="67" t="n"/>
-      <c r="O2" s="67" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="68">
-      <c r="A3" s="79" t="n"/>
-      <c r="D3" s="75" t="n"/>
-      <c r="E3" s="80" t="inlineStr">
-        <is>
-          <t>SAMPLES DUE (Y/N):</t>
-        </is>
-      </c>
-      <c r="F3" s="81" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G3" s="67" t="n"/>
-      <c r="H3" s="82" t="n"/>
-      <c r="I3" s="83" t="n"/>
-      <c r="J3" s="83" t="n"/>
-      <c r="K3" s="83" t="n"/>
-      <c r="L3" s="84" t="n"/>
-      <c r="M3" s="83" t="n"/>
-      <c r="N3" s="83" t="n"/>
-      <c r="O3" s="67" t="n"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" s="68">
-      <c r="A4" s="85" t="n"/>
-      <c r="B4" s="86" t="n"/>
-      <c r="C4" s="86" t="n"/>
-      <c r="D4" s="87" t="n"/>
-      <c r="E4" s="80" t="inlineStr">
-        <is>
-          <t>TOILET DUE (Y/N):</t>
-        </is>
-      </c>
-      <c r="F4" s="88" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G4" s="67" t="n"/>
-      <c r="H4" s="89" t="n"/>
-      <c r="O4" s="67" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" s="68">
-      <c r="A5" s="90" t="inlineStr">
-        <is>
-          <t>FRA DEAD DATE:</t>
-        </is>
-      </c>
-      <c r="B5" s="91" t="n"/>
-      <c r="C5" s="92" t="inlineStr">
-        <is>
-          <t>02-19-2020</t>
-        </is>
-      </c>
-      <c r="D5" s="70" t="n"/>
-      <c r="E5" s="80" t="inlineStr">
-        <is>
-          <t>LUBE DUE (Y/N):</t>
-        </is>
-      </c>
-      <c r="F5" s="88" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G5" s="67" t="n"/>
-      <c r="H5" s="89" t="n"/>
-      <c r="O5" s="67" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" s="68">
-      <c r="A6" s="80" t="inlineStr">
-        <is>
-          <t>MI DUE (month):</t>
-        </is>
-      </c>
-      <c r="C6" s="93" t="n"/>
-      <c r="D6" s="94" t="n"/>
-      <c r="E6" s="80" t="inlineStr">
-        <is>
-          <t>C/S DUE (Y/N):</t>
-        </is>
-      </c>
-      <c r="F6" s="88" t="n"/>
-      <c r="H6" s="95" t="n"/>
-      <c r="K6" s="83" t="n"/>
-      <c r="L6" s="83" t="n"/>
-      <c r="M6" s="96" t="n"/>
-      <c r="N6" s="96" t="n"/>
-      <c r="O6" s="67" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1" s="68">
-      <c r="A7" s="80" t="inlineStr">
-        <is>
-          <t>EPA DUE (year, M):</t>
-        </is>
-      </c>
-      <c r="C7" s="93" t="n"/>
-      <c r="D7" s="94" t="n"/>
-      <c r="E7" s="80" t="inlineStr">
-        <is>
-          <t>AF DUE (Y/N):</t>
-        </is>
-      </c>
-      <c r="F7" s="88" t="n"/>
-      <c r="H7" s="95" t="n"/>
-      <c r="I7" s="84" t="n"/>
-      <c r="K7" s="83" t="n"/>
-      <c r="L7" s="83" t="n"/>
-      <c r="M7" s="96" t="n"/>
-      <c r="N7" s="96" t="n"/>
-      <c r="O7" s="67" t="n"/>
-    </row>
-    <row r="8" ht="19.5" customHeight="1" s="68">
-      <c r="A8" s="83" t="n"/>
-      <c r="B8" s="97" t="inlineStr">
-        <is>
-          <t>INBOUND TASKS (ADD WORKSHEET TASKS AS NEEDED)</t>
-        </is>
-      </c>
-      <c r="C8" s="98" t="n"/>
-      <c r="D8" s="98" t="n"/>
-      <c r="E8" s="67" t="n"/>
-      <c r="F8" s="67" t="n"/>
-      <c r="G8" s="67" t="n"/>
-      <c r="H8" s="76" t="inlineStr">
-        <is>
-          <t>COMPLETED BY</t>
-        </is>
-      </c>
-      <c r="J8" s="99" t="n"/>
-      <c r="K8" s="67" t="n"/>
-      <c r="L8" s="67" t="n"/>
-      <c r="M8" s="67" t="n"/>
-      <c r="N8" s="67" t="n"/>
-      <c r="O8" s="67" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1" s="68">
-      <c r="A9" s="100" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="101" t="inlineStr">
-        <is>
-          <t>Check for and remove all non-compliance tags.  Note defects on ELF 023.</t>
-        </is>
-      </c>
-      <c r="C9" s="94" t="n"/>
-      <c r="D9" s="94" t="n"/>
-      <c r="E9" s="94" t="n"/>
-      <c r="F9" s="94" t="n"/>
-      <c r="G9" s="102" t="n"/>
-      <c r="H9" s="103" t="n"/>
-      <c r="J9" s="99" t="n"/>
-      <c r="K9" s="67" t="n"/>
-      <c r="L9" s="67" t="n"/>
-      <c r="M9" s="67" t="n"/>
-      <c r="N9" s="67" t="n"/>
-      <c r="O9" s="67" t="n"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1" s="68">
-      <c r="A10" s="100" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" s="101" t="inlineStr">
-        <is>
-          <t>Download/Review Locomotive Fault log.  Add worksheet tasks as needed.</t>
-        </is>
-      </c>
-      <c r="C10" s="94" t="n"/>
-      <c r="D10" s="94" t="n"/>
-      <c r="E10" s="94" t="n"/>
-      <c r="F10" s="94" t="n"/>
-      <c r="G10" s="102" t="n"/>
-      <c r="H10" s="103" t="n"/>
-    </row>
-    <row r="11" ht="26.25" customHeight="1" s="68">
-      <c r="A11" s="100" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" s="104" t="inlineStr">
-        <is>
-          <t>Wait 15 minutes after download/sync for current info to display, then print chronology and SFA.  Attach printout to work packet.</t>
-        </is>
-      </c>
-      <c r="C11" s="94" t="n"/>
-      <c r="D11" s="94" t="n"/>
-      <c r="E11" s="94" t="n"/>
-      <c r="F11" s="94" t="n"/>
-      <c r="G11" s="102" t="n"/>
-      <c r="H11" s="105" t="n"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" s="68">
-      <c r="A12" s="100" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" s="101" t="inlineStr">
-        <is>
-          <t>Complete NSure Analysis Electrical Inspections.</t>
-        </is>
-      </c>
-      <c r="C12" s="94" t="n"/>
-      <c r="D12" s="94" t="n"/>
-      <c r="E12" s="94" t="n"/>
-      <c r="F12" s="94" t="n"/>
-      <c r="G12" s="102" t="n"/>
-      <c r="H12" s="105" t="n"/>
-      <c r="K12" s="67" t="n"/>
-      <c r="L12" s="67" t="n"/>
-      <c r="M12" s="67" t="n"/>
-      <c r="N12" s="67" t="n"/>
-      <c r="O12" s="67" t="n"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1" s="68">
-      <c r="A13" s="106" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" s="107" t="inlineStr">
-        <is>
-          <t>Perform PTC Departure test.</t>
-        </is>
-      </c>
-      <c r="C13" s="94" t="n"/>
-      <c r="D13" s="94" t="n"/>
-      <c r="E13" s="94" t="n"/>
-      <c r="F13" s="108" t="inlineStr">
-        <is>
-          <t>Pass / Fail</t>
-        </is>
-      </c>
-      <c r="G13" s="102" t="n"/>
-      <c r="H13" s="109" t="n"/>
-      <c r="Q13" s="67" t="n"/>
-      <c r="R13" s="67" t="n"/>
-    </row>
-    <row r="14" ht="18.75" customHeight="1" s="68">
-      <c r="A14" s="110" t="n">
-        <v>6</v>
-      </c>
-      <c r="B14" s="111" t="inlineStr">
-        <is>
-          <t>Check PTCMon for PTC/EM Health.</t>
-        </is>
-      </c>
-      <c r="C14" s="112" t="n"/>
-      <c r="D14" s="112" t="n"/>
-      <c r="E14" s="113" t="inlineStr">
-        <is>
-          <t>PTC_____________   EM_______________</t>
-        </is>
-      </c>
-      <c r="F14" s="112" t="n"/>
-      <c r="G14" s="114" t="n"/>
-      <c r="H14" s="115" t="n"/>
-      <c r="K14" s="84" t="n"/>
-      <c r="Q14" s="67" t="n"/>
-      <c r="R14" s="67" t="n"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1" s="68">
-      <c r="A15" s="116" t="n">
-        <v>7</v>
-      </c>
-      <c r="B15" s="117" t="inlineStr">
-        <is>
-          <t>Complete NSure Analysis Mechanical Inspections.</t>
-        </is>
-      </c>
-      <c r="C15" s="118" t="n"/>
-      <c r="D15" s="118" t="n"/>
-      <c r="E15" s="118" t="n"/>
-      <c r="F15" s="118" t="n"/>
-      <c r="G15" s="119" t="n"/>
-      <c r="H15" s="120" t="n"/>
-      <c r="K15" s="84" t="n"/>
-      <c r="Q15" s="67" t="n"/>
-      <c r="R15" s="67" t="n"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" s="68">
-      <c r="A16" s="100" t="n">
-        <v>8</v>
-      </c>
-      <c r="B16" s="101" t="inlineStr">
-        <is>
-          <t>Add fluids as needed.</t>
-        </is>
-      </c>
-      <c r="C16" s="94" t="n"/>
-      <c r="D16" s="94" t="n"/>
-      <c r="E16" s="94" t="n"/>
-      <c r="F16" s="94" t="n"/>
-      <c r="G16" s="102" t="n"/>
-      <c r="H16" s="121" t="n"/>
-      <c r="Q16" s="67" t="n"/>
-      <c r="R16" s="67" t="n"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1" s="68">
-      <c r="A17" s="110" t="n">
-        <v>9</v>
-      </c>
-      <c r="B17" s="122" t="inlineStr">
-        <is>
-          <t>Renew defective brake shoes and adjust piston travel as needed.</t>
-        </is>
-      </c>
-      <c r="C17" s="112" t="n"/>
-      <c r="D17" s="112" t="n"/>
-      <c r="E17" s="112" t="n"/>
-      <c r="F17" s="112" t="n"/>
-      <c r="G17" s="114" t="n"/>
-      <c r="H17" s="115" t="n"/>
-      <c r="I17" s="67" t="n"/>
-      <c r="K17" s="67" t="n"/>
-      <c r="L17" s="67" t="n"/>
-      <c r="M17" s="67" t="n"/>
-      <c r="N17" s="67" t="n"/>
-      <c r="O17" s="67" t="n"/>
-      <c r="Q17" s="67" t="n"/>
-      <c r="R17" s="67" t="n"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1" s="68">
-      <c r="A18" s="116" t="n">
-        <v>10</v>
-      </c>
-      <c r="B18" s="117" t="inlineStr">
-        <is>
-          <t>Complete NSure Analysis Fireman &amp; Oiler Inspections.</t>
-        </is>
-      </c>
-      <c r="C18" s="118" t="n"/>
-      <c r="D18" s="118" t="n"/>
-      <c r="E18" s="118" t="n"/>
-      <c r="F18" s="118" t="n"/>
-      <c r="G18" s="119" t="n"/>
-      <c r="H18" s="120" t="n"/>
-      <c r="I18" s="67" t="n"/>
-      <c r="K18" s="67" t="n"/>
-      <c r="L18" s="67" t="n"/>
-      <c r="M18" s="67" t="n"/>
-      <c r="N18" s="67" t="n"/>
-      <c r="O18" s="67" t="n"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1" s="68">
-      <c r="A19" s="100" t="n">
-        <v>11</v>
-      </c>
-      <c r="B19" s="117" t="inlineStr">
-        <is>
-          <t>Fuel Locomotive as needed.                         Gallons added _________________</t>
-        </is>
-      </c>
-      <c r="C19" s="118" t="n"/>
-      <c r="D19" s="118" t="n"/>
-      <c r="E19" s="118" t="n"/>
-      <c r="F19" s="118" t="n"/>
-      <c r="G19" s="119" t="n"/>
-      <c r="H19" s="121" t="n"/>
-      <c r="I19" s="67" t="n"/>
-      <c r="K19" s="67" t="n"/>
-      <c r="L19" s="67" t="n"/>
-      <c r="M19" s="67" t="n"/>
-      <c r="N19" s="67" t="n"/>
-      <c r="O19" s="67" t="n"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1" s="68">
-      <c r="A20" s="100" t="n">
-        <v>12</v>
-      </c>
-      <c r="B20" s="104" t="inlineStr">
-        <is>
-          <t>Add Sand to locomotive sandboxes as needed.</t>
-        </is>
-      </c>
-      <c r="C20" s="94" t="n"/>
-      <c r="D20" s="94" t="n"/>
-      <c r="E20" s="94" t="n"/>
-      <c r="F20" s="94" t="n"/>
-      <c r="G20" s="102" t="n"/>
-      <c r="H20" s="121" t="n"/>
-      <c r="I20" s="67" t="n"/>
-      <c r="K20" s="67" t="n"/>
-      <c r="L20" s="67" t="n"/>
-      <c r="M20" s="67" t="n"/>
-      <c r="N20" s="67" t="n"/>
-      <c r="O20" s="67" t="n"/>
-    </row>
-    <row r="21" ht="26.25" customHeight="1" s="68">
-      <c r="A21" s="100" t="n">
-        <v>13</v>
-      </c>
-      <c r="B21" s="104" t="inlineStr">
-        <is>
-          <t>Remove trash and hazardous debris from running boards, cab &amp; toilet room.</t>
-        </is>
-      </c>
-      <c r="C21" s="94" t="n"/>
-      <c r="D21" s="94" t="n"/>
-      <c r="E21" s="94" t="n"/>
-      <c r="F21" s="94" t="n"/>
-      <c r="G21" s="102" t="n"/>
-      <c r="H21" s="121" t="n"/>
-      <c r="I21" s="67" t="n"/>
-      <c r="K21" s="67" t="n"/>
-      <c r="L21" s="67" t="n"/>
-      <c r="M21" s="67" t="n"/>
-      <c r="N21" s="67" t="n"/>
-      <c r="O21" s="67" t="n"/>
-    </row>
-    <row r="22" ht="19.5" customHeight="1" s="68">
-      <c r="B22" s="123" t="inlineStr">
-        <is>
-          <t>WORK ORDERS / DEFECTS</t>
-        </is>
-      </c>
-      <c r="C22" s="94" t="n"/>
-      <c r="D22" s="94" t="n"/>
-      <c r="E22" s="124" t="inlineStr">
-        <is>
-          <t>REPAIRS / MATERIAL</t>
-        </is>
-      </c>
-      <c r="F22" s="94" t="n"/>
-      <c r="G22" s="94" t="n"/>
-      <c r="H22" s="76" t="inlineStr">
-        <is>
-          <t>COMPLETED BY</t>
-        </is>
-      </c>
-      <c r="I22" s="67" t="n"/>
-      <c r="J22" s="125" t="n"/>
-      <c r="L22" s="67" t="n"/>
-    </row>
-    <row r="23" ht="19.5" customHeight="1" s="68">
-      <c r="A23" s="126" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="127" t="n"/>
-      <c r="C23" s="128" t="n"/>
-      <c r="D23" s="129" t="n"/>
-      <c r="E23" s="121" t="n"/>
-      <c r="F23" s="128" t="n"/>
-      <c r="G23" s="129" t="n"/>
-      <c r="H23" s="121" t="n"/>
-      <c r="I23" s="67" t="n"/>
-      <c r="J23" s="67" t="n"/>
-      <c r="K23" s="67" t="n"/>
-      <c r="L23" s="67" t="n"/>
-    </row>
-    <row r="24" ht="19.5" customHeight="1" s="68">
-      <c r="A24" s="130" t="n"/>
-      <c r="B24" s="131" t="n"/>
-      <c r="D24" s="132" t="n"/>
-      <c r="E24" s="133" t="n"/>
-      <c r="G24" s="132" t="n"/>
-      <c r="H24" s="130" t="n"/>
-    </row>
-    <row r="25" ht="19.5" customFormat="1" customHeight="1" s="84">
-      <c r="A25" s="134" t="n"/>
-      <c r="B25" s="135" t="n"/>
-      <c r="C25" s="118" t="n"/>
-      <c r="D25" s="119" t="n"/>
-      <c r="E25" s="135" t="n"/>
-      <c r="F25" s="118" t="n"/>
-      <c r="G25" s="119" t="n"/>
-      <c r="H25" s="134" t="n"/>
-    </row>
-    <row r="26" ht="19.5" customFormat="1" customHeight="1" s="84">
-      <c r="A26" s="136" t="n">
-        <v>2</v>
-      </c>
-      <c r="B26" s="127" t="n"/>
-      <c r="C26" s="128" t="n"/>
-      <c r="D26" s="129" t="n"/>
-      <c r="E26" s="137" t="n"/>
-      <c r="F26" s="128" t="n"/>
-      <c r="G26" s="129" t="n"/>
-      <c r="H26" s="137" t="n"/>
-    </row>
-    <row r="27" ht="19.5" customFormat="1" customHeight="1" s="84">
-      <c r="A27" s="133" t="n"/>
-      <c r="B27" s="131" t="n"/>
-      <c r="D27" s="132" t="n"/>
-      <c r="E27" s="133" t="n"/>
-      <c r="G27" s="132" t="n"/>
-      <c r="H27" s="130" t="n"/>
-    </row>
-    <row r="28" ht="19.5" customFormat="1" customHeight="1" s="84">
-      <c r="A28" s="135" t="n"/>
-      <c r="B28" s="135" t="n"/>
-      <c r="C28" s="118" t="n"/>
-      <c r="D28" s="119" t="n"/>
-      <c r="E28" s="135" t="n"/>
-      <c r="F28" s="118" t="n"/>
-      <c r="G28" s="119" t="n"/>
-      <c r="H28" s="134" t="n"/>
-    </row>
-    <row r="29" ht="18.75" customHeight="1" s="68">
-      <c r="A29" s="136" t="n">
-        <v>3</v>
-      </c>
-      <c r="B29" s="127" t="n"/>
-      <c r="C29" s="128" t="n"/>
-      <c r="D29" s="129" t="n"/>
-      <c r="E29" s="121" t="n"/>
-      <c r="F29" s="128" t="n"/>
-      <c r="G29" s="129" t="n"/>
-      <c r="H29" s="121" t="n"/>
-    </row>
-    <row r="30" ht="18.75" customHeight="1" s="68">
-      <c r="A30" s="133" t="n"/>
-      <c r="B30" s="131" t="n"/>
-      <c r="D30" s="132" t="n"/>
-      <c r="E30" s="133" t="n"/>
-      <c r="G30" s="132" t="n"/>
-      <c r="H30" s="130" t="n"/>
-    </row>
-    <row r="31" ht="18.75" customHeight="1" s="68">
-      <c r="A31" s="135" t="n"/>
-      <c r="B31" s="135" t="n"/>
-      <c r="C31" s="118" t="n"/>
-      <c r="D31" s="119" t="n"/>
-      <c r="E31" s="135" t="n"/>
-      <c r="F31" s="118" t="n"/>
-      <c r="G31" s="119" t="n"/>
-      <c r="H31" s="134" t="n"/>
-    </row>
-    <row r="32" ht="18.75" customHeight="1" s="68">
-      <c r="A32" s="136" t="n">
-        <v>4</v>
-      </c>
-      <c r="B32" s="127" t="n"/>
-      <c r="C32" s="128" t="n"/>
-      <c r="D32" s="129" t="n"/>
-      <c r="E32" s="121" t="n"/>
-      <c r="F32" s="128" t="n"/>
-      <c r="G32" s="129" t="n"/>
-      <c r="H32" s="121" t="n"/>
-    </row>
-    <row r="33" ht="18.75" customHeight="1" s="68">
-      <c r="A33" s="133" t="n"/>
-      <c r="B33" s="131" t="n"/>
-      <c r="D33" s="132" t="n"/>
-      <c r="E33" s="133" t="n"/>
-      <c r="G33" s="132" t="n"/>
-      <c r="H33" s="130" t="n"/>
-    </row>
-    <row r="34" ht="18.75" customHeight="1" s="68">
-      <c r="A34" s="135" t="n"/>
-      <c r="B34" s="135" t="n"/>
-      <c r="C34" s="118" t="n"/>
-      <c r="D34" s="119" t="n"/>
-      <c r="E34" s="135" t="n"/>
-      <c r="F34" s="118" t="n"/>
-      <c r="G34" s="119" t="n"/>
-      <c r="H34" s="134" t="n"/>
-    </row>
-    <row r="35" ht="18.75" customHeight="1" s="68">
-      <c r="A35" s="138" t="n"/>
-      <c r="B35" s="139" t="n"/>
-      <c r="C35" s="139" t="n"/>
-      <c r="D35" s="139" t="n"/>
-      <c r="E35" s="140" t="n"/>
-      <c r="F35" s="140" t="n"/>
-      <c r="G35" s="140" t="n"/>
-      <c r="H35" s="140" t="n"/>
-    </row>
-    <row r="36" ht="18.75" customHeight="1" s="68">
-      <c r="A36" s="138" t="n"/>
-      <c r="B36" s="141" t="n"/>
-      <c r="C36" s="141" t="n"/>
-      <c r="D36" s="141" t="n"/>
-      <c r="E36" s="140" t="n"/>
-      <c r="F36" s="140" t="n"/>
-      <c r="G36" s="140" t="n"/>
-      <c r="H36" s="140" t="n"/>
-    </row>
-    <row r="37" ht="18.75" customHeight="1" s="68">
-      <c r="B37" s="142" t="inlineStr">
-        <is>
-          <t>WORK ORDERS / DEFECTS</t>
-        </is>
-      </c>
-      <c r="E37" s="76" t="inlineStr">
-        <is>
-          <t>REPAIRS / MATERIAL</t>
-        </is>
-      </c>
-      <c r="G37" s="67" t="n"/>
-      <c r="H37" s="76" t="inlineStr">
-        <is>
-          <t>COMPLETED BY</t>
-        </is>
-      </c>
-      <c r="I37" s="67" t="n"/>
-      <c r="J37" s="125" t="n"/>
-      <c r="L37" s="67" t="n"/>
-    </row>
-    <row r="38" ht="18.75" customHeight="1" s="68">
-      <c r="A38" s="143" t="n">
-        <v>5</v>
-      </c>
-      <c r="B38" s="127" t="n"/>
-      <c r="C38" s="128" t="n"/>
-      <c r="D38" s="129" t="n"/>
-      <c r="E38" s="121" t="n"/>
-      <c r="F38" s="128" t="n"/>
-      <c r="G38" s="129" t="n"/>
-      <c r="H38" s="121" t="n"/>
-    </row>
-    <row r="39" ht="18.75" customHeight="1" s="68">
-      <c r="A39" s="130" t="n"/>
-      <c r="B39" s="131" t="n"/>
-      <c r="D39" s="132" t="n"/>
-      <c r="E39" s="133" t="n"/>
-      <c r="G39" s="132" t="n"/>
-      <c r="H39" s="130" t="n"/>
-    </row>
-    <row r="40" ht="18.75" customHeight="1" s="68">
-      <c r="A40" s="134" t="n"/>
-      <c r="B40" s="135" t="n"/>
-      <c r="C40" s="118" t="n"/>
-      <c r="D40" s="119" t="n"/>
-      <c r="E40" s="135" t="n"/>
-      <c r="F40" s="118" t="n"/>
-      <c r="G40" s="119" t="n"/>
-      <c r="H40" s="134" t="n"/>
-    </row>
-    <row r="41" ht="18.75" customHeight="1" s="68">
-      <c r="A41" s="143" t="n">
-        <v>6</v>
-      </c>
-      <c r="B41" s="127" t="n"/>
-      <c r="C41" s="128" t="n"/>
-      <c r="D41" s="129" t="n"/>
-      <c r="E41" s="121" t="n"/>
-      <c r="F41" s="128" t="n"/>
-      <c r="G41" s="129" t="n"/>
-      <c r="H41" s="121" t="n"/>
-    </row>
-    <row r="42" ht="18.75" customHeight="1" s="68">
-      <c r="A42" s="130" t="n"/>
-      <c r="B42" s="131" t="n"/>
-      <c r="D42" s="132" t="n"/>
-      <c r="E42" s="133" t="n"/>
-      <c r="G42" s="132" t="n"/>
-      <c r="H42" s="130" t="n"/>
-    </row>
-    <row r="43" ht="18.75" customHeight="1" s="68">
-      <c r="A43" s="134" t="n"/>
-      <c r="B43" s="135" t="n"/>
-      <c r="C43" s="118" t="n"/>
-      <c r="D43" s="119" t="n"/>
-      <c r="E43" s="135" t="n"/>
-      <c r="F43" s="118" t="n"/>
-      <c r="G43" s="119" t="n"/>
-      <c r="H43" s="134" t="n"/>
-    </row>
-    <row r="44" ht="18.75" customHeight="1" s="68">
-      <c r="A44" s="136" t="n">
-        <v>7</v>
-      </c>
-      <c r="B44" s="127" t="n"/>
-      <c r="C44" s="128" t="n"/>
-      <c r="D44" s="129" t="n"/>
-      <c r="E44" s="121" t="n"/>
-      <c r="F44" s="128" t="n"/>
-      <c r="G44" s="129" t="n"/>
-      <c r="H44" s="121" t="n"/>
-    </row>
-    <row r="45" ht="18.75" customHeight="1" s="68">
-      <c r="A45" s="133" t="n"/>
-      <c r="B45" s="131" t="n"/>
-      <c r="D45" s="132" t="n"/>
-      <c r="E45" s="133" t="n"/>
-      <c r="G45" s="132" t="n"/>
-      <c r="H45" s="130" t="n"/>
-    </row>
-    <row r="46" ht="18.75" customHeight="1" s="68">
-      <c r="A46" s="135" t="n"/>
-      <c r="B46" s="135" t="n"/>
-      <c r="C46" s="118" t="n"/>
-      <c r="D46" s="119" t="n"/>
-      <c r="E46" s="135" t="n"/>
-      <c r="F46" s="118" t="n"/>
-      <c r="G46" s="119" t="n"/>
-      <c r="H46" s="134" t="n"/>
-    </row>
-    <row r="47" ht="18.75" customHeight="1" s="68">
-      <c r="A47" s="136" t="n">
-        <v>8</v>
-      </c>
-      <c r="B47" s="127" t="n"/>
-      <c r="C47" s="128" t="n"/>
-      <c r="D47" s="129" t="n"/>
-      <c r="E47" s="121" t="n"/>
-      <c r="F47" s="128" t="n"/>
-      <c r="G47" s="129" t="n"/>
-      <c r="H47" s="121" t="n"/>
-    </row>
-    <row r="48" ht="18.75" customHeight="1" s="68">
-      <c r="A48" s="133" t="n"/>
-      <c r="B48" s="131" t="n"/>
-      <c r="D48" s="132" t="n"/>
-      <c r="E48" s="133" t="n"/>
-      <c r="G48" s="132" t="n"/>
-      <c r="H48" s="130" t="n"/>
-    </row>
-    <row r="49" ht="18.75" customHeight="1" s="68">
-      <c r="A49" s="135" t="n"/>
-      <c r="B49" s="135" t="n"/>
-      <c r="C49" s="118" t="n"/>
-      <c r="D49" s="119" t="n"/>
-      <c r="E49" s="135" t="n"/>
-      <c r="F49" s="118" t="n"/>
-      <c r="G49" s="119" t="n"/>
-      <c r="H49" s="134" t="n"/>
-    </row>
-    <row r="50" ht="18.75" customHeight="1" s="68">
-      <c r="A50" s="144" t="n">
-        <v>9</v>
-      </c>
-      <c r="B50" s="127" t="n"/>
-      <c r="C50" s="128" t="n"/>
-      <c r="D50" s="129" t="n"/>
-      <c r="E50" s="121" t="n"/>
-      <c r="F50" s="128" t="n"/>
-      <c r="G50" s="129" t="n"/>
-      <c r="H50" s="121" t="n"/>
-    </row>
-    <row r="51" ht="18.75" customHeight="1" s="68">
-      <c r="A51" s="133" t="n"/>
-      <c r="B51" s="131" t="n"/>
-      <c r="D51" s="132" t="n"/>
-      <c r="E51" s="133" t="n"/>
-      <c r="G51" s="132" t="n"/>
-      <c r="H51" s="130" t="n"/>
-    </row>
-    <row r="52" ht="18.75" customHeight="1" s="68">
-      <c r="A52" s="133" t="n"/>
-      <c r="B52" s="135" t="n"/>
-      <c r="C52" s="118" t="n"/>
-      <c r="D52" s="119" t="n"/>
-      <c r="E52" s="135" t="n"/>
-      <c r="F52" s="118" t="n"/>
-      <c r="G52" s="119" t="n"/>
-      <c r="H52" s="134" t="n"/>
-    </row>
-    <row r="53" ht="18.75" customHeight="1" s="68">
-      <c r="A53" s="143" t="n">
-        <v>10</v>
-      </c>
-      <c r="B53" s="127" t="n"/>
-      <c r="C53" s="128" t="n"/>
-      <c r="D53" s="129" t="n"/>
-      <c r="E53" s="121" t="n"/>
-      <c r="F53" s="128" t="n"/>
-      <c r="G53" s="129" t="n"/>
-      <c r="H53" s="121" t="n"/>
-    </row>
-    <row r="54" ht="18.75" customHeight="1" s="68">
-      <c r="A54" s="130" t="n"/>
-      <c r="B54" s="131" t="n"/>
-      <c r="D54" s="132" t="n"/>
-      <c r="E54" s="133" t="n"/>
-      <c r="G54" s="132" t="n"/>
-      <c r="H54" s="130" t="n"/>
-    </row>
-    <row r="55" ht="18.75" customHeight="1" s="68">
-      <c r="A55" s="134" t="n"/>
-      <c r="B55" s="135" t="n"/>
-      <c r="C55" s="118" t="n"/>
-      <c r="D55" s="119" t="n"/>
-      <c r="E55" s="135" t="n"/>
-      <c r="F55" s="118" t="n"/>
-      <c r="G55" s="119" t="n"/>
-      <c r="H55" s="134" t="n"/>
-    </row>
-    <row r="56" ht="18.75" customHeight="1" s="68">
-      <c r="A56" s="143" t="n">
-        <v>11</v>
-      </c>
-      <c r="B56" s="127" t="n"/>
-      <c r="C56" s="128" t="n"/>
-      <c r="D56" s="129" t="n"/>
-      <c r="E56" s="121" t="n"/>
-      <c r="F56" s="128" t="n"/>
-      <c r="G56" s="129" t="n"/>
-      <c r="H56" s="121" t="n"/>
-    </row>
-    <row r="57" ht="18.75" customHeight="1" s="68">
-      <c r="A57" s="130" t="n"/>
-      <c r="B57" s="131" t="n"/>
-      <c r="D57" s="132" t="n"/>
-      <c r="E57" s="133" t="n"/>
-      <c r="G57" s="132" t="n"/>
-      <c r="H57" s="130" t="n"/>
-    </row>
-    <row r="58" ht="18.75" customHeight="1" s="68">
-      <c r="A58" s="134" t="n"/>
-      <c r="B58" s="135" t="n"/>
-      <c r="C58" s="118" t="n"/>
-      <c r="D58" s="119" t="n"/>
-      <c r="E58" s="135" t="n"/>
-      <c r="F58" s="118" t="n"/>
-      <c r="G58" s="119" t="n"/>
-      <c r="H58" s="134" t="n"/>
-    </row>
-    <row r="59" ht="18.75" customHeight="1" s="68">
-      <c r="A59" s="143" t="n">
-        <v>12</v>
-      </c>
-      <c r="B59" s="127" t="n"/>
-      <c r="C59" s="128" t="n"/>
-      <c r="D59" s="129" t="n"/>
-      <c r="E59" s="121" t="n"/>
-      <c r="F59" s="128" t="n"/>
-      <c r="G59" s="129" t="n"/>
-      <c r="H59" s="121" t="n"/>
-    </row>
-    <row r="60" ht="18.75" customHeight="1" s="68">
-      <c r="A60" s="130" t="n"/>
-      <c r="B60" s="131" t="n"/>
-      <c r="D60" s="132" t="n"/>
-      <c r="E60" s="133" t="n"/>
-      <c r="G60" s="132" t="n"/>
-      <c r="H60" s="130" t="n"/>
-    </row>
-    <row r="61" ht="18.75" customHeight="1" s="68">
-      <c r="A61" s="134" t="n"/>
-      <c r="B61" s="135" t="n"/>
-      <c r="C61" s="118" t="n"/>
-      <c r="D61" s="119" t="n"/>
-      <c r="E61" s="135" t="n"/>
-      <c r="F61" s="118" t="n"/>
-      <c r="G61" s="119" t="n"/>
-      <c r="H61" s="134" t="n"/>
-    </row>
-    <row r="62" ht="18.75" customHeight="1" s="68">
-      <c r="A62" s="143" t="n">
-        <v>13</v>
-      </c>
-      <c r="B62" s="127" t="n"/>
-      <c r="C62" s="128" t="n"/>
-      <c r="D62" s="129" t="n"/>
-      <c r="E62" s="121" t="n"/>
-      <c r="F62" s="128" t="n"/>
-      <c r="G62" s="129" t="n"/>
-      <c r="H62" s="121" t="n"/>
-    </row>
-    <row r="63" ht="18.75" customHeight="1" s="68">
-      <c r="A63" s="130" t="n"/>
-      <c r="B63" s="131" t="n"/>
-      <c r="D63" s="132" t="n"/>
-      <c r="E63" s="133" t="n"/>
-      <c r="G63" s="132" t="n"/>
-      <c r="H63" s="130" t="n"/>
-    </row>
-    <row r="64" ht="18.75" customHeight="1" s="68">
-      <c r="A64" s="134" t="n"/>
-      <c r="B64" s="135" t="n"/>
-      <c r="C64" s="118" t="n"/>
-      <c r="D64" s="119" t="n"/>
-      <c r="E64" s="135" t="n"/>
-      <c r="F64" s="118" t="n"/>
-      <c r="G64" s="119" t="n"/>
-      <c r="H64" s="134" t="n"/>
-    </row>
-    <row r="65" ht="18.75" customHeight="1" s="68">
-      <c r="A65" s="143" t="n">
-        <v>14</v>
-      </c>
-      <c r="B65" s="127" t="n"/>
-      <c r="C65" s="128" t="n"/>
-      <c r="D65" s="129" t="n"/>
-      <c r="E65" s="121" t="n"/>
-      <c r="F65" s="128" t="n"/>
-      <c r="G65" s="129" t="n"/>
-      <c r="H65" s="121" t="n"/>
-    </row>
-    <row r="66" ht="18.75" customHeight="1" s="68">
-      <c r="A66" s="130" t="n"/>
-      <c r="B66" s="131" t="n"/>
-      <c r="D66" s="132" t="n"/>
-      <c r="E66" s="133" t="n"/>
-      <c r="G66" s="132" t="n"/>
-      <c r="H66" s="130" t="n"/>
-    </row>
-    <row r="67" ht="18.75" customHeight="1" s="68">
-      <c r="A67" s="134" t="n"/>
-      <c r="B67" s="135" t="n"/>
-      <c r="C67" s="118" t="n"/>
-      <c r="D67" s="119" t="n"/>
-      <c r="E67" s="135" t="n"/>
-      <c r="F67" s="118" t="n"/>
-      <c r="G67" s="119" t="n"/>
-      <c r="H67" s="134" t="n"/>
-    </row>
-    <row r="68" ht="18.75" customHeight="1" s="68">
-      <c r="A68" s="143" t="n">
-        <v>15</v>
-      </c>
-      <c r="B68" s="127" t="n"/>
-      <c r="C68" s="128" t="n"/>
-      <c r="D68" s="129" t="n"/>
-      <c r="E68" s="121" t="n"/>
-      <c r="F68" s="128" t="n"/>
-      <c r="G68" s="129" t="n"/>
-      <c r="H68" s="121" t="n"/>
-    </row>
-    <row r="69" ht="18.75" customHeight="1" s="68">
-      <c r="A69" s="130" t="n"/>
-      <c r="B69" s="131" t="n"/>
-      <c r="D69" s="132" t="n"/>
-      <c r="E69" s="133" t="n"/>
-      <c r="G69" s="132" t="n"/>
-      <c r="H69" s="130" t="n"/>
-    </row>
-    <row r="70" ht="18.75" customHeight="1" s="68">
-      <c r="A70" s="134" t="n"/>
-      <c r="B70" s="135" t="n"/>
-      <c r="C70" s="118" t="n"/>
-      <c r="D70" s="119" t="n"/>
-      <c r="E70" s="135" t="n"/>
-      <c r="F70" s="118" t="n"/>
-      <c r="G70" s="119" t="n"/>
-      <c r="H70" s="134" t="n"/>
-    </row>
-    <row r="71" ht="18.75" customHeight="1" s="68">
-      <c r="A71" s="143" t="n">
-        <v>16</v>
-      </c>
-      <c r="B71" s="127" t="n"/>
-      <c r="C71" s="128" t="n"/>
-      <c r="D71" s="129" t="n"/>
-      <c r="E71" s="121" t="n"/>
-      <c r="F71" s="128" t="n"/>
-      <c r="G71" s="129" t="n"/>
-      <c r="H71" s="121" t="n"/>
-    </row>
-    <row r="72" ht="18.75" customHeight="1" s="68">
-      <c r="A72" s="130" t="n"/>
-      <c r="B72" s="131" t="n"/>
-      <c r="D72" s="132" t="n"/>
-      <c r="E72" s="133" t="n"/>
-      <c r="G72" s="132" t="n"/>
-      <c r="H72" s="130" t="n"/>
-    </row>
-    <row r="73" ht="18.75" customHeight="1" s="68">
-      <c r="A73" s="134" t="n"/>
-      <c r="B73" s="135" t="n"/>
-      <c r="C73" s="118" t="n"/>
-      <c r="D73" s="119" t="n"/>
-      <c r="E73" s="135" t="n"/>
-      <c r="F73" s="118" t="n"/>
-      <c r="G73" s="119" t="n"/>
-      <c r="H73" s="134" t="n"/>
-    </row>
-    <row r="74" ht="18.75" customHeight="1" s="68">
-      <c r="A74" s="145" t="n"/>
-      <c r="B74" s="146" t="n"/>
-      <c r="C74" s="146" t="n"/>
-      <c r="D74" s="146" t="n"/>
-      <c r="E74" s="67" t="n"/>
-      <c r="F74" s="67" t="n"/>
-      <c r="G74" s="67" t="n"/>
-      <c r="H74" s="67" t="n"/>
-    </row>
-    <row r="75" ht="18.75" customHeight="1" s="68">
-      <c r="A75" s="145" t="n"/>
-      <c r="B75" s="147" t="n"/>
-      <c r="C75" s="147" t="n"/>
-      <c r="D75" s="147" t="n"/>
-      <c r="E75" s="67" t="n"/>
-      <c r="F75" s="67" t="n"/>
-      <c r="G75" s="67" t="n"/>
-      <c r="H75" s="67" t="n"/>
-    </row>
-    <row r="76" ht="18.75" customHeight="1" s="68">
-      <c r="A76" s="145" t="n"/>
-      <c r="B76" s="147" t="n"/>
-      <c r="C76" s="147" t="n"/>
-      <c r="D76" s="147" t="n"/>
-      <c r="E76" s="67" t="n"/>
-      <c r="F76" s="67" t="n"/>
-      <c r="G76" s="67" t="n"/>
-      <c r="H76" s="67" t="n"/>
-    </row>
-    <row r="77" ht="19.35" customHeight="1" s="68">
-      <c r="A77" s="145" t="n"/>
-      <c r="B77" s="138" t="n"/>
-      <c r="C77" s="140" t="n"/>
-      <c r="D77" s="67" t="n"/>
-      <c r="E77" s="67" t="n"/>
-      <c r="F77" s="140" t="n"/>
-      <c r="G77" s="67" t="n"/>
-    </row>
-    <row r="78" ht="19.35" customHeight="1" s="68">
-      <c r="A78" s="145" t="n"/>
-      <c r="B78" s="138" t="n"/>
-      <c r="C78" s="140" t="n"/>
-      <c r="D78" s="67" t="n"/>
-      <c r="E78" s="67" t="n"/>
-      <c r="F78" s="140" t="n"/>
-      <c r="G78" s="67" t="n"/>
-    </row>
-    <row r="79" ht="19.35" customHeight="1" s="68">
-      <c r="A79" s="145" t="n"/>
-      <c r="B79" s="138" t="n"/>
-      <c r="C79" s="140" t="n"/>
-      <c r="D79" s="67" t="n"/>
-      <c r="E79" s="67" t="n"/>
-      <c r="F79" s="140" t="n"/>
-      <c r="G79" s="67" t="n"/>
-    </row>
-    <row r="80" ht="19.35" customHeight="1" s="68">
-      <c r="A80" s="145" t="n"/>
-      <c r="B80" s="138" t="n"/>
-      <c r="C80" s="140" t="n"/>
-      <c r="D80" s="67" t="n"/>
-      <c r="E80" s="67" t="n"/>
-      <c r="F80" s="140" t="n"/>
-      <c r="G80" s="67" t="n"/>
-    </row>
-    <row r="81" ht="19.35" customHeight="1" s="68">
-      <c r="A81" s="145" t="n"/>
-      <c r="B81" s="138" t="n"/>
-      <c r="C81" s="140" t="n"/>
-      <c r="D81" s="67" t="n"/>
-      <c r="E81" s="67" t="n"/>
-      <c r="F81" s="140" t="n"/>
-      <c r="G81" s="67" t="n"/>
-    </row>
-    <row r="82" ht="19.35" customHeight="1" s="68">
-      <c r="A82" s="145" t="n"/>
-      <c r="B82" s="138" t="n"/>
-      <c r="C82" s="140" t="n"/>
-      <c r="D82" s="67" t="n"/>
-      <c r="E82" s="67" t="n"/>
-      <c r="F82" s="140" t="n"/>
-      <c r="G82" s="67" t="n"/>
-    </row>
-    <row r="83" ht="19.35" customHeight="1" s="68">
-      <c r="A83" s="145" t="n"/>
-      <c r="B83" s="138" t="n"/>
-      <c r="C83" s="140" t="n"/>
-      <c r="D83" s="67" t="n"/>
-      <c r="E83" s="67" t="n"/>
-      <c r="F83" s="140" t="n"/>
-      <c r="G83" s="67" t="n"/>
-    </row>
-    <row r="84" ht="18.75" customHeight="1" s="68">
-      <c r="A84" s="145" t="n"/>
-      <c r="B84" s="138" t="n"/>
-      <c r="C84" s="140" t="n"/>
-      <c r="D84" s="67" t="n"/>
-      <c r="E84" s="67" t="n"/>
-      <c r="F84" s="140" t="n"/>
-      <c r="G84" s="67" t="n"/>
-    </row>
-    <row r="85" ht="19.35" customHeight="1" s="68">
-      <c r="A85" s="145" t="n"/>
-      <c r="B85" s="138" t="n"/>
-      <c r="C85" s="140" t="n"/>
-      <c r="D85" s="67" t="n"/>
-      <c r="E85" s="67" t="n"/>
-      <c r="F85" s="140" t="n"/>
-      <c r="G85" s="67" t="n"/>
-    </row>
-    <row r="86" ht="19.35" customHeight="1" s="68">
-      <c r="A86" s="145" t="n"/>
-      <c r="B86" s="138" t="n"/>
-      <c r="C86" s="140" t="n"/>
-      <c r="D86" s="67" t="n"/>
-      <c r="E86" s="67" t="n"/>
-      <c r="F86" s="140" t="n"/>
-      <c r="G86" s="67" t="n"/>
-    </row>
-    <row r="87" ht="18.75" customHeight="1" s="68">
-      <c r="A87" s="145" t="n"/>
-      <c r="B87" s="138" t="n"/>
-      <c r="C87" s="140" t="n"/>
-      <c r="D87" s="67" t="n"/>
-      <c r="E87" s="67" t="n"/>
-      <c r="F87" s="140" t="n"/>
-      <c r="G87" s="67" t="n"/>
-    </row>
-    <row r="88" ht="18.75" customHeight="1" s="68">
-      <c r="A88" s="145" t="n"/>
-      <c r="B88" s="138" t="n"/>
-      <c r="C88" s="140" t="n"/>
-      <c r="D88" s="67" t="n"/>
-      <c r="E88" s="67" t="n"/>
-      <c r="F88" s="140" t="n"/>
-      <c r="G88" s="67" t="n"/>
-    </row>
-    <row r="89" ht="18.75" customHeight="1" s="68">
-      <c r="A89" s="145" t="n"/>
-      <c r="B89" s="138" t="n"/>
-      <c r="C89" s="140" t="n"/>
-      <c r="D89" s="67" t="n"/>
-      <c r="E89" s="67" t="n"/>
-      <c r="F89" s="140" t="n"/>
-      <c r="G89" s="67" t="n"/>
-    </row>
-    <row r="90" ht="15" customHeight="1" s="68">
-      <c r="A90" s="67" t="n"/>
-      <c r="B90" s="67" t="n"/>
-      <c r="C90" s="67" t="n"/>
-      <c r="D90" s="67" t="n"/>
-      <c r="E90" s="67" t="n"/>
-      <c r="F90" s="67" t="n"/>
-      <c r="G90" s="67" t="n"/>
-    </row>
-    <row r="91" ht="15" customHeight="1" s="68">
-      <c r="A91" s="67" t="n"/>
-      <c r="B91" s="67" t="n"/>
-      <c r="C91" s="67" t="n"/>
-      <c r="D91" s="67" t="n"/>
-      <c r="E91" s="67" t="n"/>
-      <c r="F91" s="67" t="n"/>
-      <c r="G91" s="67" t="n"/>
-    </row>
-    <row r="92" ht="15" customHeight="1" s="68">
-      <c r="A92" s="67" t="n"/>
-      <c r="B92" s="67" t="n"/>
-      <c r="C92" s="67" t="n"/>
-      <c r="D92" s="67" t="n"/>
-      <c r="E92" s="67" t="n"/>
-      <c r="F92" s="67" t="n"/>
-      <c r="G92" s="67" t="n"/>
-    </row>
-    <row r="93" ht="15" customHeight="1" s="68">
-      <c r="A93" s="67" t="n"/>
-      <c r="B93" s="67" t="n"/>
-      <c r="C93" s="67" t="n"/>
-      <c r="D93" s="67" t="n"/>
-      <c r="E93" s="67" t="n"/>
-      <c r="F93" s="67" t="n"/>
-      <c r="G93" s="67" t="n"/>
-    </row>
-    <row r="94" ht="15" customHeight="1" s="68">
-      <c r="A94" s="67" t="n"/>
-      <c r="B94" s="67" t="n"/>
-      <c r="C94" s="67" t="n"/>
-      <c r="D94" s="67" t="n"/>
-      <c r="E94" s="67" t="n"/>
-      <c r="F94" s="67" t="n"/>
-      <c r="G94" s="67" t="n"/>
-    </row>
-    <row r="95" ht="15" customHeight="1" s="68">
-      <c r="A95" s="67" t="n"/>
-      <c r="B95" s="67" t="n"/>
-      <c r="C95" s="67" t="n"/>
-      <c r="D95" s="67" t="n"/>
-      <c r="E95" s="67" t="n"/>
-      <c r="F95" s="67" t="n"/>
-      <c r="G95" s="67" t="n"/>
-    </row>
-    <row r="96" ht="15" customHeight="1" s="68">
-      <c r="A96" s="67" t="n"/>
-      <c r="B96" s="67" t="n"/>
-      <c r="C96" s="67" t="n"/>
-      <c r="D96" s="67" t="n"/>
-      <c r="E96" s="67" t="n"/>
-      <c r="F96" s="67" t="n"/>
-      <c r="G96" s="67" t="n"/>
-    </row>
-    <row r="97" ht="15" customHeight="1" s="68">
-      <c r="A97" s="67" t="n"/>
-      <c r="B97" s="67" t="n"/>
-      <c r="C97" s="67" t="n"/>
-      <c r="D97" s="67" t="n"/>
-      <c r="E97" s="67" t="n"/>
-      <c r="F97" s="67" t="n"/>
-      <c r="G97" s="67" t="n"/>
-    </row>
-    <row r="98" ht="15" customHeight="1" s="68">
-      <c r="A98" s="67" t="n"/>
-      <c r="B98" s="67" t="n"/>
-      <c r="C98" s="67" t="n"/>
-      <c r="D98" s="67" t="n"/>
-      <c r="E98" s="67" t="n"/>
-      <c r="F98" s="67" t="n"/>
-      <c r="G98" s="67" t="n"/>
-    </row>
-    <row r="99" ht="15" customHeight="1" s="68">
-      <c r="A99" s="67" t="n"/>
-      <c r="B99" s="67" t="n"/>
-      <c r="C99" s="67" t="n"/>
-      <c r="D99" s="67" t="n"/>
-      <c r="E99" s="67" t="n"/>
-      <c r="F99" s="67" t="n"/>
-      <c r="G99" s="67" t="n"/>
-    </row>
-    <row r="100" ht="15" customHeight="1" s="68">
-      <c r="A100" s="67" t="n"/>
-      <c r="B100" s="67" t="n"/>
-      <c r="C100" s="67" t="n"/>
-      <c r="D100" s="67" t="n"/>
-      <c r="E100" s="67" t="n"/>
-      <c r="F100" s="67" t="n"/>
-      <c r="G100" s="67" t="n"/>
-    </row>
-    <row r="101" ht="15" customHeight="1" s="68">
-      <c r="A101" s="67" t="n"/>
-      <c r="B101" s="67" t="n"/>
-      <c r="C101" s="67" t="n"/>
-      <c r="D101" s="67" t="n"/>
-      <c r="E101" s="67" t="n"/>
-      <c r="F101" s="67" t="n"/>
-      <c r="G101" s="67" t="n"/>
-    </row>
-    <row r="102" ht="15" customHeight="1" s="68">
-      <c r="A102" s="67" t="n"/>
-      <c r="B102" s="67" t="n"/>
-      <c r="C102" s="67" t="n"/>
-      <c r="D102" s="67" t="n"/>
-      <c r="E102" s="67" t="n"/>
-      <c r="F102" s="67" t="n"/>
-      <c r="G102" s="67" t="n"/>
-    </row>
-    <row r="103" ht="15" customHeight="1" s="68">
-      <c r="A103" s="67" t="n"/>
-      <c r="B103" s="67" t="n"/>
-      <c r="C103" s="67" t="n"/>
-      <c r="D103" s="67" t="n"/>
-      <c r="E103" s="67" t="n"/>
-      <c r="F103" s="67" t="n"/>
-      <c r="G103" s="67" t="n"/>
-    </row>
-    <row r="104" ht="15" customHeight="1" s="68">
-      <c r="A104" s="67" t="n"/>
-      <c r="B104" s="67" t="n"/>
-      <c r="C104" s="67" t="n"/>
-      <c r="D104" s="67" t="n"/>
-      <c r="E104" s="67" t="n"/>
-      <c r="F104" s="67" t="n"/>
-      <c r="G104" s="67" t="n"/>
-    </row>
-    <row r="105" ht="15" customHeight="1" s="68">
-      <c r="A105" s="67" t="n"/>
-      <c r="B105" s="67" t="n"/>
-      <c r="C105" s="67" t="n"/>
-      <c r="D105" s="67" t="n"/>
-      <c r="E105" s="67" t="n"/>
-      <c r="F105" s="67" t="n"/>
-      <c r="G105" s="67" t="n"/>
-    </row>
-    <row r="106" ht="15" customHeight="1" s="68">
-      <c r="A106" s="67" t="n"/>
-      <c r="B106" s="67" t="n"/>
-      <c r="C106" s="67" t="n"/>
-      <c r="D106" s="67" t="n"/>
-      <c r="E106" s="67" t="n"/>
-      <c r="F106" s="67" t="n"/>
-      <c r="G106" s="67" t="n"/>
-    </row>
-    <row r="107" ht="15" customHeight="1" s="68">
-      <c r="A107" s="67" t="n"/>
-      <c r="B107" s="67" t="n"/>
-      <c r="C107" s="67" t="n"/>
-      <c r="D107" s="67" t="n"/>
-      <c r="E107" s="67" t="n"/>
-      <c r="F107" s="67" t="n"/>
-      <c r="G107" s="67" t="n"/>
-    </row>
-    <row r="108" ht="15" customHeight="1" s="68">
-      <c r="A108" s="67" t="n"/>
-      <c r="B108" s="67" t="n"/>
-      <c r="C108" s="67" t="n"/>
-      <c r="D108" s="67" t="n"/>
-      <c r="E108" s="67" t="n"/>
-      <c r="F108" s="67" t="n"/>
-      <c r="G108" s="67" t="n"/>
-    </row>
-    <row r="109" ht="15" customHeight="1" s="68">
-      <c r="A109" s="67" t="n"/>
-      <c r="B109" s="67" t="n"/>
-      <c r="C109" s="67" t="n"/>
-      <c r="D109" s="67" t="n"/>
-      <c r="E109" s="67" t="n"/>
-      <c r="F109" s="67" t="n"/>
-      <c r="G109" s="67" t="n"/>
-    </row>
-    <row r="110" ht="15" customHeight="1" s="68">
-      <c r="A110" s="67" t="n"/>
-      <c r="B110" s="67" t="n"/>
-      <c r="C110" s="67" t="n"/>
-      <c r="D110" s="67" t="n"/>
-      <c r="E110" s="67" t="n"/>
-      <c r="F110" s="67" t="n"/>
-      <c r="G110" s="67" t="n"/>
-    </row>
-    <row r="111" ht="15" customHeight="1" s="68">
-      <c r="A111" s="67" t="n"/>
-      <c r="B111" s="67" t="n"/>
-      <c r="C111" s="67" t="n"/>
-      <c r="D111" s="67" t="n"/>
-      <c r="E111" s="67" t="n"/>
-      <c r="F111" s="67" t="n"/>
-      <c r="G111" s="67" t="n"/>
-    </row>
-    <row r="112" ht="15" customHeight="1" s="68">
-      <c r="A112" s="67" t="n"/>
-      <c r="B112" s="67" t="n"/>
-      <c r="C112" s="67" t="n"/>
-      <c r="D112" s="67" t="n"/>
-      <c r="E112" s="67" t="n"/>
-      <c r="F112" s="67" t="n"/>
-      <c r="G112" s="67" t="n"/>
-    </row>
-    <row r="113" ht="15" customHeight="1" s="68">
-      <c r="A113" s="67" t="n"/>
-      <c r="B113" s="67" t="n"/>
-      <c r="C113" s="67" t="n"/>
-      <c r="D113" s="67" t="n"/>
-      <c r="E113" s="67" t="n"/>
-      <c r="F113" s="67" t="n"/>
-      <c r="G113" s="67" t="n"/>
-    </row>
-    <row r="114" ht="15" customHeight="1" s="68">
-      <c r="A114" s="67" t="n"/>
-      <c r="B114" s="67" t="n"/>
-      <c r="C114" s="67" t="n"/>
-      <c r="D114" s="67" t="n"/>
-      <c r="E114" s="67" t="n"/>
-      <c r="F114" s="67" t="n"/>
-      <c r="G114" s="67" t="n"/>
-    </row>
-    <row r="115" ht="15" customHeight="1" s="68">
-      <c r="A115" s="67" t="n"/>
-      <c r="B115" s="67" t="n"/>
-      <c r="C115" s="67" t="n"/>
-      <c r="D115" s="67" t="n"/>
-      <c r="E115" s="67" t="n"/>
-      <c r="F115" s="67" t="n"/>
-      <c r="G115" s="67" t="n"/>
-    </row>
-    <row r="116" ht="15" customHeight="1" s="68">
-      <c r="A116" s="67" t="n"/>
-      <c r="B116" s="67" t="n"/>
-      <c r="C116" s="67" t="n"/>
-      <c r="D116" s="67" t="n"/>
-      <c r="E116" s="67" t="n"/>
-      <c r="F116" s="67" t="n"/>
-      <c r="G116" s="67" t="n"/>
-    </row>
-    <row r="117" ht="15" customHeight="1" s="68">
-      <c r="A117" s="67" t="n"/>
-      <c r="B117" s="67" t="n"/>
-      <c r="C117" s="67" t="n"/>
-      <c r="D117" s="67" t="n"/>
-      <c r="E117" s="67" t="n"/>
-      <c r="F117" s="67" t="n"/>
-      <c r="G117" s="67" t="n"/>
-    </row>
-    <row r="118" ht="15" customHeight="1" s="68">
-      <c r="A118" s="67" t="n"/>
-      <c r="B118" s="67" t="n"/>
-      <c r="C118" s="67" t="n"/>
-      <c r="D118" s="67" t="n"/>
-      <c r="E118" s="67" t="n"/>
-      <c r="F118" s="67" t="n"/>
-      <c r="G118" s="67" t="n"/>
-    </row>
-    <row r="119" ht="15" customHeight="1" s="68">
-      <c r="A119" s="67" t="n"/>
-      <c r="B119" s="67" t="n"/>
-      <c r="C119" s="67" t="n"/>
-      <c r="D119" s="67" t="n"/>
-      <c r="E119" s="67" t="n"/>
-      <c r="F119" s="67" t="n"/>
-      <c r="G119" s="67" t="n"/>
-    </row>
-    <row r="120" ht="15" customHeight="1" s="68">
-      <c r="A120" s="67" t="n"/>
-      <c r="B120" s="67" t="n"/>
-      <c r="C120" s="67" t="n"/>
-      <c r="D120" s="67" t="n"/>
-      <c r="E120" s="67" t="n"/>
-      <c r="F120" s="67" t="n"/>
-      <c r="G120" s="67" t="n"/>
-    </row>
-    <row r="121" ht="15" customHeight="1" s="68">
-      <c r="A121" s="67" t="n"/>
-      <c r="B121" s="67" t="n"/>
-      <c r="C121" s="67" t="n"/>
-      <c r="D121" s="67" t="n"/>
-      <c r="E121" s="67" t="n"/>
-      <c r="F121" s="67" t="n"/>
-      <c r="G121" s="67" t="n"/>
-    </row>
-    <row r="122" ht="15" customHeight="1" s="68">
-      <c r="A122" s="67" t="n"/>
-      <c r="B122" s="67" t="n"/>
-      <c r="C122" s="67" t="n"/>
-      <c r="D122" s="67" t="n"/>
-      <c r="E122" s="67" t="n"/>
-      <c r="F122" s="67" t="n"/>
-      <c r="G122" s="67" t="n"/>
-    </row>
-    <row r="123" ht="15" customHeight="1" s="68">
-      <c r="A123" s="67" t="n"/>
-      <c r="B123" s="67" t="n"/>
-      <c r="C123" s="67" t="n"/>
-      <c r="D123" s="67" t="n"/>
-      <c r="E123" s="67" t="n"/>
-      <c r="F123" s="67" t="n"/>
-      <c r="G123" s="67" t="n"/>
-    </row>
-    <row r="124" ht="15" customHeight="1" s="68">
-      <c r="A124" s="67" t="n"/>
-      <c r="B124" s="67" t="n"/>
-      <c r="C124" s="67" t="n"/>
-      <c r="D124" s="67" t="n"/>
-      <c r="E124" s="67" t="n"/>
-      <c r="F124" s="67" t="n"/>
-      <c r="G124" s="67" t="n"/>
-    </row>
-    <row r="125" ht="15" customHeight="1" s="68">
-      <c r="A125" s="67" t="n"/>
-      <c r="B125" s="67" t="n"/>
-      <c r="C125" s="67" t="n"/>
-      <c r="D125" s="67" t="n"/>
-      <c r="E125" s="67" t="n"/>
-      <c r="F125" s="67" t="n"/>
-      <c r="G125" s="67" t="n"/>
-    </row>
-    <row r="126" ht="15" customHeight="1" s="68">
-      <c r="A126" s="67" t="n"/>
-      <c r="B126" s="67" t="n"/>
-      <c r="C126" s="67" t="n"/>
-      <c r="D126" s="67" t="n"/>
-      <c r="E126" s="67" t="n"/>
-      <c r="F126" s="67" t="n"/>
-      <c r="G126" s="67" t="n"/>
-    </row>
-    <row r="127" ht="15" customHeight="1" s="68">
-      <c r="A127" s="67" t="n"/>
-      <c r="B127" s="67" t="n"/>
-      <c r="C127" s="67" t="n"/>
-      <c r="D127" s="67" t="n"/>
-      <c r="E127" s="67" t="n"/>
-      <c r="F127" s="67" t="n"/>
-      <c r="G127" s="67" t="n"/>
-    </row>
-    <row r="128" ht="15" customHeight="1" s="68">
-      <c r="A128" s="67" t="n"/>
-      <c r="B128" s="67" t="n"/>
-      <c r="C128" s="67" t="n"/>
-      <c r="D128" s="67" t="n"/>
-      <c r="E128" s="67" t="n"/>
-      <c r="F128" s="67" t="n"/>
-      <c r="G128" s="67" t="n"/>
-    </row>
-    <row r="129" ht="15" customHeight="1" s="68">
-      <c r="A129" s="67" t="n"/>
-      <c r="B129" s="67" t="n"/>
-      <c r="C129" s="67" t="n"/>
-      <c r="D129" s="67" t="n"/>
-      <c r="E129" s="67" t="n"/>
-      <c r="F129" s="67" t="n"/>
-      <c r="G129" s="67" t="n"/>
-    </row>
-    <row r="130" ht="15" customHeight="1" s="68">
-      <c r="A130" s="67" t="n"/>
-      <c r="B130" s="67" t="n"/>
-      <c r="C130" s="67" t="n"/>
-      <c r="D130" s="67" t="n"/>
-      <c r="E130" s="67" t="n"/>
-      <c r="F130" s="67" t="n"/>
-      <c r="G130" s="67" t="n"/>
-    </row>
-    <row r="131" ht="15" customHeight="1" s="68">
-      <c r="A131" s="67" t="n"/>
-      <c r="B131" s="67" t="n"/>
-      <c r="C131" s="67" t="n"/>
-      <c r="D131" s="67" t="n"/>
-      <c r="E131" s="67" t="n"/>
-      <c r="F131" s="67" t="n"/>
-      <c r="G131" s="67" t="n"/>
-    </row>
-    <row r="132" ht="15" customHeight="1" s="68">
-      <c r="A132" s="67" t="n"/>
-      <c r="B132" s="67" t="n"/>
-      <c r="C132" s="67" t="n"/>
-      <c r="D132" s="67" t="n"/>
-      <c r="E132" s="67" t="n"/>
-      <c r="F132" s="67" t="n"/>
-      <c r="G132" s="67" t="n"/>
-    </row>
-    <row r="133" ht="15" customHeight="1" s="68">
-      <c r="A133" s="67" t="n"/>
-      <c r="B133" s="67" t="n"/>
-      <c r="C133" s="67" t="n"/>
-      <c r="D133" s="67" t="n"/>
-      <c r="E133" s="67" t="n"/>
-      <c r="F133" s="67" t="n"/>
-      <c r="G133" s="67" t="n"/>
-    </row>
-    <row r="134" ht="15" customHeight="1" s="68">
-      <c r="A134" s="67" t="n"/>
-      <c r="B134" s="67" t="n"/>
-      <c r="C134" s="67" t="n"/>
-      <c r="D134" s="67" t="n"/>
-      <c r="E134" s="67" t="n"/>
-      <c r="F134" s="67" t="n"/>
-      <c r="G134" s="67" t="n"/>
-    </row>
-    <row r="135" ht="15" customHeight="1" s="68">
-      <c r="A135" s="67" t="n"/>
-      <c r="B135" s="67" t="n"/>
-      <c r="C135" s="67" t="n"/>
-      <c r="D135" s="67" t="n"/>
-      <c r="E135" s="67" t="n"/>
-      <c r="F135" s="67" t="n"/>
-      <c r="G135" s="67" t="n"/>
-    </row>
-    <row r="136" ht="15" customHeight="1" s="68">
-      <c r="A136" s="67" t="n"/>
-      <c r="B136" s="67" t="n"/>
-      <c r="C136" s="67" t="n"/>
-      <c r="D136" s="67" t="n"/>
-      <c r="E136" s="67" t="n"/>
-      <c r="F136" s="67" t="n"/>
-      <c r="G136" s="67" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="107">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="B42:D43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="B54:D55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:G58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="B57:D58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:G61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="B60:D61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:G64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:G67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="B66:D67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:G70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="E71:G73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="B72:D73"/>
-  </mergeCells>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-</worksheet>
 </file>
--- a/UR_CoverSheets.xlsx
+++ b/UR_CoverSheets.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UR Cover Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7659" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -2725,4 +2726,1710 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:R136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="2.85" customWidth="1" style="67" min="1" max="1"/>
+    <col width="13.14" customWidth="1" style="67" min="2" max="2"/>
+    <col width="7.71" customWidth="1" style="67" min="3" max="3"/>
+    <col width="8.289999999999999" customWidth="1" style="67" min="4" max="4"/>
+    <col width="19.71" customWidth="1" style="67" min="5" max="5"/>
+    <col width="13.57" customWidth="1" style="67" min="6" max="6"/>
+    <col width="1" customWidth="1" style="67" min="7" max="7"/>
+    <col width="28.42" customWidth="1" style="67" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" s="68">
+      <c r="A1" s="69" t="inlineStr">
+        <is>
+          <t>UNIT  NUMBER</t>
+        </is>
+      </c>
+      <c r="B1" s="70" t="n"/>
+      <c r="C1" s="70" t="n"/>
+      <c r="D1" s="71" t="n"/>
+      <c r="E1" s="72" t="inlineStr">
+        <is>
+          <t>DATE INSHOPPED:</t>
+        </is>
+      </c>
+      <c r="F1" s="73" t="inlineStr">
+        <is>
+          <t>02-19-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" s="68">
+      <c r="A2" s="74" t="inlineStr">
+        <is>
+          <t>7659</t>
+        </is>
+      </c>
+      <c r="D2" s="75" t="n"/>
+      <c r="H2" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I2" s="67" t="n"/>
+      <c r="K2" s="77" t="n"/>
+      <c r="M2" s="78" t="n"/>
+      <c r="N2" s="67" t="n"/>
+      <c r="O2" s="67" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="68">
+      <c r="A3" s="79" t="n"/>
+      <c r="D3" s="75" t="n"/>
+      <c r="E3" s="80" t="inlineStr">
+        <is>
+          <t>SAMPLES DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F3" s="81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G3" s="67" t="n"/>
+      <c r="H3" s="82" t="n"/>
+      <c r="I3" s="83" t="n"/>
+      <c r="J3" s="83" t="n"/>
+      <c r="K3" s="83" t="n"/>
+      <c r="L3" s="84" t="n"/>
+      <c r="M3" s="83" t="n"/>
+      <c r="N3" s="83" t="n"/>
+      <c r="O3" s="67" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" s="68">
+      <c r="A4" s="85" t="n"/>
+      <c r="B4" s="86" t="n"/>
+      <c r="C4" s="86" t="n"/>
+      <c r="D4" s="87" t="n"/>
+      <c r="E4" s="80" t="inlineStr">
+        <is>
+          <t>TOILET DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F4" s="88" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G4" s="67" t="n"/>
+      <c r="H4" s="89" t="n"/>
+      <c r="O4" s="67" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" s="68">
+      <c r="A5" s="90" t="inlineStr">
+        <is>
+          <t>FRA DEAD DATE:</t>
+        </is>
+      </c>
+      <c r="B5" s="91" t="n"/>
+      <c r="C5" s="92" t="inlineStr">
+        <is>
+          <t>07-24-2020</t>
+        </is>
+      </c>
+      <c r="D5" s="70" t="n"/>
+      <c r="E5" s="80" t="inlineStr">
+        <is>
+          <t>LUBE DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F5" s="88" t="n"/>
+      <c r="G5" s="67" t="n"/>
+      <c r="H5" s="89" t="n"/>
+      <c r="O5" s="67" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" s="68">
+      <c r="A6" s="80" t="inlineStr">
+        <is>
+          <t>MI DUE (month):</t>
+        </is>
+      </c>
+      <c r="C6" s="93" t="n"/>
+      <c r="D6" s="94" t="n"/>
+      <c r="E6" s="80" t="inlineStr">
+        <is>
+          <t>C/S DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F6" s="88" t="n"/>
+      <c r="H6" s="95" t="n"/>
+      <c r="K6" s="83" t="n"/>
+      <c r="L6" s="83" t="n"/>
+      <c r="M6" s="96" t="n"/>
+      <c r="N6" s="96" t="n"/>
+      <c r="O6" s="67" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" s="68">
+      <c r="A7" s="80" t="inlineStr">
+        <is>
+          <t>EPA DUE (year, M):</t>
+        </is>
+      </c>
+      <c r="C7" s="93" t="n"/>
+      <c r="D7" s="94" t="n"/>
+      <c r="E7" s="80" t="inlineStr">
+        <is>
+          <t>AF DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F7" s="88" t="n"/>
+      <c r="H7" s="95" t="n"/>
+      <c r="I7" s="84" t="n"/>
+      <c r="K7" s="83" t="n"/>
+      <c r="L7" s="83" t="n"/>
+      <c r="M7" s="96" t="n"/>
+      <c r="N7" s="96" t="n"/>
+      <c r="O7" s="67" t="n"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" s="68">
+      <c r="A8" s="83" t="n"/>
+      <c r="B8" s="97" t="inlineStr">
+        <is>
+          <t>INBOUND TASKS (ADD WORKSHEET TASKS AS NEEDED)</t>
+        </is>
+      </c>
+      <c r="C8" s="98" t="n"/>
+      <c r="D8" s="98" t="n"/>
+      <c r="E8" s="67" t="n"/>
+      <c r="F8" s="67" t="n"/>
+      <c r="G8" s="67" t="n"/>
+      <c r="H8" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="J8" s="99" t="n"/>
+      <c r="K8" s="67" t="n"/>
+      <c r="L8" s="67" t="n"/>
+      <c r="M8" s="67" t="n"/>
+      <c r="N8" s="67" t="n"/>
+      <c r="O8" s="67" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" s="68">
+      <c r="A9" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="101" t="inlineStr">
+        <is>
+          <t>Check for and remove all non-compliance tags.  Note defects on ELF 023.</t>
+        </is>
+      </c>
+      <c r="C9" s="94" t="n"/>
+      <c r="D9" s="94" t="n"/>
+      <c r="E9" s="94" t="n"/>
+      <c r="F9" s="94" t="n"/>
+      <c r="G9" s="102" t="n"/>
+      <c r="H9" s="103" t="n"/>
+      <c r="J9" s="99" t="n"/>
+      <c r="K9" s="67" t="n"/>
+      <c r="L9" s="67" t="n"/>
+      <c r="M9" s="67" t="n"/>
+      <c r="N9" s="67" t="n"/>
+      <c r="O9" s="67" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" s="68">
+      <c r="A10" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="101" t="inlineStr">
+        <is>
+          <t>Download/Review Locomotive Fault log.  Add worksheet tasks as needed.</t>
+        </is>
+      </c>
+      <c r="C10" s="94" t="n"/>
+      <c r="D10" s="94" t="n"/>
+      <c r="E10" s="94" t="n"/>
+      <c r="F10" s="94" t="n"/>
+      <c r="G10" s="102" t="n"/>
+      <c r="H10" s="103" t="n"/>
+    </row>
+    <row r="11" ht="26.25" customHeight="1" s="68">
+      <c r="A11" s="100" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="104" t="inlineStr">
+        <is>
+          <t>Wait 15 minutes after download/sync for current info to display, then print chronology and SFA.  Attach printout to work packet.</t>
+        </is>
+      </c>
+      <c r="C11" s="94" t="n"/>
+      <c r="D11" s="94" t="n"/>
+      <c r="E11" s="94" t="n"/>
+      <c r="F11" s="94" t="n"/>
+      <c r="G11" s="102" t="n"/>
+      <c r="H11" s="105" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="68">
+      <c r="A12" s="100" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="101" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Electrical Inspections.</t>
+        </is>
+      </c>
+      <c r="C12" s="94" t="n"/>
+      <c r="D12" s="94" t="n"/>
+      <c r="E12" s="94" t="n"/>
+      <c r="F12" s="94" t="n"/>
+      <c r="G12" s="102" t="n"/>
+      <c r="H12" s="105" t="n"/>
+      <c r="K12" s="67" t="n"/>
+      <c r="L12" s="67" t="n"/>
+      <c r="M12" s="67" t="n"/>
+      <c r="N12" s="67" t="n"/>
+      <c r="O12" s="67" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" s="68">
+      <c r="A13" s="106" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="107" t="inlineStr">
+        <is>
+          <t>Perform PTC Departure test.</t>
+        </is>
+      </c>
+      <c r="C13" s="94" t="n"/>
+      <c r="D13" s="94" t="n"/>
+      <c r="E13" s="94" t="n"/>
+      <c r="F13" s="108" t="inlineStr">
+        <is>
+          <t>Pass / Fail</t>
+        </is>
+      </c>
+      <c r="G13" s="102" t="n"/>
+      <c r="H13" s="109" t="n"/>
+      <c r="Q13" s="67" t="n"/>
+      <c r="R13" s="67" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" s="68">
+      <c r="A14" s="110" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="111" t="inlineStr">
+        <is>
+          <t>Check PTCMon for PTC/EM Health.</t>
+        </is>
+      </c>
+      <c r="C14" s="112" t="n"/>
+      <c r="D14" s="112" t="n"/>
+      <c r="E14" s="113" t="inlineStr">
+        <is>
+          <t>PTC_____________   EM_______________</t>
+        </is>
+      </c>
+      <c r="F14" s="112" t="n"/>
+      <c r="G14" s="114" t="n"/>
+      <c r="H14" s="115" t="n"/>
+      <c r="K14" s="84" t="n"/>
+      <c r="Q14" s="67" t="n"/>
+      <c r="R14" s="67" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" s="68">
+      <c r="A15" s="116" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="117" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Mechanical Inspections.</t>
+        </is>
+      </c>
+      <c r="C15" s="118" t="n"/>
+      <c r="D15" s="118" t="n"/>
+      <c r="E15" s="118" t="n"/>
+      <c r="F15" s="118" t="n"/>
+      <c r="G15" s="119" t="n"/>
+      <c r="H15" s="120" t="n"/>
+      <c r="K15" s="84" t="n"/>
+      <c r="Q15" s="67" t="n"/>
+      <c r="R15" s="67" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" s="68">
+      <c r="A16" s="100" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="101" t="inlineStr">
+        <is>
+          <t>Add fluids as needed.</t>
+        </is>
+      </c>
+      <c r="C16" s="94" t="n"/>
+      <c r="D16" s="94" t="n"/>
+      <c r="E16" s="94" t="n"/>
+      <c r="F16" s="94" t="n"/>
+      <c r="G16" s="102" t="n"/>
+      <c r="H16" s="121" t="n"/>
+      <c r="Q16" s="67" t="n"/>
+      <c r="R16" s="67" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" s="68">
+      <c r="A17" s="110" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="122" t="inlineStr">
+        <is>
+          <t>Renew defective brake shoes and adjust piston travel as needed.</t>
+        </is>
+      </c>
+      <c r="C17" s="112" t="n"/>
+      <c r="D17" s="112" t="n"/>
+      <c r="E17" s="112" t="n"/>
+      <c r="F17" s="112" t="n"/>
+      <c r="G17" s="114" t="n"/>
+      <c r="H17" s="115" t="n"/>
+      <c r="I17" s="67" t="n"/>
+      <c r="K17" s="67" t="n"/>
+      <c r="L17" s="67" t="n"/>
+      <c r="M17" s="67" t="n"/>
+      <c r="N17" s="67" t="n"/>
+      <c r="O17" s="67" t="n"/>
+      <c r="Q17" s="67" t="n"/>
+      <c r="R17" s="67" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" s="68">
+      <c r="A18" s="116" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="117" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Fireman &amp; Oiler Inspections.</t>
+        </is>
+      </c>
+      <c r="C18" s="118" t="n"/>
+      <c r="D18" s="118" t="n"/>
+      <c r="E18" s="118" t="n"/>
+      <c r="F18" s="118" t="n"/>
+      <c r="G18" s="119" t="n"/>
+      <c r="H18" s="120" t="n"/>
+      <c r="I18" s="67" t="n"/>
+      <c r="K18" s="67" t="n"/>
+      <c r="L18" s="67" t="n"/>
+      <c r="M18" s="67" t="n"/>
+      <c r="N18" s="67" t="n"/>
+      <c r="O18" s="67" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" s="68">
+      <c r="A19" s="100" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" s="117" t="inlineStr">
+        <is>
+          <t>Fuel Locomotive as needed.                         Gallons added _________________</t>
+        </is>
+      </c>
+      <c r="C19" s="118" t="n"/>
+      <c r="D19" s="118" t="n"/>
+      <c r="E19" s="118" t="n"/>
+      <c r="F19" s="118" t="n"/>
+      <c r="G19" s="119" t="n"/>
+      <c r="H19" s="121" t="n"/>
+      <c r="I19" s="67" t="n"/>
+      <c r="K19" s="67" t="n"/>
+      <c r="L19" s="67" t="n"/>
+      <c r="M19" s="67" t="n"/>
+      <c r="N19" s="67" t="n"/>
+      <c r="O19" s="67" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" s="68">
+      <c r="A20" s="100" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" s="104" t="inlineStr">
+        <is>
+          <t>Add Sand to locomotive sandboxes as needed.</t>
+        </is>
+      </c>
+      <c r="C20" s="94" t="n"/>
+      <c r="D20" s="94" t="n"/>
+      <c r="E20" s="94" t="n"/>
+      <c r="F20" s="94" t="n"/>
+      <c r="G20" s="102" t="n"/>
+      <c r="H20" s="121" t="n"/>
+      <c r="I20" s="67" t="n"/>
+      <c r="K20" s="67" t="n"/>
+      <c r="L20" s="67" t="n"/>
+      <c r="M20" s="67" t="n"/>
+      <c r="N20" s="67" t="n"/>
+      <c r="O20" s="67" t="n"/>
+    </row>
+    <row r="21" ht="26.25" customHeight="1" s="68">
+      <c r="A21" s="100" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" s="104" t="inlineStr">
+        <is>
+          <t>Remove trash and hazardous debris from running boards, cab &amp; toilet room.</t>
+        </is>
+      </c>
+      <c r="C21" s="94" t="n"/>
+      <c r="D21" s="94" t="n"/>
+      <c r="E21" s="94" t="n"/>
+      <c r="F21" s="94" t="n"/>
+      <c r="G21" s="102" t="n"/>
+      <c r="H21" s="121" t="n"/>
+      <c r="I21" s="67" t="n"/>
+      <c r="K21" s="67" t="n"/>
+      <c r="L21" s="67" t="n"/>
+      <c r="M21" s="67" t="n"/>
+      <c r="N21" s="67" t="n"/>
+      <c r="O21" s="67" t="n"/>
+    </row>
+    <row r="22" ht="19.5" customHeight="1" s="68">
+      <c r="B22" s="123" t="inlineStr">
+        <is>
+          <t>WORK ORDERS / DEFECTS</t>
+        </is>
+      </c>
+      <c r="C22" s="94" t="n"/>
+      <c r="D22" s="94" t="n"/>
+      <c r="E22" s="124" t="inlineStr">
+        <is>
+          <t>REPAIRS / MATERIAL</t>
+        </is>
+      </c>
+      <c r="F22" s="94" t="n"/>
+      <c r="G22" s="94" t="n"/>
+      <c r="H22" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I22" s="67" t="n"/>
+      <c r="J22" s="125" t="n"/>
+      <c r="L22" s="67" t="n"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1" s="68">
+      <c r="A23" s="126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="127" t="inlineStr">
+        <is>
+          <t>KGR</t>
+        </is>
+      </c>
+      <c r="C23" s="128" t="n"/>
+      <c r="D23" s="129" t="n"/>
+      <c r="E23" s="121" t="n"/>
+      <c r="F23" s="128" t="n"/>
+      <c r="G23" s="129" t="n"/>
+      <c r="H23" s="121" t="n"/>
+      <c r="I23" s="67" t="n"/>
+      <c r="J23" s="67" t="n"/>
+      <c r="K23" s="67" t="n"/>
+      <c r="L23" s="67" t="n"/>
+    </row>
+    <row r="24" ht="19.5" customHeight="1" s="68">
+      <c r="A24" s="130" t="n"/>
+      <c r="B24" s="131" t="inlineStr">
+        <is>
+          <t>Download showing multiple signs of KGR</t>
+        </is>
+      </c>
+      <c r="D24" s="132" t="n"/>
+      <c r="E24" s="133" t="n"/>
+      <c r="G24" s="132" t="n"/>
+      <c r="H24" s="130" t="n"/>
+    </row>
+    <row r="25" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A25" s="134" t="n"/>
+      <c r="B25" s="135" t="n"/>
+      <c r="C25" s="118" t="n"/>
+      <c r="D25" s="119" t="n"/>
+      <c r="E25" s="135" t="n"/>
+      <c r="F25" s="118" t="n"/>
+      <c r="G25" s="119" t="n"/>
+      <c r="H25" s="134" t="n"/>
+    </row>
+    <row r="26" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A26" s="136" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="127" t="n"/>
+      <c r="C26" s="128" t="n"/>
+      <c r="D26" s="129" t="n"/>
+      <c r="E26" s="137" t="n"/>
+      <c r="F26" s="128" t="n"/>
+      <c r="G26" s="129" t="n"/>
+      <c r="H26" s="137" t="n"/>
+    </row>
+    <row r="27" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A27" s="133" t="n"/>
+      <c r="B27" s="131" t="n"/>
+      <c r="D27" s="132" t="n"/>
+      <c r="E27" s="133" t="n"/>
+      <c r="G27" s="132" t="n"/>
+      <c r="H27" s="130" t="n"/>
+    </row>
+    <row r="28" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A28" s="135" t="n"/>
+      <c r="B28" s="135" t="n"/>
+      <c r="C28" s="118" t="n"/>
+      <c r="D28" s="119" t="n"/>
+      <c r="E28" s="135" t="n"/>
+      <c r="F28" s="118" t="n"/>
+      <c r="G28" s="119" t="n"/>
+      <c r="H28" s="134" t="n"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1" s="68">
+      <c r="A29" s="136" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="127" t="n"/>
+      <c r="C29" s="128" t="n"/>
+      <c r="D29" s="129" t="n"/>
+      <c r="E29" s="121" t="n"/>
+      <c r="F29" s="128" t="n"/>
+      <c r="G29" s="129" t="n"/>
+      <c r="H29" s="121" t="n"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1" s="68">
+      <c r="A30" s="133" t="n"/>
+      <c r="B30" s="131" t="n"/>
+      <c r="D30" s="132" t="n"/>
+      <c r="E30" s="133" t="n"/>
+      <c r="G30" s="132" t="n"/>
+      <c r="H30" s="130" t="n"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" s="68">
+      <c r="A31" s="135" t="n"/>
+      <c r="B31" s="135" t="n"/>
+      <c r="C31" s="118" t="n"/>
+      <c r="D31" s="119" t="n"/>
+      <c r="E31" s="135" t="n"/>
+      <c r="F31" s="118" t="n"/>
+      <c r="G31" s="119" t="n"/>
+      <c r="H31" s="134" t="n"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1" s="68">
+      <c r="A32" s="136" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="127" t="n"/>
+      <c r="C32" s="128" t="n"/>
+      <c r="D32" s="129" t="n"/>
+      <c r="E32" s="121" t="n"/>
+      <c r="F32" s="128" t="n"/>
+      <c r="G32" s="129" t="n"/>
+      <c r="H32" s="121" t="n"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1" s="68">
+      <c r="A33" s="133" t="n"/>
+      <c r="B33" s="131" t="n"/>
+      <c r="D33" s="132" t="n"/>
+      <c r="E33" s="133" t="n"/>
+      <c r="G33" s="132" t="n"/>
+      <c r="H33" s="130" t="n"/>
+    </row>
+    <row r="34" ht="18.75" customHeight="1" s="68">
+      <c r="A34" s="135" t="n"/>
+      <c r="B34" s="135" t="n"/>
+      <c r="C34" s="118" t="n"/>
+      <c r="D34" s="119" t="n"/>
+      <c r="E34" s="135" t="n"/>
+      <c r="F34" s="118" t="n"/>
+      <c r="G34" s="119" t="n"/>
+      <c r="H34" s="134" t="n"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1" s="68">
+      <c r="A35" s="138" t="n"/>
+      <c r="B35" s="139" t="n"/>
+      <c r="C35" s="139" t="n"/>
+      <c r="D35" s="139" t="n"/>
+      <c r="E35" s="140" t="n"/>
+      <c r="F35" s="140" t="n"/>
+      <c r="G35" s="140" t="n"/>
+      <c r="H35" s="140" t="n"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1" s="68">
+      <c r="A36" s="138" t="n"/>
+      <c r="B36" s="141" t="n"/>
+      <c r="C36" s="141" t="n"/>
+      <c r="D36" s="141" t="n"/>
+      <c r="E36" s="140" t="n"/>
+      <c r="F36" s="140" t="n"/>
+      <c r="G36" s="140" t="n"/>
+      <c r="H36" s="140" t="n"/>
+    </row>
+    <row r="37" ht="18.75" customHeight="1" s="68">
+      <c r="B37" s="142" t="inlineStr">
+        <is>
+          <t>WORK ORDERS / DEFECTS</t>
+        </is>
+      </c>
+      <c r="E37" s="76" t="inlineStr">
+        <is>
+          <t>REPAIRS / MATERIAL</t>
+        </is>
+      </c>
+      <c r="G37" s="67" t="n"/>
+      <c r="H37" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I37" s="67" t="n"/>
+      <c r="J37" s="125" t="n"/>
+      <c r="L37" s="67" t="n"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1" s="68">
+      <c r="A38" s="143" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="127" t="n"/>
+      <c r="C38" s="128" t="n"/>
+      <c r="D38" s="129" t="n"/>
+      <c r="E38" s="121" t="n"/>
+      <c r="F38" s="128" t="n"/>
+      <c r="G38" s="129" t="n"/>
+      <c r="H38" s="121" t="n"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1" s="68">
+      <c r="A39" s="130" t="n"/>
+      <c r="B39" s="131" t="n"/>
+      <c r="D39" s="132" t="n"/>
+      <c r="E39" s="133" t="n"/>
+      <c r="G39" s="132" t="n"/>
+      <c r="H39" s="130" t="n"/>
+    </row>
+    <row r="40" ht="18.75" customHeight="1" s="68">
+      <c r="A40" s="134" t="n"/>
+      <c r="B40" s="135" t="n"/>
+      <c r="C40" s="118" t="n"/>
+      <c r="D40" s="119" t="n"/>
+      <c r="E40" s="135" t="n"/>
+      <c r="F40" s="118" t="n"/>
+      <c r="G40" s="119" t="n"/>
+      <c r="H40" s="134" t="n"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1" s="68">
+      <c r="A41" s="143" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" s="127" t="n"/>
+      <c r="C41" s="128" t="n"/>
+      <c r="D41" s="129" t="n"/>
+      <c r="E41" s="121" t="n"/>
+      <c r="F41" s="128" t="n"/>
+      <c r="G41" s="129" t="n"/>
+      <c r="H41" s="121" t="n"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1" s="68">
+      <c r="A42" s="130" t="n"/>
+      <c r="B42" s="131" t="n"/>
+      <c r="D42" s="132" t="n"/>
+      <c r="E42" s="133" t="n"/>
+      <c r="G42" s="132" t="n"/>
+      <c r="H42" s="130" t="n"/>
+    </row>
+    <row r="43" ht="18.75" customHeight="1" s="68">
+      <c r="A43" s="134" t="n"/>
+      <c r="B43" s="135" t="n"/>
+      <c r="C43" s="118" t="n"/>
+      <c r="D43" s="119" t="n"/>
+      <c r="E43" s="135" t="n"/>
+      <c r="F43" s="118" t="n"/>
+      <c r="G43" s="119" t="n"/>
+      <c r="H43" s="134" t="n"/>
+    </row>
+    <row r="44" ht="18.75" customHeight="1" s="68">
+      <c r="A44" s="136" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" s="127" t="n"/>
+      <c r="C44" s="128" t="n"/>
+      <c r="D44" s="129" t="n"/>
+      <c r="E44" s="121" t="n"/>
+      <c r="F44" s="128" t="n"/>
+      <c r="G44" s="129" t="n"/>
+      <c r="H44" s="121" t="n"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1" s="68">
+      <c r="A45" s="133" t="n"/>
+      <c r="B45" s="131" t="n"/>
+      <c r="D45" s="132" t="n"/>
+      <c r="E45" s="133" t="n"/>
+      <c r="G45" s="132" t="n"/>
+      <c r="H45" s="130" t="n"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1" s="68">
+      <c r="A46" s="135" t="n"/>
+      <c r="B46" s="135" t="n"/>
+      <c r="C46" s="118" t="n"/>
+      <c r="D46" s="119" t="n"/>
+      <c r="E46" s="135" t="n"/>
+      <c r="F46" s="118" t="n"/>
+      <c r="G46" s="119" t="n"/>
+      <c r="H46" s="134" t="n"/>
+    </row>
+    <row r="47" ht="18.75" customHeight="1" s="68">
+      <c r="A47" s="136" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" s="127" t="n"/>
+      <c r="C47" s="128" t="n"/>
+      <c r="D47" s="129" t="n"/>
+      <c r="E47" s="121" t="n"/>
+      <c r="F47" s="128" t="n"/>
+      <c r="G47" s="129" t="n"/>
+      <c r="H47" s="121" t="n"/>
+    </row>
+    <row r="48" ht="18.75" customHeight="1" s="68">
+      <c r="A48" s="133" t="n"/>
+      <c r="B48" s="131" t="n"/>
+      <c r="D48" s="132" t="n"/>
+      <c r="E48" s="133" t="n"/>
+      <c r="G48" s="132" t="n"/>
+      <c r="H48" s="130" t="n"/>
+    </row>
+    <row r="49" ht="18.75" customHeight="1" s="68">
+      <c r="A49" s="135" t="n"/>
+      <c r="B49" s="135" t="n"/>
+      <c r="C49" s="118" t="n"/>
+      <c r="D49" s="119" t="n"/>
+      <c r="E49" s="135" t="n"/>
+      <c r="F49" s="118" t="n"/>
+      <c r="G49" s="119" t="n"/>
+      <c r="H49" s="134" t="n"/>
+    </row>
+    <row r="50" ht="18.75" customHeight="1" s="68">
+      <c r="A50" s="144" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" s="127" t="n"/>
+      <c r="C50" s="128" t="n"/>
+      <c r="D50" s="129" t="n"/>
+      <c r="E50" s="121" t="n"/>
+      <c r="F50" s="128" t="n"/>
+      <c r="G50" s="129" t="n"/>
+      <c r="H50" s="121" t="n"/>
+    </row>
+    <row r="51" ht="18.75" customHeight="1" s="68">
+      <c r="A51" s="133" t="n"/>
+      <c r="B51" s="131" t="n"/>
+      <c r="D51" s="132" t="n"/>
+      <c r="E51" s="133" t="n"/>
+      <c r="G51" s="132" t="n"/>
+      <c r="H51" s="130" t="n"/>
+    </row>
+    <row r="52" ht="18.75" customHeight="1" s="68">
+      <c r="A52" s="133" t="n"/>
+      <c r="B52" s="135" t="n"/>
+      <c r="C52" s="118" t="n"/>
+      <c r="D52" s="119" t="n"/>
+      <c r="E52" s="135" t="n"/>
+      <c r="F52" s="118" t="n"/>
+      <c r="G52" s="119" t="n"/>
+      <c r="H52" s="134" t="n"/>
+    </row>
+    <row r="53" ht="18.75" customHeight="1" s="68">
+      <c r="A53" s="143" t="n">
+        <v>10</v>
+      </c>
+      <c r="B53" s="127" t="n"/>
+      <c r="C53" s="128" t="n"/>
+      <c r="D53" s="129" t="n"/>
+      <c r="E53" s="121" t="n"/>
+      <c r="F53" s="128" t="n"/>
+      <c r="G53" s="129" t="n"/>
+      <c r="H53" s="121" t="n"/>
+    </row>
+    <row r="54" ht="18.75" customHeight="1" s="68">
+      <c r="A54" s="130" t="n"/>
+      <c r="B54" s="131" t="n"/>
+      <c r="D54" s="132" t="n"/>
+      <c r="E54" s="133" t="n"/>
+      <c r="G54" s="132" t="n"/>
+      <c r="H54" s="130" t="n"/>
+    </row>
+    <row r="55" ht="18.75" customHeight="1" s="68">
+      <c r="A55" s="134" t="n"/>
+      <c r="B55" s="135" t="n"/>
+      <c r="C55" s="118" t="n"/>
+      <c r="D55" s="119" t="n"/>
+      <c r="E55" s="135" t="n"/>
+      <c r="F55" s="118" t="n"/>
+      <c r="G55" s="119" t="n"/>
+      <c r="H55" s="134" t="n"/>
+    </row>
+    <row r="56" ht="18.75" customHeight="1" s="68">
+      <c r="A56" s="143" t="n">
+        <v>11</v>
+      </c>
+      <c r="B56" s="127" t="n"/>
+      <c r="C56" s="128" t="n"/>
+      <c r="D56" s="129" t="n"/>
+      <c r="E56" s="121" t="n"/>
+      <c r="F56" s="128" t="n"/>
+      <c r="G56" s="129" t="n"/>
+      <c r="H56" s="121" t="n"/>
+    </row>
+    <row r="57" ht="18.75" customHeight="1" s="68">
+      <c r="A57" s="130" t="n"/>
+      <c r="B57" s="131" t="n"/>
+      <c r="D57" s="132" t="n"/>
+      <c r="E57" s="133" t="n"/>
+      <c r="G57" s="132" t="n"/>
+      <c r="H57" s="130" t="n"/>
+    </row>
+    <row r="58" ht="18.75" customHeight="1" s="68">
+      <c r="A58" s="134" t="n"/>
+      <c r="B58" s="135" t="n"/>
+      <c r="C58" s="118" t="n"/>
+      <c r="D58" s="119" t="n"/>
+      <c r="E58" s="135" t="n"/>
+      <c r="F58" s="118" t="n"/>
+      <c r="G58" s="119" t="n"/>
+      <c r="H58" s="134" t="n"/>
+    </row>
+    <row r="59" ht="18.75" customHeight="1" s="68">
+      <c r="A59" s="143" t="n">
+        <v>12</v>
+      </c>
+      <c r="B59" s="127" t="n"/>
+      <c r="C59" s="128" t="n"/>
+      <c r="D59" s="129" t="n"/>
+      <c r="E59" s="121" t="n"/>
+      <c r="F59" s="128" t="n"/>
+      <c r="G59" s="129" t="n"/>
+      <c r="H59" s="121" t="n"/>
+    </row>
+    <row r="60" ht="18.75" customHeight="1" s="68">
+      <c r="A60" s="130" t="n"/>
+      <c r="B60" s="131" t="n"/>
+      <c r="D60" s="132" t="n"/>
+      <c r="E60" s="133" t="n"/>
+      <c r="G60" s="132" t="n"/>
+      <c r="H60" s="130" t="n"/>
+    </row>
+    <row r="61" ht="18.75" customHeight="1" s="68">
+      <c r="A61" s="134" t="n"/>
+      <c r="B61" s="135" t="n"/>
+      <c r="C61" s="118" t="n"/>
+      <c r="D61" s="119" t="n"/>
+      <c r="E61" s="135" t="n"/>
+      <c r="F61" s="118" t="n"/>
+      <c r="G61" s="119" t="n"/>
+      <c r="H61" s="134" t="n"/>
+    </row>
+    <row r="62" ht="18.75" customHeight="1" s="68">
+      <c r="A62" s="143" t="n">
+        <v>13</v>
+      </c>
+      <c r="B62" s="127" t="n"/>
+      <c r="C62" s="128" t="n"/>
+      <c r="D62" s="129" t="n"/>
+      <c r="E62" s="121" t="n"/>
+      <c r="F62" s="128" t="n"/>
+      <c r="G62" s="129" t="n"/>
+      <c r="H62" s="121" t="n"/>
+    </row>
+    <row r="63" ht="18.75" customHeight="1" s="68">
+      <c r="A63" s="130" t="n"/>
+      <c r="B63" s="131" t="n"/>
+      <c r="D63" s="132" t="n"/>
+      <c r="E63" s="133" t="n"/>
+      <c r="G63" s="132" t="n"/>
+      <c r="H63" s="130" t="n"/>
+    </row>
+    <row r="64" ht="18.75" customHeight="1" s="68">
+      <c r="A64" s="134" t="n"/>
+      <c r="B64" s="135" t="n"/>
+      <c r="C64" s="118" t="n"/>
+      <c r="D64" s="119" t="n"/>
+      <c r="E64" s="135" t="n"/>
+      <c r="F64" s="118" t="n"/>
+      <c r="G64" s="119" t="n"/>
+      <c r="H64" s="134" t="n"/>
+    </row>
+    <row r="65" ht="18.75" customHeight="1" s="68">
+      <c r="A65" s="143" t="n">
+        <v>14</v>
+      </c>
+      <c r="B65" s="127" t="n"/>
+      <c r="C65" s="128" t="n"/>
+      <c r="D65" s="129" t="n"/>
+      <c r="E65" s="121" t="n"/>
+      <c r="F65" s="128" t="n"/>
+      <c r="G65" s="129" t="n"/>
+      <c r="H65" s="121" t="n"/>
+    </row>
+    <row r="66" ht="18.75" customHeight="1" s="68">
+      <c r="A66" s="130" t="n"/>
+      <c r="B66" s="131" t="n"/>
+      <c r="D66" s="132" t="n"/>
+      <c r="E66" s="133" t="n"/>
+      <c r="G66" s="132" t="n"/>
+      <c r="H66" s="130" t="n"/>
+    </row>
+    <row r="67" ht="18.75" customHeight="1" s="68">
+      <c r="A67" s="134" t="n"/>
+      <c r="B67" s="135" t="n"/>
+      <c r="C67" s="118" t="n"/>
+      <c r="D67" s="119" t="n"/>
+      <c r="E67" s="135" t="n"/>
+      <c r="F67" s="118" t="n"/>
+      <c r="G67" s="119" t="n"/>
+      <c r="H67" s="134" t="n"/>
+    </row>
+    <row r="68" ht="18.75" customHeight="1" s="68">
+      <c r="A68" s="143" t="n">
+        <v>15</v>
+      </c>
+      <c r="B68" s="127" t="n"/>
+      <c r="C68" s="128" t="n"/>
+      <c r="D68" s="129" t="n"/>
+      <c r="E68" s="121" t="n"/>
+      <c r="F68" s="128" t="n"/>
+      <c r="G68" s="129" t="n"/>
+      <c r="H68" s="121" t="n"/>
+    </row>
+    <row r="69" ht="18.75" customHeight="1" s="68">
+      <c r="A69" s="130" t="n"/>
+      <c r="B69" s="131" t="n"/>
+      <c r="D69" s="132" t="n"/>
+      <c r="E69" s="133" t="n"/>
+      <c r="G69" s="132" t="n"/>
+      <c r="H69" s="130" t="n"/>
+    </row>
+    <row r="70" ht="18.75" customHeight="1" s="68">
+      <c r="A70" s="134" t="n"/>
+      <c r="B70" s="135" t="n"/>
+      <c r="C70" s="118" t="n"/>
+      <c r="D70" s="119" t="n"/>
+      <c r="E70" s="135" t="n"/>
+      <c r="F70" s="118" t="n"/>
+      <c r="G70" s="119" t="n"/>
+      <c r="H70" s="134" t="n"/>
+    </row>
+    <row r="71" ht="18.75" customHeight="1" s="68">
+      <c r="A71" s="143" t="n">
+        <v>16</v>
+      </c>
+      <c r="B71" s="127" t="n"/>
+      <c r="C71" s="128" t="n"/>
+      <c r="D71" s="129" t="n"/>
+      <c r="E71" s="121" t="n"/>
+      <c r="F71" s="128" t="n"/>
+      <c r="G71" s="129" t="n"/>
+      <c r="H71" s="121" t="n"/>
+    </row>
+    <row r="72" ht="18.75" customHeight="1" s="68">
+      <c r="A72" s="130" t="n"/>
+      <c r="B72" s="131" t="n"/>
+      <c r="D72" s="132" t="n"/>
+      <c r="E72" s="133" t="n"/>
+      <c r="G72" s="132" t="n"/>
+      <c r="H72" s="130" t="n"/>
+    </row>
+    <row r="73" ht="18.75" customHeight="1" s="68">
+      <c r="A73" s="134" t="n"/>
+      <c r="B73" s="135" t="n"/>
+      <c r="C73" s="118" t="n"/>
+      <c r="D73" s="119" t="n"/>
+      <c r="E73" s="135" t="n"/>
+      <c r="F73" s="118" t="n"/>
+      <c r="G73" s="119" t="n"/>
+      <c r="H73" s="134" t="n"/>
+    </row>
+    <row r="74" ht="18.75" customHeight="1" s="68">
+      <c r="A74" s="145" t="n"/>
+      <c r="B74" s="146" t="n"/>
+      <c r="C74" s="146" t="n"/>
+      <c r="D74" s="146" t="n"/>
+      <c r="E74" s="67" t="n"/>
+      <c r="F74" s="67" t="n"/>
+      <c r="G74" s="67" t="n"/>
+      <c r="H74" s="67" t="n"/>
+    </row>
+    <row r="75" ht="18.75" customHeight="1" s="68">
+      <c r="A75" s="145" t="n"/>
+      <c r="B75" s="147" t="n"/>
+      <c r="C75" s="147" t="n"/>
+      <c r="D75" s="147" t="n"/>
+      <c r="E75" s="67" t="n"/>
+      <c r="F75" s="67" t="n"/>
+      <c r="G75" s="67" t="n"/>
+      <c r="H75" s="67" t="n"/>
+    </row>
+    <row r="76" ht="18.75" customHeight="1" s="68">
+      <c r="A76" s="145" t="n"/>
+      <c r="B76" s="147" t="n"/>
+      <c r="C76" s="147" t="n"/>
+      <c r="D76" s="147" t="n"/>
+      <c r="E76" s="67" t="n"/>
+      <c r="F76" s="67" t="n"/>
+      <c r="G76" s="67" t="n"/>
+      <c r="H76" s="67" t="n"/>
+    </row>
+    <row r="77" ht="19.35" customHeight="1" s="68">
+      <c r="A77" s="145" t="n"/>
+      <c r="B77" s="138" t="n"/>
+      <c r="C77" s="140" t="n"/>
+      <c r="D77" s="67" t="n"/>
+      <c r="E77" s="67" t="n"/>
+      <c r="F77" s="140" t="n"/>
+      <c r="G77" s="67" t="n"/>
+    </row>
+    <row r="78" ht="19.35" customHeight="1" s="68">
+      <c r="A78" s="145" t="n"/>
+      <c r="B78" s="138" t="n"/>
+      <c r="C78" s="140" t="n"/>
+      <c r="D78" s="67" t="n"/>
+      <c r="E78" s="67" t="n"/>
+      <c r="F78" s="140" t="n"/>
+      <c r="G78" s="67" t="n"/>
+    </row>
+    <row r="79" ht="19.35" customHeight="1" s="68">
+      <c r="A79" s="145" t="n"/>
+      <c r="B79" s="138" t="n"/>
+      <c r="C79" s="140" t="n"/>
+      <c r="D79" s="67" t="n"/>
+      <c r="E79" s="67" t="n"/>
+      <c r="F79" s="140" t="n"/>
+      <c r="G79" s="67" t="n"/>
+    </row>
+    <row r="80" ht="19.35" customHeight="1" s="68">
+      <c r="A80" s="145" t="n"/>
+      <c r="B80" s="138" t="n"/>
+      <c r="C80" s="140" t="n"/>
+      <c r="D80" s="67" t="n"/>
+      <c r="E80" s="67" t="n"/>
+      <c r="F80" s="140" t="n"/>
+      <c r="G80" s="67" t="n"/>
+    </row>
+    <row r="81" ht="19.35" customHeight="1" s="68">
+      <c r="A81" s="145" t="n"/>
+      <c r="B81" s="138" t="n"/>
+      <c r="C81" s="140" t="n"/>
+      <c r="D81" s="67" t="n"/>
+      <c r="E81" s="67" t="n"/>
+      <c r="F81" s="140" t="n"/>
+      <c r="G81" s="67" t="n"/>
+    </row>
+    <row r="82" ht="19.35" customHeight="1" s="68">
+      <c r="A82" s="145" t="n"/>
+      <c r="B82" s="138" t="n"/>
+      <c r="C82" s="140" t="n"/>
+      <c r="D82" s="67" t="n"/>
+      <c r="E82" s="67" t="n"/>
+      <c r="F82" s="140" t="n"/>
+      <c r="G82" s="67" t="n"/>
+    </row>
+    <row r="83" ht="19.35" customHeight="1" s="68">
+      <c r="A83" s="145" t="n"/>
+      <c r="B83" s="138" t="n"/>
+      <c r="C83" s="140" t="n"/>
+      <c r="D83" s="67" t="n"/>
+      <c r="E83" s="67" t="n"/>
+      <c r="F83" s="140" t="n"/>
+      <c r="G83" s="67" t="n"/>
+    </row>
+    <row r="84" ht="18.75" customHeight="1" s="68">
+      <c r="A84" s="145" t="n"/>
+      <c r="B84" s="138" t="n"/>
+      <c r="C84" s="140" t="n"/>
+      <c r="D84" s="67" t="n"/>
+      <c r="E84" s="67" t="n"/>
+      <c r="F84" s="140" t="n"/>
+      <c r="G84" s="67" t="n"/>
+    </row>
+    <row r="85" ht="19.35" customHeight="1" s="68">
+      <c r="A85" s="145" t="n"/>
+      <c r="B85" s="138" t="n"/>
+      <c r="C85" s="140" t="n"/>
+      <c r="D85" s="67" t="n"/>
+      <c r="E85" s="67" t="n"/>
+      <c r="F85" s="140" t="n"/>
+      <c r="G85" s="67" t="n"/>
+    </row>
+    <row r="86" ht="19.35" customHeight="1" s="68">
+      <c r="A86" s="145" t="n"/>
+      <c r="B86" s="138" t="n"/>
+      <c r="C86" s="140" t="n"/>
+      <c r="D86" s="67" t="n"/>
+      <c r="E86" s="67" t="n"/>
+      <c r="F86" s="140" t="n"/>
+      <c r="G86" s="67" t="n"/>
+    </row>
+    <row r="87" ht="18.75" customHeight="1" s="68">
+      <c r="A87" s="145" t="n"/>
+      <c r="B87" s="138" t="n"/>
+      <c r="C87" s="140" t="n"/>
+      <c r="D87" s="67" t="n"/>
+      <c r="E87" s="67" t="n"/>
+      <c r="F87" s="140" t="n"/>
+      <c r="G87" s="67" t="n"/>
+    </row>
+    <row r="88" ht="18.75" customHeight="1" s="68">
+      <c r="A88" s="145" t="n"/>
+      <c r="B88" s="138" t="n"/>
+      <c r="C88" s="140" t="n"/>
+      <c r="D88" s="67" t="n"/>
+      <c r="E88" s="67" t="n"/>
+      <c r="F88" s="140" t="n"/>
+      <c r="G88" s="67" t="n"/>
+    </row>
+    <row r="89" ht="18.75" customHeight="1" s="68">
+      <c r="A89" s="145" t="n"/>
+      <c r="B89" s="138" t="n"/>
+      <c r="C89" s="140" t="n"/>
+      <c r="D89" s="67" t="n"/>
+      <c r="E89" s="67" t="n"/>
+      <c r="F89" s="140" t="n"/>
+      <c r="G89" s="67" t="n"/>
+    </row>
+    <row r="90" ht="15" customHeight="1" s="68">
+      <c r="A90" s="67" t="n"/>
+      <c r="B90" s="67" t="n"/>
+      <c r="C90" s="67" t="n"/>
+      <c r="D90" s="67" t="n"/>
+      <c r="E90" s="67" t="n"/>
+      <c r="F90" s="67" t="n"/>
+      <c r="G90" s="67" t="n"/>
+    </row>
+    <row r="91" ht="15" customHeight="1" s="68">
+      <c r="A91" s="67" t="n"/>
+      <c r="B91" s="67" t="n"/>
+      <c r="C91" s="67" t="n"/>
+      <c r="D91" s="67" t="n"/>
+      <c r="E91" s="67" t="n"/>
+      <c r="F91" s="67" t="n"/>
+      <c r="G91" s="67" t="n"/>
+    </row>
+    <row r="92" ht="15" customHeight="1" s="68">
+      <c r="A92" s="67" t="n"/>
+      <c r="B92" s="67" t="n"/>
+      <c r="C92" s="67" t="n"/>
+      <c r="D92" s="67" t="n"/>
+      <c r="E92" s="67" t="n"/>
+      <c r="F92" s="67" t="n"/>
+      <c r="G92" s="67" t="n"/>
+    </row>
+    <row r="93" ht="15" customHeight="1" s="68">
+      <c r="A93" s="67" t="n"/>
+      <c r="B93" s="67" t="n"/>
+      <c r="C93" s="67" t="n"/>
+      <c r="D93" s="67" t="n"/>
+      <c r="E93" s="67" t="n"/>
+      <c r="F93" s="67" t="n"/>
+      <c r="G93" s="67" t="n"/>
+    </row>
+    <row r="94" ht="15" customHeight="1" s="68">
+      <c r="A94" s="67" t="n"/>
+      <c r="B94" s="67" t="n"/>
+      <c r="C94" s="67" t="n"/>
+      <c r="D94" s="67" t="n"/>
+      <c r="E94" s="67" t="n"/>
+      <c r="F94" s="67" t="n"/>
+      <c r="G94" s="67" t="n"/>
+    </row>
+    <row r="95" ht="15" customHeight="1" s="68">
+      <c r="A95" s="67" t="n"/>
+      <c r="B95" s="67" t="n"/>
+      <c r="C95" s="67" t="n"/>
+      <c r="D95" s="67" t="n"/>
+      <c r="E95" s="67" t="n"/>
+      <c r="F95" s="67" t="n"/>
+      <c r="G95" s="67" t="n"/>
+    </row>
+    <row r="96" ht="15" customHeight="1" s="68">
+      <c r="A96" s="67" t="n"/>
+      <c r="B96" s="67" t="n"/>
+      <c r="C96" s="67" t="n"/>
+      <c r="D96" s="67" t="n"/>
+      <c r="E96" s="67" t="n"/>
+      <c r="F96" s="67" t="n"/>
+      <c r="G96" s="67" t="n"/>
+    </row>
+    <row r="97" ht="15" customHeight="1" s="68">
+      <c r="A97" s="67" t="n"/>
+      <c r="B97" s="67" t="n"/>
+      <c r="C97" s="67" t="n"/>
+      <c r="D97" s="67" t="n"/>
+      <c r="E97" s="67" t="n"/>
+      <c r="F97" s="67" t="n"/>
+      <c r="G97" s="67" t="n"/>
+    </row>
+    <row r="98" ht="15" customHeight="1" s="68">
+      <c r="A98" s="67" t="n"/>
+      <c r="B98" s="67" t="n"/>
+      <c r="C98" s="67" t="n"/>
+      <c r="D98" s="67" t="n"/>
+      <c r="E98" s="67" t="n"/>
+      <c r="F98" s="67" t="n"/>
+      <c r="G98" s="67" t="n"/>
+    </row>
+    <row r="99" ht="15" customHeight="1" s="68">
+      <c r="A99" s="67" t="n"/>
+      <c r="B99" s="67" t="n"/>
+      <c r="C99" s="67" t="n"/>
+      <c r="D99" s="67" t="n"/>
+      <c r="E99" s="67" t="n"/>
+      <c r="F99" s="67" t="n"/>
+      <c r="G99" s="67" t="n"/>
+    </row>
+    <row r="100" ht="15" customHeight="1" s="68">
+      <c r="A100" s="67" t="n"/>
+      <c r="B100" s="67" t="n"/>
+      <c r="C100" s="67" t="n"/>
+      <c r="D100" s="67" t="n"/>
+      <c r="E100" s="67" t="n"/>
+      <c r="F100" s="67" t="n"/>
+      <c r="G100" s="67" t="n"/>
+    </row>
+    <row r="101" ht="15" customHeight="1" s="68">
+      <c r="A101" s="67" t="n"/>
+      <c r="B101" s="67" t="n"/>
+      <c r="C101" s="67" t="n"/>
+      <c r="D101" s="67" t="n"/>
+      <c r="E101" s="67" t="n"/>
+      <c r="F101" s="67" t="n"/>
+      <c r="G101" s="67" t="n"/>
+    </row>
+    <row r="102" ht="15" customHeight="1" s="68">
+      <c r="A102" s="67" t="n"/>
+      <c r="B102" s="67" t="n"/>
+      <c r="C102" s="67" t="n"/>
+      <c r="D102" s="67" t="n"/>
+      <c r="E102" s="67" t="n"/>
+      <c r="F102" s="67" t="n"/>
+      <c r="G102" s="67" t="n"/>
+    </row>
+    <row r="103" ht="15" customHeight="1" s="68">
+      <c r="A103" s="67" t="n"/>
+      <c r="B103" s="67" t="n"/>
+      <c r="C103" s="67" t="n"/>
+      <c r="D103" s="67" t="n"/>
+      <c r="E103" s="67" t="n"/>
+      <c r="F103" s="67" t="n"/>
+      <c r="G103" s="67" t="n"/>
+    </row>
+    <row r="104" ht="15" customHeight="1" s="68">
+      <c r="A104" s="67" t="n"/>
+      <c r="B104" s="67" t="n"/>
+      <c r="C104" s="67" t="n"/>
+      <c r="D104" s="67" t="n"/>
+      <c r="E104" s="67" t="n"/>
+      <c r="F104" s="67" t="n"/>
+      <c r="G104" s="67" t="n"/>
+    </row>
+    <row r="105" ht="15" customHeight="1" s="68">
+      <c r="A105" s="67" t="n"/>
+      <c r="B105" s="67" t="n"/>
+      <c r="C105" s="67" t="n"/>
+      <c r="D105" s="67" t="n"/>
+      <c r="E105" s="67" t="n"/>
+      <c r="F105" s="67" t="n"/>
+      <c r="G105" s="67" t="n"/>
+    </row>
+    <row r="106" ht="15" customHeight="1" s="68">
+      <c r="A106" s="67" t="n"/>
+      <c r="B106" s="67" t="n"/>
+      <c r="C106" s="67" t="n"/>
+      <c r="D106" s="67" t="n"/>
+      <c r="E106" s="67" t="n"/>
+      <c r="F106" s="67" t="n"/>
+      <c r="G106" s="67" t="n"/>
+    </row>
+    <row r="107" ht="15" customHeight="1" s="68">
+      <c r="A107" s="67" t="n"/>
+      <c r="B107" s="67" t="n"/>
+      <c r="C107" s="67" t="n"/>
+      <c r="D107" s="67" t="n"/>
+      <c r="E107" s="67" t="n"/>
+      <c r="F107" s="67" t="n"/>
+      <c r="G107" s="67" t="n"/>
+    </row>
+    <row r="108" ht="15" customHeight="1" s="68">
+      <c r="A108" s="67" t="n"/>
+      <c r="B108" s="67" t="n"/>
+      <c r="C108" s="67" t="n"/>
+      <c r="D108" s="67" t="n"/>
+      <c r="E108" s="67" t="n"/>
+      <c r="F108" s="67" t="n"/>
+      <c r="G108" s="67" t="n"/>
+    </row>
+    <row r="109" ht="15" customHeight="1" s="68">
+      <c r="A109" s="67" t="n"/>
+      <c r="B109" s="67" t="n"/>
+      <c r="C109" s="67" t="n"/>
+      <c r="D109" s="67" t="n"/>
+      <c r="E109" s="67" t="n"/>
+      <c r="F109" s="67" t="n"/>
+      <c r="G109" s="67" t="n"/>
+    </row>
+    <row r="110" ht="15" customHeight="1" s="68">
+      <c r="A110" s="67" t="n"/>
+      <c r="B110" s="67" t="n"/>
+      <c r="C110" s="67" t="n"/>
+      <c r="D110" s="67" t="n"/>
+      <c r="E110" s="67" t="n"/>
+      <c r="F110" s="67" t="n"/>
+      <c r="G110" s="67" t="n"/>
+    </row>
+    <row r="111" ht="15" customHeight="1" s="68">
+      <c r="A111" s="67" t="n"/>
+      <c r="B111" s="67" t="n"/>
+      <c r="C111" s="67" t="n"/>
+      <c r="D111" s="67" t="n"/>
+      <c r="E111" s="67" t="n"/>
+      <c r="F111" s="67" t="n"/>
+      <c r="G111" s="67" t="n"/>
+    </row>
+    <row r="112" ht="15" customHeight="1" s="68">
+      <c r="A112" s="67" t="n"/>
+      <c r="B112" s="67" t="n"/>
+      <c r="C112" s="67" t="n"/>
+      <c r="D112" s="67" t="n"/>
+      <c r="E112" s="67" t="n"/>
+      <c r="F112" s="67" t="n"/>
+      <c r="G112" s="67" t="n"/>
+    </row>
+    <row r="113" ht="15" customHeight="1" s="68">
+      <c r="A113" s="67" t="n"/>
+      <c r="B113" s="67" t="n"/>
+      <c r="C113" s="67" t="n"/>
+      <c r="D113" s="67" t="n"/>
+      <c r="E113" s="67" t="n"/>
+      <c r="F113" s="67" t="n"/>
+      <c r="G113" s="67" t="n"/>
+    </row>
+    <row r="114" ht="15" customHeight="1" s="68">
+      <c r="A114" s="67" t="n"/>
+      <c r="B114" s="67" t="n"/>
+      <c r="C114" s="67" t="n"/>
+      <c r="D114" s="67" t="n"/>
+      <c r="E114" s="67" t="n"/>
+      <c r="F114" s="67" t="n"/>
+      <c r="G114" s="67" t="n"/>
+    </row>
+    <row r="115" ht="15" customHeight="1" s="68">
+      <c r="A115" s="67" t="n"/>
+      <c r="B115" s="67" t="n"/>
+      <c r="C115" s="67" t="n"/>
+      <c r="D115" s="67" t="n"/>
+      <c r="E115" s="67" t="n"/>
+      <c r="F115" s="67" t="n"/>
+      <c r="G115" s="67" t="n"/>
+    </row>
+    <row r="116" ht="15" customHeight="1" s="68">
+      <c r="A116" s="67" t="n"/>
+      <c r="B116" s="67" t="n"/>
+      <c r="C116" s="67" t="n"/>
+      <c r="D116" s="67" t="n"/>
+      <c r="E116" s="67" t="n"/>
+      <c r="F116" s="67" t="n"/>
+      <c r="G116" s="67" t="n"/>
+    </row>
+    <row r="117" ht="15" customHeight="1" s="68">
+      <c r="A117" s="67" t="n"/>
+      <c r="B117" s="67" t="n"/>
+      <c r="C117" s="67" t="n"/>
+      <c r="D117" s="67" t="n"/>
+      <c r="E117" s="67" t="n"/>
+      <c r="F117" s="67" t="n"/>
+      <c r="G117" s="67" t="n"/>
+    </row>
+    <row r="118" ht="15" customHeight="1" s="68">
+      <c r="A118" s="67" t="n"/>
+      <c r="B118" s="67" t="n"/>
+      <c r="C118" s="67" t="n"/>
+      <c r="D118" s="67" t="n"/>
+      <c r="E118" s="67" t="n"/>
+      <c r="F118" s="67" t="n"/>
+      <c r="G118" s="67" t="n"/>
+    </row>
+    <row r="119" ht="15" customHeight="1" s="68">
+      <c r="A119" s="67" t="n"/>
+      <c r="B119" s="67" t="n"/>
+      <c r="C119" s="67" t="n"/>
+      <c r="D119" s="67" t="n"/>
+      <c r="E119" s="67" t="n"/>
+      <c r="F119" s="67" t="n"/>
+      <c r="G119" s="67" t="n"/>
+    </row>
+    <row r="120" ht="15" customHeight="1" s="68">
+      <c r="A120" s="67" t="n"/>
+      <c r="B120" s="67" t="n"/>
+      <c r="C120" s="67" t="n"/>
+      <c r="D120" s="67" t="n"/>
+      <c r="E120" s="67" t="n"/>
+      <c r="F120" s="67" t="n"/>
+      <c r="G120" s="67" t="n"/>
+    </row>
+    <row r="121" ht="15" customHeight="1" s="68">
+      <c r="A121" s="67" t="n"/>
+      <c r="B121" s="67" t="n"/>
+      <c r="C121" s="67" t="n"/>
+      <c r="D121" s="67" t="n"/>
+      <c r="E121" s="67" t="n"/>
+      <c r="F121" s="67" t="n"/>
+      <c r="G121" s="67" t="n"/>
+    </row>
+    <row r="122" ht="15" customHeight="1" s="68">
+      <c r="A122" s="67" t="n"/>
+      <c r="B122" s="67" t="n"/>
+      <c r="C122" s="67" t="n"/>
+      <c r="D122" s="67" t="n"/>
+      <c r="E122" s="67" t="n"/>
+      <c r="F122" s="67" t="n"/>
+      <c r="G122" s="67" t="n"/>
+    </row>
+    <row r="123" ht="15" customHeight="1" s="68">
+      <c r="A123" s="67" t="n"/>
+      <c r="B123" s="67" t="n"/>
+      <c r="C123" s="67" t="n"/>
+      <c r="D123" s="67" t="n"/>
+      <c r="E123" s="67" t="n"/>
+      <c r="F123" s="67" t="n"/>
+      <c r="G123" s="67" t="n"/>
+    </row>
+    <row r="124" ht="15" customHeight="1" s="68">
+      <c r="A124" s="67" t="n"/>
+      <c r="B124" s="67" t="n"/>
+      <c r="C124" s="67" t="n"/>
+      <c r="D124" s="67" t="n"/>
+      <c r="E124" s="67" t="n"/>
+      <c r="F124" s="67" t="n"/>
+      <c r="G124" s="67" t="n"/>
+    </row>
+    <row r="125" ht="15" customHeight="1" s="68">
+      <c r="A125" s="67" t="n"/>
+      <c r="B125" s="67" t="n"/>
+      <c r="C125" s="67" t="n"/>
+      <c r="D125" s="67" t="n"/>
+      <c r="E125" s="67" t="n"/>
+      <c r="F125" s="67" t="n"/>
+      <c r="G125" s="67" t="n"/>
+    </row>
+    <row r="126" ht="15" customHeight="1" s="68">
+      <c r="A126" s="67" t="n"/>
+      <c r="B126" s="67" t="n"/>
+      <c r="C126" s="67" t="n"/>
+      <c r="D126" s="67" t="n"/>
+      <c r="E126" s="67" t="n"/>
+      <c r="F126" s="67" t="n"/>
+      <c r="G126" s="67" t="n"/>
+    </row>
+    <row r="127" ht="15" customHeight="1" s="68">
+      <c r="A127" s="67" t="n"/>
+      <c r="B127" s="67" t="n"/>
+      <c r="C127" s="67" t="n"/>
+      <c r="D127" s="67" t="n"/>
+      <c r="E127" s="67" t="n"/>
+      <c r="F127" s="67" t="n"/>
+      <c r="G127" s="67" t="n"/>
+    </row>
+    <row r="128" ht="15" customHeight="1" s="68">
+      <c r="A128" s="67" t="n"/>
+      <c r="B128" s="67" t="n"/>
+      <c r="C128" s="67" t="n"/>
+      <c r="D128" s="67" t="n"/>
+      <c r="E128" s="67" t="n"/>
+      <c r="F128" s="67" t="n"/>
+      <c r="G128" s="67" t="n"/>
+    </row>
+    <row r="129" ht="15" customHeight="1" s="68">
+      <c r="A129" s="67" t="n"/>
+      <c r="B129" s="67" t="n"/>
+      <c r="C129" s="67" t="n"/>
+      <c r="D129" s="67" t="n"/>
+      <c r="E129" s="67" t="n"/>
+      <c r="F129" s="67" t="n"/>
+      <c r="G129" s="67" t="n"/>
+    </row>
+    <row r="130" ht="15" customHeight="1" s="68">
+      <c r="A130" s="67" t="n"/>
+      <c r="B130" s="67" t="n"/>
+      <c r="C130" s="67" t="n"/>
+      <c r="D130" s="67" t="n"/>
+      <c r="E130" s="67" t="n"/>
+      <c r="F130" s="67" t="n"/>
+      <c r="G130" s="67" t="n"/>
+    </row>
+    <row r="131" ht="15" customHeight="1" s="68">
+      <c r="A131" s="67" t="n"/>
+      <c r="B131" s="67" t="n"/>
+      <c r="C131" s="67" t="n"/>
+      <c r="D131" s="67" t="n"/>
+      <c r="E131" s="67" t="n"/>
+      <c r="F131" s="67" t="n"/>
+      <c r="G131" s="67" t="n"/>
+    </row>
+    <row r="132" ht="15" customHeight="1" s="68">
+      <c r="A132" s="67" t="n"/>
+      <c r="B132" s="67" t="n"/>
+      <c r="C132" s="67" t="n"/>
+      <c r="D132" s="67" t="n"/>
+      <c r="E132" s="67" t="n"/>
+      <c r="F132" s="67" t="n"/>
+      <c r="G132" s="67" t="n"/>
+    </row>
+    <row r="133" ht="15" customHeight="1" s="68">
+      <c r="A133" s="67" t="n"/>
+      <c r="B133" s="67" t="n"/>
+      <c r="C133" s="67" t="n"/>
+      <c r="D133" s="67" t="n"/>
+      <c r="E133" s="67" t="n"/>
+      <c r="F133" s="67" t="n"/>
+      <c r="G133" s="67" t="n"/>
+    </row>
+    <row r="134" ht="15" customHeight="1" s="68">
+      <c r="A134" s="67" t="n"/>
+      <c r="B134" s="67" t="n"/>
+      <c r="C134" s="67" t="n"/>
+      <c r="D134" s="67" t="n"/>
+      <c r="E134" s="67" t="n"/>
+      <c r="F134" s="67" t="n"/>
+      <c r="G134" s="67" t="n"/>
+    </row>
+    <row r="135" ht="15" customHeight="1" s="68">
+      <c r="A135" s="67" t="n"/>
+      <c r="B135" s="67" t="n"/>
+      <c r="C135" s="67" t="n"/>
+      <c r="D135" s="67" t="n"/>
+      <c r="E135" s="67" t="n"/>
+      <c r="F135" s="67" t="n"/>
+      <c r="G135" s="67" t="n"/>
+    </row>
+    <row r="136" ht="15" customHeight="1" s="68">
+      <c r="A136" s="67" t="n"/>
+      <c r="B136" s="67" t="n"/>
+      <c r="C136" s="67" t="n"/>
+      <c r="D136" s="67" t="n"/>
+      <c r="E136" s="67" t="n"/>
+      <c r="F136" s="67" t="n"/>
+      <c r="G136" s="67" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="107">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="B54:D55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="B60:D61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="B66:D67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:G70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="B72:D73"/>
+  </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</worksheet>
 </file>
--- a/UR_CoverSheets.xlsx
+++ b/UR_CoverSheets.xlsx
@@ -8,7 +8,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UR Cover Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7659" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4129" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7523" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9501" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7546" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -2768,14 +2771,14 @@
       </c>
       <c r="F1" s="73" t="inlineStr">
         <is>
-          <t>02-19-2020</t>
+          <t>02-26-2020</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" s="68">
       <c r="A2" s="74" t="inlineStr">
         <is>
-          <t>7659</t>
+          <t>4129</t>
         </is>
       </c>
       <c r="D2" s="75" t="n"/>
@@ -2841,7 +2844,7 @@
       <c r="B5" s="91" t="n"/>
       <c r="C5" s="92" t="inlineStr">
         <is>
-          <t>07-24-2020</t>
+          <t>03-14-2020</t>
         </is>
       </c>
       <c r="D5" s="70" t="n"/>
@@ -3221,7 +3224,7 @@
       </c>
       <c r="B23" s="127" t="inlineStr">
         <is>
-          <t>KGR</t>
+          <t>ENGINE</t>
         </is>
       </c>
       <c r="C23" s="128" t="n"/>
@@ -3239,7 +3242,5133 @@
       <c r="A24" s="130" t="n"/>
       <c r="B24" s="131" t="inlineStr">
         <is>
-          <t>Download showing multiple signs of KGR</t>
+          <t>Oil leak at front of engine</t>
+        </is>
+      </c>
+      <c r="D24" s="132" t="n"/>
+      <c r="E24" s="133" t="n"/>
+      <c r="G24" s="132" t="n"/>
+      <c r="H24" s="130" t="n"/>
+    </row>
+    <row r="25" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A25" s="134" t="n"/>
+      <c r="B25" s="135" t="n"/>
+      <c r="C25" s="118" t="n"/>
+      <c r="D25" s="119" t="n"/>
+      <c r="E25" s="135" t="n"/>
+      <c r="F25" s="118" t="n"/>
+      <c r="G25" s="119" t="n"/>
+      <c r="H25" s="134" t="n"/>
+    </row>
+    <row r="26" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A26" s="136" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="127" t="inlineStr">
+        <is>
+          <t>MODS</t>
+        </is>
+      </c>
+      <c r="C26" s="128" t="n"/>
+      <c r="D26" s="129" t="n"/>
+      <c r="E26" s="137" t="n"/>
+      <c r="F26" s="128" t="n"/>
+      <c r="G26" s="129" t="n"/>
+      <c r="H26" s="137" t="n"/>
+    </row>
+    <row r="27" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A27" s="133" t="n"/>
+      <c r="B27" s="131" t="inlineStr">
+        <is>
+          <t>Software/TM Cap</t>
+        </is>
+      </c>
+      <c r="D27" s="132" t="n"/>
+      <c r="E27" s="133" t="n"/>
+      <c r="G27" s="132" t="n"/>
+      <c r="H27" s="130" t="n"/>
+    </row>
+    <row r="28" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A28" s="135" t="n"/>
+      <c r="B28" s="135" t="n"/>
+      <c r="C28" s="118" t="n"/>
+      <c r="D28" s="119" t="n"/>
+      <c r="E28" s="135" t="n"/>
+      <c r="F28" s="118" t="n"/>
+      <c r="G28" s="119" t="n"/>
+      <c r="H28" s="134" t="n"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1" s="68">
+      <c r="A29" s="136" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="127" t="n"/>
+      <c r="C29" s="128" t="n"/>
+      <c r="D29" s="129" t="n"/>
+      <c r="E29" s="121" t="n"/>
+      <c r="F29" s="128" t="n"/>
+      <c r="G29" s="129" t="n"/>
+      <c r="H29" s="121" t="n"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1" s="68">
+      <c r="A30" s="133" t="n"/>
+      <c r="B30" s="131" t="n"/>
+      <c r="D30" s="132" t="n"/>
+      <c r="E30" s="133" t="n"/>
+      <c r="G30" s="132" t="n"/>
+      <c r="H30" s="130" t="n"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" s="68">
+      <c r="A31" s="135" t="n"/>
+      <c r="B31" s="135" t="n"/>
+      <c r="C31" s="118" t="n"/>
+      <c r="D31" s="119" t="n"/>
+      <c r="E31" s="135" t="n"/>
+      <c r="F31" s="118" t="n"/>
+      <c r="G31" s="119" t="n"/>
+      <c r="H31" s="134" t="n"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1" s="68">
+      <c r="A32" s="136" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="127" t="n"/>
+      <c r="C32" s="128" t="n"/>
+      <c r="D32" s="129" t="n"/>
+      <c r="E32" s="121" t="n"/>
+      <c r="F32" s="128" t="n"/>
+      <c r="G32" s="129" t="n"/>
+      <c r="H32" s="121" t="n"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1" s="68">
+      <c r="A33" s="133" t="n"/>
+      <c r="B33" s="131" t="n"/>
+      <c r="D33" s="132" t="n"/>
+      <c r="E33" s="133" t="n"/>
+      <c r="G33" s="132" t="n"/>
+      <c r="H33" s="130" t="n"/>
+    </row>
+    <row r="34" ht="18.75" customHeight="1" s="68">
+      <c r="A34" s="135" t="n"/>
+      <c r="B34" s="135" t="n"/>
+      <c r="C34" s="118" t="n"/>
+      <c r="D34" s="119" t="n"/>
+      <c r="E34" s="135" t="n"/>
+      <c r="F34" s="118" t="n"/>
+      <c r="G34" s="119" t="n"/>
+      <c r="H34" s="134" t="n"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1" s="68">
+      <c r="A35" s="138" t="n"/>
+      <c r="B35" s="139" t="n"/>
+      <c r="C35" s="139" t="n"/>
+      <c r="D35" s="139" t="n"/>
+      <c r="E35" s="140" t="n"/>
+      <c r="F35" s="140" t="n"/>
+      <c r="G35" s="140" t="n"/>
+      <c r="H35" s="140" t="n"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1" s="68">
+      <c r="A36" s="138" t="n"/>
+      <c r="B36" s="141" t="n"/>
+      <c r="C36" s="141" t="n"/>
+      <c r="D36" s="141" t="n"/>
+      <c r="E36" s="140" t="n"/>
+      <c r="F36" s="140" t="n"/>
+      <c r="G36" s="140" t="n"/>
+      <c r="H36" s="140" t="n"/>
+    </row>
+    <row r="37" ht="18.75" customHeight="1" s="68">
+      <c r="B37" s="142" t="inlineStr">
+        <is>
+          <t>WORK ORDERS / DEFECTS</t>
+        </is>
+      </c>
+      <c r="E37" s="76" t="inlineStr">
+        <is>
+          <t>REPAIRS / MATERIAL</t>
+        </is>
+      </c>
+      <c r="G37" s="67" t="n"/>
+      <c r="H37" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I37" s="67" t="n"/>
+      <c r="J37" s="125" t="n"/>
+      <c r="L37" s="67" t="n"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1" s="68">
+      <c r="A38" s="143" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="127" t="n"/>
+      <c r="C38" s="128" t="n"/>
+      <c r="D38" s="129" t="n"/>
+      <c r="E38" s="121" t="n"/>
+      <c r="F38" s="128" t="n"/>
+      <c r="G38" s="129" t="n"/>
+      <c r="H38" s="121" t="n"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1" s="68">
+      <c r="A39" s="130" t="n"/>
+      <c r="B39" s="131" t="n"/>
+      <c r="D39" s="132" t="n"/>
+      <c r="E39" s="133" t="n"/>
+      <c r="G39" s="132" t="n"/>
+      <c r="H39" s="130" t="n"/>
+    </row>
+    <row r="40" ht="18.75" customHeight="1" s="68">
+      <c r="A40" s="134" t="n"/>
+      <c r="B40" s="135" t="n"/>
+      <c r="C40" s="118" t="n"/>
+      <c r="D40" s="119" t="n"/>
+      <c r="E40" s="135" t="n"/>
+      <c r="F40" s="118" t="n"/>
+      <c r="G40" s="119" t="n"/>
+      <c r="H40" s="134" t="n"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1" s="68">
+      <c r="A41" s="143" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" s="127" t="n"/>
+      <c r="C41" s="128" t="n"/>
+      <c r="D41" s="129" t="n"/>
+      <c r="E41" s="121" t="n"/>
+      <c r="F41" s="128" t="n"/>
+      <c r="G41" s="129" t="n"/>
+      <c r="H41" s="121" t="n"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1" s="68">
+      <c r="A42" s="130" t="n"/>
+      <c r="B42" s="131" t="n"/>
+      <c r="D42" s="132" t="n"/>
+      <c r="E42" s="133" t="n"/>
+      <c r="G42" s="132" t="n"/>
+      <c r="H42" s="130" t="n"/>
+    </row>
+    <row r="43" ht="18.75" customHeight="1" s="68">
+      <c r="A43" s="134" t="n"/>
+      <c r="B43" s="135" t="n"/>
+      <c r="C43" s="118" t="n"/>
+      <c r="D43" s="119" t="n"/>
+      <c r="E43" s="135" t="n"/>
+      <c r="F43" s="118" t="n"/>
+      <c r="G43" s="119" t="n"/>
+      <c r="H43" s="134" t="n"/>
+    </row>
+    <row r="44" ht="18.75" customHeight="1" s="68">
+      <c r="A44" s="136" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" s="127" t="n"/>
+      <c r="C44" s="128" t="n"/>
+      <c r="D44" s="129" t="n"/>
+      <c r="E44" s="121" t="n"/>
+      <c r="F44" s="128" t="n"/>
+      <c r="G44" s="129" t="n"/>
+      <c r="H44" s="121" t="n"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1" s="68">
+      <c r="A45" s="133" t="n"/>
+      <c r="B45" s="131" t="n"/>
+      <c r="D45" s="132" t="n"/>
+      <c r="E45" s="133" t="n"/>
+      <c r="G45" s="132" t="n"/>
+      <c r="H45" s="130" t="n"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1" s="68">
+      <c r="A46" s="135" t="n"/>
+      <c r="B46" s="135" t="n"/>
+      <c r="C46" s="118" t="n"/>
+      <c r="D46" s="119" t="n"/>
+      <c r="E46" s="135" t="n"/>
+      <c r="F46" s="118" t="n"/>
+      <c r="G46" s="119" t="n"/>
+      <c r="H46" s="134" t="n"/>
+    </row>
+    <row r="47" ht="18.75" customHeight="1" s="68">
+      <c r="A47" s="136" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" s="127" t="n"/>
+      <c r="C47" s="128" t="n"/>
+      <c r="D47" s="129" t="n"/>
+      <c r="E47" s="121" t="n"/>
+      <c r="F47" s="128" t="n"/>
+      <c r="G47" s="129" t="n"/>
+      <c r="H47" s="121" t="n"/>
+    </row>
+    <row r="48" ht="18.75" customHeight="1" s="68">
+      <c r="A48" s="133" t="n"/>
+      <c r="B48" s="131" t="n"/>
+      <c r="D48" s="132" t="n"/>
+      <c r="E48" s="133" t="n"/>
+      <c r="G48" s="132" t="n"/>
+      <c r="H48" s="130" t="n"/>
+    </row>
+    <row r="49" ht="18.75" customHeight="1" s="68">
+      <c r="A49" s="135" t="n"/>
+      <c r="B49" s="135" t="n"/>
+      <c r="C49" s="118" t="n"/>
+      <c r="D49" s="119" t="n"/>
+      <c r="E49" s="135" t="n"/>
+      <c r="F49" s="118" t="n"/>
+      <c r="G49" s="119" t="n"/>
+      <c r="H49" s="134" t="n"/>
+    </row>
+    <row r="50" ht="18.75" customHeight="1" s="68">
+      <c r="A50" s="144" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" s="127" t="n"/>
+      <c r="C50" s="128" t="n"/>
+      <c r="D50" s="129" t="n"/>
+      <c r="E50" s="121" t="n"/>
+      <c r="F50" s="128" t="n"/>
+      <c r="G50" s="129" t="n"/>
+      <c r="H50" s="121" t="n"/>
+    </row>
+    <row r="51" ht="18.75" customHeight="1" s="68">
+      <c r="A51" s="133" t="n"/>
+      <c r="B51" s="131" t="n"/>
+      <c r="D51" s="132" t="n"/>
+      <c r="E51" s="133" t="n"/>
+      <c r="G51" s="132" t="n"/>
+      <c r="H51" s="130" t="n"/>
+    </row>
+    <row r="52" ht="18.75" customHeight="1" s="68">
+      <c r="A52" s="133" t="n"/>
+      <c r="B52" s="135" t="n"/>
+      <c r="C52" s="118" t="n"/>
+      <c r="D52" s="119" t="n"/>
+      <c r="E52" s="135" t="n"/>
+      <c r="F52" s="118" t="n"/>
+      <c r="G52" s="119" t="n"/>
+      <c r="H52" s="134" t="n"/>
+    </row>
+    <row r="53" ht="18.75" customHeight="1" s="68">
+      <c r="A53" s="143" t="n">
+        <v>10</v>
+      </c>
+      <c r="B53" s="127" t="n"/>
+      <c r="C53" s="128" t="n"/>
+      <c r="D53" s="129" t="n"/>
+      <c r="E53" s="121" t="n"/>
+      <c r="F53" s="128" t="n"/>
+      <c r="G53" s="129" t="n"/>
+      <c r="H53" s="121" t="n"/>
+    </row>
+    <row r="54" ht="18.75" customHeight="1" s="68">
+      <c r="A54" s="130" t="n"/>
+      <c r="B54" s="131" t="n"/>
+      <c r="D54" s="132" t="n"/>
+      <c r="E54" s="133" t="n"/>
+      <c r="G54" s="132" t="n"/>
+      <c r="H54" s="130" t="n"/>
+    </row>
+    <row r="55" ht="18.75" customHeight="1" s="68">
+      <c r="A55" s="134" t="n"/>
+      <c r="B55" s="135" t="n"/>
+      <c r="C55" s="118" t="n"/>
+      <c r="D55" s="119" t="n"/>
+      <c r="E55" s="135" t="n"/>
+      <c r="F55" s="118" t="n"/>
+      <c r="G55" s="119" t="n"/>
+      <c r="H55" s="134" t="n"/>
+    </row>
+    <row r="56" ht="18.75" customHeight="1" s="68">
+      <c r="A56" s="143" t="n">
+        <v>11</v>
+      </c>
+      <c r="B56" s="127" t="n"/>
+      <c r="C56" s="128" t="n"/>
+      <c r="D56" s="129" t="n"/>
+      <c r="E56" s="121" t="n"/>
+      <c r="F56" s="128" t="n"/>
+      <c r="G56" s="129" t="n"/>
+      <c r="H56" s="121" t="n"/>
+    </row>
+    <row r="57" ht="18.75" customHeight="1" s="68">
+      <c r="A57" s="130" t="n"/>
+      <c r="B57" s="131" t="n"/>
+      <c r="D57" s="132" t="n"/>
+      <c r="E57" s="133" t="n"/>
+      <c r="G57" s="132" t="n"/>
+      <c r="H57" s="130" t="n"/>
+    </row>
+    <row r="58" ht="18.75" customHeight="1" s="68">
+      <c r="A58" s="134" t="n"/>
+      <c r="B58" s="135" t="n"/>
+      <c r="C58" s="118" t="n"/>
+      <c r="D58" s="119" t="n"/>
+      <c r="E58" s="135" t="n"/>
+      <c r="F58" s="118" t="n"/>
+      <c r="G58" s="119" t="n"/>
+      <c r="H58" s="134" t="n"/>
+    </row>
+    <row r="59" ht="18.75" customHeight="1" s="68">
+      <c r="A59" s="143" t="n">
+        <v>12</v>
+      </c>
+      <c r="B59" s="127" t="n"/>
+      <c r="C59" s="128" t="n"/>
+      <c r="D59" s="129" t="n"/>
+      <c r="E59" s="121" t="n"/>
+      <c r="F59" s="128" t="n"/>
+      <c r="G59" s="129" t="n"/>
+      <c r="H59" s="121" t="n"/>
+    </row>
+    <row r="60" ht="18.75" customHeight="1" s="68">
+      <c r="A60" s="130" t="n"/>
+      <c r="B60" s="131" t="n"/>
+      <c r="D60" s="132" t="n"/>
+      <c r="E60" s="133" t="n"/>
+      <c r="G60" s="132" t="n"/>
+      <c r="H60" s="130" t="n"/>
+    </row>
+    <row r="61" ht="18.75" customHeight="1" s="68">
+      <c r="A61" s="134" t="n"/>
+      <c r="B61" s="135" t="n"/>
+      <c r="C61" s="118" t="n"/>
+      <c r="D61" s="119" t="n"/>
+      <c r="E61" s="135" t="n"/>
+      <c r="F61" s="118" t="n"/>
+      <c r="G61" s="119" t="n"/>
+      <c r="H61" s="134" t="n"/>
+    </row>
+    <row r="62" ht="18.75" customHeight="1" s="68">
+      <c r="A62" s="143" t="n">
+        <v>13</v>
+      </c>
+      <c r="B62" s="127" t="n"/>
+      <c r="C62" s="128" t="n"/>
+      <c r="D62" s="129" t="n"/>
+      <c r="E62" s="121" t="n"/>
+      <c r="F62" s="128" t="n"/>
+      <c r="G62" s="129" t="n"/>
+      <c r="H62" s="121" t="n"/>
+    </row>
+    <row r="63" ht="18.75" customHeight="1" s="68">
+      <c r="A63" s="130" t="n"/>
+      <c r="B63" s="131" t="n"/>
+      <c r="D63" s="132" t="n"/>
+      <c r="E63" s="133" t="n"/>
+      <c r="G63" s="132" t="n"/>
+      <c r="H63" s="130" t="n"/>
+    </row>
+    <row r="64" ht="18.75" customHeight="1" s="68">
+      <c r="A64" s="134" t="n"/>
+      <c r="B64" s="135" t="n"/>
+      <c r="C64" s="118" t="n"/>
+      <c r="D64" s="119" t="n"/>
+      <c r="E64" s="135" t="n"/>
+      <c r="F64" s="118" t="n"/>
+      <c r="G64" s="119" t="n"/>
+      <c r="H64" s="134" t="n"/>
+    </row>
+    <row r="65" ht="18.75" customHeight="1" s="68">
+      <c r="A65" s="143" t="n">
+        <v>14</v>
+      </c>
+      <c r="B65" s="127" t="n"/>
+      <c r="C65" s="128" t="n"/>
+      <c r="D65" s="129" t="n"/>
+      <c r="E65" s="121" t="n"/>
+      <c r="F65" s="128" t="n"/>
+      <c r="G65" s="129" t="n"/>
+      <c r="H65" s="121" t="n"/>
+    </row>
+    <row r="66" ht="18.75" customHeight="1" s="68">
+      <c r="A66" s="130" t="n"/>
+      <c r="B66" s="131" t="n"/>
+      <c r="D66" s="132" t="n"/>
+      <c r="E66" s="133" t="n"/>
+      <c r="G66" s="132" t="n"/>
+      <c r="H66" s="130" t="n"/>
+    </row>
+    <row r="67" ht="18.75" customHeight="1" s="68">
+      <c r="A67" s="134" t="n"/>
+      <c r="B67" s="135" t="n"/>
+      <c r="C67" s="118" t="n"/>
+      <c r="D67" s="119" t="n"/>
+      <c r="E67" s="135" t="n"/>
+      <c r="F67" s="118" t="n"/>
+      <c r="G67" s="119" t="n"/>
+      <c r="H67" s="134" t="n"/>
+    </row>
+    <row r="68" ht="18.75" customHeight="1" s="68">
+      <c r="A68" s="143" t="n">
+        <v>15</v>
+      </c>
+      <c r="B68" s="127" t="n"/>
+      <c r="C68" s="128" t="n"/>
+      <c r="D68" s="129" t="n"/>
+      <c r="E68" s="121" t="n"/>
+      <c r="F68" s="128" t="n"/>
+      <c r="G68" s="129" t="n"/>
+      <c r="H68" s="121" t="n"/>
+    </row>
+    <row r="69" ht="18.75" customHeight="1" s="68">
+      <c r="A69" s="130" t="n"/>
+      <c r="B69" s="131" t="n"/>
+      <c r="D69" s="132" t="n"/>
+      <c r="E69" s="133" t="n"/>
+      <c r="G69" s="132" t="n"/>
+      <c r="H69" s="130" t="n"/>
+    </row>
+    <row r="70" ht="18.75" customHeight="1" s="68">
+      <c r="A70" s="134" t="n"/>
+      <c r="B70" s="135" t="n"/>
+      <c r="C70" s="118" t="n"/>
+      <c r="D70" s="119" t="n"/>
+      <c r="E70" s="135" t="n"/>
+      <c r="F70" s="118" t="n"/>
+      <c r="G70" s="119" t="n"/>
+      <c r="H70" s="134" t="n"/>
+    </row>
+    <row r="71" ht="18.75" customHeight="1" s="68">
+      <c r="A71" s="143" t="n">
+        <v>16</v>
+      </c>
+      <c r="B71" s="127" t="n"/>
+      <c r="C71" s="128" t="n"/>
+      <c r="D71" s="129" t="n"/>
+      <c r="E71" s="121" t="n"/>
+      <c r="F71" s="128" t="n"/>
+      <c r="G71" s="129" t="n"/>
+      <c r="H71" s="121" t="n"/>
+    </row>
+    <row r="72" ht="18.75" customHeight="1" s="68">
+      <c r="A72" s="130" t="n"/>
+      <c r="B72" s="131" t="n"/>
+      <c r="D72" s="132" t="n"/>
+      <c r="E72" s="133" t="n"/>
+      <c r="G72" s="132" t="n"/>
+      <c r="H72" s="130" t="n"/>
+    </row>
+    <row r="73" ht="18.75" customHeight="1" s="68">
+      <c r="A73" s="134" t="n"/>
+      <c r="B73" s="135" t="n"/>
+      <c r="C73" s="118" t="n"/>
+      <c r="D73" s="119" t="n"/>
+      <c r="E73" s="135" t="n"/>
+      <c r="F73" s="118" t="n"/>
+      <c r="G73" s="119" t="n"/>
+      <c r="H73" s="134" t="n"/>
+    </row>
+    <row r="74" ht="18.75" customHeight="1" s="68">
+      <c r="A74" s="145" t="n"/>
+      <c r="B74" s="146" t="n"/>
+      <c r="C74" s="146" t="n"/>
+      <c r="D74" s="146" t="n"/>
+      <c r="E74" s="67" t="n"/>
+      <c r="F74" s="67" t="n"/>
+      <c r="G74" s="67" t="n"/>
+      <c r="H74" s="67" t="n"/>
+    </row>
+    <row r="75" ht="18.75" customHeight="1" s="68">
+      <c r="A75" s="145" t="n"/>
+      <c r="B75" s="147" t="n"/>
+      <c r="C75" s="147" t="n"/>
+      <c r="D75" s="147" t="n"/>
+      <c r="E75" s="67" t="n"/>
+      <c r="F75" s="67" t="n"/>
+      <c r="G75" s="67" t="n"/>
+      <c r="H75" s="67" t="n"/>
+    </row>
+    <row r="76" ht="18.75" customHeight="1" s="68">
+      <c r="A76" s="145" t="n"/>
+      <c r="B76" s="147" t="n"/>
+      <c r="C76" s="147" t="n"/>
+      <c r="D76" s="147" t="n"/>
+      <c r="E76" s="67" t="n"/>
+      <c r="F76" s="67" t="n"/>
+      <c r="G76" s="67" t="n"/>
+      <c r="H76" s="67" t="n"/>
+    </row>
+    <row r="77" ht="19.35" customHeight="1" s="68">
+      <c r="A77" s="145" t="n"/>
+      <c r="B77" s="138" t="n"/>
+      <c r="C77" s="140" t="n"/>
+      <c r="D77" s="67" t="n"/>
+      <c r="E77" s="67" t="n"/>
+      <c r="F77" s="140" t="n"/>
+      <c r="G77" s="67" t="n"/>
+    </row>
+    <row r="78" ht="19.35" customHeight="1" s="68">
+      <c r="A78" s="145" t="n"/>
+      <c r="B78" s="138" t="n"/>
+      <c r="C78" s="140" t="n"/>
+      <c r="D78" s="67" t="n"/>
+      <c r="E78" s="67" t="n"/>
+      <c r="F78" s="140" t="n"/>
+      <c r="G78" s="67" t="n"/>
+    </row>
+    <row r="79" ht="19.35" customHeight="1" s="68">
+      <c r="A79" s="145" t="n"/>
+      <c r="B79" s="138" t="n"/>
+      <c r="C79" s="140" t="n"/>
+      <c r="D79" s="67" t="n"/>
+      <c r="E79" s="67" t="n"/>
+      <c r="F79" s="140" t="n"/>
+      <c r="G79" s="67" t="n"/>
+    </row>
+    <row r="80" ht="19.35" customHeight="1" s="68">
+      <c r="A80" s="145" t="n"/>
+      <c r="B80" s="138" t="n"/>
+      <c r="C80" s="140" t="n"/>
+      <c r="D80" s="67" t="n"/>
+      <c r="E80" s="67" t="n"/>
+      <c r="F80" s="140" t="n"/>
+      <c r="G80" s="67" t="n"/>
+    </row>
+    <row r="81" ht="19.35" customHeight="1" s="68">
+      <c r="A81" s="145" t="n"/>
+      <c r="B81" s="138" t="n"/>
+      <c r="C81" s="140" t="n"/>
+      <c r="D81" s="67" t="n"/>
+      <c r="E81" s="67" t="n"/>
+      <c r="F81" s="140" t="n"/>
+      <c r="G81" s="67" t="n"/>
+    </row>
+    <row r="82" ht="19.35" customHeight="1" s="68">
+      <c r="A82" s="145" t="n"/>
+      <c r="B82" s="138" t="n"/>
+      <c r="C82" s="140" t="n"/>
+      <c r="D82" s="67" t="n"/>
+      <c r="E82" s="67" t="n"/>
+      <c r="F82" s="140" t="n"/>
+      <c r="G82" s="67" t="n"/>
+    </row>
+    <row r="83" ht="19.35" customHeight="1" s="68">
+      <c r="A83" s="145" t="n"/>
+      <c r="B83" s="138" t="n"/>
+      <c r="C83" s="140" t="n"/>
+      <c r="D83" s="67" t="n"/>
+      <c r="E83" s="67" t="n"/>
+      <c r="F83" s="140" t="n"/>
+      <c r="G83" s="67" t="n"/>
+    </row>
+    <row r="84" ht="18.75" customHeight="1" s="68">
+      <c r="A84" s="145" t="n"/>
+      <c r="B84" s="138" t="n"/>
+      <c r="C84" s="140" t="n"/>
+      <c r="D84" s="67" t="n"/>
+      <c r="E84" s="67" t="n"/>
+      <c r="F84" s="140" t="n"/>
+      <c r="G84" s="67" t="n"/>
+    </row>
+    <row r="85" ht="19.35" customHeight="1" s="68">
+      <c r="A85" s="145" t="n"/>
+      <c r="B85" s="138" t="n"/>
+      <c r="C85" s="140" t="n"/>
+      <c r="D85" s="67" t="n"/>
+      <c r="E85" s="67" t="n"/>
+      <c r="F85" s="140" t="n"/>
+      <c r="G85" s="67" t="n"/>
+    </row>
+    <row r="86" ht="19.35" customHeight="1" s="68">
+      <c r="A86" s="145" t="n"/>
+      <c r="B86" s="138" t="n"/>
+      <c r="C86" s="140" t="n"/>
+      <c r="D86" s="67" t="n"/>
+      <c r="E86" s="67" t="n"/>
+      <c r="F86" s="140" t="n"/>
+      <c r="G86" s="67" t="n"/>
+    </row>
+    <row r="87" ht="18.75" customHeight="1" s="68">
+      <c r="A87" s="145" t="n"/>
+      <c r="B87" s="138" t="n"/>
+      <c r="C87" s="140" t="n"/>
+      <c r="D87" s="67" t="n"/>
+      <c r="E87" s="67" t="n"/>
+      <c r="F87" s="140" t="n"/>
+      <c r="G87" s="67" t="n"/>
+    </row>
+    <row r="88" ht="18.75" customHeight="1" s="68">
+      <c r="A88" s="145" t="n"/>
+      <c r="B88" s="138" t="n"/>
+      <c r="C88" s="140" t="n"/>
+      <c r="D88" s="67" t="n"/>
+      <c r="E88" s="67" t="n"/>
+      <c r="F88" s="140" t="n"/>
+      <c r="G88" s="67" t="n"/>
+    </row>
+    <row r="89" ht="18.75" customHeight="1" s="68">
+      <c r="A89" s="145" t="n"/>
+      <c r="B89" s="138" t="n"/>
+      <c r="C89" s="140" t="n"/>
+      <c r="D89" s="67" t="n"/>
+      <c r="E89" s="67" t="n"/>
+      <c r="F89" s="140" t="n"/>
+      <c r="G89" s="67" t="n"/>
+    </row>
+    <row r="90" ht="15" customHeight="1" s="68">
+      <c r="A90" s="67" t="n"/>
+      <c r="B90" s="67" t="n"/>
+      <c r="C90" s="67" t="n"/>
+      <c r="D90" s="67" t="n"/>
+      <c r="E90" s="67" t="n"/>
+      <c r="F90" s="67" t="n"/>
+      <c r="G90" s="67" t="n"/>
+    </row>
+    <row r="91" ht="15" customHeight="1" s="68">
+      <c r="A91" s="67" t="n"/>
+      <c r="B91" s="67" t="n"/>
+      <c r="C91" s="67" t="n"/>
+      <c r="D91" s="67" t="n"/>
+      <c r="E91" s="67" t="n"/>
+      <c r="F91" s="67" t="n"/>
+      <c r="G91" s="67" t="n"/>
+    </row>
+    <row r="92" ht="15" customHeight="1" s="68">
+      <c r="A92" s="67" t="n"/>
+      <c r="B92" s="67" t="n"/>
+      <c r="C92" s="67" t="n"/>
+      <c r="D92" s="67" t="n"/>
+      <c r="E92" s="67" t="n"/>
+      <c r="F92" s="67" t="n"/>
+      <c r="G92" s="67" t="n"/>
+    </row>
+    <row r="93" ht="15" customHeight="1" s="68">
+      <c r="A93" s="67" t="n"/>
+      <c r="B93" s="67" t="n"/>
+      <c r="C93" s="67" t="n"/>
+      <c r="D93" s="67" t="n"/>
+      <c r="E93" s="67" t="n"/>
+      <c r="F93" s="67" t="n"/>
+      <c r="G93" s="67" t="n"/>
+    </row>
+    <row r="94" ht="15" customHeight="1" s="68">
+      <c r="A94" s="67" t="n"/>
+      <c r="B94" s="67" t="n"/>
+      <c r="C94" s="67" t="n"/>
+      <c r="D94" s="67" t="n"/>
+      <c r="E94" s="67" t="n"/>
+      <c r="F94" s="67" t="n"/>
+      <c r="G94" s="67" t="n"/>
+    </row>
+    <row r="95" ht="15" customHeight="1" s="68">
+      <c r="A95" s="67" t="n"/>
+      <c r="B95" s="67" t="n"/>
+      <c r="C95" s="67" t="n"/>
+      <c r="D95" s="67" t="n"/>
+      <c r="E95" s="67" t="n"/>
+      <c r="F95" s="67" t="n"/>
+      <c r="G95" s="67" t="n"/>
+    </row>
+    <row r="96" ht="15" customHeight="1" s="68">
+      <c r="A96" s="67" t="n"/>
+      <c r="B96" s="67" t="n"/>
+      <c r="C96" s="67" t="n"/>
+      <c r="D96" s="67" t="n"/>
+      <c r="E96" s="67" t="n"/>
+      <c r="F96" s="67" t="n"/>
+      <c r="G96" s="67" t="n"/>
+    </row>
+    <row r="97" ht="15" customHeight="1" s="68">
+      <c r="A97" s="67" t="n"/>
+      <c r="B97" s="67" t="n"/>
+      <c r="C97" s="67" t="n"/>
+      <c r="D97" s="67" t="n"/>
+      <c r="E97" s="67" t="n"/>
+      <c r="F97" s="67" t="n"/>
+      <c r="G97" s="67" t="n"/>
+    </row>
+    <row r="98" ht="15" customHeight="1" s="68">
+      <c r="A98" s="67" t="n"/>
+      <c r="B98" s="67" t="n"/>
+      <c r="C98" s="67" t="n"/>
+      <c r="D98" s="67" t="n"/>
+      <c r="E98" s="67" t="n"/>
+      <c r="F98" s="67" t="n"/>
+      <c r="G98" s="67" t="n"/>
+    </row>
+    <row r="99" ht="15" customHeight="1" s="68">
+      <c r="A99" s="67" t="n"/>
+      <c r="B99" s="67" t="n"/>
+      <c r="C99" s="67" t="n"/>
+      <c r="D99" s="67" t="n"/>
+      <c r="E99" s="67" t="n"/>
+      <c r="F99" s="67" t="n"/>
+      <c r="G99" s="67" t="n"/>
+    </row>
+    <row r="100" ht="15" customHeight="1" s="68">
+      <c r="A100" s="67" t="n"/>
+      <c r="B100" s="67" t="n"/>
+      <c r="C100" s="67" t="n"/>
+      <c r="D100" s="67" t="n"/>
+      <c r="E100" s="67" t="n"/>
+      <c r="F100" s="67" t="n"/>
+      <c r="G100" s="67" t="n"/>
+    </row>
+    <row r="101" ht="15" customHeight="1" s="68">
+      <c r="A101" s="67" t="n"/>
+      <c r="B101" s="67" t="n"/>
+      <c r="C101" s="67" t="n"/>
+      <c r="D101" s="67" t="n"/>
+      <c r="E101" s="67" t="n"/>
+      <c r="F101" s="67" t="n"/>
+      <c r="G101" s="67" t="n"/>
+    </row>
+    <row r="102" ht="15" customHeight="1" s="68">
+      <c r="A102" s="67" t="n"/>
+      <c r="B102" s="67" t="n"/>
+      <c r="C102" s="67" t="n"/>
+      <c r="D102" s="67" t="n"/>
+      <c r="E102" s="67" t="n"/>
+      <c r="F102" s="67" t="n"/>
+      <c r="G102" s="67" t="n"/>
+    </row>
+    <row r="103" ht="15" customHeight="1" s="68">
+      <c r="A103" s="67" t="n"/>
+      <c r="B103" s="67" t="n"/>
+      <c r="C103" s="67" t="n"/>
+      <c r="D103" s="67" t="n"/>
+      <c r="E103" s="67" t="n"/>
+      <c r="F103" s="67" t="n"/>
+      <c r="G103" s="67" t="n"/>
+    </row>
+    <row r="104" ht="15" customHeight="1" s="68">
+      <c r="A104" s="67" t="n"/>
+      <c r="B104" s="67" t="n"/>
+      <c r="C104" s="67" t="n"/>
+      <c r="D104" s="67" t="n"/>
+      <c r="E104" s="67" t="n"/>
+      <c r="F104" s="67" t="n"/>
+      <c r="G104" s="67" t="n"/>
+    </row>
+    <row r="105" ht="15" customHeight="1" s="68">
+      <c r="A105" s="67" t="n"/>
+      <c r="B105" s="67" t="n"/>
+      <c r="C105" s="67" t="n"/>
+      <c r="D105" s="67" t="n"/>
+      <c r="E105" s="67" t="n"/>
+      <c r="F105" s="67" t="n"/>
+      <c r="G105" s="67" t="n"/>
+    </row>
+    <row r="106" ht="15" customHeight="1" s="68">
+      <c r="A106" s="67" t="n"/>
+      <c r="B106" s="67" t="n"/>
+      <c r="C106" s="67" t="n"/>
+      <c r="D106" s="67" t="n"/>
+      <c r="E106" s="67" t="n"/>
+      <c r="F106" s="67" t="n"/>
+      <c r="G106" s="67" t="n"/>
+    </row>
+    <row r="107" ht="15" customHeight="1" s="68">
+      <c r="A107" s="67" t="n"/>
+      <c r="B107" s="67" t="n"/>
+      <c r="C107" s="67" t="n"/>
+      <c r="D107" s="67" t="n"/>
+      <c r="E107" s="67" t="n"/>
+      <c r="F107" s="67" t="n"/>
+      <c r="G107" s="67" t="n"/>
+    </row>
+    <row r="108" ht="15" customHeight="1" s="68">
+      <c r="A108" s="67" t="n"/>
+      <c r="B108" s="67" t="n"/>
+      <c r="C108" s="67" t="n"/>
+      <c r="D108" s="67" t="n"/>
+      <c r="E108" s="67" t="n"/>
+      <c r="F108" s="67" t="n"/>
+      <c r="G108" s="67" t="n"/>
+    </row>
+    <row r="109" ht="15" customHeight="1" s="68">
+      <c r="A109" s="67" t="n"/>
+      <c r="B109" s="67" t="n"/>
+      <c r="C109" s="67" t="n"/>
+      <c r="D109" s="67" t="n"/>
+      <c r="E109" s="67" t="n"/>
+      <c r="F109" s="67" t="n"/>
+      <c r="G109" s="67" t="n"/>
+    </row>
+    <row r="110" ht="15" customHeight="1" s="68">
+      <c r="A110" s="67" t="n"/>
+      <c r="B110" s="67" t="n"/>
+      <c r="C110" s="67" t="n"/>
+      <c r="D110" s="67" t="n"/>
+      <c r="E110" s="67" t="n"/>
+      <c r="F110" s="67" t="n"/>
+      <c r="G110" s="67" t="n"/>
+    </row>
+    <row r="111" ht="15" customHeight="1" s="68">
+      <c r="A111" s="67" t="n"/>
+      <c r="B111" s="67" t="n"/>
+      <c r="C111" s="67" t="n"/>
+      <c r="D111" s="67" t="n"/>
+      <c r="E111" s="67" t="n"/>
+      <c r="F111" s="67" t="n"/>
+      <c r="G111" s="67" t="n"/>
+    </row>
+    <row r="112" ht="15" customHeight="1" s="68">
+      <c r="A112" s="67" t="n"/>
+      <c r="B112" s="67" t="n"/>
+      <c r="C112" s="67" t="n"/>
+      <c r="D112" s="67" t="n"/>
+      <c r="E112" s="67" t="n"/>
+      <c r="F112" s="67" t="n"/>
+      <c r="G112" s="67" t="n"/>
+    </row>
+    <row r="113" ht="15" customHeight="1" s="68">
+      <c r="A113" s="67" t="n"/>
+      <c r="B113" s="67" t="n"/>
+      <c r="C113" s="67" t="n"/>
+      <c r="D113" s="67" t="n"/>
+      <c r="E113" s="67" t="n"/>
+      <c r="F113" s="67" t="n"/>
+      <c r="G113" s="67" t="n"/>
+    </row>
+    <row r="114" ht="15" customHeight="1" s="68">
+      <c r="A114" s="67" t="n"/>
+      <c r="B114" s="67" t="n"/>
+      <c r="C114" s="67" t="n"/>
+      <c r="D114" s="67" t="n"/>
+      <c r="E114" s="67" t="n"/>
+      <c r="F114" s="67" t="n"/>
+      <c r="G114" s="67" t="n"/>
+    </row>
+    <row r="115" ht="15" customHeight="1" s="68">
+      <c r="A115" s="67" t="n"/>
+      <c r="B115" s="67" t="n"/>
+      <c r="C115" s="67" t="n"/>
+      <c r="D115" s="67" t="n"/>
+      <c r="E115" s="67" t="n"/>
+      <c r="F115" s="67" t="n"/>
+      <c r="G115" s="67" t="n"/>
+    </row>
+    <row r="116" ht="15" customHeight="1" s="68">
+      <c r="A116" s="67" t="n"/>
+      <c r="B116" s="67" t="n"/>
+      <c r="C116" s="67" t="n"/>
+      <c r="D116" s="67" t="n"/>
+      <c r="E116" s="67" t="n"/>
+      <c r="F116" s="67" t="n"/>
+      <c r="G116" s="67" t="n"/>
+    </row>
+    <row r="117" ht="15" customHeight="1" s="68">
+      <c r="A117" s="67" t="n"/>
+      <c r="B117" s="67" t="n"/>
+      <c r="C117" s="67" t="n"/>
+      <c r="D117" s="67" t="n"/>
+      <c r="E117" s="67" t="n"/>
+      <c r="F117" s="67" t="n"/>
+      <c r="G117" s="67" t="n"/>
+    </row>
+    <row r="118" ht="15" customHeight="1" s="68">
+      <c r="A118" s="67" t="n"/>
+      <c r="B118" s="67" t="n"/>
+      <c r="C118" s="67" t="n"/>
+      <c r="D118" s="67" t="n"/>
+      <c r="E118" s="67" t="n"/>
+      <c r="F118" s="67" t="n"/>
+      <c r="G118" s="67" t="n"/>
+    </row>
+    <row r="119" ht="15" customHeight="1" s="68">
+      <c r="A119" s="67" t="n"/>
+      <c r="B119" s="67" t="n"/>
+      <c r="C119" s="67" t="n"/>
+      <c r="D119" s="67" t="n"/>
+      <c r="E119" s="67" t="n"/>
+      <c r="F119" s="67" t="n"/>
+      <c r="G119" s="67" t="n"/>
+    </row>
+    <row r="120" ht="15" customHeight="1" s="68">
+      <c r="A120" s="67" t="n"/>
+      <c r="B120" s="67" t="n"/>
+      <c r="C120" s="67" t="n"/>
+      <c r="D120" s="67" t="n"/>
+      <c r="E120" s="67" t="n"/>
+      <c r="F120" s="67" t="n"/>
+      <c r="G120" s="67" t="n"/>
+    </row>
+    <row r="121" ht="15" customHeight="1" s="68">
+      <c r="A121" s="67" t="n"/>
+      <c r="B121" s="67" t="n"/>
+      <c r="C121" s="67" t="n"/>
+      <c r="D121" s="67" t="n"/>
+      <c r="E121" s="67" t="n"/>
+      <c r="F121" s="67" t="n"/>
+      <c r="G121" s="67" t="n"/>
+    </row>
+    <row r="122" ht="15" customHeight="1" s="68">
+      <c r="A122" s="67" t="n"/>
+      <c r="B122" s="67" t="n"/>
+      <c r="C122" s="67" t="n"/>
+      <c r="D122" s="67" t="n"/>
+      <c r="E122" s="67" t="n"/>
+      <c r="F122" s="67" t="n"/>
+      <c r="G122" s="67" t="n"/>
+    </row>
+    <row r="123" ht="15" customHeight="1" s="68">
+      <c r="A123" s="67" t="n"/>
+      <c r="B123" s="67" t="n"/>
+      <c r="C123" s="67" t="n"/>
+      <c r="D123" s="67" t="n"/>
+      <c r="E123" s="67" t="n"/>
+      <c r="F123" s="67" t="n"/>
+      <c r="G123" s="67" t="n"/>
+    </row>
+    <row r="124" ht="15" customHeight="1" s="68">
+      <c r="A124" s="67" t="n"/>
+      <c r="B124" s="67" t="n"/>
+      <c r="C124" s="67" t="n"/>
+      <c r="D124" s="67" t="n"/>
+      <c r="E124" s="67" t="n"/>
+      <c r="F124" s="67" t="n"/>
+      <c r="G124" s="67" t="n"/>
+    </row>
+    <row r="125" ht="15" customHeight="1" s="68">
+      <c r="A125" s="67" t="n"/>
+      <c r="B125" s="67" t="n"/>
+      <c r="C125" s="67" t="n"/>
+      <c r="D125" s="67" t="n"/>
+      <c r="E125" s="67" t="n"/>
+      <c r="F125" s="67" t="n"/>
+      <c r="G125" s="67" t="n"/>
+    </row>
+    <row r="126" ht="15" customHeight="1" s="68">
+      <c r="A126" s="67" t="n"/>
+      <c r="B126" s="67" t="n"/>
+      <c r="C126" s="67" t="n"/>
+      <c r="D126" s="67" t="n"/>
+      <c r="E126" s="67" t="n"/>
+      <c r="F126" s="67" t="n"/>
+      <c r="G126" s="67" t="n"/>
+    </row>
+    <row r="127" ht="15" customHeight="1" s="68">
+      <c r="A127" s="67" t="n"/>
+      <c r="B127" s="67" t="n"/>
+      <c r="C127" s="67" t="n"/>
+      <c r="D127" s="67" t="n"/>
+      <c r="E127" s="67" t="n"/>
+      <c r="F127" s="67" t="n"/>
+      <c r="G127" s="67" t="n"/>
+    </row>
+    <row r="128" ht="15" customHeight="1" s="68">
+      <c r="A128" s="67" t="n"/>
+      <c r="B128" s="67" t="n"/>
+      <c r="C128" s="67" t="n"/>
+      <c r="D128" s="67" t="n"/>
+      <c r="E128" s="67" t="n"/>
+      <c r="F128" s="67" t="n"/>
+      <c r="G128" s="67" t="n"/>
+    </row>
+    <row r="129" ht="15" customHeight="1" s="68">
+      <c r="A129" s="67" t="n"/>
+      <c r="B129" s="67" t="n"/>
+      <c r="C129" s="67" t="n"/>
+      <c r="D129" s="67" t="n"/>
+      <c r="E129" s="67" t="n"/>
+      <c r="F129" s="67" t="n"/>
+      <c r="G129" s="67" t="n"/>
+    </row>
+    <row r="130" ht="15" customHeight="1" s="68">
+      <c r="A130" s="67" t="n"/>
+      <c r="B130" s="67" t="n"/>
+      <c r="C130" s="67" t="n"/>
+      <c r="D130" s="67" t="n"/>
+      <c r="E130" s="67" t="n"/>
+      <c r="F130" s="67" t="n"/>
+      <c r="G130" s="67" t="n"/>
+    </row>
+    <row r="131" ht="15" customHeight="1" s="68">
+      <c r="A131" s="67" t="n"/>
+      <c r="B131" s="67" t="n"/>
+      <c r="C131" s="67" t="n"/>
+      <c r="D131" s="67" t="n"/>
+      <c r="E131" s="67" t="n"/>
+      <c r="F131" s="67" t="n"/>
+      <c r="G131" s="67" t="n"/>
+    </row>
+    <row r="132" ht="15" customHeight="1" s="68">
+      <c r="A132" s="67" t="n"/>
+      <c r="B132" s="67" t="n"/>
+      <c r="C132" s="67" t="n"/>
+      <c r="D132" s="67" t="n"/>
+      <c r="E132" s="67" t="n"/>
+      <c r="F132" s="67" t="n"/>
+      <c r="G132" s="67" t="n"/>
+    </row>
+    <row r="133" ht="15" customHeight="1" s="68">
+      <c r="A133" s="67" t="n"/>
+      <c r="B133" s="67" t="n"/>
+      <c r="C133" s="67" t="n"/>
+      <c r="D133" s="67" t="n"/>
+      <c r="E133" s="67" t="n"/>
+      <c r="F133" s="67" t="n"/>
+      <c r="G133" s="67" t="n"/>
+    </row>
+    <row r="134" ht="15" customHeight="1" s="68">
+      <c r="A134" s="67" t="n"/>
+      <c r="B134" s="67" t="n"/>
+      <c r="C134" s="67" t="n"/>
+      <c r="D134" s="67" t="n"/>
+      <c r="E134" s="67" t="n"/>
+      <c r="F134" s="67" t="n"/>
+      <c r="G134" s="67" t="n"/>
+    </row>
+    <row r="135" ht="15" customHeight="1" s="68">
+      <c r="A135" s="67" t="n"/>
+      <c r="B135" s="67" t="n"/>
+      <c r="C135" s="67" t="n"/>
+      <c r="D135" s="67" t="n"/>
+      <c r="E135" s="67" t="n"/>
+      <c r="F135" s="67" t="n"/>
+      <c r="G135" s="67" t="n"/>
+    </row>
+    <row r="136" ht="15" customHeight="1" s="68">
+      <c r="A136" s="67" t="n"/>
+      <c r="B136" s="67" t="n"/>
+      <c r="C136" s="67" t="n"/>
+      <c r="D136" s="67" t="n"/>
+      <c r="E136" s="67" t="n"/>
+      <c r="F136" s="67" t="n"/>
+      <c r="G136" s="67" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="107">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="B54:D55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="B60:D61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="B66:D67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:G70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="B72:D73"/>
+  </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:R136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="2.85" customWidth="1" style="67" min="1" max="1"/>
+    <col width="13.14" customWidth="1" style="67" min="2" max="2"/>
+    <col width="7.71" customWidth="1" style="67" min="3" max="3"/>
+    <col width="8.289999999999999" customWidth="1" style="67" min="4" max="4"/>
+    <col width="19.71" customWidth="1" style="67" min="5" max="5"/>
+    <col width="13.57" customWidth="1" style="67" min="6" max="6"/>
+    <col width="1" customWidth="1" style="67" min="7" max="7"/>
+    <col width="28.42" customWidth="1" style="67" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" s="68">
+      <c r="A1" s="69" t="inlineStr">
+        <is>
+          <t>UNIT  NUMBER</t>
+        </is>
+      </c>
+      <c r="B1" s="70" t="n"/>
+      <c r="C1" s="70" t="n"/>
+      <c r="D1" s="71" t="n"/>
+      <c r="E1" s="72" t="inlineStr">
+        <is>
+          <t>DATE INSHOPPED:</t>
+        </is>
+      </c>
+      <c r="F1" s="73" t="inlineStr">
+        <is>
+          <t>02-26-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" s="68">
+      <c r="A2" s="74" t="inlineStr">
+        <is>
+          <t>7523</t>
+        </is>
+      </c>
+      <c r="D2" s="75" t="n"/>
+      <c r="H2" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I2" s="67" t="n"/>
+      <c r="K2" s="77" t="n"/>
+      <c r="M2" s="78" t="n"/>
+      <c r="N2" s="67" t="n"/>
+      <c r="O2" s="67" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="68">
+      <c r="A3" s="79" t="n"/>
+      <c r="D3" s="75" t="n"/>
+      <c r="E3" s="80" t="inlineStr">
+        <is>
+          <t>SAMPLES DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F3" s="81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G3" s="67" t="n"/>
+      <c r="H3" s="82" t="n"/>
+      <c r="I3" s="83" t="n"/>
+      <c r="J3" s="83" t="n"/>
+      <c r="K3" s="83" t="n"/>
+      <c r="L3" s="84" t="n"/>
+      <c r="M3" s="83" t="n"/>
+      <c r="N3" s="83" t="n"/>
+      <c r="O3" s="67" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" s="68">
+      <c r="A4" s="85" t="n"/>
+      <c r="B4" s="86" t="n"/>
+      <c r="C4" s="86" t="n"/>
+      <c r="D4" s="87" t="n"/>
+      <c r="E4" s="80" t="inlineStr">
+        <is>
+          <t>TOILET DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F4" s="88" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G4" s="67" t="n"/>
+      <c r="H4" s="89" t="n"/>
+      <c r="O4" s="67" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" s="68">
+      <c r="A5" s="90" t="inlineStr">
+        <is>
+          <t>FRA DEAD DATE:</t>
+        </is>
+      </c>
+      <c r="B5" s="91" t="n"/>
+      <c r="C5" s="92" t="inlineStr">
+        <is>
+          <t>07-21-2020</t>
+        </is>
+      </c>
+      <c r="D5" s="70" t="n"/>
+      <c r="E5" s="80" t="inlineStr">
+        <is>
+          <t>LUBE DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F5" s="88" t="n"/>
+      <c r="G5" s="67" t="n"/>
+      <c r="H5" s="89" t="n"/>
+      <c r="O5" s="67" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" s="68">
+      <c r="A6" s="80" t="inlineStr">
+        <is>
+          <t>MI DUE (month):</t>
+        </is>
+      </c>
+      <c r="C6" s="93" t="n"/>
+      <c r="D6" s="94" t="n"/>
+      <c r="E6" s="80" t="inlineStr">
+        <is>
+          <t>C/S DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F6" s="88" t="n"/>
+      <c r="H6" s="95" t="n"/>
+      <c r="K6" s="83" t="n"/>
+      <c r="L6" s="83" t="n"/>
+      <c r="M6" s="96" t="n"/>
+      <c r="N6" s="96" t="n"/>
+      <c r="O6" s="67" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" s="68">
+      <c r="A7" s="80" t="inlineStr">
+        <is>
+          <t>EPA DUE (year, M):</t>
+        </is>
+      </c>
+      <c r="C7" s="93" t="n"/>
+      <c r="D7" s="94" t="n"/>
+      <c r="E7" s="80" t="inlineStr">
+        <is>
+          <t>AF DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F7" s="88" t="n"/>
+      <c r="H7" s="95" t="n"/>
+      <c r="I7" s="84" t="n"/>
+      <c r="K7" s="83" t="n"/>
+      <c r="L7" s="83" t="n"/>
+      <c r="M7" s="96" t="n"/>
+      <c r="N7" s="96" t="n"/>
+      <c r="O7" s="67" t="n"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" s="68">
+      <c r="A8" s="83" t="n"/>
+      <c r="B8" s="97" t="inlineStr">
+        <is>
+          <t>INBOUND TASKS (ADD WORKSHEET TASKS AS NEEDED)</t>
+        </is>
+      </c>
+      <c r="C8" s="98" t="n"/>
+      <c r="D8" s="98" t="n"/>
+      <c r="E8" s="67" t="n"/>
+      <c r="F8" s="67" t="n"/>
+      <c r="G8" s="67" t="n"/>
+      <c r="H8" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="J8" s="99" t="n"/>
+      <c r="K8" s="67" t="n"/>
+      <c r="L8" s="67" t="n"/>
+      <c r="M8" s="67" t="n"/>
+      <c r="N8" s="67" t="n"/>
+      <c r="O8" s="67" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" s="68">
+      <c r="A9" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="101" t="inlineStr">
+        <is>
+          <t>Check for and remove all non-compliance tags.  Note defects on ELF 023.</t>
+        </is>
+      </c>
+      <c r="C9" s="94" t="n"/>
+      <c r="D9" s="94" t="n"/>
+      <c r="E9" s="94" t="n"/>
+      <c r="F9" s="94" t="n"/>
+      <c r="G9" s="102" t="n"/>
+      <c r="H9" s="103" t="n"/>
+      <c r="J9" s="99" t="n"/>
+      <c r="K9" s="67" t="n"/>
+      <c r="L9" s="67" t="n"/>
+      <c r="M9" s="67" t="n"/>
+      <c r="N9" s="67" t="n"/>
+      <c r="O9" s="67" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" s="68">
+      <c r="A10" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="101" t="inlineStr">
+        <is>
+          <t>Download/Review Locomotive Fault log.  Add worksheet tasks as needed.</t>
+        </is>
+      </c>
+      <c r="C10" s="94" t="n"/>
+      <c r="D10" s="94" t="n"/>
+      <c r="E10" s="94" t="n"/>
+      <c r="F10" s="94" t="n"/>
+      <c r="G10" s="102" t="n"/>
+      <c r="H10" s="103" t="n"/>
+    </row>
+    <row r="11" ht="26.25" customHeight="1" s="68">
+      <c r="A11" s="100" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="104" t="inlineStr">
+        <is>
+          <t>Wait 15 minutes after download/sync for current info to display, then print chronology and SFA.  Attach printout to work packet.</t>
+        </is>
+      </c>
+      <c r="C11" s="94" t="n"/>
+      <c r="D11" s="94" t="n"/>
+      <c r="E11" s="94" t="n"/>
+      <c r="F11" s="94" t="n"/>
+      <c r="G11" s="102" t="n"/>
+      <c r="H11" s="105" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="68">
+      <c r="A12" s="100" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="101" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Electrical Inspections.</t>
+        </is>
+      </c>
+      <c r="C12" s="94" t="n"/>
+      <c r="D12" s="94" t="n"/>
+      <c r="E12" s="94" t="n"/>
+      <c r="F12" s="94" t="n"/>
+      <c r="G12" s="102" t="n"/>
+      <c r="H12" s="105" t="n"/>
+      <c r="K12" s="67" t="n"/>
+      <c r="L12" s="67" t="n"/>
+      <c r="M12" s="67" t="n"/>
+      <c r="N12" s="67" t="n"/>
+      <c r="O12" s="67" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" s="68">
+      <c r="A13" s="106" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="107" t="inlineStr">
+        <is>
+          <t>Perform PTC Departure test.</t>
+        </is>
+      </c>
+      <c r="C13" s="94" t="n"/>
+      <c r="D13" s="94" t="n"/>
+      <c r="E13" s="94" t="n"/>
+      <c r="F13" s="108" t="inlineStr">
+        <is>
+          <t>Pass / Fail</t>
+        </is>
+      </c>
+      <c r="G13" s="102" t="n"/>
+      <c r="H13" s="109" t="n"/>
+      <c r="Q13" s="67" t="n"/>
+      <c r="R13" s="67" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" s="68">
+      <c r="A14" s="110" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="111" t="inlineStr">
+        <is>
+          <t>Check PTCMon for PTC/EM Health.</t>
+        </is>
+      </c>
+      <c r="C14" s="112" t="n"/>
+      <c r="D14" s="112" t="n"/>
+      <c r="E14" s="113" t="inlineStr">
+        <is>
+          <t>PTC_____________   EM_______________</t>
+        </is>
+      </c>
+      <c r="F14" s="112" t="n"/>
+      <c r="G14" s="114" t="n"/>
+      <c r="H14" s="115" t="n"/>
+      <c r="K14" s="84" t="n"/>
+      <c r="Q14" s="67" t="n"/>
+      <c r="R14" s="67" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" s="68">
+      <c r="A15" s="116" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="117" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Mechanical Inspections.</t>
+        </is>
+      </c>
+      <c r="C15" s="118" t="n"/>
+      <c r="D15" s="118" t="n"/>
+      <c r="E15" s="118" t="n"/>
+      <c r="F15" s="118" t="n"/>
+      <c r="G15" s="119" t="n"/>
+      <c r="H15" s="120" t="n"/>
+      <c r="K15" s="84" t="n"/>
+      <c r="Q15" s="67" t="n"/>
+      <c r="R15" s="67" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" s="68">
+      <c r="A16" s="100" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="101" t="inlineStr">
+        <is>
+          <t>Add fluids as needed.</t>
+        </is>
+      </c>
+      <c r="C16" s="94" t="n"/>
+      <c r="D16" s="94" t="n"/>
+      <c r="E16" s="94" t="n"/>
+      <c r="F16" s="94" t="n"/>
+      <c r="G16" s="102" t="n"/>
+      <c r="H16" s="121" t="n"/>
+      <c r="Q16" s="67" t="n"/>
+      <c r="R16" s="67" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" s="68">
+      <c r="A17" s="110" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="122" t="inlineStr">
+        <is>
+          <t>Renew defective brake shoes and adjust piston travel as needed.</t>
+        </is>
+      </c>
+      <c r="C17" s="112" t="n"/>
+      <c r="D17" s="112" t="n"/>
+      <c r="E17" s="112" t="n"/>
+      <c r="F17" s="112" t="n"/>
+      <c r="G17" s="114" t="n"/>
+      <c r="H17" s="115" t="n"/>
+      <c r="I17" s="67" t="n"/>
+      <c r="K17" s="67" t="n"/>
+      <c r="L17" s="67" t="n"/>
+      <c r="M17" s="67" t="n"/>
+      <c r="N17" s="67" t="n"/>
+      <c r="O17" s="67" t="n"/>
+      <c r="Q17" s="67" t="n"/>
+      <c r="R17" s="67" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" s="68">
+      <c r="A18" s="116" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="117" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Fireman &amp; Oiler Inspections.</t>
+        </is>
+      </c>
+      <c r="C18" s="118" t="n"/>
+      <c r="D18" s="118" t="n"/>
+      <c r="E18" s="118" t="n"/>
+      <c r="F18" s="118" t="n"/>
+      <c r="G18" s="119" t="n"/>
+      <c r="H18" s="120" t="n"/>
+      <c r="I18" s="67" t="n"/>
+      <c r="K18" s="67" t="n"/>
+      <c r="L18" s="67" t="n"/>
+      <c r="M18" s="67" t="n"/>
+      <c r="N18" s="67" t="n"/>
+      <c r="O18" s="67" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" s="68">
+      <c r="A19" s="100" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" s="117" t="inlineStr">
+        <is>
+          <t>Fuel Locomotive as needed.                         Gallons added _________________</t>
+        </is>
+      </c>
+      <c r="C19" s="118" t="n"/>
+      <c r="D19" s="118" t="n"/>
+      <c r="E19" s="118" t="n"/>
+      <c r="F19" s="118" t="n"/>
+      <c r="G19" s="119" t="n"/>
+      <c r="H19" s="121" t="n"/>
+      <c r="I19" s="67" t="n"/>
+      <c r="K19" s="67" t="n"/>
+      <c r="L19" s="67" t="n"/>
+      <c r="M19" s="67" t="n"/>
+      <c r="N19" s="67" t="n"/>
+      <c r="O19" s="67" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" s="68">
+      <c r="A20" s="100" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" s="104" t="inlineStr">
+        <is>
+          <t>Add Sand to locomotive sandboxes as needed.</t>
+        </is>
+      </c>
+      <c r="C20" s="94" t="n"/>
+      <c r="D20" s="94" t="n"/>
+      <c r="E20" s="94" t="n"/>
+      <c r="F20" s="94" t="n"/>
+      <c r="G20" s="102" t="n"/>
+      <c r="H20" s="121" t="n"/>
+      <c r="I20" s="67" t="n"/>
+      <c r="K20" s="67" t="n"/>
+      <c r="L20" s="67" t="n"/>
+      <c r="M20" s="67" t="n"/>
+      <c r="N20" s="67" t="n"/>
+      <c r="O20" s="67" t="n"/>
+    </row>
+    <row r="21" ht="26.25" customHeight="1" s="68">
+      <c r="A21" s="100" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" s="104" t="inlineStr">
+        <is>
+          <t>Remove trash and hazardous debris from running boards, cab &amp; toilet room.</t>
+        </is>
+      </c>
+      <c r="C21" s="94" t="n"/>
+      <c r="D21" s="94" t="n"/>
+      <c r="E21" s="94" t="n"/>
+      <c r="F21" s="94" t="n"/>
+      <c r="G21" s="102" t="n"/>
+      <c r="H21" s="121" t="n"/>
+      <c r="I21" s="67" t="n"/>
+      <c r="K21" s="67" t="n"/>
+      <c r="L21" s="67" t="n"/>
+      <c r="M21" s="67" t="n"/>
+      <c r="N21" s="67" t="n"/>
+      <c r="O21" s="67" t="n"/>
+    </row>
+    <row r="22" ht="19.5" customHeight="1" s="68">
+      <c r="B22" s="123" t="inlineStr">
+        <is>
+          <t>WORK ORDERS / DEFECTS</t>
+        </is>
+      </c>
+      <c r="C22" s="94" t="n"/>
+      <c r="D22" s="94" t="n"/>
+      <c r="E22" s="124" t="inlineStr">
+        <is>
+          <t>REPAIRS / MATERIAL</t>
+        </is>
+      </c>
+      <c r="F22" s="94" t="n"/>
+      <c r="G22" s="94" t="n"/>
+      <c r="H22" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I22" s="67" t="n"/>
+      <c r="J22" s="125" t="n"/>
+      <c r="L22" s="67" t="n"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1" s="68">
+      <c r="A23" s="126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="127" t="inlineStr">
+        <is>
+          <t>ENGINE</t>
+        </is>
+      </c>
+      <c r="C23" s="128" t="n"/>
+      <c r="D23" s="129" t="n"/>
+      <c r="E23" s="121" t="n"/>
+      <c r="F23" s="128" t="n"/>
+      <c r="G23" s="129" t="n"/>
+      <c r="H23" s="121" t="n"/>
+      <c r="I23" s="67" t="n"/>
+      <c r="J23" s="67" t="n"/>
+      <c r="K23" s="67" t="n"/>
+      <c r="L23" s="67" t="n"/>
+    </row>
+    <row r="24" ht="19.5" customHeight="1" s="68">
+      <c r="A24" s="130" t="n"/>
+      <c r="B24" s="131" t="inlineStr">
+        <is>
+          <t>Hot preturbine temp</t>
+        </is>
+      </c>
+      <c r="D24" s="132" t="n"/>
+      <c r="E24" s="133" t="n"/>
+      <c r="G24" s="132" t="n"/>
+      <c r="H24" s="130" t="n"/>
+    </row>
+    <row r="25" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A25" s="134" t="n"/>
+      <c r="B25" s="135" t="n"/>
+      <c r="C25" s="118" t="n"/>
+      <c r="D25" s="119" t="n"/>
+      <c r="E25" s="135" t="n"/>
+      <c r="F25" s="118" t="n"/>
+      <c r="G25" s="119" t="n"/>
+      <c r="H25" s="134" t="n"/>
+    </row>
+    <row r="26" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A26" s="136" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="127" t="n"/>
+      <c r="C26" s="128" t="n"/>
+      <c r="D26" s="129" t="n"/>
+      <c r="E26" s="137" t="n"/>
+      <c r="F26" s="128" t="n"/>
+      <c r="G26" s="129" t="n"/>
+      <c r="H26" s="137" t="n"/>
+    </row>
+    <row r="27" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A27" s="133" t="n"/>
+      <c r="B27" s="131" t="n"/>
+      <c r="D27" s="132" t="n"/>
+      <c r="E27" s="133" t="n"/>
+      <c r="G27" s="132" t="n"/>
+      <c r="H27" s="130" t="n"/>
+    </row>
+    <row r="28" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A28" s="135" t="n"/>
+      <c r="B28" s="135" t="n"/>
+      <c r="C28" s="118" t="n"/>
+      <c r="D28" s="119" t="n"/>
+      <c r="E28" s="135" t="n"/>
+      <c r="F28" s="118" t="n"/>
+      <c r="G28" s="119" t="n"/>
+      <c r="H28" s="134" t="n"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1" s="68">
+      <c r="A29" s="136" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="127" t="n"/>
+      <c r="C29" s="128" t="n"/>
+      <c r="D29" s="129" t="n"/>
+      <c r="E29" s="121" t="n"/>
+      <c r="F29" s="128" t="n"/>
+      <c r="G29" s="129" t="n"/>
+      <c r="H29" s="121" t="n"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1" s="68">
+      <c r="A30" s="133" t="n"/>
+      <c r="B30" s="131" t="n"/>
+      <c r="D30" s="132" t="n"/>
+      <c r="E30" s="133" t="n"/>
+      <c r="G30" s="132" t="n"/>
+      <c r="H30" s="130" t="n"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" s="68">
+      <c r="A31" s="135" t="n"/>
+      <c r="B31" s="135" t="n"/>
+      <c r="C31" s="118" t="n"/>
+      <c r="D31" s="119" t="n"/>
+      <c r="E31" s="135" t="n"/>
+      <c r="F31" s="118" t="n"/>
+      <c r="G31" s="119" t="n"/>
+      <c r="H31" s="134" t="n"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1" s="68">
+      <c r="A32" s="136" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="127" t="n"/>
+      <c r="C32" s="128" t="n"/>
+      <c r="D32" s="129" t="n"/>
+      <c r="E32" s="121" t="n"/>
+      <c r="F32" s="128" t="n"/>
+      <c r="G32" s="129" t="n"/>
+      <c r="H32" s="121" t="n"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1" s="68">
+      <c r="A33" s="133" t="n"/>
+      <c r="B33" s="131" t="n"/>
+      <c r="D33" s="132" t="n"/>
+      <c r="E33" s="133" t="n"/>
+      <c r="G33" s="132" t="n"/>
+      <c r="H33" s="130" t="n"/>
+    </row>
+    <row r="34" ht="18.75" customHeight="1" s="68">
+      <c r="A34" s="135" t="n"/>
+      <c r="B34" s="135" t="n"/>
+      <c r="C34" s="118" t="n"/>
+      <c r="D34" s="119" t="n"/>
+      <c r="E34" s="135" t="n"/>
+      <c r="F34" s="118" t="n"/>
+      <c r="G34" s="119" t="n"/>
+      <c r="H34" s="134" t="n"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1" s="68">
+      <c r="A35" s="138" t="n"/>
+      <c r="B35" s="139" t="n"/>
+      <c r="C35" s="139" t="n"/>
+      <c r="D35" s="139" t="n"/>
+      <c r="E35" s="140" t="n"/>
+      <c r="F35" s="140" t="n"/>
+      <c r="G35" s="140" t="n"/>
+      <c r="H35" s="140" t="n"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1" s="68">
+      <c r="A36" s="138" t="n"/>
+      <c r="B36" s="141" t="n"/>
+      <c r="C36" s="141" t="n"/>
+      <c r="D36" s="141" t="n"/>
+      <c r="E36" s="140" t="n"/>
+      <c r="F36" s="140" t="n"/>
+      <c r="G36" s="140" t="n"/>
+      <c r="H36" s="140" t="n"/>
+    </row>
+    <row r="37" ht="18.75" customHeight="1" s="68">
+      <c r="B37" s="142" t="inlineStr">
+        <is>
+          <t>WORK ORDERS / DEFECTS</t>
+        </is>
+      </c>
+      <c r="E37" s="76" t="inlineStr">
+        <is>
+          <t>REPAIRS / MATERIAL</t>
+        </is>
+      </c>
+      <c r="G37" s="67" t="n"/>
+      <c r="H37" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I37" s="67" t="n"/>
+      <c r="J37" s="125" t="n"/>
+      <c r="L37" s="67" t="n"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1" s="68">
+      <c r="A38" s="143" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="127" t="n"/>
+      <c r="C38" s="128" t="n"/>
+      <c r="D38" s="129" t="n"/>
+      <c r="E38" s="121" t="n"/>
+      <c r="F38" s="128" t="n"/>
+      <c r="G38" s="129" t="n"/>
+      <c r="H38" s="121" t="n"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1" s="68">
+      <c r="A39" s="130" t="n"/>
+      <c r="B39" s="131" t="n"/>
+      <c r="D39" s="132" t="n"/>
+      <c r="E39" s="133" t="n"/>
+      <c r="G39" s="132" t="n"/>
+      <c r="H39" s="130" t="n"/>
+    </row>
+    <row r="40" ht="18.75" customHeight="1" s="68">
+      <c r="A40" s="134" t="n"/>
+      <c r="B40" s="135" t="n"/>
+      <c r="C40" s="118" t="n"/>
+      <c r="D40" s="119" t="n"/>
+      <c r="E40" s="135" t="n"/>
+      <c r="F40" s="118" t="n"/>
+      <c r="G40" s="119" t="n"/>
+      <c r="H40" s="134" t="n"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1" s="68">
+      <c r="A41" s="143" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" s="127" t="n"/>
+      <c r="C41" s="128" t="n"/>
+      <c r="D41" s="129" t="n"/>
+      <c r="E41" s="121" t="n"/>
+      <c r="F41" s="128" t="n"/>
+      <c r="G41" s="129" t="n"/>
+      <c r="H41" s="121" t="n"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1" s="68">
+      <c r="A42" s="130" t="n"/>
+      <c r="B42" s="131" t="n"/>
+      <c r="D42" s="132" t="n"/>
+      <c r="E42" s="133" t="n"/>
+      <c r="G42" s="132" t="n"/>
+      <c r="H42" s="130" t="n"/>
+    </row>
+    <row r="43" ht="18.75" customHeight="1" s="68">
+      <c r="A43" s="134" t="n"/>
+      <c r="B43" s="135" t="n"/>
+      <c r="C43" s="118" t="n"/>
+      <c r="D43" s="119" t="n"/>
+      <c r="E43" s="135" t="n"/>
+      <c r="F43" s="118" t="n"/>
+      <c r="G43" s="119" t="n"/>
+      <c r="H43" s="134" t="n"/>
+    </row>
+    <row r="44" ht="18.75" customHeight="1" s="68">
+      <c r="A44" s="136" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" s="127" t="n"/>
+      <c r="C44" s="128" t="n"/>
+      <c r="D44" s="129" t="n"/>
+      <c r="E44" s="121" t="n"/>
+      <c r="F44" s="128" t="n"/>
+      <c r="G44" s="129" t="n"/>
+      <c r="H44" s="121" t="n"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1" s="68">
+      <c r="A45" s="133" t="n"/>
+      <c r="B45" s="131" t="n"/>
+      <c r="D45" s="132" t="n"/>
+      <c r="E45" s="133" t="n"/>
+      <c r="G45" s="132" t="n"/>
+      <c r="H45" s="130" t="n"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1" s="68">
+      <c r="A46" s="135" t="n"/>
+      <c r="B46" s="135" t="n"/>
+      <c r="C46" s="118" t="n"/>
+      <c r="D46" s="119" t="n"/>
+      <c r="E46" s="135" t="n"/>
+      <c r="F46" s="118" t="n"/>
+      <c r="G46" s="119" t="n"/>
+      <c r="H46" s="134" t="n"/>
+    </row>
+    <row r="47" ht="18.75" customHeight="1" s="68">
+      <c r="A47" s="136" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" s="127" t="n"/>
+      <c r="C47" s="128" t="n"/>
+      <c r="D47" s="129" t="n"/>
+      <c r="E47" s="121" t="n"/>
+      <c r="F47" s="128" t="n"/>
+      <c r="G47" s="129" t="n"/>
+      <c r="H47" s="121" t="n"/>
+    </row>
+    <row r="48" ht="18.75" customHeight="1" s="68">
+      <c r="A48" s="133" t="n"/>
+      <c r="B48" s="131" t="n"/>
+      <c r="D48" s="132" t="n"/>
+      <c r="E48" s="133" t="n"/>
+      <c r="G48" s="132" t="n"/>
+      <c r="H48" s="130" t="n"/>
+    </row>
+    <row r="49" ht="18.75" customHeight="1" s="68">
+      <c r="A49" s="135" t="n"/>
+      <c r="B49" s="135" t="n"/>
+      <c r="C49" s="118" t="n"/>
+      <c r="D49" s="119" t="n"/>
+      <c r="E49" s="135" t="n"/>
+      <c r="F49" s="118" t="n"/>
+      <c r="G49" s="119" t="n"/>
+      <c r="H49" s="134" t="n"/>
+    </row>
+    <row r="50" ht="18.75" customHeight="1" s="68">
+      <c r="A50" s="144" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" s="127" t="n"/>
+      <c r="C50" s="128" t="n"/>
+      <c r="D50" s="129" t="n"/>
+      <c r="E50" s="121" t="n"/>
+      <c r="F50" s="128" t="n"/>
+      <c r="G50" s="129" t="n"/>
+      <c r="H50" s="121" t="n"/>
+    </row>
+    <row r="51" ht="18.75" customHeight="1" s="68">
+      <c r="A51" s="133" t="n"/>
+      <c r="B51" s="131" t="n"/>
+      <c r="D51" s="132" t="n"/>
+      <c r="E51" s="133" t="n"/>
+      <c r="G51" s="132" t="n"/>
+      <c r="H51" s="130" t="n"/>
+    </row>
+    <row r="52" ht="18.75" customHeight="1" s="68">
+      <c r="A52" s="133" t="n"/>
+      <c r="B52" s="135" t="n"/>
+      <c r="C52" s="118" t="n"/>
+      <c r="D52" s="119" t="n"/>
+      <c r="E52" s="135" t="n"/>
+      <c r="F52" s="118" t="n"/>
+      <c r="G52" s="119" t="n"/>
+      <c r="H52" s="134" t="n"/>
+    </row>
+    <row r="53" ht="18.75" customHeight="1" s="68">
+      <c r="A53" s="143" t="n">
+        <v>10</v>
+      </c>
+      <c r="B53" s="127" t="n"/>
+      <c r="C53" s="128" t="n"/>
+      <c r="D53" s="129" t="n"/>
+      <c r="E53" s="121" t="n"/>
+      <c r="F53" s="128" t="n"/>
+      <c r="G53" s="129" t="n"/>
+      <c r="H53" s="121" t="n"/>
+    </row>
+    <row r="54" ht="18.75" customHeight="1" s="68">
+      <c r="A54" s="130" t="n"/>
+      <c r="B54" s="131" t="n"/>
+      <c r="D54" s="132" t="n"/>
+      <c r="E54" s="133" t="n"/>
+      <c r="G54" s="132" t="n"/>
+      <c r="H54" s="130" t="n"/>
+    </row>
+    <row r="55" ht="18.75" customHeight="1" s="68">
+      <c r="A55" s="134" t="n"/>
+      <c r="B55" s="135" t="n"/>
+      <c r="C55" s="118" t="n"/>
+      <c r="D55" s="119" t="n"/>
+      <c r="E55" s="135" t="n"/>
+      <c r="F55" s="118" t="n"/>
+      <c r="G55" s="119" t="n"/>
+      <c r="H55" s="134" t="n"/>
+    </row>
+    <row r="56" ht="18.75" customHeight="1" s="68">
+      <c r="A56" s="143" t="n">
+        <v>11</v>
+      </c>
+      <c r="B56" s="127" t="n"/>
+      <c r="C56" s="128" t="n"/>
+      <c r="D56" s="129" t="n"/>
+      <c r="E56" s="121" t="n"/>
+      <c r="F56" s="128" t="n"/>
+      <c r="G56" s="129" t="n"/>
+      <c r="H56" s="121" t="n"/>
+    </row>
+    <row r="57" ht="18.75" customHeight="1" s="68">
+      <c r="A57" s="130" t="n"/>
+      <c r="B57" s="131" t="n"/>
+      <c r="D57" s="132" t="n"/>
+      <c r="E57" s="133" t="n"/>
+      <c r="G57" s="132" t="n"/>
+      <c r="H57" s="130" t="n"/>
+    </row>
+    <row r="58" ht="18.75" customHeight="1" s="68">
+      <c r="A58" s="134" t="n"/>
+      <c r="B58" s="135" t="n"/>
+      <c r="C58" s="118" t="n"/>
+      <c r="D58" s="119" t="n"/>
+      <c r="E58" s="135" t="n"/>
+      <c r="F58" s="118" t="n"/>
+      <c r="G58" s="119" t="n"/>
+      <c r="H58" s="134" t="n"/>
+    </row>
+    <row r="59" ht="18.75" customHeight="1" s="68">
+      <c r="A59" s="143" t="n">
+        <v>12</v>
+      </c>
+      <c r="B59" s="127" t="n"/>
+      <c r="C59" s="128" t="n"/>
+      <c r="D59" s="129" t="n"/>
+      <c r="E59" s="121" t="n"/>
+      <c r="F59" s="128" t="n"/>
+      <c r="G59" s="129" t="n"/>
+      <c r="H59" s="121" t="n"/>
+    </row>
+    <row r="60" ht="18.75" customHeight="1" s="68">
+      <c r="A60" s="130" t="n"/>
+      <c r="B60" s="131" t="n"/>
+      <c r="D60" s="132" t="n"/>
+      <c r="E60" s="133" t="n"/>
+      <c r="G60" s="132" t="n"/>
+      <c r="H60" s="130" t="n"/>
+    </row>
+    <row r="61" ht="18.75" customHeight="1" s="68">
+      <c r="A61" s="134" t="n"/>
+      <c r="B61" s="135" t="n"/>
+      <c r="C61" s="118" t="n"/>
+      <c r="D61" s="119" t="n"/>
+      <c r="E61" s="135" t="n"/>
+      <c r="F61" s="118" t="n"/>
+      <c r="G61" s="119" t="n"/>
+      <c r="H61" s="134" t="n"/>
+    </row>
+    <row r="62" ht="18.75" customHeight="1" s="68">
+      <c r="A62" s="143" t="n">
+        <v>13</v>
+      </c>
+      <c r="B62" s="127" t="n"/>
+      <c r="C62" s="128" t="n"/>
+      <c r="D62" s="129" t="n"/>
+      <c r="E62" s="121" t="n"/>
+      <c r="F62" s="128" t="n"/>
+      <c r="G62" s="129" t="n"/>
+      <c r="H62" s="121" t="n"/>
+    </row>
+    <row r="63" ht="18.75" customHeight="1" s="68">
+      <c r="A63" s="130" t="n"/>
+      <c r="B63" s="131" t="n"/>
+      <c r="D63" s="132" t="n"/>
+      <c r="E63" s="133" t="n"/>
+      <c r="G63" s="132" t="n"/>
+      <c r="H63" s="130" t="n"/>
+    </row>
+    <row r="64" ht="18.75" customHeight="1" s="68">
+      <c r="A64" s="134" t="n"/>
+      <c r="B64" s="135" t="n"/>
+      <c r="C64" s="118" t="n"/>
+      <c r="D64" s="119" t="n"/>
+      <c r="E64" s="135" t="n"/>
+      <c r="F64" s="118" t="n"/>
+      <c r="G64" s="119" t="n"/>
+      <c r="H64" s="134" t="n"/>
+    </row>
+    <row r="65" ht="18.75" customHeight="1" s="68">
+      <c r="A65" s="143" t="n">
+        <v>14</v>
+      </c>
+      <c r="B65" s="127" t="n"/>
+      <c r="C65" s="128" t="n"/>
+      <c r="D65" s="129" t="n"/>
+      <c r="E65" s="121" t="n"/>
+      <c r="F65" s="128" t="n"/>
+      <c r="G65" s="129" t="n"/>
+      <c r="H65" s="121" t="n"/>
+    </row>
+    <row r="66" ht="18.75" customHeight="1" s="68">
+      <c r="A66" s="130" t="n"/>
+      <c r="B66" s="131" t="n"/>
+      <c r="D66" s="132" t="n"/>
+      <c r="E66" s="133" t="n"/>
+      <c r="G66" s="132" t="n"/>
+      <c r="H66" s="130" t="n"/>
+    </row>
+    <row r="67" ht="18.75" customHeight="1" s="68">
+      <c r="A67" s="134" t="n"/>
+      <c r="B67" s="135" t="n"/>
+      <c r="C67" s="118" t="n"/>
+      <c r="D67" s="119" t="n"/>
+      <c r="E67" s="135" t="n"/>
+      <c r="F67" s="118" t="n"/>
+      <c r="G67" s="119" t="n"/>
+      <c r="H67" s="134" t="n"/>
+    </row>
+    <row r="68" ht="18.75" customHeight="1" s="68">
+      <c r="A68" s="143" t="n">
+        <v>15</v>
+      </c>
+      <c r="B68" s="127" t="n"/>
+      <c r="C68" s="128" t="n"/>
+      <c r="D68" s="129" t="n"/>
+      <c r="E68" s="121" t="n"/>
+      <c r="F68" s="128" t="n"/>
+      <c r="G68" s="129" t="n"/>
+      <c r="H68" s="121" t="n"/>
+    </row>
+    <row r="69" ht="18.75" customHeight="1" s="68">
+      <c r="A69" s="130" t="n"/>
+      <c r="B69" s="131" t="n"/>
+      <c r="D69" s="132" t="n"/>
+      <c r="E69" s="133" t="n"/>
+      <c r="G69" s="132" t="n"/>
+      <c r="H69" s="130" t="n"/>
+    </row>
+    <row r="70" ht="18.75" customHeight="1" s="68">
+      <c r="A70" s="134" t="n"/>
+      <c r="B70" s="135" t="n"/>
+      <c r="C70" s="118" t="n"/>
+      <c r="D70" s="119" t="n"/>
+      <c r="E70" s="135" t="n"/>
+      <c r="F70" s="118" t="n"/>
+      <c r="G70" s="119" t="n"/>
+      <c r="H70" s="134" t="n"/>
+    </row>
+    <row r="71" ht="18.75" customHeight="1" s="68">
+      <c r="A71" s="143" t="n">
+        <v>16</v>
+      </c>
+      <c r="B71" s="127" t="n"/>
+      <c r="C71" s="128" t="n"/>
+      <c r="D71" s="129" t="n"/>
+      <c r="E71" s="121" t="n"/>
+      <c r="F71" s="128" t="n"/>
+      <c r="G71" s="129" t="n"/>
+      <c r="H71" s="121" t="n"/>
+    </row>
+    <row r="72" ht="18.75" customHeight="1" s="68">
+      <c r="A72" s="130" t="n"/>
+      <c r="B72" s="131" t="n"/>
+      <c r="D72" s="132" t="n"/>
+      <c r="E72" s="133" t="n"/>
+      <c r="G72" s="132" t="n"/>
+      <c r="H72" s="130" t="n"/>
+    </row>
+    <row r="73" ht="18.75" customHeight="1" s="68">
+      <c r="A73" s="134" t="n"/>
+      <c r="B73" s="135" t="n"/>
+      <c r="C73" s="118" t="n"/>
+      <c r="D73" s="119" t="n"/>
+      <c r="E73" s="135" t="n"/>
+      <c r="F73" s="118" t="n"/>
+      <c r="G73" s="119" t="n"/>
+      <c r="H73" s="134" t="n"/>
+    </row>
+    <row r="74" ht="18.75" customHeight="1" s="68">
+      <c r="A74" s="145" t="n"/>
+      <c r="B74" s="146" t="n"/>
+      <c r="C74" s="146" t="n"/>
+      <c r="D74" s="146" t="n"/>
+      <c r="E74" s="67" t="n"/>
+      <c r="F74" s="67" t="n"/>
+      <c r="G74" s="67" t="n"/>
+      <c r="H74" s="67" t="n"/>
+    </row>
+    <row r="75" ht="18.75" customHeight="1" s="68">
+      <c r="A75" s="145" t="n"/>
+      <c r="B75" s="147" t="n"/>
+      <c r="C75" s="147" t="n"/>
+      <c r="D75" s="147" t="n"/>
+      <c r="E75" s="67" t="n"/>
+      <c r="F75" s="67" t="n"/>
+      <c r="G75" s="67" t="n"/>
+      <c r="H75" s="67" t="n"/>
+    </row>
+    <row r="76" ht="18.75" customHeight="1" s="68">
+      <c r="A76" s="145" t="n"/>
+      <c r="B76" s="147" t="n"/>
+      <c r="C76" s="147" t="n"/>
+      <c r="D76" s="147" t="n"/>
+      <c r="E76" s="67" t="n"/>
+      <c r="F76" s="67" t="n"/>
+      <c r="G76" s="67" t="n"/>
+      <c r="H76" s="67" t="n"/>
+    </row>
+    <row r="77" ht="19.35" customHeight="1" s="68">
+      <c r="A77" s="145" t="n"/>
+      <c r="B77" s="138" t="n"/>
+      <c r="C77" s="140" t="n"/>
+      <c r="D77" s="67" t="n"/>
+      <c r="E77" s="67" t="n"/>
+      <c r="F77" s="140" t="n"/>
+      <c r="G77" s="67" t="n"/>
+    </row>
+    <row r="78" ht="19.35" customHeight="1" s="68">
+      <c r="A78" s="145" t="n"/>
+      <c r="B78" s="138" t="n"/>
+      <c r="C78" s="140" t="n"/>
+      <c r="D78" s="67" t="n"/>
+      <c r="E78" s="67" t="n"/>
+      <c r="F78" s="140" t="n"/>
+      <c r="G78" s="67" t="n"/>
+    </row>
+    <row r="79" ht="19.35" customHeight="1" s="68">
+      <c r="A79" s="145" t="n"/>
+      <c r="B79" s="138" t="n"/>
+      <c r="C79" s="140" t="n"/>
+      <c r="D79" s="67" t="n"/>
+      <c r="E79" s="67" t="n"/>
+      <c r="F79" s="140" t="n"/>
+      <c r="G79" s="67" t="n"/>
+    </row>
+    <row r="80" ht="19.35" customHeight="1" s="68">
+      <c r="A80" s="145" t="n"/>
+      <c r="B80" s="138" t="n"/>
+      <c r="C80" s="140" t="n"/>
+      <c r="D80" s="67" t="n"/>
+      <c r="E80" s="67" t="n"/>
+      <c r="F80" s="140" t="n"/>
+      <c r="G80" s="67" t="n"/>
+    </row>
+    <row r="81" ht="19.35" customHeight="1" s="68">
+      <c r="A81" s="145" t="n"/>
+      <c r="B81" s="138" t="n"/>
+      <c r="C81" s="140" t="n"/>
+      <c r="D81" s="67" t="n"/>
+      <c r="E81" s="67" t="n"/>
+      <c r="F81" s="140" t="n"/>
+      <c r="G81" s="67" t="n"/>
+    </row>
+    <row r="82" ht="19.35" customHeight="1" s="68">
+      <c r="A82" s="145" t="n"/>
+      <c r="B82" s="138" t="n"/>
+      <c r="C82" s="140" t="n"/>
+      <c r="D82" s="67" t="n"/>
+      <c r="E82" s="67" t="n"/>
+      <c r="F82" s="140" t="n"/>
+      <c r="G82" s="67" t="n"/>
+    </row>
+    <row r="83" ht="19.35" customHeight="1" s="68">
+      <c r="A83" s="145" t="n"/>
+      <c r="B83" s="138" t="n"/>
+      <c r="C83" s="140" t="n"/>
+      <c r="D83" s="67" t="n"/>
+      <c r="E83" s="67" t="n"/>
+      <c r="F83" s="140" t="n"/>
+      <c r="G83" s="67" t="n"/>
+    </row>
+    <row r="84" ht="18.75" customHeight="1" s="68">
+      <c r="A84" s="145" t="n"/>
+      <c r="B84" s="138" t="n"/>
+      <c r="C84" s="140" t="n"/>
+      <c r="D84" s="67" t="n"/>
+      <c r="E84" s="67" t="n"/>
+      <c r="F84" s="140" t="n"/>
+      <c r="G84" s="67" t="n"/>
+    </row>
+    <row r="85" ht="19.35" customHeight="1" s="68">
+      <c r="A85" s="145" t="n"/>
+      <c r="B85" s="138" t="n"/>
+      <c r="C85" s="140" t="n"/>
+      <c r="D85" s="67" t="n"/>
+      <c r="E85" s="67" t="n"/>
+      <c r="F85" s="140" t="n"/>
+      <c r="G85" s="67" t="n"/>
+    </row>
+    <row r="86" ht="19.35" customHeight="1" s="68">
+      <c r="A86" s="145" t="n"/>
+      <c r="B86" s="138" t="n"/>
+      <c r="C86" s="140" t="n"/>
+      <c r="D86" s="67" t="n"/>
+      <c r="E86" s="67" t="n"/>
+      <c r="F86" s="140" t="n"/>
+      <c r="G86" s="67" t="n"/>
+    </row>
+    <row r="87" ht="18.75" customHeight="1" s="68">
+      <c r="A87" s="145" t="n"/>
+      <c r="B87" s="138" t="n"/>
+      <c r="C87" s="140" t="n"/>
+      <c r="D87" s="67" t="n"/>
+      <c r="E87" s="67" t="n"/>
+      <c r="F87" s="140" t="n"/>
+      <c r="G87" s="67" t="n"/>
+    </row>
+    <row r="88" ht="18.75" customHeight="1" s="68">
+      <c r="A88" s="145" t="n"/>
+      <c r="B88" s="138" t="n"/>
+      <c r="C88" s="140" t="n"/>
+      <c r="D88" s="67" t="n"/>
+      <c r="E88" s="67" t="n"/>
+      <c r="F88" s="140" t="n"/>
+      <c r="G88" s="67" t="n"/>
+    </row>
+    <row r="89" ht="18.75" customHeight="1" s="68">
+      <c r="A89" s="145" t="n"/>
+      <c r="B89" s="138" t="n"/>
+      <c r="C89" s="140" t="n"/>
+      <c r="D89" s="67" t="n"/>
+      <c r="E89" s="67" t="n"/>
+      <c r="F89" s="140" t="n"/>
+      <c r="G89" s="67" t="n"/>
+    </row>
+    <row r="90" ht="15" customHeight="1" s="68">
+      <c r="A90" s="67" t="n"/>
+      <c r="B90" s="67" t="n"/>
+      <c r="C90" s="67" t="n"/>
+      <c r="D90" s="67" t="n"/>
+      <c r="E90" s="67" t="n"/>
+      <c r="F90" s="67" t="n"/>
+      <c r="G90" s="67" t="n"/>
+    </row>
+    <row r="91" ht="15" customHeight="1" s="68">
+      <c r="A91" s="67" t="n"/>
+      <c r="B91" s="67" t="n"/>
+      <c r="C91" s="67" t="n"/>
+      <c r="D91" s="67" t="n"/>
+      <c r="E91" s="67" t="n"/>
+      <c r="F91" s="67" t="n"/>
+      <c r="G91" s="67" t="n"/>
+    </row>
+    <row r="92" ht="15" customHeight="1" s="68">
+      <c r="A92" s="67" t="n"/>
+      <c r="B92" s="67" t="n"/>
+      <c r="C92" s="67" t="n"/>
+      <c r="D92" s="67" t="n"/>
+      <c r="E92" s="67" t="n"/>
+      <c r="F92" s="67" t="n"/>
+      <c r="G92" s="67" t="n"/>
+    </row>
+    <row r="93" ht="15" customHeight="1" s="68">
+      <c r="A93" s="67" t="n"/>
+      <c r="B93" s="67" t="n"/>
+      <c r="C93" s="67" t="n"/>
+      <c r="D93" s="67" t="n"/>
+      <c r="E93" s="67" t="n"/>
+      <c r="F93" s="67" t="n"/>
+      <c r="G93" s="67" t="n"/>
+    </row>
+    <row r="94" ht="15" customHeight="1" s="68">
+      <c r="A94" s="67" t="n"/>
+      <c r="B94" s="67" t="n"/>
+      <c r="C94" s="67" t="n"/>
+      <c r="D94" s="67" t="n"/>
+      <c r="E94" s="67" t="n"/>
+      <c r="F94" s="67" t="n"/>
+      <c r="G94" s="67" t="n"/>
+    </row>
+    <row r="95" ht="15" customHeight="1" s="68">
+      <c r="A95" s="67" t="n"/>
+      <c r="B95" s="67" t="n"/>
+      <c r="C95" s="67" t="n"/>
+      <c r="D95" s="67" t="n"/>
+      <c r="E95" s="67" t="n"/>
+      <c r="F95" s="67" t="n"/>
+      <c r="G95" s="67" t="n"/>
+    </row>
+    <row r="96" ht="15" customHeight="1" s="68">
+      <c r="A96" s="67" t="n"/>
+      <c r="B96" s="67" t="n"/>
+      <c r="C96" s="67" t="n"/>
+      <c r="D96" s="67" t="n"/>
+      <c r="E96" s="67" t="n"/>
+      <c r="F96" s="67" t="n"/>
+      <c r="G96" s="67" t="n"/>
+    </row>
+    <row r="97" ht="15" customHeight="1" s="68">
+      <c r="A97" s="67" t="n"/>
+      <c r="B97" s="67" t="n"/>
+      <c r="C97" s="67" t="n"/>
+      <c r="D97" s="67" t="n"/>
+      <c r="E97" s="67" t="n"/>
+      <c r="F97" s="67" t="n"/>
+      <c r="G97" s="67" t="n"/>
+    </row>
+    <row r="98" ht="15" customHeight="1" s="68">
+      <c r="A98" s="67" t="n"/>
+      <c r="B98" s="67" t="n"/>
+      <c r="C98" s="67" t="n"/>
+      <c r="D98" s="67" t="n"/>
+      <c r="E98" s="67" t="n"/>
+      <c r="F98" s="67" t="n"/>
+      <c r="G98" s="67" t="n"/>
+    </row>
+    <row r="99" ht="15" customHeight="1" s="68">
+      <c r="A99" s="67" t="n"/>
+      <c r="B99" s="67" t="n"/>
+      <c r="C99" s="67" t="n"/>
+      <c r="D99" s="67" t="n"/>
+      <c r="E99" s="67" t="n"/>
+      <c r="F99" s="67" t="n"/>
+      <c r="G99" s="67" t="n"/>
+    </row>
+    <row r="100" ht="15" customHeight="1" s="68">
+      <c r="A100" s="67" t="n"/>
+      <c r="B100" s="67" t="n"/>
+      <c r="C100" s="67" t="n"/>
+      <c r="D100" s="67" t="n"/>
+      <c r="E100" s="67" t="n"/>
+      <c r="F100" s="67" t="n"/>
+      <c r="G100" s="67" t="n"/>
+    </row>
+    <row r="101" ht="15" customHeight="1" s="68">
+      <c r="A101" s="67" t="n"/>
+      <c r="B101" s="67" t="n"/>
+      <c r="C101" s="67" t="n"/>
+      <c r="D101" s="67" t="n"/>
+      <c r="E101" s="67" t="n"/>
+      <c r="F101" s="67" t="n"/>
+      <c r="G101" s="67" t="n"/>
+    </row>
+    <row r="102" ht="15" customHeight="1" s="68">
+      <c r="A102" s="67" t="n"/>
+      <c r="B102" s="67" t="n"/>
+      <c r="C102" s="67" t="n"/>
+      <c r="D102" s="67" t="n"/>
+      <c r="E102" s="67" t="n"/>
+      <c r="F102" s="67" t="n"/>
+      <c r="G102" s="67" t="n"/>
+    </row>
+    <row r="103" ht="15" customHeight="1" s="68">
+      <c r="A103" s="67" t="n"/>
+      <c r="B103" s="67" t="n"/>
+      <c r="C103" s="67" t="n"/>
+      <c r="D103" s="67" t="n"/>
+      <c r="E103" s="67" t="n"/>
+      <c r="F103" s="67" t="n"/>
+      <c r="G103" s="67" t="n"/>
+    </row>
+    <row r="104" ht="15" customHeight="1" s="68">
+      <c r="A104" s="67" t="n"/>
+      <c r="B104" s="67" t="n"/>
+      <c r="C104" s="67" t="n"/>
+      <c r="D104" s="67" t="n"/>
+      <c r="E104" s="67" t="n"/>
+      <c r="F104" s="67" t="n"/>
+      <c r="G104" s="67" t="n"/>
+    </row>
+    <row r="105" ht="15" customHeight="1" s="68">
+      <c r="A105" s="67" t="n"/>
+      <c r="B105" s="67" t="n"/>
+      <c r="C105" s="67" t="n"/>
+      <c r="D105" s="67" t="n"/>
+      <c r="E105" s="67" t="n"/>
+      <c r="F105" s="67" t="n"/>
+      <c r="G105" s="67" t="n"/>
+    </row>
+    <row r="106" ht="15" customHeight="1" s="68">
+      <c r="A106" s="67" t="n"/>
+      <c r="B106" s="67" t="n"/>
+      <c r="C106" s="67" t="n"/>
+      <c r="D106" s="67" t="n"/>
+      <c r="E106" s="67" t="n"/>
+      <c r="F106" s="67" t="n"/>
+      <c r="G106" s="67" t="n"/>
+    </row>
+    <row r="107" ht="15" customHeight="1" s="68">
+      <c r="A107" s="67" t="n"/>
+      <c r="B107" s="67" t="n"/>
+      <c r="C107" s="67" t="n"/>
+      <c r="D107" s="67" t="n"/>
+      <c r="E107" s="67" t="n"/>
+      <c r="F107" s="67" t="n"/>
+      <c r="G107" s="67" t="n"/>
+    </row>
+    <row r="108" ht="15" customHeight="1" s="68">
+      <c r="A108" s="67" t="n"/>
+      <c r="B108" s="67" t="n"/>
+      <c r="C108" s="67" t="n"/>
+      <c r="D108" s="67" t="n"/>
+      <c r="E108" s="67" t="n"/>
+      <c r="F108" s="67" t="n"/>
+      <c r="G108" s="67" t="n"/>
+    </row>
+    <row r="109" ht="15" customHeight="1" s="68">
+      <c r="A109" s="67" t="n"/>
+      <c r="B109" s="67" t="n"/>
+      <c r="C109" s="67" t="n"/>
+      <c r="D109" s="67" t="n"/>
+      <c r="E109" s="67" t="n"/>
+      <c r="F109" s="67" t="n"/>
+      <c r="G109" s="67" t="n"/>
+    </row>
+    <row r="110" ht="15" customHeight="1" s="68">
+      <c r="A110" s="67" t="n"/>
+      <c r="B110" s="67" t="n"/>
+      <c r="C110" s="67" t="n"/>
+      <c r="D110" s="67" t="n"/>
+      <c r="E110" s="67" t="n"/>
+      <c r="F110" s="67" t="n"/>
+      <c r="G110" s="67" t="n"/>
+    </row>
+    <row r="111" ht="15" customHeight="1" s="68">
+      <c r="A111" s="67" t="n"/>
+      <c r="B111" s="67" t="n"/>
+      <c r="C111" s="67" t="n"/>
+      <c r="D111" s="67" t="n"/>
+      <c r="E111" s="67" t="n"/>
+      <c r="F111" s="67" t="n"/>
+      <c r="G111" s="67" t="n"/>
+    </row>
+    <row r="112" ht="15" customHeight="1" s="68">
+      <c r="A112" s="67" t="n"/>
+      <c r="B112" s="67" t="n"/>
+      <c r="C112" s="67" t="n"/>
+      <c r="D112" s="67" t="n"/>
+      <c r="E112" s="67" t="n"/>
+      <c r="F112" s="67" t="n"/>
+      <c r="G112" s="67" t="n"/>
+    </row>
+    <row r="113" ht="15" customHeight="1" s="68">
+      <c r="A113" s="67" t="n"/>
+      <c r="B113" s="67" t="n"/>
+      <c r="C113" s="67" t="n"/>
+      <c r="D113" s="67" t="n"/>
+      <c r="E113" s="67" t="n"/>
+      <c r="F113" s="67" t="n"/>
+      <c r="G113" s="67" t="n"/>
+    </row>
+    <row r="114" ht="15" customHeight="1" s="68">
+      <c r="A114" s="67" t="n"/>
+      <c r="B114" s="67" t="n"/>
+      <c r="C114" s="67" t="n"/>
+      <c r="D114" s="67" t="n"/>
+      <c r="E114" s="67" t="n"/>
+      <c r="F114" s="67" t="n"/>
+      <c r="G114" s="67" t="n"/>
+    </row>
+    <row r="115" ht="15" customHeight="1" s="68">
+      <c r="A115" s="67" t="n"/>
+      <c r="B115" s="67" t="n"/>
+      <c r="C115" s="67" t="n"/>
+      <c r="D115" s="67" t="n"/>
+      <c r="E115" s="67" t="n"/>
+      <c r="F115" s="67" t="n"/>
+      <c r="G115" s="67" t="n"/>
+    </row>
+    <row r="116" ht="15" customHeight="1" s="68">
+      <c r="A116" s="67" t="n"/>
+      <c r="B116" s="67" t="n"/>
+      <c r="C116" s="67" t="n"/>
+      <c r="D116" s="67" t="n"/>
+      <c r="E116" s="67" t="n"/>
+      <c r="F116" s="67" t="n"/>
+      <c r="G116" s="67" t="n"/>
+    </row>
+    <row r="117" ht="15" customHeight="1" s="68">
+      <c r="A117" s="67" t="n"/>
+      <c r="B117" s="67" t="n"/>
+      <c r="C117" s="67" t="n"/>
+      <c r="D117" s="67" t="n"/>
+      <c r="E117" s="67" t="n"/>
+      <c r="F117" s="67" t="n"/>
+      <c r="G117" s="67" t="n"/>
+    </row>
+    <row r="118" ht="15" customHeight="1" s="68">
+      <c r="A118" s="67" t="n"/>
+      <c r="B118" s="67" t="n"/>
+      <c r="C118" s="67" t="n"/>
+      <c r="D118" s="67" t="n"/>
+      <c r="E118" s="67" t="n"/>
+      <c r="F118" s="67" t="n"/>
+      <c r="G118" s="67" t="n"/>
+    </row>
+    <row r="119" ht="15" customHeight="1" s="68">
+      <c r="A119" s="67" t="n"/>
+      <c r="B119" s="67" t="n"/>
+      <c r="C119" s="67" t="n"/>
+      <c r="D119" s="67" t="n"/>
+      <c r="E119" s="67" t="n"/>
+      <c r="F119" s="67" t="n"/>
+      <c r="G119" s="67" t="n"/>
+    </row>
+    <row r="120" ht="15" customHeight="1" s="68">
+      <c r="A120" s="67" t="n"/>
+      <c r="B120" s="67" t="n"/>
+      <c r="C120" s="67" t="n"/>
+      <c r="D120" s="67" t="n"/>
+      <c r="E120" s="67" t="n"/>
+      <c r="F120" s="67" t="n"/>
+      <c r="G120" s="67" t="n"/>
+    </row>
+    <row r="121" ht="15" customHeight="1" s="68">
+      <c r="A121" s="67" t="n"/>
+      <c r="B121" s="67" t="n"/>
+      <c r="C121" s="67" t="n"/>
+      <c r="D121" s="67" t="n"/>
+      <c r="E121" s="67" t="n"/>
+      <c r="F121" s="67" t="n"/>
+      <c r="G121" s="67" t="n"/>
+    </row>
+    <row r="122" ht="15" customHeight="1" s="68">
+      <c r="A122" s="67" t="n"/>
+      <c r="B122" s="67" t="n"/>
+      <c r="C122" s="67" t="n"/>
+      <c r="D122" s="67" t="n"/>
+      <c r="E122" s="67" t="n"/>
+      <c r="F122" s="67" t="n"/>
+      <c r="G122" s="67" t="n"/>
+    </row>
+    <row r="123" ht="15" customHeight="1" s="68">
+      <c r="A123" s="67" t="n"/>
+      <c r="B123" s="67" t="n"/>
+      <c r="C123" s="67" t="n"/>
+      <c r="D123" s="67" t="n"/>
+      <c r="E123" s="67" t="n"/>
+      <c r="F123" s="67" t="n"/>
+      <c r="G123" s="67" t="n"/>
+    </row>
+    <row r="124" ht="15" customHeight="1" s="68">
+      <c r="A124" s="67" t="n"/>
+      <c r="B124" s="67" t="n"/>
+      <c r="C124" s="67" t="n"/>
+      <c r="D124" s="67" t="n"/>
+      <c r="E124" s="67" t="n"/>
+      <c r="F124" s="67" t="n"/>
+      <c r="G124" s="67" t="n"/>
+    </row>
+    <row r="125" ht="15" customHeight="1" s="68">
+      <c r="A125" s="67" t="n"/>
+      <c r="B125" s="67" t="n"/>
+      <c r="C125" s="67" t="n"/>
+      <c r="D125" s="67" t="n"/>
+      <c r="E125" s="67" t="n"/>
+      <c r="F125" s="67" t="n"/>
+      <c r="G125" s="67" t="n"/>
+    </row>
+    <row r="126" ht="15" customHeight="1" s="68">
+      <c r="A126" s="67" t="n"/>
+      <c r="B126" s="67" t="n"/>
+      <c r="C126" s="67" t="n"/>
+      <c r="D126" s="67" t="n"/>
+      <c r="E126" s="67" t="n"/>
+      <c r="F126" s="67" t="n"/>
+      <c r="G126" s="67" t="n"/>
+    </row>
+    <row r="127" ht="15" customHeight="1" s="68">
+      <c r="A127" s="67" t="n"/>
+      <c r="B127" s="67" t="n"/>
+      <c r="C127" s="67" t="n"/>
+      <c r="D127" s="67" t="n"/>
+      <c r="E127" s="67" t="n"/>
+      <c r="F127" s="67" t="n"/>
+      <c r="G127" s="67" t="n"/>
+    </row>
+    <row r="128" ht="15" customHeight="1" s="68">
+      <c r="A128" s="67" t="n"/>
+      <c r="B128" s="67" t="n"/>
+      <c r="C128" s="67" t="n"/>
+      <c r="D128" s="67" t="n"/>
+      <c r="E128" s="67" t="n"/>
+      <c r="F128" s="67" t="n"/>
+      <c r="G128" s="67" t="n"/>
+    </row>
+    <row r="129" ht="15" customHeight="1" s="68">
+      <c r="A129" s="67" t="n"/>
+      <c r="B129" s="67" t="n"/>
+      <c r="C129" s="67" t="n"/>
+      <c r="D129" s="67" t="n"/>
+      <c r="E129" s="67" t="n"/>
+      <c r="F129" s="67" t="n"/>
+      <c r="G129" s="67" t="n"/>
+    </row>
+    <row r="130" ht="15" customHeight="1" s="68">
+      <c r="A130" s="67" t="n"/>
+      <c r="B130" s="67" t="n"/>
+      <c r="C130" s="67" t="n"/>
+      <c r="D130" s="67" t="n"/>
+      <c r="E130" s="67" t="n"/>
+      <c r="F130" s="67" t="n"/>
+      <c r="G130" s="67" t="n"/>
+    </row>
+    <row r="131" ht="15" customHeight="1" s="68">
+      <c r="A131" s="67" t="n"/>
+      <c r="B131" s="67" t="n"/>
+      <c r="C131" s="67" t="n"/>
+      <c r="D131" s="67" t="n"/>
+      <c r="E131" s="67" t="n"/>
+      <c r="F131" s="67" t="n"/>
+      <c r="G131" s="67" t="n"/>
+    </row>
+    <row r="132" ht="15" customHeight="1" s="68">
+      <c r="A132" s="67" t="n"/>
+      <c r="B132" s="67" t="n"/>
+      <c r="C132" s="67" t="n"/>
+      <c r="D132" s="67" t="n"/>
+      <c r="E132" s="67" t="n"/>
+      <c r="F132" s="67" t="n"/>
+      <c r="G132" s="67" t="n"/>
+    </row>
+    <row r="133" ht="15" customHeight="1" s="68">
+      <c r="A133" s="67" t="n"/>
+      <c r="B133" s="67" t="n"/>
+      <c r="C133" s="67" t="n"/>
+      <c r="D133" s="67" t="n"/>
+      <c r="E133" s="67" t="n"/>
+      <c r="F133" s="67" t="n"/>
+      <c r="G133" s="67" t="n"/>
+    </row>
+    <row r="134" ht="15" customHeight="1" s="68">
+      <c r="A134" s="67" t="n"/>
+      <c r="B134" s="67" t="n"/>
+      <c r="C134" s="67" t="n"/>
+      <c r="D134" s="67" t="n"/>
+      <c r="E134" s="67" t="n"/>
+      <c r="F134" s="67" t="n"/>
+      <c r="G134" s="67" t="n"/>
+    </row>
+    <row r="135" ht="15" customHeight="1" s="68">
+      <c r="A135" s="67" t="n"/>
+      <c r="B135" s="67" t="n"/>
+      <c r="C135" s="67" t="n"/>
+      <c r="D135" s="67" t="n"/>
+      <c r="E135" s="67" t="n"/>
+      <c r="F135" s="67" t="n"/>
+      <c r="G135" s="67" t="n"/>
+    </row>
+    <row r="136" ht="15" customHeight="1" s="68">
+      <c r="A136" s="67" t="n"/>
+      <c r="B136" s="67" t="n"/>
+      <c r="C136" s="67" t="n"/>
+      <c r="D136" s="67" t="n"/>
+      <c r="E136" s="67" t="n"/>
+      <c r="F136" s="67" t="n"/>
+      <c r="G136" s="67" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="107">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="B54:D55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="B60:D61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="B66:D67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:G70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="B72:D73"/>
+  </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:R136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="2.85" customWidth="1" style="67" min="1" max="1"/>
+    <col width="13.14" customWidth="1" style="67" min="2" max="2"/>
+    <col width="7.71" customWidth="1" style="67" min="3" max="3"/>
+    <col width="8.289999999999999" customWidth="1" style="67" min="4" max="4"/>
+    <col width="19.71" customWidth="1" style="67" min="5" max="5"/>
+    <col width="13.57" customWidth="1" style="67" min="6" max="6"/>
+    <col width="1" customWidth="1" style="67" min="7" max="7"/>
+    <col width="28.42" customWidth="1" style="67" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" s="68">
+      <c r="A1" s="69" t="inlineStr">
+        <is>
+          <t>UNIT  NUMBER</t>
+        </is>
+      </c>
+      <c r="B1" s="70" t="n"/>
+      <c r="C1" s="70" t="n"/>
+      <c r="D1" s="71" t="n"/>
+      <c r="E1" s="72" t="inlineStr">
+        <is>
+          <t>DATE INSHOPPED:</t>
+        </is>
+      </c>
+      <c r="F1" s="73" t="inlineStr">
+        <is>
+          <t>02-26-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" s="68">
+      <c r="A2" s="74" t="inlineStr">
+        <is>
+          <t>9501</t>
+        </is>
+      </c>
+      <c r="D2" s="75" t="n"/>
+      <c r="H2" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I2" s="67" t="n"/>
+      <c r="K2" s="77" t="n"/>
+      <c r="M2" s="78" t="n"/>
+      <c r="N2" s="67" t="n"/>
+      <c r="O2" s="67" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="68">
+      <c r="A3" s="79" t="n"/>
+      <c r="D3" s="75" t="n"/>
+      <c r="E3" s="80" t="inlineStr">
+        <is>
+          <t>SAMPLES DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F3" s="81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G3" s="67" t="n"/>
+      <c r="H3" s="82" t="n"/>
+      <c r="I3" s="83" t="n"/>
+      <c r="J3" s="83" t="n"/>
+      <c r="K3" s="83" t="n"/>
+      <c r="L3" s="84" t="n"/>
+      <c r="M3" s="83" t="n"/>
+      <c r="N3" s="83" t="n"/>
+      <c r="O3" s="67" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" s="68">
+      <c r="A4" s="85" t="n"/>
+      <c r="B4" s="86" t="n"/>
+      <c r="C4" s="86" t="n"/>
+      <c r="D4" s="87" t="n"/>
+      <c r="E4" s="80" t="inlineStr">
+        <is>
+          <t>TOILET DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F4" s="88" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G4" s="67" t="n"/>
+      <c r="H4" s="89" t="n"/>
+      <c r="O4" s="67" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" s="68">
+      <c r="A5" s="90" t="inlineStr">
+        <is>
+          <t>FRA DEAD DATE:</t>
+        </is>
+      </c>
+      <c r="B5" s="91" t="n"/>
+      <c r="C5" s="92" t="inlineStr">
+        <is>
+          <t>04-28-2020</t>
+        </is>
+      </c>
+      <c r="D5" s="70" t="n"/>
+      <c r="E5" s="80" t="inlineStr">
+        <is>
+          <t>LUBE DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F5" s="88" t="n"/>
+      <c r="G5" s="67" t="n"/>
+      <c r="H5" s="89" t="n"/>
+      <c r="O5" s="67" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" s="68">
+      <c r="A6" s="80" t="inlineStr">
+        <is>
+          <t>MI DUE (month):</t>
+        </is>
+      </c>
+      <c r="C6" s="93" t="n"/>
+      <c r="D6" s="94" t="n"/>
+      <c r="E6" s="80" t="inlineStr">
+        <is>
+          <t>C/S DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F6" s="88" t="n"/>
+      <c r="H6" s="95" t="n"/>
+      <c r="K6" s="83" t="n"/>
+      <c r="L6" s="83" t="n"/>
+      <c r="M6" s="96" t="n"/>
+      <c r="N6" s="96" t="n"/>
+      <c r="O6" s="67" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" s="68">
+      <c r="A7" s="80" t="inlineStr">
+        <is>
+          <t>EPA DUE (year, M):</t>
+        </is>
+      </c>
+      <c r="C7" s="93" t="n"/>
+      <c r="D7" s="94" t="n"/>
+      <c r="E7" s="80" t="inlineStr">
+        <is>
+          <t>AF DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F7" s="88" t="n"/>
+      <c r="H7" s="95" t="n"/>
+      <c r="I7" s="84" t="n"/>
+      <c r="K7" s="83" t="n"/>
+      <c r="L7" s="83" t="n"/>
+      <c r="M7" s="96" t="n"/>
+      <c r="N7" s="96" t="n"/>
+      <c r="O7" s="67" t="n"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" s="68">
+      <c r="A8" s="83" t="n"/>
+      <c r="B8" s="97" t="inlineStr">
+        <is>
+          <t>INBOUND TASKS (ADD WORKSHEET TASKS AS NEEDED)</t>
+        </is>
+      </c>
+      <c r="C8" s="98" t="n"/>
+      <c r="D8" s="98" t="n"/>
+      <c r="E8" s="67" t="n"/>
+      <c r="F8" s="67" t="n"/>
+      <c r="G8" s="67" t="n"/>
+      <c r="H8" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="J8" s="99" t="n"/>
+      <c r="K8" s="67" t="n"/>
+      <c r="L8" s="67" t="n"/>
+      <c r="M8" s="67" t="n"/>
+      <c r="N8" s="67" t="n"/>
+      <c r="O8" s="67" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" s="68">
+      <c r="A9" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="101" t="inlineStr">
+        <is>
+          <t>Check for and remove all non-compliance tags.  Note defects on ELF 023.</t>
+        </is>
+      </c>
+      <c r="C9" s="94" t="n"/>
+      <c r="D9" s="94" t="n"/>
+      <c r="E9" s="94" t="n"/>
+      <c r="F9" s="94" t="n"/>
+      <c r="G9" s="102" t="n"/>
+      <c r="H9" s="103" t="n"/>
+      <c r="J9" s="99" t="n"/>
+      <c r="K9" s="67" t="n"/>
+      <c r="L9" s="67" t="n"/>
+      <c r="M9" s="67" t="n"/>
+      <c r="N9" s="67" t="n"/>
+      <c r="O9" s="67" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" s="68">
+      <c r="A10" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="101" t="inlineStr">
+        <is>
+          <t>Download/Review Locomotive Fault log.  Add worksheet tasks as needed.</t>
+        </is>
+      </c>
+      <c r="C10" s="94" t="n"/>
+      <c r="D10" s="94" t="n"/>
+      <c r="E10" s="94" t="n"/>
+      <c r="F10" s="94" t="n"/>
+      <c r="G10" s="102" t="n"/>
+      <c r="H10" s="103" t="n"/>
+    </row>
+    <row r="11" ht="26.25" customHeight="1" s="68">
+      <c r="A11" s="100" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="104" t="inlineStr">
+        <is>
+          <t>Wait 15 minutes after download/sync for current info to display, then print chronology and SFA.  Attach printout to work packet.</t>
+        </is>
+      </c>
+      <c r="C11" s="94" t="n"/>
+      <c r="D11" s="94" t="n"/>
+      <c r="E11" s="94" t="n"/>
+      <c r="F11" s="94" t="n"/>
+      <c r="G11" s="102" t="n"/>
+      <c r="H11" s="105" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="68">
+      <c r="A12" s="100" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="101" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Electrical Inspections.</t>
+        </is>
+      </c>
+      <c r="C12" s="94" t="n"/>
+      <c r="D12" s="94" t="n"/>
+      <c r="E12" s="94" t="n"/>
+      <c r="F12" s="94" t="n"/>
+      <c r="G12" s="102" t="n"/>
+      <c r="H12" s="105" t="n"/>
+      <c r="K12" s="67" t="n"/>
+      <c r="L12" s="67" t="n"/>
+      <c r="M12" s="67" t="n"/>
+      <c r="N12" s="67" t="n"/>
+      <c r="O12" s="67" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" s="68">
+      <c r="A13" s="106" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="107" t="inlineStr">
+        <is>
+          <t>Perform PTC Departure test.</t>
+        </is>
+      </c>
+      <c r="C13" s="94" t="n"/>
+      <c r="D13" s="94" t="n"/>
+      <c r="E13" s="94" t="n"/>
+      <c r="F13" s="108" t="inlineStr">
+        <is>
+          <t>Pass / Fail</t>
+        </is>
+      </c>
+      <c r="G13" s="102" t="n"/>
+      <c r="H13" s="109" t="n"/>
+      <c r="Q13" s="67" t="n"/>
+      <c r="R13" s="67" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" s="68">
+      <c r="A14" s="110" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="111" t="inlineStr">
+        <is>
+          <t>Check PTCMon for PTC/EM Health.</t>
+        </is>
+      </c>
+      <c r="C14" s="112" t="n"/>
+      <c r="D14" s="112" t="n"/>
+      <c r="E14" s="113" t="inlineStr">
+        <is>
+          <t>PTC_____________   EM_______________</t>
+        </is>
+      </c>
+      <c r="F14" s="112" t="n"/>
+      <c r="G14" s="114" t="n"/>
+      <c r="H14" s="115" t="n"/>
+      <c r="K14" s="84" t="n"/>
+      <c r="Q14" s="67" t="n"/>
+      <c r="R14" s="67" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" s="68">
+      <c r="A15" s="116" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="117" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Mechanical Inspections.</t>
+        </is>
+      </c>
+      <c r="C15" s="118" t="n"/>
+      <c r="D15" s="118" t="n"/>
+      <c r="E15" s="118" t="n"/>
+      <c r="F15" s="118" t="n"/>
+      <c r="G15" s="119" t="n"/>
+      <c r="H15" s="120" t="n"/>
+      <c r="K15" s="84" t="n"/>
+      <c r="Q15" s="67" t="n"/>
+      <c r="R15" s="67" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" s="68">
+      <c r="A16" s="100" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="101" t="inlineStr">
+        <is>
+          <t>Add fluids as needed.</t>
+        </is>
+      </c>
+      <c r="C16" s="94" t="n"/>
+      <c r="D16" s="94" t="n"/>
+      <c r="E16" s="94" t="n"/>
+      <c r="F16" s="94" t="n"/>
+      <c r="G16" s="102" t="n"/>
+      <c r="H16" s="121" t="n"/>
+      <c r="Q16" s="67" t="n"/>
+      <c r="R16" s="67" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" s="68">
+      <c r="A17" s="110" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="122" t="inlineStr">
+        <is>
+          <t>Renew defective brake shoes and adjust piston travel as needed.</t>
+        </is>
+      </c>
+      <c r="C17" s="112" t="n"/>
+      <c r="D17" s="112" t="n"/>
+      <c r="E17" s="112" t="n"/>
+      <c r="F17" s="112" t="n"/>
+      <c r="G17" s="114" t="n"/>
+      <c r="H17" s="115" t="n"/>
+      <c r="I17" s="67" t="n"/>
+      <c r="K17" s="67" t="n"/>
+      <c r="L17" s="67" t="n"/>
+      <c r="M17" s="67" t="n"/>
+      <c r="N17" s="67" t="n"/>
+      <c r="O17" s="67" t="n"/>
+      <c r="Q17" s="67" t="n"/>
+      <c r="R17" s="67" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" s="68">
+      <c r="A18" s="116" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="117" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Fireman &amp; Oiler Inspections.</t>
+        </is>
+      </c>
+      <c r="C18" s="118" t="n"/>
+      <c r="D18" s="118" t="n"/>
+      <c r="E18" s="118" t="n"/>
+      <c r="F18" s="118" t="n"/>
+      <c r="G18" s="119" t="n"/>
+      <c r="H18" s="120" t="n"/>
+      <c r="I18" s="67" t="n"/>
+      <c r="K18" s="67" t="n"/>
+      <c r="L18" s="67" t="n"/>
+      <c r="M18" s="67" t="n"/>
+      <c r="N18" s="67" t="n"/>
+      <c r="O18" s="67" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" s="68">
+      <c r="A19" s="100" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" s="117" t="inlineStr">
+        <is>
+          <t>Fuel Locomotive as needed.                         Gallons added _________________</t>
+        </is>
+      </c>
+      <c r="C19" s="118" t="n"/>
+      <c r="D19" s="118" t="n"/>
+      <c r="E19" s="118" t="n"/>
+      <c r="F19" s="118" t="n"/>
+      <c r="G19" s="119" t="n"/>
+      <c r="H19" s="121" t="n"/>
+      <c r="I19" s="67" t="n"/>
+      <c r="K19" s="67" t="n"/>
+      <c r="L19" s="67" t="n"/>
+      <c r="M19" s="67" t="n"/>
+      <c r="N19" s="67" t="n"/>
+      <c r="O19" s="67" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" s="68">
+      <c r="A20" s="100" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" s="104" t="inlineStr">
+        <is>
+          <t>Add Sand to locomotive sandboxes as needed.</t>
+        </is>
+      </c>
+      <c r="C20" s="94" t="n"/>
+      <c r="D20" s="94" t="n"/>
+      <c r="E20" s="94" t="n"/>
+      <c r="F20" s="94" t="n"/>
+      <c r="G20" s="102" t="n"/>
+      <c r="H20" s="121" t="n"/>
+      <c r="I20" s="67" t="n"/>
+      <c r="K20" s="67" t="n"/>
+      <c r="L20" s="67" t="n"/>
+      <c r="M20" s="67" t="n"/>
+      <c r="N20" s="67" t="n"/>
+      <c r="O20" s="67" t="n"/>
+    </row>
+    <row r="21" ht="26.25" customHeight="1" s="68">
+      <c r="A21" s="100" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" s="104" t="inlineStr">
+        <is>
+          <t>Remove trash and hazardous debris from running boards, cab &amp; toilet room.</t>
+        </is>
+      </c>
+      <c r="C21" s="94" t="n"/>
+      <c r="D21" s="94" t="n"/>
+      <c r="E21" s="94" t="n"/>
+      <c r="F21" s="94" t="n"/>
+      <c r="G21" s="102" t="n"/>
+      <c r="H21" s="121" t="n"/>
+      <c r="I21" s="67" t="n"/>
+      <c r="K21" s="67" t="n"/>
+      <c r="L21" s="67" t="n"/>
+      <c r="M21" s="67" t="n"/>
+      <c r="N21" s="67" t="n"/>
+      <c r="O21" s="67" t="n"/>
+    </row>
+    <row r="22" ht="19.5" customHeight="1" s="68">
+      <c r="B22" s="123" t="inlineStr">
+        <is>
+          <t>WORK ORDERS / DEFECTS</t>
+        </is>
+      </c>
+      <c r="C22" s="94" t="n"/>
+      <c r="D22" s="94" t="n"/>
+      <c r="E22" s="124" t="inlineStr">
+        <is>
+          <t>REPAIRS / MATERIAL</t>
+        </is>
+      </c>
+      <c r="F22" s="94" t="n"/>
+      <c r="G22" s="94" t="n"/>
+      <c r="H22" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I22" s="67" t="n"/>
+      <c r="J22" s="125" t="n"/>
+      <c r="L22" s="67" t="n"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1" s="68">
+      <c r="A23" s="126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="127" t="inlineStr">
+        <is>
+          <t>NLP</t>
+        </is>
+      </c>
+      <c r="C23" s="128" t="n"/>
+      <c r="D23" s="129" t="n"/>
+      <c r="E23" s="121" t="n"/>
+      <c r="F23" s="128" t="n"/>
+      <c r="G23" s="129" t="n"/>
+      <c r="H23" s="121" t="n"/>
+      <c r="I23" s="67" t="n"/>
+      <c r="J23" s="67" t="n"/>
+      <c r="K23" s="67" t="n"/>
+      <c r="L23" s="67" t="n"/>
+    </row>
+    <row r="24" ht="19.5" customHeight="1" s="68">
+      <c r="A24" s="130" t="n"/>
+      <c r="B24" s="131" t="inlineStr">
+        <is>
+          <t>Drops load in power/DB</t>
+        </is>
+      </c>
+      <c r="D24" s="132" t="n"/>
+      <c r="E24" s="133" t="n"/>
+      <c r="G24" s="132" t="n"/>
+      <c r="H24" s="130" t="n"/>
+    </row>
+    <row r="25" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A25" s="134" t="n"/>
+      <c r="B25" s="135" t="n"/>
+      <c r="C25" s="118" t="n"/>
+      <c r="D25" s="119" t="n"/>
+      <c r="E25" s="135" t="n"/>
+      <c r="F25" s="118" t="n"/>
+      <c r="G25" s="119" t="n"/>
+      <c r="H25" s="134" t="n"/>
+    </row>
+    <row r="26" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A26" s="136" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="127" t="n"/>
+      <c r="C26" s="128" t="n"/>
+      <c r="D26" s="129" t="n"/>
+      <c r="E26" s="137" t="n"/>
+      <c r="F26" s="128" t="n"/>
+      <c r="G26" s="129" t="n"/>
+      <c r="H26" s="137" t="n"/>
+    </row>
+    <row r="27" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A27" s="133" t="n"/>
+      <c r="B27" s="131" t="n"/>
+      <c r="D27" s="132" t="n"/>
+      <c r="E27" s="133" t="n"/>
+      <c r="G27" s="132" t="n"/>
+      <c r="H27" s="130" t="n"/>
+    </row>
+    <row r="28" ht="19.5" customFormat="1" customHeight="1" s="84">
+      <c r="A28" s="135" t="n"/>
+      <c r="B28" s="135" t="n"/>
+      <c r="C28" s="118" t="n"/>
+      <c r="D28" s="119" t="n"/>
+      <c r="E28" s="135" t="n"/>
+      <c r="F28" s="118" t="n"/>
+      <c r="G28" s="119" t="n"/>
+      <c r="H28" s="134" t="n"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1" s="68">
+      <c r="A29" s="136" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="127" t="n"/>
+      <c r="C29" s="128" t="n"/>
+      <c r="D29" s="129" t="n"/>
+      <c r="E29" s="121" t="n"/>
+      <c r="F29" s="128" t="n"/>
+      <c r="G29" s="129" t="n"/>
+      <c r="H29" s="121" t="n"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1" s="68">
+      <c r="A30" s="133" t="n"/>
+      <c r="B30" s="131" t="n"/>
+      <c r="D30" s="132" t="n"/>
+      <c r="E30" s="133" t="n"/>
+      <c r="G30" s="132" t="n"/>
+      <c r="H30" s="130" t="n"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" s="68">
+      <c r="A31" s="135" t="n"/>
+      <c r="B31" s="135" t="n"/>
+      <c r="C31" s="118" t="n"/>
+      <c r="D31" s="119" t="n"/>
+      <c r="E31" s="135" t="n"/>
+      <c r="F31" s="118" t="n"/>
+      <c r="G31" s="119" t="n"/>
+      <c r="H31" s="134" t="n"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1" s="68">
+      <c r="A32" s="136" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="127" t="n"/>
+      <c r="C32" s="128" t="n"/>
+      <c r="D32" s="129" t="n"/>
+      <c r="E32" s="121" t="n"/>
+      <c r="F32" s="128" t="n"/>
+      <c r="G32" s="129" t="n"/>
+      <c r="H32" s="121" t="n"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1" s="68">
+      <c r="A33" s="133" t="n"/>
+      <c r="B33" s="131" t="n"/>
+      <c r="D33" s="132" t="n"/>
+      <c r="E33" s="133" t="n"/>
+      <c r="G33" s="132" t="n"/>
+      <c r="H33" s="130" t="n"/>
+    </row>
+    <row r="34" ht="18.75" customHeight="1" s="68">
+      <c r="A34" s="135" t="n"/>
+      <c r="B34" s="135" t="n"/>
+      <c r="C34" s="118" t="n"/>
+      <c r="D34" s="119" t="n"/>
+      <c r="E34" s="135" t="n"/>
+      <c r="F34" s="118" t="n"/>
+      <c r="G34" s="119" t="n"/>
+      <c r="H34" s="134" t="n"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1" s="68">
+      <c r="A35" s="138" t="n"/>
+      <c r="B35" s="139" t="n"/>
+      <c r="C35" s="139" t="n"/>
+      <c r="D35" s="139" t="n"/>
+      <c r="E35" s="140" t="n"/>
+      <c r="F35" s="140" t="n"/>
+      <c r="G35" s="140" t="n"/>
+      <c r="H35" s="140" t="n"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1" s="68">
+      <c r="A36" s="138" t="n"/>
+      <c r="B36" s="141" t="n"/>
+      <c r="C36" s="141" t="n"/>
+      <c r="D36" s="141" t="n"/>
+      <c r="E36" s="140" t="n"/>
+      <c r="F36" s="140" t="n"/>
+      <c r="G36" s="140" t="n"/>
+      <c r="H36" s="140" t="n"/>
+    </row>
+    <row r="37" ht="18.75" customHeight="1" s="68">
+      <c r="B37" s="142" t="inlineStr">
+        <is>
+          <t>WORK ORDERS / DEFECTS</t>
+        </is>
+      </c>
+      <c r="E37" s="76" t="inlineStr">
+        <is>
+          <t>REPAIRS / MATERIAL</t>
+        </is>
+      </c>
+      <c r="G37" s="67" t="n"/>
+      <c r="H37" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I37" s="67" t="n"/>
+      <c r="J37" s="125" t="n"/>
+      <c r="L37" s="67" t="n"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1" s="68">
+      <c r="A38" s="143" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="127" t="n"/>
+      <c r="C38" s="128" t="n"/>
+      <c r="D38" s="129" t="n"/>
+      <c r="E38" s="121" t="n"/>
+      <c r="F38" s="128" t="n"/>
+      <c r="G38" s="129" t="n"/>
+      <c r="H38" s="121" t="n"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1" s="68">
+      <c r="A39" s="130" t="n"/>
+      <c r="B39" s="131" t="n"/>
+      <c r="D39" s="132" t="n"/>
+      <c r="E39" s="133" t="n"/>
+      <c r="G39" s="132" t="n"/>
+      <c r="H39" s="130" t="n"/>
+    </row>
+    <row r="40" ht="18.75" customHeight="1" s="68">
+      <c r="A40" s="134" t="n"/>
+      <c r="B40" s="135" t="n"/>
+      <c r="C40" s="118" t="n"/>
+      <c r="D40" s="119" t="n"/>
+      <c r="E40" s="135" t="n"/>
+      <c r="F40" s="118" t="n"/>
+      <c r="G40" s="119" t="n"/>
+      <c r="H40" s="134" t="n"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1" s="68">
+      <c r="A41" s="143" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" s="127" t="n"/>
+      <c r="C41" s="128" t="n"/>
+      <c r="D41" s="129" t="n"/>
+      <c r="E41" s="121" t="n"/>
+      <c r="F41" s="128" t="n"/>
+      <c r="G41" s="129" t="n"/>
+      <c r="H41" s="121" t="n"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1" s="68">
+      <c r="A42" s="130" t="n"/>
+      <c r="B42" s="131" t="n"/>
+      <c r="D42" s="132" t="n"/>
+      <c r="E42" s="133" t="n"/>
+      <c r="G42" s="132" t="n"/>
+      <c r="H42" s="130" t="n"/>
+    </row>
+    <row r="43" ht="18.75" customHeight="1" s="68">
+      <c r="A43" s="134" t="n"/>
+      <c r="B43" s="135" t="n"/>
+      <c r="C43" s="118" t="n"/>
+      <c r="D43" s="119" t="n"/>
+      <c r="E43" s="135" t="n"/>
+      <c r="F43" s="118" t="n"/>
+      <c r="G43" s="119" t="n"/>
+      <c r="H43" s="134" t="n"/>
+    </row>
+    <row r="44" ht="18.75" customHeight="1" s="68">
+      <c r="A44" s="136" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" s="127" t="n"/>
+      <c r="C44" s="128" t="n"/>
+      <c r="D44" s="129" t="n"/>
+      <c r="E44" s="121" t="n"/>
+      <c r="F44" s="128" t="n"/>
+      <c r="G44" s="129" t="n"/>
+      <c r="H44" s="121" t="n"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1" s="68">
+      <c r="A45" s="133" t="n"/>
+      <c r="B45" s="131" t="n"/>
+      <c r="D45" s="132" t="n"/>
+      <c r="E45" s="133" t="n"/>
+      <c r="G45" s="132" t="n"/>
+      <c r="H45" s="130" t="n"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1" s="68">
+      <c r="A46" s="135" t="n"/>
+      <c r="B46" s="135" t="n"/>
+      <c r="C46" s="118" t="n"/>
+      <c r="D46" s="119" t="n"/>
+      <c r="E46" s="135" t="n"/>
+      <c r="F46" s="118" t="n"/>
+      <c r="G46" s="119" t="n"/>
+      <c r="H46" s="134" t="n"/>
+    </row>
+    <row r="47" ht="18.75" customHeight="1" s="68">
+      <c r="A47" s="136" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" s="127" t="n"/>
+      <c r="C47" s="128" t="n"/>
+      <c r="D47" s="129" t="n"/>
+      <c r="E47" s="121" t="n"/>
+      <c r="F47" s="128" t="n"/>
+      <c r="G47" s="129" t="n"/>
+      <c r="H47" s="121" t="n"/>
+    </row>
+    <row r="48" ht="18.75" customHeight="1" s="68">
+      <c r="A48" s="133" t="n"/>
+      <c r="B48" s="131" t="n"/>
+      <c r="D48" s="132" t="n"/>
+      <c r="E48" s="133" t="n"/>
+      <c r="G48" s="132" t="n"/>
+      <c r="H48" s="130" t="n"/>
+    </row>
+    <row r="49" ht="18.75" customHeight="1" s="68">
+      <c r="A49" s="135" t="n"/>
+      <c r="B49" s="135" t="n"/>
+      <c r="C49" s="118" t="n"/>
+      <c r="D49" s="119" t="n"/>
+      <c r="E49" s="135" t="n"/>
+      <c r="F49" s="118" t="n"/>
+      <c r="G49" s="119" t="n"/>
+      <c r="H49" s="134" t="n"/>
+    </row>
+    <row r="50" ht="18.75" customHeight="1" s="68">
+      <c r="A50" s="144" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" s="127" t="n"/>
+      <c r="C50" s="128" t="n"/>
+      <c r="D50" s="129" t="n"/>
+      <c r="E50" s="121" t="n"/>
+      <c r="F50" s="128" t="n"/>
+      <c r="G50" s="129" t="n"/>
+      <c r="H50" s="121" t="n"/>
+    </row>
+    <row r="51" ht="18.75" customHeight="1" s="68">
+      <c r="A51" s="133" t="n"/>
+      <c r="B51" s="131" t="n"/>
+      <c r="D51" s="132" t="n"/>
+      <c r="E51" s="133" t="n"/>
+      <c r="G51" s="132" t="n"/>
+      <c r="H51" s="130" t="n"/>
+    </row>
+    <row r="52" ht="18.75" customHeight="1" s="68">
+      <c r="A52" s="133" t="n"/>
+      <c r="B52" s="135" t="n"/>
+      <c r="C52" s="118" t="n"/>
+      <c r="D52" s="119" t="n"/>
+      <c r="E52" s="135" t="n"/>
+      <c r="F52" s="118" t="n"/>
+      <c r="G52" s="119" t="n"/>
+      <c r="H52" s="134" t="n"/>
+    </row>
+    <row r="53" ht="18.75" customHeight="1" s="68">
+      <c r="A53" s="143" t="n">
+        <v>10</v>
+      </c>
+      <c r="B53" s="127" t="n"/>
+      <c r="C53" s="128" t="n"/>
+      <c r="D53" s="129" t="n"/>
+      <c r="E53" s="121" t="n"/>
+      <c r="F53" s="128" t="n"/>
+      <c r="G53" s="129" t="n"/>
+      <c r="H53" s="121" t="n"/>
+    </row>
+    <row r="54" ht="18.75" customHeight="1" s="68">
+      <c r="A54" s="130" t="n"/>
+      <c r="B54" s="131" t="n"/>
+      <c r="D54" s="132" t="n"/>
+      <c r="E54" s="133" t="n"/>
+      <c r="G54" s="132" t="n"/>
+      <c r="H54" s="130" t="n"/>
+    </row>
+    <row r="55" ht="18.75" customHeight="1" s="68">
+      <c r="A55" s="134" t="n"/>
+      <c r="B55" s="135" t="n"/>
+      <c r="C55" s="118" t="n"/>
+      <c r="D55" s="119" t="n"/>
+      <c r="E55" s="135" t="n"/>
+      <c r="F55" s="118" t="n"/>
+      <c r="G55" s="119" t="n"/>
+      <c r="H55" s="134" t="n"/>
+    </row>
+    <row r="56" ht="18.75" customHeight="1" s="68">
+      <c r="A56" s="143" t="n">
+        <v>11</v>
+      </c>
+      <c r="B56" s="127" t="n"/>
+      <c r="C56" s="128" t="n"/>
+      <c r="D56" s="129" t="n"/>
+      <c r="E56" s="121" t="n"/>
+      <c r="F56" s="128" t="n"/>
+      <c r="G56" s="129" t="n"/>
+      <c r="H56" s="121" t="n"/>
+    </row>
+    <row r="57" ht="18.75" customHeight="1" s="68">
+      <c r="A57" s="130" t="n"/>
+      <c r="B57" s="131" t="n"/>
+      <c r="D57" s="132" t="n"/>
+      <c r="E57" s="133" t="n"/>
+      <c r="G57" s="132" t="n"/>
+      <c r="H57" s="130" t="n"/>
+    </row>
+    <row r="58" ht="18.75" customHeight="1" s="68">
+      <c r="A58" s="134" t="n"/>
+      <c r="B58" s="135" t="n"/>
+      <c r="C58" s="118" t="n"/>
+      <c r="D58" s="119" t="n"/>
+      <c r="E58" s="135" t="n"/>
+      <c r="F58" s="118" t="n"/>
+      <c r="G58" s="119" t="n"/>
+      <c r="H58" s="134" t="n"/>
+    </row>
+    <row r="59" ht="18.75" customHeight="1" s="68">
+      <c r="A59" s="143" t="n">
+        <v>12</v>
+      </c>
+      <c r="B59" s="127" t="n"/>
+      <c r="C59" s="128" t="n"/>
+      <c r="D59" s="129" t="n"/>
+      <c r="E59" s="121" t="n"/>
+      <c r="F59" s="128" t="n"/>
+      <c r="G59" s="129" t="n"/>
+      <c r="H59" s="121" t="n"/>
+    </row>
+    <row r="60" ht="18.75" customHeight="1" s="68">
+      <c r="A60" s="130" t="n"/>
+      <c r="B60" s="131" t="n"/>
+      <c r="D60" s="132" t="n"/>
+      <c r="E60" s="133" t="n"/>
+      <c r="G60" s="132" t="n"/>
+      <c r="H60" s="130" t="n"/>
+    </row>
+    <row r="61" ht="18.75" customHeight="1" s="68">
+      <c r="A61" s="134" t="n"/>
+      <c r="B61" s="135" t="n"/>
+      <c r="C61" s="118" t="n"/>
+      <c r="D61" s="119" t="n"/>
+      <c r="E61" s="135" t="n"/>
+      <c r="F61" s="118" t="n"/>
+      <c r="G61" s="119" t="n"/>
+      <c r="H61" s="134" t="n"/>
+    </row>
+    <row r="62" ht="18.75" customHeight="1" s="68">
+      <c r="A62" s="143" t="n">
+        <v>13</v>
+      </c>
+      <c r="B62" s="127" t="n"/>
+      <c r="C62" s="128" t="n"/>
+      <c r="D62" s="129" t="n"/>
+      <c r="E62" s="121" t="n"/>
+      <c r="F62" s="128" t="n"/>
+      <c r="G62" s="129" t="n"/>
+      <c r="H62" s="121" t="n"/>
+    </row>
+    <row r="63" ht="18.75" customHeight="1" s="68">
+      <c r="A63" s="130" t="n"/>
+      <c r="B63" s="131" t="n"/>
+      <c r="D63" s="132" t="n"/>
+      <c r="E63" s="133" t="n"/>
+      <c r="G63" s="132" t="n"/>
+      <c r="H63" s="130" t="n"/>
+    </row>
+    <row r="64" ht="18.75" customHeight="1" s="68">
+      <c r="A64" s="134" t="n"/>
+      <c r="B64" s="135" t="n"/>
+      <c r="C64" s="118" t="n"/>
+      <c r="D64" s="119" t="n"/>
+      <c r="E64" s="135" t="n"/>
+      <c r="F64" s="118" t="n"/>
+      <c r="G64" s="119" t="n"/>
+      <c r="H64" s="134" t="n"/>
+    </row>
+    <row r="65" ht="18.75" customHeight="1" s="68">
+      <c r="A65" s="143" t="n">
+        <v>14</v>
+      </c>
+      <c r="B65" s="127" t="n"/>
+      <c r="C65" s="128" t="n"/>
+      <c r="D65" s="129" t="n"/>
+      <c r="E65" s="121" t="n"/>
+      <c r="F65" s="128" t="n"/>
+      <c r="G65" s="129" t="n"/>
+      <c r="H65" s="121" t="n"/>
+    </row>
+    <row r="66" ht="18.75" customHeight="1" s="68">
+      <c r="A66" s="130" t="n"/>
+      <c r="B66" s="131" t="n"/>
+      <c r="D66" s="132" t="n"/>
+      <c r="E66" s="133" t="n"/>
+      <c r="G66" s="132" t="n"/>
+      <c r="H66" s="130" t="n"/>
+    </row>
+    <row r="67" ht="18.75" customHeight="1" s="68">
+      <c r="A67" s="134" t="n"/>
+      <c r="B67" s="135" t="n"/>
+      <c r="C67" s="118" t="n"/>
+      <c r="D67" s="119" t="n"/>
+      <c r="E67" s="135" t="n"/>
+      <c r="F67" s="118" t="n"/>
+      <c r="G67" s="119" t="n"/>
+      <c r="H67" s="134" t="n"/>
+    </row>
+    <row r="68" ht="18.75" customHeight="1" s="68">
+      <c r="A68" s="143" t="n">
+        <v>15</v>
+      </c>
+      <c r="B68" s="127" t="n"/>
+      <c r="C68" s="128" t="n"/>
+      <c r="D68" s="129" t="n"/>
+      <c r="E68" s="121" t="n"/>
+      <c r="F68" s="128" t="n"/>
+      <c r="G68" s="129" t="n"/>
+      <c r="H68" s="121" t="n"/>
+    </row>
+    <row r="69" ht="18.75" customHeight="1" s="68">
+      <c r="A69" s="130" t="n"/>
+      <c r="B69" s="131" t="n"/>
+      <c r="D69" s="132" t="n"/>
+      <c r="E69" s="133" t="n"/>
+      <c r="G69" s="132" t="n"/>
+      <c r="H69" s="130" t="n"/>
+    </row>
+    <row r="70" ht="18.75" customHeight="1" s="68">
+      <c r="A70" s="134" t="n"/>
+      <c r="B70" s="135" t="n"/>
+      <c r="C70" s="118" t="n"/>
+      <c r="D70" s="119" t="n"/>
+      <c r="E70" s="135" t="n"/>
+      <c r="F70" s="118" t="n"/>
+      <c r="G70" s="119" t="n"/>
+      <c r="H70" s="134" t="n"/>
+    </row>
+    <row r="71" ht="18.75" customHeight="1" s="68">
+      <c r="A71" s="143" t="n">
+        <v>16</v>
+      </c>
+      <c r="B71" s="127" t="n"/>
+      <c r="C71" s="128" t="n"/>
+      <c r="D71" s="129" t="n"/>
+      <c r="E71" s="121" t="n"/>
+      <c r="F71" s="128" t="n"/>
+      <c r="G71" s="129" t="n"/>
+      <c r="H71" s="121" t="n"/>
+    </row>
+    <row r="72" ht="18.75" customHeight="1" s="68">
+      <c r="A72" s="130" t="n"/>
+      <c r="B72" s="131" t="n"/>
+      <c r="D72" s="132" t="n"/>
+      <c r="E72" s="133" t="n"/>
+      <c r="G72" s="132" t="n"/>
+      <c r="H72" s="130" t="n"/>
+    </row>
+    <row r="73" ht="18.75" customHeight="1" s="68">
+      <c r="A73" s="134" t="n"/>
+      <c r="B73" s="135" t="n"/>
+      <c r="C73" s="118" t="n"/>
+      <c r="D73" s="119" t="n"/>
+      <c r="E73" s="135" t="n"/>
+      <c r="F73" s="118" t="n"/>
+      <c r="G73" s="119" t="n"/>
+      <c r="H73" s="134" t="n"/>
+    </row>
+    <row r="74" ht="18.75" customHeight="1" s="68">
+      <c r="A74" s="145" t="n"/>
+      <c r="B74" s="146" t="n"/>
+      <c r="C74" s="146" t="n"/>
+      <c r="D74" s="146" t="n"/>
+      <c r="E74" s="67" t="n"/>
+      <c r="F74" s="67" t="n"/>
+      <c r="G74" s="67" t="n"/>
+      <c r="H74" s="67" t="n"/>
+    </row>
+    <row r="75" ht="18.75" customHeight="1" s="68">
+      <c r="A75" s="145" t="n"/>
+      <c r="B75" s="147" t="n"/>
+      <c r="C75" s="147" t="n"/>
+      <c r="D75" s="147" t="n"/>
+      <c r="E75" s="67" t="n"/>
+      <c r="F75" s="67" t="n"/>
+      <c r="G75" s="67" t="n"/>
+      <c r="H75" s="67" t="n"/>
+    </row>
+    <row r="76" ht="18.75" customHeight="1" s="68">
+      <c r="A76" s="145" t="n"/>
+      <c r="B76" s="147" t="n"/>
+      <c r="C76" s="147" t="n"/>
+      <c r="D76" s="147" t="n"/>
+      <c r="E76" s="67" t="n"/>
+      <c r="F76" s="67" t="n"/>
+      <c r="G76" s="67" t="n"/>
+      <c r="H76" s="67" t="n"/>
+    </row>
+    <row r="77" ht="19.35" customHeight="1" s="68">
+      <c r="A77" s="145" t="n"/>
+      <c r="B77" s="138" t="n"/>
+      <c r="C77" s="140" t="n"/>
+      <c r="D77" s="67" t="n"/>
+      <c r="E77" s="67" t="n"/>
+      <c r="F77" s="140" t="n"/>
+      <c r="G77" s="67" t="n"/>
+    </row>
+    <row r="78" ht="19.35" customHeight="1" s="68">
+      <c r="A78" s="145" t="n"/>
+      <c r="B78" s="138" t="n"/>
+      <c r="C78" s="140" t="n"/>
+      <c r="D78" s="67" t="n"/>
+      <c r="E78" s="67" t="n"/>
+      <c r="F78" s="140" t="n"/>
+      <c r="G78" s="67" t="n"/>
+    </row>
+    <row r="79" ht="19.35" customHeight="1" s="68">
+      <c r="A79" s="145" t="n"/>
+      <c r="B79" s="138" t="n"/>
+      <c r="C79" s="140" t="n"/>
+      <c r="D79" s="67" t="n"/>
+      <c r="E79" s="67" t="n"/>
+      <c r="F79" s="140" t="n"/>
+      <c r="G79" s="67" t="n"/>
+    </row>
+    <row r="80" ht="19.35" customHeight="1" s="68">
+      <c r="A80" s="145" t="n"/>
+      <c r="B80" s="138" t="n"/>
+      <c r="C80" s="140" t="n"/>
+      <c r="D80" s="67" t="n"/>
+      <c r="E80" s="67" t="n"/>
+      <c r="F80" s="140" t="n"/>
+      <c r="G80" s="67" t="n"/>
+    </row>
+    <row r="81" ht="19.35" customHeight="1" s="68">
+      <c r="A81" s="145" t="n"/>
+      <c r="B81" s="138" t="n"/>
+      <c r="C81" s="140" t="n"/>
+      <c r="D81" s="67" t="n"/>
+      <c r="E81" s="67" t="n"/>
+      <c r="F81" s="140" t="n"/>
+      <c r="G81" s="67" t="n"/>
+    </row>
+    <row r="82" ht="19.35" customHeight="1" s="68">
+      <c r="A82" s="145" t="n"/>
+      <c r="B82" s="138" t="n"/>
+      <c r="C82" s="140" t="n"/>
+      <c r="D82" s="67" t="n"/>
+      <c r="E82" s="67" t="n"/>
+      <c r="F82" s="140" t="n"/>
+      <c r="G82" s="67" t="n"/>
+    </row>
+    <row r="83" ht="19.35" customHeight="1" s="68">
+      <c r="A83" s="145" t="n"/>
+      <c r="B83" s="138" t="n"/>
+      <c r="C83" s="140" t="n"/>
+      <c r="D83" s="67" t="n"/>
+      <c r="E83" s="67" t="n"/>
+      <c r="F83" s="140" t="n"/>
+      <c r="G83" s="67" t="n"/>
+    </row>
+    <row r="84" ht="18.75" customHeight="1" s="68">
+      <c r="A84" s="145" t="n"/>
+      <c r="B84" s="138" t="n"/>
+      <c r="C84" s="140" t="n"/>
+      <c r="D84" s="67" t="n"/>
+      <c r="E84" s="67" t="n"/>
+      <c r="F84" s="140" t="n"/>
+      <c r="G84" s="67" t="n"/>
+    </row>
+    <row r="85" ht="19.35" customHeight="1" s="68">
+      <c r="A85" s="145" t="n"/>
+      <c r="B85" s="138" t="n"/>
+      <c r="C85" s="140" t="n"/>
+      <c r="D85" s="67" t="n"/>
+      <c r="E85" s="67" t="n"/>
+      <c r="F85" s="140" t="n"/>
+      <c r="G85" s="67" t="n"/>
+    </row>
+    <row r="86" ht="19.35" customHeight="1" s="68">
+      <c r="A86" s="145" t="n"/>
+      <c r="B86" s="138" t="n"/>
+      <c r="C86" s="140" t="n"/>
+      <c r="D86" s="67" t="n"/>
+      <c r="E86" s="67" t="n"/>
+      <c r="F86" s="140" t="n"/>
+      <c r="G86" s="67" t="n"/>
+    </row>
+    <row r="87" ht="18.75" customHeight="1" s="68">
+      <c r="A87" s="145" t="n"/>
+      <c r="B87" s="138" t="n"/>
+      <c r="C87" s="140" t="n"/>
+      <c r="D87" s="67" t="n"/>
+      <c r="E87" s="67" t="n"/>
+      <c r="F87" s="140" t="n"/>
+      <c r="G87" s="67" t="n"/>
+    </row>
+    <row r="88" ht="18.75" customHeight="1" s="68">
+      <c r="A88" s="145" t="n"/>
+      <c r="B88" s="138" t="n"/>
+      <c r="C88" s="140" t="n"/>
+      <c r="D88" s="67" t="n"/>
+      <c r="E88" s="67" t="n"/>
+      <c r="F88" s="140" t="n"/>
+      <c r="G88" s="67" t="n"/>
+    </row>
+    <row r="89" ht="18.75" customHeight="1" s="68">
+      <c r="A89" s="145" t="n"/>
+      <c r="B89" s="138" t="n"/>
+      <c r="C89" s="140" t="n"/>
+      <c r="D89" s="67" t="n"/>
+      <c r="E89" s="67" t="n"/>
+      <c r="F89" s="140" t="n"/>
+      <c r="G89" s="67" t="n"/>
+    </row>
+    <row r="90" ht="15" customHeight="1" s="68">
+      <c r="A90" s="67" t="n"/>
+      <c r="B90" s="67" t="n"/>
+      <c r="C90" s="67" t="n"/>
+      <c r="D90" s="67" t="n"/>
+      <c r="E90" s="67" t="n"/>
+      <c r="F90" s="67" t="n"/>
+      <c r="G90" s="67" t="n"/>
+    </row>
+    <row r="91" ht="15" customHeight="1" s="68">
+      <c r="A91" s="67" t="n"/>
+      <c r="B91" s="67" t="n"/>
+      <c r="C91" s="67" t="n"/>
+      <c r="D91" s="67" t="n"/>
+      <c r="E91" s="67" t="n"/>
+      <c r="F91" s="67" t="n"/>
+      <c r="G91" s="67" t="n"/>
+    </row>
+    <row r="92" ht="15" customHeight="1" s="68">
+      <c r="A92" s="67" t="n"/>
+      <c r="B92" s="67" t="n"/>
+      <c r="C92" s="67" t="n"/>
+      <c r="D92" s="67" t="n"/>
+      <c r="E92" s="67" t="n"/>
+      <c r="F92" s="67" t="n"/>
+      <c r="G92" s="67" t="n"/>
+    </row>
+    <row r="93" ht="15" customHeight="1" s="68">
+      <c r="A93" s="67" t="n"/>
+      <c r="B93" s="67" t="n"/>
+      <c r="C93" s="67" t="n"/>
+      <c r="D93" s="67" t="n"/>
+      <c r="E93" s="67" t="n"/>
+      <c r="F93" s="67" t="n"/>
+      <c r="G93" s="67" t="n"/>
+    </row>
+    <row r="94" ht="15" customHeight="1" s="68">
+      <c r="A94" s="67" t="n"/>
+      <c r="B94" s="67" t="n"/>
+      <c r="C94" s="67" t="n"/>
+      <c r="D94" s="67" t="n"/>
+      <c r="E94" s="67" t="n"/>
+      <c r="F94" s="67" t="n"/>
+      <c r="G94" s="67" t="n"/>
+    </row>
+    <row r="95" ht="15" customHeight="1" s="68">
+      <c r="A95" s="67" t="n"/>
+      <c r="B95" s="67" t="n"/>
+      <c r="C95" s="67" t="n"/>
+      <c r="D95" s="67" t="n"/>
+      <c r="E95" s="67" t="n"/>
+      <c r="F95" s="67" t="n"/>
+      <c r="G95" s="67" t="n"/>
+    </row>
+    <row r="96" ht="15" customHeight="1" s="68">
+      <c r="A96" s="67" t="n"/>
+      <c r="B96" s="67" t="n"/>
+      <c r="C96" s="67" t="n"/>
+      <c r="D96" s="67" t="n"/>
+      <c r="E96" s="67" t="n"/>
+      <c r="F96" s="67" t="n"/>
+      <c r="G96" s="67" t="n"/>
+    </row>
+    <row r="97" ht="15" customHeight="1" s="68">
+      <c r="A97" s="67" t="n"/>
+      <c r="B97" s="67" t="n"/>
+      <c r="C97" s="67" t="n"/>
+      <c r="D97" s="67" t="n"/>
+      <c r="E97" s="67" t="n"/>
+      <c r="F97" s="67" t="n"/>
+      <c r="G97" s="67" t="n"/>
+    </row>
+    <row r="98" ht="15" customHeight="1" s="68">
+      <c r="A98" s="67" t="n"/>
+      <c r="B98" s="67" t="n"/>
+      <c r="C98" s="67" t="n"/>
+      <c r="D98" s="67" t="n"/>
+      <c r="E98" s="67" t="n"/>
+      <c r="F98" s="67" t="n"/>
+      <c r="G98" s="67" t="n"/>
+    </row>
+    <row r="99" ht="15" customHeight="1" s="68">
+      <c r="A99" s="67" t="n"/>
+      <c r="B99" s="67" t="n"/>
+      <c r="C99" s="67" t="n"/>
+      <c r="D99" s="67" t="n"/>
+      <c r="E99" s="67" t="n"/>
+      <c r="F99" s="67" t="n"/>
+      <c r="G99" s="67" t="n"/>
+    </row>
+    <row r="100" ht="15" customHeight="1" s="68">
+      <c r="A100" s="67" t="n"/>
+      <c r="B100" s="67" t="n"/>
+      <c r="C100" s="67" t="n"/>
+      <c r="D100" s="67" t="n"/>
+      <c r="E100" s="67" t="n"/>
+      <c r="F100" s="67" t="n"/>
+      <c r="G100" s="67" t="n"/>
+    </row>
+    <row r="101" ht="15" customHeight="1" s="68">
+      <c r="A101" s="67" t="n"/>
+      <c r="B101" s="67" t="n"/>
+      <c r="C101" s="67" t="n"/>
+      <c r="D101" s="67" t="n"/>
+      <c r="E101" s="67" t="n"/>
+      <c r="F101" s="67" t="n"/>
+      <c r="G101" s="67" t="n"/>
+    </row>
+    <row r="102" ht="15" customHeight="1" s="68">
+      <c r="A102" s="67" t="n"/>
+      <c r="B102" s="67" t="n"/>
+      <c r="C102" s="67" t="n"/>
+      <c r="D102" s="67" t="n"/>
+      <c r="E102" s="67" t="n"/>
+      <c r="F102" s="67" t="n"/>
+      <c r="G102" s="67" t="n"/>
+    </row>
+    <row r="103" ht="15" customHeight="1" s="68">
+      <c r="A103" s="67" t="n"/>
+      <c r="B103" s="67" t="n"/>
+      <c r="C103" s="67" t="n"/>
+      <c r="D103" s="67" t="n"/>
+      <c r="E103" s="67" t="n"/>
+      <c r="F103" s="67" t="n"/>
+      <c r="G103" s="67" t="n"/>
+    </row>
+    <row r="104" ht="15" customHeight="1" s="68">
+      <c r="A104" s="67" t="n"/>
+      <c r="B104" s="67" t="n"/>
+      <c r="C104" s="67" t="n"/>
+      <c r="D104" s="67" t="n"/>
+      <c r="E104" s="67" t="n"/>
+      <c r="F104" s="67" t="n"/>
+      <c r="G104" s="67" t="n"/>
+    </row>
+    <row r="105" ht="15" customHeight="1" s="68">
+      <c r="A105" s="67" t="n"/>
+      <c r="B105" s="67" t="n"/>
+      <c r="C105" s="67" t="n"/>
+      <c r="D105" s="67" t="n"/>
+      <c r="E105" s="67" t="n"/>
+      <c r="F105" s="67" t="n"/>
+      <c r="G105" s="67" t="n"/>
+    </row>
+    <row r="106" ht="15" customHeight="1" s="68">
+      <c r="A106" s="67" t="n"/>
+      <c r="B106" s="67" t="n"/>
+      <c r="C106" s="67" t="n"/>
+      <c r="D106" s="67" t="n"/>
+      <c r="E106" s="67" t="n"/>
+      <c r="F106" s="67" t="n"/>
+      <c r="G106" s="67" t="n"/>
+    </row>
+    <row r="107" ht="15" customHeight="1" s="68">
+      <c r="A107" s="67" t="n"/>
+      <c r="B107" s="67" t="n"/>
+      <c r="C107" s="67" t="n"/>
+      <c r="D107" s="67" t="n"/>
+      <c r="E107" s="67" t="n"/>
+      <c r="F107" s="67" t="n"/>
+      <c r="G107" s="67" t="n"/>
+    </row>
+    <row r="108" ht="15" customHeight="1" s="68">
+      <c r="A108" s="67" t="n"/>
+      <c r="B108" s="67" t="n"/>
+      <c r="C108" s="67" t="n"/>
+      <c r="D108" s="67" t="n"/>
+      <c r="E108" s="67" t="n"/>
+      <c r="F108" s="67" t="n"/>
+      <c r="G108" s="67" t="n"/>
+    </row>
+    <row r="109" ht="15" customHeight="1" s="68">
+      <c r="A109" s="67" t="n"/>
+      <c r="B109" s="67" t="n"/>
+      <c r="C109" s="67" t="n"/>
+      <c r="D109" s="67" t="n"/>
+      <c r="E109" s="67" t="n"/>
+      <c r="F109" s="67" t="n"/>
+      <c r="G109" s="67" t="n"/>
+    </row>
+    <row r="110" ht="15" customHeight="1" s="68">
+      <c r="A110" s="67" t="n"/>
+      <c r="B110" s="67" t="n"/>
+      <c r="C110" s="67" t="n"/>
+      <c r="D110" s="67" t="n"/>
+      <c r="E110" s="67" t="n"/>
+      <c r="F110" s="67" t="n"/>
+      <c r="G110" s="67" t="n"/>
+    </row>
+    <row r="111" ht="15" customHeight="1" s="68">
+      <c r="A111" s="67" t="n"/>
+      <c r="B111" s="67" t="n"/>
+      <c r="C111" s="67" t="n"/>
+      <c r="D111" s="67" t="n"/>
+      <c r="E111" s="67" t="n"/>
+      <c r="F111" s="67" t="n"/>
+      <c r="G111" s="67" t="n"/>
+    </row>
+    <row r="112" ht="15" customHeight="1" s="68">
+      <c r="A112" s="67" t="n"/>
+      <c r="B112" s="67" t="n"/>
+      <c r="C112" s="67" t="n"/>
+      <c r="D112" s="67" t="n"/>
+      <c r="E112" s="67" t="n"/>
+      <c r="F112" s="67" t="n"/>
+      <c r="G112" s="67" t="n"/>
+    </row>
+    <row r="113" ht="15" customHeight="1" s="68">
+      <c r="A113" s="67" t="n"/>
+      <c r="B113" s="67" t="n"/>
+      <c r="C113" s="67" t="n"/>
+      <c r="D113" s="67" t="n"/>
+      <c r="E113" s="67" t="n"/>
+      <c r="F113" s="67" t="n"/>
+      <c r="G113" s="67" t="n"/>
+    </row>
+    <row r="114" ht="15" customHeight="1" s="68">
+      <c r="A114" s="67" t="n"/>
+      <c r="B114" s="67" t="n"/>
+      <c r="C114" s="67" t="n"/>
+      <c r="D114" s="67" t="n"/>
+      <c r="E114" s="67" t="n"/>
+      <c r="F114" s="67" t="n"/>
+      <c r="G114" s="67" t="n"/>
+    </row>
+    <row r="115" ht="15" customHeight="1" s="68">
+      <c r="A115" s="67" t="n"/>
+      <c r="B115" s="67" t="n"/>
+      <c r="C115" s="67" t="n"/>
+      <c r="D115" s="67" t="n"/>
+      <c r="E115" s="67" t="n"/>
+      <c r="F115" s="67" t="n"/>
+      <c r="G115" s="67" t="n"/>
+    </row>
+    <row r="116" ht="15" customHeight="1" s="68">
+      <c r="A116" s="67" t="n"/>
+      <c r="B116" s="67" t="n"/>
+      <c r="C116" s="67" t="n"/>
+      <c r="D116" s="67" t="n"/>
+      <c r="E116" s="67" t="n"/>
+      <c r="F116" s="67" t="n"/>
+      <c r="G116" s="67" t="n"/>
+    </row>
+    <row r="117" ht="15" customHeight="1" s="68">
+      <c r="A117" s="67" t="n"/>
+      <c r="B117" s="67" t="n"/>
+      <c r="C117" s="67" t="n"/>
+      <c r="D117" s="67" t="n"/>
+      <c r="E117" s="67" t="n"/>
+      <c r="F117" s="67" t="n"/>
+      <c r="G117" s="67" t="n"/>
+    </row>
+    <row r="118" ht="15" customHeight="1" s="68">
+      <c r="A118" s="67" t="n"/>
+      <c r="B118" s="67" t="n"/>
+      <c r="C118" s="67" t="n"/>
+      <c r="D118" s="67" t="n"/>
+      <c r="E118" s="67" t="n"/>
+      <c r="F118" s="67" t="n"/>
+      <c r="G118" s="67" t="n"/>
+    </row>
+    <row r="119" ht="15" customHeight="1" s="68">
+      <c r="A119" s="67" t="n"/>
+      <c r="B119" s="67" t="n"/>
+      <c r="C119" s="67" t="n"/>
+      <c r="D119" s="67" t="n"/>
+      <c r="E119" s="67" t="n"/>
+      <c r="F119" s="67" t="n"/>
+      <c r="G119" s="67" t="n"/>
+    </row>
+    <row r="120" ht="15" customHeight="1" s="68">
+      <c r="A120" s="67" t="n"/>
+      <c r="B120" s="67" t="n"/>
+      <c r="C120" s="67" t="n"/>
+      <c r="D120" s="67" t="n"/>
+      <c r="E120" s="67" t="n"/>
+      <c r="F120" s="67" t="n"/>
+      <c r="G120" s="67" t="n"/>
+    </row>
+    <row r="121" ht="15" customHeight="1" s="68">
+      <c r="A121" s="67" t="n"/>
+      <c r="B121" s="67" t="n"/>
+      <c r="C121" s="67" t="n"/>
+      <c r="D121" s="67" t="n"/>
+      <c r="E121" s="67" t="n"/>
+      <c r="F121" s="67" t="n"/>
+      <c r="G121" s="67" t="n"/>
+    </row>
+    <row r="122" ht="15" customHeight="1" s="68">
+      <c r="A122" s="67" t="n"/>
+      <c r="B122" s="67" t="n"/>
+      <c r="C122" s="67" t="n"/>
+      <c r="D122" s="67" t="n"/>
+      <c r="E122" s="67" t="n"/>
+      <c r="F122" s="67" t="n"/>
+      <c r="G122" s="67" t="n"/>
+    </row>
+    <row r="123" ht="15" customHeight="1" s="68">
+      <c r="A123" s="67" t="n"/>
+      <c r="B123" s="67" t="n"/>
+      <c r="C123" s="67" t="n"/>
+      <c r="D123" s="67" t="n"/>
+      <c r="E123" s="67" t="n"/>
+      <c r="F123" s="67" t="n"/>
+      <c r="G123" s="67" t="n"/>
+    </row>
+    <row r="124" ht="15" customHeight="1" s="68">
+      <c r="A124" s="67" t="n"/>
+      <c r="B124" s="67" t="n"/>
+      <c r="C124" s="67" t="n"/>
+      <c r="D124" s="67" t="n"/>
+      <c r="E124" s="67" t="n"/>
+      <c r="F124" s="67" t="n"/>
+      <c r="G124" s="67" t="n"/>
+    </row>
+    <row r="125" ht="15" customHeight="1" s="68">
+      <c r="A125" s="67" t="n"/>
+      <c r="B125" s="67" t="n"/>
+      <c r="C125" s="67" t="n"/>
+      <c r="D125" s="67" t="n"/>
+      <c r="E125" s="67" t="n"/>
+      <c r="F125" s="67" t="n"/>
+      <c r="G125" s="67" t="n"/>
+    </row>
+    <row r="126" ht="15" customHeight="1" s="68">
+      <c r="A126" s="67" t="n"/>
+      <c r="B126" s="67" t="n"/>
+      <c r="C126" s="67" t="n"/>
+      <c r="D126" s="67" t="n"/>
+      <c r="E126" s="67" t="n"/>
+      <c r="F126" s="67" t="n"/>
+      <c r="G126" s="67" t="n"/>
+    </row>
+    <row r="127" ht="15" customHeight="1" s="68">
+      <c r="A127" s="67" t="n"/>
+      <c r="B127" s="67" t="n"/>
+      <c r="C127" s="67" t="n"/>
+      <c r="D127" s="67" t="n"/>
+      <c r="E127" s="67" t="n"/>
+      <c r="F127" s="67" t="n"/>
+      <c r="G127" s="67" t="n"/>
+    </row>
+    <row r="128" ht="15" customHeight="1" s="68">
+      <c r="A128" s="67" t="n"/>
+      <c r="B128" s="67" t="n"/>
+      <c r="C128" s="67" t="n"/>
+      <c r="D128" s="67" t="n"/>
+      <c r="E128" s="67" t="n"/>
+      <c r="F128" s="67" t="n"/>
+      <c r="G128" s="67" t="n"/>
+    </row>
+    <row r="129" ht="15" customHeight="1" s="68">
+      <c r="A129" s="67" t="n"/>
+      <c r="B129" s="67" t="n"/>
+      <c r="C129" s="67" t="n"/>
+      <c r="D129" s="67" t="n"/>
+      <c r="E129" s="67" t="n"/>
+      <c r="F129" s="67" t="n"/>
+      <c r="G129" s="67" t="n"/>
+    </row>
+    <row r="130" ht="15" customHeight="1" s="68">
+      <c r="A130" s="67" t="n"/>
+      <c r="B130" s="67" t="n"/>
+      <c r="C130" s="67" t="n"/>
+      <c r="D130" s="67" t="n"/>
+      <c r="E130" s="67" t="n"/>
+      <c r="F130" s="67" t="n"/>
+      <c r="G130" s="67" t="n"/>
+    </row>
+    <row r="131" ht="15" customHeight="1" s="68">
+      <c r="A131" s="67" t="n"/>
+      <c r="B131" s="67" t="n"/>
+      <c r="C131" s="67" t="n"/>
+      <c r="D131" s="67" t="n"/>
+      <c r="E131" s="67" t="n"/>
+      <c r="F131" s="67" t="n"/>
+      <c r="G131" s="67" t="n"/>
+    </row>
+    <row r="132" ht="15" customHeight="1" s="68">
+      <c r="A132" s="67" t="n"/>
+      <c r="B132" s="67" t="n"/>
+      <c r="C132" s="67" t="n"/>
+      <c r="D132" s="67" t="n"/>
+      <c r="E132" s="67" t="n"/>
+      <c r="F132" s="67" t="n"/>
+      <c r="G132" s="67" t="n"/>
+    </row>
+    <row r="133" ht="15" customHeight="1" s="68">
+      <c r="A133" s="67" t="n"/>
+      <c r="B133" s="67" t="n"/>
+      <c r="C133" s="67" t="n"/>
+      <c r="D133" s="67" t="n"/>
+      <c r="E133" s="67" t="n"/>
+      <c r="F133" s="67" t="n"/>
+      <c r="G133" s="67" t="n"/>
+    </row>
+    <row r="134" ht="15" customHeight="1" s="68">
+      <c r="A134" s="67" t="n"/>
+      <c r="B134" s="67" t="n"/>
+      <c r="C134" s="67" t="n"/>
+      <c r="D134" s="67" t="n"/>
+      <c r="E134" s="67" t="n"/>
+      <c r="F134" s="67" t="n"/>
+      <c r="G134" s="67" t="n"/>
+    </row>
+    <row r="135" ht="15" customHeight="1" s="68">
+      <c r="A135" s="67" t="n"/>
+      <c r="B135" s="67" t="n"/>
+      <c r="C135" s="67" t="n"/>
+      <c r="D135" s="67" t="n"/>
+      <c r="E135" s="67" t="n"/>
+      <c r="F135" s="67" t="n"/>
+      <c r="G135" s="67" t="n"/>
+    </row>
+    <row r="136" ht="15" customHeight="1" s="68">
+      <c r="A136" s="67" t="n"/>
+      <c r="B136" s="67" t="n"/>
+      <c r="C136" s="67" t="n"/>
+      <c r="D136" s="67" t="n"/>
+      <c r="E136" s="67" t="n"/>
+      <c r="F136" s="67" t="n"/>
+      <c r="G136" s="67" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="107">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="B54:D55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="B60:D61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:G64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="B66:D67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:G70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="B72:D73"/>
+  </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:R136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="2.85" customWidth="1" style="67" min="1" max="1"/>
+    <col width="13.14" customWidth="1" style="67" min="2" max="2"/>
+    <col width="7.71" customWidth="1" style="67" min="3" max="3"/>
+    <col width="8.289999999999999" customWidth="1" style="67" min="4" max="4"/>
+    <col width="19.71" customWidth="1" style="67" min="5" max="5"/>
+    <col width="13.57" customWidth="1" style="67" min="6" max="6"/>
+    <col width="1" customWidth="1" style="67" min="7" max="7"/>
+    <col width="28.42" customWidth="1" style="67" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" s="68">
+      <c r="A1" s="69" t="inlineStr">
+        <is>
+          <t>UNIT  NUMBER</t>
+        </is>
+      </c>
+      <c r="B1" s="70" t="n"/>
+      <c r="C1" s="70" t="n"/>
+      <c r="D1" s="71" t="n"/>
+      <c r="E1" s="72" t="inlineStr">
+        <is>
+          <t>DATE INSHOPPED:</t>
+        </is>
+      </c>
+      <c r="F1" s="73" t="inlineStr">
+        <is>
+          <t>02-26-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" s="68">
+      <c r="A2" s="74" t="inlineStr">
+        <is>
+          <t>7546</t>
+        </is>
+      </c>
+      <c r="D2" s="75" t="n"/>
+      <c r="H2" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I2" s="67" t="n"/>
+      <c r="K2" s="77" t="n"/>
+      <c r="M2" s="78" t="n"/>
+      <c r="N2" s="67" t="n"/>
+      <c r="O2" s="67" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="68">
+      <c r="A3" s="79" t="n"/>
+      <c r="D3" s="75" t="n"/>
+      <c r="E3" s="80" t="inlineStr">
+        <is>
+          <t>SAMPLES DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F3" s="81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G3" s="67" t="n"/>
+      <c r="H3" s="82" t="n"/>
+      <c r="I3" s="83" t="n"/>
+      <c r="J3" s="83" t="n"/>
+      <c r="K3" s="83" t="n"/>
+      <c r="L3" s="84" t="n"/>
+      <c r="M3" s="83" t="n"/>
+      <c r="N3" s="83" t="n"/>
+      <c r="O3" s="67" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" s="68">
+      <c r="A4" s="85" t="n"/>
+      <c r="B4" s="86" t="n"/>
+      <c r="C4" s="86" t="n"/>
+      <c r="D4" s="87" t="n"/>
+      <c r="E4" s="80" t="inlineStr">
+        <is>
+          <t>TOILET DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F4" s="88" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G4" s="67" t="n"/>
+      <c r="H4" s="89" t="n"/>
+      <c r="O4" s="67" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" s="68">
+      <c r="A5" s="90" t="inlineStr">
+        <is>
+          <t>FRA DEAD DATE:</t>
+        </is>
+      </c>
+      <c r="B5" s="91" t="n"/>
+      <c r="C5" s="92" t="inlineStr">
+        <is>
+          <t>07-29-2020</t>
+        </is>
+      </c>
+      <c r="D5" s="70" t="n"/>
+      <c r="E5" s="80" t="inlineStr">
+        <is>
+          <t>LUBE DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F5" s="88" t="n"/>
+      <c r="G5" s="67" t="n"/>
+      <c r="H5" s="89" t="n"/>
+      <c r="O5" s="67" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" s="68">
+      <c r="A6" s="80" t="inlineStr">
+        <is>
+          <t>MI DUE (month):</t>
+        </is>
+      </c>
+      <c r="C6" s="93" t="n"/>
+      <c r="D6" s="94" t="n"/>
+      <c r="E6" s="80" t="inlineStr">
+        <is>
+          <t>C/S DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F6" s="88" t="n"/>
+      <c r="H6" s="95" t="n"/>
+      <c r="K6" s="83" t="n"/>
+      <c r="L6" s="83" t="n"/>
+      <c r="M6" s="96" t="n"/>
+      <c r="N6" s="96" t="n"/>
+      <c r="O6" s="67" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" s="68">
+      <c r="A7" s="80" t="inlineStr">
+        <is>
+          <t>EPA DUE (year, M):</t>
+        </is>
+      </c>
+      <c r="C7" s="93" t="n"/>
+      <c r="D7" s="94" t="n"/>
+      <c r="E7" s="80" t="inlineStr">
+        <is>
+          <t>AF DUE (Y/N):</t>
+        </is>
+      </c>
+      <c r="F7" s="88" t="n"/>
+      <c r="H7" s="95" t="n"/>
+      <c r="I7" s="84" t="n"/>
+      <c r="K7" s="83" t="n"/>
+      <c r="L7" s="83" t="n"/>
+      <c r="M7" s="96" t="n"/>
+      <c r="N7" s="96" t="n"/>
+      <c r="O7" s="67" t="n"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" s="68">
+      <c r="A8" s="83" t="n"/>
+      <c r="B8" s="97" t="inlineStr">
+        <is>
+          <t>INBOUND TASKS (ADD WORKSHEET TASKS AS NEEDED)</t>
+        </is>
+      </c>
+      <c r="C8" s="98" t="n"/>
+      <c r="D8" s="98" t="n"/>
+      <c r="E8" s="67" t="n"/>
+      <c r="F8" s="67" t="n"/>
+      <c r="G8" s="67" t="n"/>
+      <c r="H8" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="J8" s="99" t="n"/>
+      <c r="K8" s="67" t="n"/>
+      <c r="L8" s="67" t="n"/>
+      <c r="M8" s="67" t="n"/>
+      <c r="N8" s="67" t="n"/>
+      <c r="O8" s="67" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" s="68">
+      <c r="A9" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="101" t="inlineStr">
+        <is>
+          <t>Check for and remove all non-compliance tags.  Note defects on ELF 023.</t>
+        </is>
+      </c>
+      <c r="C9" s="94" t="n"/>
+      <c r="D9" s="94" t="n"/>
+      <c r="E9" s="94" t="n"/>
+      <c r="F9" s="94" t="n"/>
+      <c r="G9" s="102" t="n"/>
+      <c r="H9" s="103" t="n"/>
+      <c r="J9" s="99" t="n"/>
+      <c r="K9" s="67" t="n"/>
+      <c r="L9" s="67" t="n"/>
+      <c r="M9" s="67" t="n"/>
+      <c r="N9" s="67" t="n"/>
+      <c r="O9" s="67" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" s="68">
+      <c r="A10" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="101" t="inlineStr">
+        <is>
+          <t>Download/Review Locomotive Fault log.  Add worksheet tasks as needed.</t>
+        </is>
+      </c>
+      <c r="C10" s="94" t="n"/>
+      <c r="D10" s="94" t="n"/>
+      <c r="E10" s="94" t="n"/>
+      <c r="F10" s="94" t="n"/>
+      <c r="G10" s="102" t="n"/>
+      <c r="H10" s="103" t="n"/>
+    </row>
+    <row r="11" ht="26.25" customHeight="1" s="68">
+      <c r="A11" s="100" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="104" t="inlineStr">
+        <is>
+          <t>Wait 15 minutes after download/sync for current info to display, then print chronology and SFA.  Attach printout to work packet.</t>
+        </is>
+      </c>
+      <c r="C11" s="94" t="n"/>
+      <c r="D11" s="94" t="n"/>
+      <c r="E11" s="94" t="n"/>
+      <c r="F11" s="94" t="n"/>
+      <c r="G11" s="102" t="n"/>
+      <c r="H11" s="105" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="68">
+      <c r="A12" s="100" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="101" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Electrical Inspections.</t>
+        </is>
+      </c>
+      <c r="C12" s="94" t="n"/>
+      <c r="D12" s="94" t="n"/>
+      <c r="E12" s="94" t="n"/>
+      <c r="F12" s="94" t="n"/>
+      <c r="G12" s="102" t="n"/>
+      <c r="H12" s="105" t="n"/>
+      <c r="K12" s="67" t="n"/>
+      <c r="L12" s="67" t="n"/>
+      <c r="M12" s="67" t="n"/>
+      <c r="N12" s="67" t="n"/>
+      <c r="O12" s="67" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" s="68">
+      <c r="A13" s="106" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="107" t="inlineStr">
+        <is>
+          <t>Perform PTC Departure test.</t>
+        </is>
+      </c>
+      <c r="C13" s="94" t="n"/>
+      <c r="D13" s="94" t="n"/>
+      <c r="E13" s="94" t="n"/>
+      <c r="F13" s="108" t="inlineStr">
+        <is>
+          <t>Pass / Fail</t>
+        </is>
+      </c>
+      <c r="G13" s="102" t="n"/>
+      <c r="H13" s="109" t="n"/>
+      <c r="Q13" s="67" t="n"/>
+      <c r="R13" s="67" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" s="68">
+      <c r="A14" s="110" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="111" t="inlineStr">
+        <is>
+          <t>Check PTCMon for PTC/EM Health.</t>
+        </is>
+      </c>
+      <c r="C14" s="112" t="n"/>
+      <c r="D14" s="112" t="n"/>
+      <c r="E14" s="113" t="inlineStr">
+        <is>
+          <t>PTC_____________   EM_______________</t>
+        </is>
+      </c>
+      <c r="F14" s="112" t="n"/>
+      <c r="G14" s="114" t="n"/>
+      <c r="H14" s="115" t="n"/>
+      <c r="K14" s="84" t="n"/>
+      <c r="Q14" s="67" t="n"/>
+      <c r="R14" s="67" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" s="68">
+      <c r="A15" s="116" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="117" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Mechanical Inspections.</t>
+        </is>
+      </c>
+      <c r="C15" s="118" t="n"/>
+      <c r="D15" s="118" t="n"/>
+      <c r="E15" s="118" t="n"/>
+      <c r="F15" s="118" t="n"/>
+      <c r="G15" s="119" t="n"/>
+      <c r="H15" s="120" t="n"/>
+      <c r="K15" s="84" t="n"/>
+      <c r="Q15" s="67" t="n"/>
+      <c r="R15" s="67" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" s="68">
+      <c r="A16" s="100" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="101" t="inlineStr">
+        <is>
+          <t>Add fluids as needed.</t>
+        </is>
+      </c>
+      <c r="C16" s="94" t="n"/>
+      <c r="D16" s="94" t="n"/>
+      <c r="E16" s="94" t="n"/>
+      <c r="F16" s="94" t="n"/>
+      <c r="G16" s="102" t="n"/>
+      <c r="H16" s="121" t="n"/>
+      <c r="Q16" s="67" t="n"/>
+      <c r="R16" s="67" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" s="68">
+      <c r="A17" s="110" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="122" t="inlineStr">
+        <is>
+          <t>Renew defective brake shoes and adjust piston travel as needed.</t>
+        </is>
+      </c>
+      <c r="C17" s="112" t="n"/>
+      <c r="D17" s="112" t="n"/>
+      <c r="E17" s="112" t="n"/>
+      <c r="F17" s="112" t="n"/>
+      <c r="G17" s="114" t="n"/>
+      <c r="H17" s="115" t="n"/>
+      <c r="I17" s="67" t="n"/>
+      <c r="K17" s="67" t="n"/>
+      <c r="L17" s="67" t="n"/>
+      <c r="M17" s="67" t="n"/>
+      <c r="N17" s="67" t="n"/>
+      <c r="O17" s="67" t="n"/>
+      <c r="Q17" s="67" t="n"/>
+      <c r="R17" s="67" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" s="68">
+      <c r="A18" s="116" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="117" t="inlineStr">
+        <is>
+          <t>Complete NSure Analysis Fireman &amp; Oiler Inspections.</t>
+        </is>
+      </c>
+      <c r="C18" s="118" t="n"/>
+      <c r="D18" s="118" t="n"/>
+      <c r="E18" s="118" t="n"/>
+      <c r="F18" s="118" t="n"/>
+      <c r="G18" s="119" t="n"/>
+      <c r="H18" s="120" t="n"/>
+      <c r="I18" s="67" t="n"/>
+      <c r="K18" s="67" t="n"/>
+      <c r="L18" s="67" t="n"/>
+      <c r="M18" s="67" t="n"/>
+      <c r="N18" s="67" t="n"/>
+      <c r="O18" s="67" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" s="68">
+      <c r="A19" s="100" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" s="117" t="inlineStr">
+        <is>
+          <t>Fuel Locomotive as needed.                         Gallons added _________________</t>
+        </is>
+      </c>
+      <c r="C19" s="118" t="n"/>
+      <c r="D19" s="118" t="n"/>
+      <c r="E19" s="118" t="n"/>
+      <c r="F19" s="118" t="n"/>
+      <c r="G19" s="119" t="n"/>
+      <c r="H19" s="121" t="n"/>
+      <c r="I19" s="67" t="n"/>
+      <c r="K19" s="67" t="n"/>
+      <c r="L19" s="67" t="n"/>
+      <c r="M19" s="67" t="n"/>
+      <c r="N19" s="67" t="n"/>
+      <c r="O19" s="67" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" s="68">
+      <c r="A20" s="100" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" s="104" t="inlineStr">
+        <is>
+          <t>Add Sand to locomotive sandboxes as needed.</t>
+        </is>
+      </c>
+      <c r="C20" s="94" t="n"/>
+      <c r="D20" s="94" t="n"/>
+      <c r="E20" s="94" t="n"/>
+      <c r="F20" s="94" t="n"/>
+      <c r="G20" s="102" t="n"/>
+      <c r="H20" s="121" t="n"/>
+      <c r="I20" s="67" t="n"/>
+      <c r="K20" s="67" t="n"/>
+      <c r="L20" s="67" t="n"/>
+      <c r="M20" s="67" t="n"/>
+      <c r="N20" s="67" t="n"/>
+      <c r="O20" s="67" t="n"/>
+    </row>
+    <row r="21" ht="26.25" customHeight="1" s="68">
+      <c r="A21" s="100" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" s="104" t="inlineStr">
+        <is>
+          <t>Remove trash and hazardous debris from running boards, cab &amp; toilet room.</t>
+        </is>
+      </c>
+      <c r="C21" s="94" t="n"/>
+      <c r="D21" s="94" t="n"/>
+      <c r="E21" s="94" t="n"/>
+      <c r="F21" s="94" t="n"/>
+      <c r="G21" s="102" t="n"/>
+      <c r="H21" s="121" t="n"/>
+      <c r="I21" s="67" t="n"/>
+      <c r="K21" s="67" t="n"/>
+      <c r="L21" s="67" t="n"/>
+      <c r="M21" s="67" t="n"/>
+      <c r="N21" s="67" t="n"/>
+      <c r="O21" s="67" t="n"/>
+    </row>
+    <row r="22" ht="19.5" customHeight="1" s="68">
+      <c r="B22" s="123" t="inlineStr">
+        <is>
+          <t>WORK ORDERS / DEFECTS</t>
+        </is>
+      </c>
+      <c r="C22" s="94" t="n"/>
+      <c r="D22" s="94" t="n"/>
+      <c r="E22" s="124" t="inlineStr">
+        <is>
+          <t>REPAIRS / MATERIAL</t>
+        </is>
+      </c>
+      <c r="F22" s="94" t="n"/>
+      <c r="G22" s="94" t="n"/>
+      <c r="H22" s="76" t="inlineStr">
+        <is>
+          <t>COMPLETED BY</t>
+        </is>
+      </c>
+      <c r="I22" s="67" t="n"/>
+      <c r="J22" s="125" t="n"/>
+      <c r="L22" s="67" t="n"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1" s="68">
+      <c r="A23" s="126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="127" t="inlineStr">
+        <is>
+          <t>LCW</t>
+        </is>
+      </c>
+      <c r="C23" s="128" t="n"/>
+      <c r="D23" s="129" t="n"/>
+      <c r="E23" s="121" t="n"/>
+      <c r="F23" s="128" t="n"/>
+      <c r="G23" s="129" t="n"/>
+      <c r="H23" s="121" t="n"/>
+      <c r="I23" s="67" t="n"/>
+      <c r="J23" s="67" t="n"/>
+      <c r="K23" s="67" t="n"/>
+      <c r="L23" s="67" t="n"/>
+    </row>
+    <row r="24" ht="19.5" customHeight="1" s="68">
+      <c r="A24" s="130" t="n"/>
+      <c r="B24" s="131" t="inlineStr">
+        <is>
+          <t>Radiator leak</t>
         </is>
       </c>
       <c r="D24" s="132" t="n"/>
